--- a/slim_gsgp/median_results.xlsx
+++ b/slim_gsgp/median_results.xlsx
@@ -45,7 +45,7 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="135">
+  <fills count="148">
     <fill>
       <patternFill/>
     </fill>
@@ -84,6 +84,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FF9A9A"/>
+        <bgColor rgb="00FF9A9A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00B5F3B5"/>
         <bgColor rgb="00B5F3B5"/>
       </patternFill>
@@ -144,6 +150,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00B0F2B0"/>
+        <bgColor rgb="00B0F2B0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00AAF2AA"/>
         <bgColor rgb="00AAF2AA"/>
       </patternFill>
@@ -174,6 +186,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00ABF2AB"/>
+        <bgColor rgb="00ABF2AB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00ACF2AC"/>
         <bgColor rgb="00ACF2AC"/>
       </patternFill>
@@ -186,18 +204,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ABF2AB"/>
-        <bgColor rgb="00ABF2AB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B0F2B0"/>
-        <bgColor rgb="00B0F2B0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00AEF2AE"/>
         <bgColor rgb="00AEF2AE"/>
       </patternFill>
@@ -216,24 +222,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00B3F3B3"/>
+        <bgColor rgb="00B3F3B3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="009AEF9A"/>
         <bgColor rgb="009AEF9A"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="009EF09E"/>
+        <bgColor rgb="009EF09E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FFD8D8"/>
         <bgColor rgb="00FFD8D8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FFD4D4"/>
+        <bgColor rgb="00FFD4D4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00C8F6C8"/>
         <bgColor rgb="00C8F6C8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00C1F5C1"/>
+        <bgColor rgb="00C1F5C1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00BCF4BC"/>
         <bgColor rgb="00BCF4BC"/>
       </patternFill>
@@ -246,14 +276,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00BEF5BE"/>
+        <bgColor rgb="00BEF5BE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00DFFADF"/>
         <bgColor rgb="00DFFADF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C1F5C1"/>
-        <bgColor rgb="00C1F5C1"/>
+        <fgColor rgb="00DEFADE"/>
+        <bgColor rgb="00DEFADE"/>
       </patternFill>
     </fill>
     <fill>
@@ -270,6 +306,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00D7F9D7"/>
+        <bgColor rgb="00D7F9D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00D2F8D2"/>
         <bgColor rgb="00D2F8D2"/>
       </patternFill>
@@ -282,12 +324,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00D4F8D4"/>
+        <bgColor rgb="00D4F8D4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00E6FBE6"/>
         <bgColor rgb="00E6FBE6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00E1FAE1"/>
+        <bgColor rgb="00E1FAE1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00D3F8D3"/>
         <bgColor rgb="00D3F8D3"/>
       </patternFill>
@@ -300,6 +354,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00E3FAE3"/>
+        <bgColor rgb="00E3FAE3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00CFF7CF"/>
         <bgColor rgb="00CFF7CF"/>
       </patternFill>
@@ -312,32 +372,44 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00D7F8D7"/>
+        <bgColor rgb="00D7F8D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FFA4A4"/>
         <bgColor rgb="00FFA4A4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D4F8D4"/>
-        <bgColor rgb="00D4F8D4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00E5FBE5"/>
         <bgColor rgb="00E5FBE5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00E0FAE0"/>
+        <bgColor rgb="00E0FAE0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="0091EE91"/>
         <bgColor rgb="0091EE91"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFD4D4"/>
-        <bgColor rgb="00FFD4D4"/>
+        <fgColor rgb="00A0F0A0"/>
+        <bgColor rgb="00A0F0A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFC9C9"/>
+        <bgColor rgb="00FFC9C9"/>
       </patternFill>
     </fill>
     <fill>
@@ -360,6 +432,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FFF9F9"/>
+        <bgColor rgb="00FFF9F9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FFA7A7"/>
         <bgColor rgb="00FFA7A7"/>
       </patternFill>
@@ -384,12 +462,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FF7E7E"/>
+        <bgColor rgb="00FF7E7E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FFF6F6"/>
         <bgColor rgb="00FFF6F6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FEFEFE"/>
         <bgColor rgb="00FEFEFE"/>
       </patternFill>
@@ -414,8 +504,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
-        <bgColor rgb="00FFFFFF"/>
+        <fgColor rgb="00FFFDFD"/>
+        <bgColor rgb="00FFFDFD"/>
       </patternFill>
     </fill>
     <fill>
@@ -432,8 +522,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFDFD"/>
-        <bgColor rgb="00FFFDFD"/>
+        <fgColor rgb="00FFFBFB"/>
+        <bgColor rgb="00FFFBFB"/>
       </patternFill>
     </fill>
     <fill>
@@ -444,6 +534,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00EFFCEF"/>
+        <bgColor rgb="00EFFCEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00EDFCED"/>
         <bgColor rgb="00EDFCED"/>
       </patternFill>
@@ -456,8 +552,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EFFCEF"/>
-        <bgColor rgb="00EFFCEF"/>
+        <fgColor rgb="00EAFBEA"/>
+        <bgColor rgb="00EAFBEA"/>
       </patternFill>
     </fill>
     <fill>
@@ -468,6 +564,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00F0FCF0"/>
+        <bgColor rgb="00F0FCF0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00EEFCEE"/>
         <bgColor rgb="00EEFCEE"/>
       </patternFill>
@@ -480,8 +582,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F0FCF0"/>
-        <bgColor rgb="00F0FCF0"/>
+        <fgColor rgb="00F6FDF6"/>
+        <bgColor rgb="00F6FDF6"/>
       </patternFill>
     </fill>
     <fill>
@@ -498,8 +600,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DEFADE"/>
-        <bgColor rgb="00DEFADE"/>
+        <fgColor rgb="00F8FDF8"/>
+        <bgColor rgb="00F8FDF8"/>
       </patternFill>
     </fill>
     <fill>
@@ -516,18 +618,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FFC2C2"/>
+        <bgColor rgb="00FFC2C2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00DAF9DA"/>
         <bgColor rgb="00DAF9DA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E1FAE1"/>
-        <bgColor rgb="00E1FAE1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00DDF9DD"/>
         <bgColor rgb="00DDF9DD"/>
       </patternFill>
@@ -546,24 +648,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E0FAE0"/>
-        <bgColor rgb="00E0FAE0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00CEF7CE"/>
         <bgColor rgb="00CEF7CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00CDF7CD"/>
+        <bgColor rgb="00CDF7CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FFE7E7"/>
         <bgColor rgb="00FFE7E7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FFE3E3"/>
+        <bgColor rgb="00FFE3E3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CCF7CC"/>
+        <bgColor rgb="00CCF7CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00DCF9DC"/>
         <bgColor rgb="00DCF9DC"/>
       </patternFill>
@@ -588,14 +702,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00B0F3B0"/>
+        <bgColor rgb="00B0F3B0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00CBF7CB"/>
         <bgColor rgb="00CBF7CB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCF7CC"/>
-        <bgColor rgb="00CCF7CC"/>
+        <fgColor rgb="0097EF97"/>
+        <bgColor rgb="0097EF97"/>
       </patternFill>
     </fill>
     <fill>
@@ -606,14 +726,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0097EF97"/>
-        <bgColor rgb="0097EF97"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFE3E3"/>
-        <bgColor rgb="00FFE3E3"/>
+        <fgColor rgb="00F2FDF2"/>
+        <bgColor rgb="00F2FDF2"/>
       </patternFill>
     </fill>
     <fill>
@@ -648,12 +762,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F2FDF2"/>
-        <bgColor rgb="00F2FDF2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00B2F3B2"/>
         <bgColor rgb="00B2F3B2"/>
       </patternFill>
@@ -690,26 +798,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BEF5BE"/>
-        <bgColor rgb="00BEF5BE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFC9C9"/>
-        <bgColor rgb="00FFC9C9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00FFD2D2"/>
         <bgColor rgb="00FFD2D2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EAFBEA"/>
-        <bgColor rgb="00EAFBEA"/>
+        <fgColor rgb="00C9F6C9"/>
+        <bgColor rgb="00C9F6C9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F9FEF9"/>
+        <bgColor rgb="00F9FEF9"/>
       </patternFill>
     </fill>
     <fill>
@@ -726,36 +828,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F6FDF6"/>
-        <bgColor rgb="00F6FDF6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00E4FBE4"/>
         <bgColor rgb="00E4FBE4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D7F9D7"/>
-        <bgColor rgb="00D7F9D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00F1FDF1"/>
         <bgColor rgb="00F1FDF1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00A3F0A3"/>
+        <bgColor rgb="00A3F0A3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00D0F7D0"/>
         <bgColor rgb="00D0F7D0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00E7FBE7"/>
+        <bgColor rgb="00E7FBE7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00C0F5C0"/>
         <bgColor rgb="00C0F5C0"/>
       </patternFill>
@@ -780,12 +882,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="009EF09E"/>
-        <bgColor rgb="009EF09E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00FFB6B6"/>
         <bgColor rgb="00FFB6B6"/>
       </patternFill>
@@ -798,12 +894,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFC2C2"/>
-        <bgColor rgb="00FFC2C2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00BAF4BA"/>
         <bgColor rgb="00BAF4BA"/>
       </patternFill>
@@ -816,30 +906,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F9FEF9"/>
-        <bgColor rgb="00F9FEF9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E3FAE3"/>
-        <bgColor rgb="00E3FAE3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="0095EE95"/>
         <bgColor rgb="0095EE95"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00A0F0A0"/>
-        <bgColor rgb="00A0F0A0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00FFE8E8"/>
         <bgColor rgb="00FFE8E8"/>
       </patternFill>
@@ -848,6 +920,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00B7F4B7"/>
         <bgColor rgb="00B7F4B7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0093EE93"/>
+        <bgColor rgb="0093EE93"/>
       </patternFill>
     </fill>
   </fills>
@@ -869,7 +947,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1151,244 +1229,334 @@
     <xf numFmtId="164" fontId="0" fillId="92" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="93" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="94" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="95" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="96" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="97" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="98" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="99" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="100" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="101" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="102" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="103" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="104" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="105" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="106" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="107" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="108" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="109" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="110" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="111" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="112" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="93" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="0" fillId="113" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="114" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="105" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="43" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="81" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="53" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="94" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="20" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="112" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="104" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="79" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="115" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="87" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="83" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="100" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="116" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="41" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="117" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="91" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="85" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="118" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="88" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="119" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="62" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="75" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="90" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="57" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="120" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="121" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="122" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="123" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="124" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="125" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="24" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="39" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="61" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="126" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="98" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="127" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="86" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="128" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="28" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="129" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="130" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="65" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="131" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="44" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="54" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="97" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="51" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="58" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="67" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="48" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="132" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="42" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="23" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="133" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="92" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="66" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="43" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="18" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="94" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="95" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="0" fillId="82" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="47" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="35" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="99" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="134" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="135" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="136" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="137" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="46" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="89" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="138" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="64" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="139" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="106" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="32" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="21" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="140" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="96" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="73" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="67" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="97" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="83" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="98" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="74" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="99" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="71" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="100" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="50" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="0" fillId="141" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="142" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="143" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="52" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="144" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="60" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="101" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="47" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="102" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="103" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="104" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="105" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="106" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="107" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="24" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="108" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="109" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="110" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="111" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="81" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="70" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="27" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="112" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="113" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="114" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="115" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="44" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="116" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="42" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="54" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="40" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="76" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="117" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="36" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="21" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="75" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="46" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="31" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="69" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="118" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="119" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="120" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="72" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="121" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="52" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="122" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="87" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="123" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="19" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="124" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="125" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="126" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="127" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="128" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="129" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="39" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="130" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="131" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="132" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="84" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="133" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="134" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="0" fillId="145" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="146" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="147" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1756,7 +1924,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:M118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1773,6 +1941,10 @@
     <col width="15" customWidth="1" min="7" max="7"/>
     <col width="15" customWidth="1" min="8" max="8"/>
     <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="12" max="12"/>
+    <col width="15" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1789,30 +1961,50 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>VARIANT 1b</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>VARIANT 2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>VARIANT 3</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>VARIANT 3b</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>VARIANT 4</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>VARIANT 4b</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>VARIANT 5</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>VARIANT 6</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>VARIANT 6b</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>VARIANT 7</t>
         </is>
@@ -1832,6 +2024,10 @@
       <c r="G2" s="3" t="n"/>
       <c r="H2" s="3" t="n"/>
       <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="n"/>
+      <c r="K2" s="3" t="n"/>
+      <c r="L2" s="3" t="n"/>
+      <c r="M2" s="3" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
@@ -1847,6 +2043,10 @@
       <c r="G3" s="3" t="n"/>
       <c r="H3" s="3" t="n"/>
       <c r="I3" s="3" t="n"/>
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="n"/>
+      <c r="L3" s="3" t="n"/>
+      <c r="M3" s="3" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="5" t="inlineStr">
@@ -1861,21 +2061,33 @@
         <v>6.81853</v>
       </c>
       <c r="D4" s="7" t="n">
+        <v>6.53892</v>
+      </c>
+      <c r="E4" s="7" t="n">
         <v>5.57669</v>
       </c>
-      <c r="E4" s="7" t="n">
+      <c r="F4" s="7" t="n">
         <v>5.30838</v>
       </c>
-      <c r="F4" s="8" t="n">
-        <v>66.54095</v>
-      </c>
       <c r="G4" s="7" t="n">
-        <v>5.60731</v>
+        <v>5.3279</v>
       </c>
       <c r="H4" s="8" t="n">
         <v>66.54095</v>
       </c>
-      <c r="I4" s="7" t="n">
+      <c r="I4" s="9" t="n">
+        <v>68.41387</v>
+      </c>
+      <c r="J4" s="7" t="n">
+        <v>5.60731</v>
+      </c>
+      <c r="K4" s="8" t="n">
+        <v>66.54095</v>
+      </c>
+      <c r="L4" s="9" t="n">
+        <v>68.41387</v>
+      </c>
+      <c r="M4" s="7" t="n">
         <v>5.60731</v>
       </c>
     </row>
@@ -1892,21 +2104,33 @@
         <v>5.2768</v>
       </c>
       <c r="D5" s="7" t="n">
+        <v>5.27807</v>
+      </c>
+      <c r="E5" s="7" t="n">
         <v>5.56285</v>
       </c>
-      <c r="E5" s="7" t="n">
+      <c r="F5" s="7" t="n">
         <v>5.03688</v>
       </c>
-      <c r="F5" s="7" t="n">
-        <v>10.16575</v>
-      </c>
       <c r="G5" s="7" t="n">
-        <v>5.58863</v>
+        <v>5.10387</v>
       </c>
       <c r="H5" s="7" t="n">
         <v>10.16575</v>
       </c>
       <c r="I5" s="7" t="n">
+        <v>12.94713</v>
+      </c>
+      <c r="J5" s="7" t="n">
+        <v>5.58863</v>
+      </c>
+      <c r="K5" s="7" t="n">
+        <v>10.16575</v>
+      </c>
+      <c r="L5" s="7" t="n">
+        <v>11.83031</v>
+      </c>
+      <c r="M5" s="7" t="n">
         <v>5.58662</v>
       </c>
     </row>
@@ -1923,21 +2147,33 @@
         <v>4.84492</v>
       </c>
       <c r="D6" s="7" t="n">
+        <v>4.95316</v>
+      </c>
+      <c r="E6" s="7" t="n">
         <v>5.55251</v>
       </c>
-      <c r="E6" s="7" t="n">
+      <c r="F6" s="7" t="n">
         <v>4.88101</v>
       </c>
-      <c r="F6" s="7" t="n">
-        <v>5.26271</v>
-      </c>
       <c r="G6" s="7" t="n">
-        <v>5.5693</v>
+        <v>4.99834</v>
       </c>
       <c r="H6" s="7" t="n">
         <v>5.26271</v>
       </c>
       <c r="I6" s="7" t="n">
+        <v>5.19566</v>
+      </c>
+      <c r="J6" s="7" t="n">
+        <v>5.5693</v>
+      </c>
+      <c r="K6" s="7" t="n">
+        <v>5.26271</v>
+      </c>
+      <c r="L6" s="7" t="n">
+        <v>5.19566</v>
+      </c>
+      <c r="M6" s="7" t="n">
         <v>5.56366</v>
       </c>
     </row>
@@ -1955,6 +2191,10 @@
       <c r="G7" s="3" t="n"/>
       <c r="H7" s="3" t="n"/>
       <c r="I7" s="3" t="n"/>
+      <c r="J7" s="3" t="n"/>
+      <c r="K7" s="3" t="n"/>
+      <c r="L7" s="3" t="n"/>
+      <c r="M7" s="3" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
@@ -1965,25 +2205,37 @@
       <c r="B8" s="6" t="n">
         <v>1079.93854</v>
       </c>
-      <c r="C8" s="9" t="n">
+      <c r="C8" s="10" t="n">
         <v>720.95236</v>
       </c>
       <c r="D8" s="10" t="n">
+        <v>720.95236</v>
+      </c>
+      <c r="E8" s="11" t="n">
         <v>585.13028</v>
       </c>
-      <c r="E8" s="7" t="n">
+      <c r="F8" s="7" t="n">
         <v>400.62356</v>
       </c>
-      <c r="F8" s="11" t="n">
+      <c r="G8" s="7" t="n">
+        <v>417.85297</v>
+      </c>
+      <c r="H8" s="12" t="n">
         <v>1083.82989</v>
       </c>
-      <c r="G8" s="10" t="n">
+      <c r="I8" s="12" t="n">
+        <v>1083.82989</v>
+      </c>
+      <c r="J8" s="11" t="n">
         <v>587.71896</v>
       </c>
-      <c r="H8" s="11" t="n">
+      <c r="K8" s="12" t="n">
         <v>1083.82989</v>
       </c>
-      <c r="I8" s="10" t="n">
+      <c r="L8" s="12" t="n">
+        <v>1083.82989</v>
+      </c>
+      <c r="M8" s="11" t="n">
         <v>587.71896</v>
       </c>
     </row>
@@ -1996,25 +2248,37 @@
       <c r="B9" s="6" t="n">
         <v>1078.67029</v>
       </c>
-      <c r="C9" s="12" t="n">
+      <c r="C9" s="13" t="n">
         <v>638.93103</v>
       </c>
-      <c r="D9" s="10" t="n">
+      <c r="D9" s="13" t="n">
+        <v>638.93103</v>
+      </c>
+      <c r="E9" s="11" t="n">
         <v>583.23545</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="F9" s="7" t="n">
         <v>378.6277</v>
       </c>
-      <c r="F9" s="13" t="n">
+      <c r="G9" s="7" t="n">
+        <v>382.5485</v>
+      </c>
+      <c r="H9" s="14" t="n">
         <v>807.65723</v>
       </c>
-      <c r="G9" s="10" t="n">
+      <c r="I9" s="14" t="n">
+        <v>807.65723</v>
+      </c>
+      <c r="J9" s="11" t="n">
         <v>585.66845</v>
       </c>
-      <c r="H9" s="14" t="n">
+      <c r="K9" s="15" t="n">
         <v>799.11456</v>
       </c>
-      <c r="I9" s="10" t="n">
+      <c r="L9" s="15" t="n">
+        <v>799.11456</v>
+      </c>
+      <c r="M9" s="11" t="n">
         <v>583.8019399999999</v>
       </c>
     </row>
@@ -2027,25 +2291,37 @@
       <c r="B10" s="6" t="n">
         <v>1077.87536</v>
       </c>
-      <c r="C10" s="15" t="n">
+      <c r="C10" s="16" t="n">
         <v>615.82516</v>
       </c>
       <c r="D10" s="16" t="n">
+        <v>615.82516</v>
+      </c>
+      <c r="E10" s="17" t="n">
         <v>582.47226</v>
       </c>
-      <c r="E10" s="7" t="n">
+      <c r="F10" s="7" t="n">
         <v>369.81244</v>
       </c>
-      <c r="F10" s="17" t="n">
+      <c r="G10" s="7" t="n">
+        <v>365.57486</v>
+      </c>
+      <c r="H10" s="18" t="n">
         <v>622.65265</v>
       </c>
-      <c r="G10" s="10" t="n">
+      <c r="I10" s="18" t="n">
+        <v>622.65265</v>
+      </c>
+      <c r="J10" s="11" t="n">
         <v>583.89368</v>
       </c>
-      <c r="H10" s="17" t="n">
+      <c r="K10" s="18" t="n">
         <v>622.65265</v>
       </c>
-      <c r="I10" s="16" t="n">
+      <c r="L10" s="18" t="n">
+        <v>622.65265</v>
+      </c>
+      <c r="M10" s="17" t="n">
         <v>582.59683</v>
       </c>
     </row>
@@ -2063,6 +2339,10 @@
       <c r="G11" s="3" t="n"/>
       <c r="H11" s="3" t="n"/>
       <c r="I11" s="3" t="n"/>
+      <c r="J11" s="3" t="n"/>
+      <c r="K11" s="3" t="n"/>
+      <c r="L11" s="3" t="n"/>
+      <c r="M11" s="3" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="5" t="inlineStr">
@@ -2073,25 +2353,37 @@
       <c r="B12" s="6" t="n">
         <v>48.75194</v>
       </c>
-      <c r="C12" s="18" t="n">
+      <c r="C12" s="19" t="n">
         <v>31.66343</v>
       </c>
-      <c r="D12" s="19" t="n">
+      <c r="D12" s="20" t="n">
+        <v>31.47191</v>
+      </c>
+      <c r="E12" s="21" t="n">
         <v>30.26415</v>
       </c>
-      <c r="E12" s="20" t="n">
+      <c r="F12" s="22" t="n">
         <v>30.00599</v>
       </c>
-      <c r="F12" s="21" t="n">
+      <c r="G12" s="21" t="n">
+        <v>30.11256</v>
+      </c>
+      <c r="H12" s="23" t="n">
         <v>52.84061</v>
       </c>
-      <c r="G12" s="22" t="n">
+      <c r="I12" s="23" t="n">
+        <v>52.84061</v>
+      </c>
+      <c r="J12" s="24" t="n">
         <v>29.62381</v>
       </c>
-      <c r="H12" s="21" t="n">
+      <c r="K12" s="23" t="n">
         <v>52.84061</v>
       </c>
-      <c r="I12" s="22" t="n">
+      <c r="L12" s="23" t="n">
+        <v>52.84061</v>
+      </c>
+      <c r="M12" s="24" t="n">
         <v>29.62383</v>
       </c>
     </row>
@@ -2104,25 +2396,37 @@
       <c r="B13" s="6" t="n">
         <v>48.06084</v>
       </c>
-      <c r="C13" s="23" t="n">
+      <c r="C13" s="25" t="n">
         <v>29.38904</v>
       </c>
-      <c r="D13" s="24" t="n">
+      <c r="D13" s="26" t="n">
+        <v>29.95866</v>
+      </c>
+      <c r="E13" s="27" t="n">
         <v>30.20508</v>
       </c>
-      <c r="E13" s="19" t="n">
+      <c r="F13" s="21" t="n">
         <v>29.83667</v>
       </c>
-      <c r="F13" s="25" t="n">
+      <c r="G13" s="27" t="n">
+        <v>30.13128</v>
+      </c>
+      <c r="H13" s="28" t="n">
         <v>30.34767</v>
       </c>
-      <c r="G13" s="26" t="n">
+      <c r="I13" s="28" t="n">
+        <v>30.50054</v>
+      </c>
+      <c r="J13" s="26" t="n">
         <v>30.01577</v>
       </c>
-      <c r="H13" s="25" t="n">
+      <c r="K13" s="28" t="n">
         <v>30.34767</v>
       </c>
-      <c r="I13" s="19" t="n">
+      <c r="L13" s="28" t="n">
+        <v>30.50054</v>
+      </c>
+      <c r="M13" s="21" t="n">
         <v>29.85764</v>
       </c>
     </row>
@@ -2135,25 +2439,37 @@
       <c r="B14" s="6" t="n">
         <v>47.24595</v>
       </c>
-      <c r="C14" s="24" t="n">
+      <c r="C14" s="27" t="n">
         <v>29.77508</v>
       </c>
       <c r="D14" s="27" t="n">
+        <v>29.75474</v>
+      </c>
+      <c r="E14" s="20" t="n">
         <v>30.43679</v>
       </c>
-      <c r="E14" s="28" t="n">
+      <c r="F14" s="29" t="n">
         <v>30.12746</v>
       </c>
-      <c r="F14" s="26" t="n">
-        <v>29.38319</v>
-      </c>
-      <c r="G14" s="27" t="n">
-        <v>30.47903</v>
+      <c r="G14" s="29" t="n">
+        <v>30.11693</v>
       </c>
       <c r="H14" s="26" t="n">
         <v>29.38319</v>
       </c>
-      <c r="I14" s="29" t="n">
+      <c r="I14" s="27" t="n">
+        <v>29.6119</v>
+      </c>
+      <c r="J14" s="20" t="n">
+        <v>30.47903</v>
+      </c>
+      <c r="K14" s="26" t="n">
+        <v>29.38319</v>
+      </c>
+      <c r="L14" s="27" t="n">
+        <v>29.6119</v>
+      </c>
+      <c r="M14" s="30" t="n">
         <v>30.32424</v>
       </c>
     </row>
@@ -2171,6 +2487,10 @@
       <c r="G15" s="3" t="n"/>
       <c r="H15" s="3" t="n"/>
       <c r="I15" s="3" t="n"/>
+      <c r="J15" s="3" t="n"/>
+      <c r="K15" s="3" t="n"/>
+      <c r="L15" s="3" t="n"/>
+      <c r="M15" s="3" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="inlineStr">
@@ -2181,25 +2501,37 @@
       <c r="B16" s="6" t="n">
         <v>0.47504</v>
       </c>
-      <c r="C16" s="30" t="n">
+      <c r="C16" s="31" t="n">
         <v>0.32472</v>
       </c>
-      <c r="D16" s="31" t="n">
+      <c r="D16" s="32" t="n">
+        <v>0.31439</v>
+      </c>
+      <c r="E16" s="33" t="n">
         <v>0.25926</v>
       </c>
-      <c r="E16" s="15" t="n">
+      <c r="F16" s="16" t="n">
         <v>0.27128</v>
       </c>
-      <c r="F16" s="32" t="n">
+      <c r="G16" s="34" t="n">
+        <v>0.26895</v>
+      </c>
+      <c r="H16" s="35" t="n">
         <v>0.5278</v>
       </c>
-      <c r="G16" s="26" t="n">
+      <c r="I16" s="36" t="n">
+        <v>0.53347</v>
+      </c>
+      <c r="J16" s="26" t="n">
         <v>0.29659</v>
       </c>
-      <c r="H16" s="32" t="n">
+      <c r="K16" s="35" t="n">
         <v>0.5278</v>
       </c>
-      <c r="I16" s="19" t="n">
+      <c r="L16" s="36" t="n">
+        <v>0.53347</v>
+      </c>
+      <c r="M16" s="21" t="n">
         <v>0.29458</v>
       </c>
     </row>
@@ -2212,25 +2544,37 @@
       <c r="B17" s="6" t="n">
         <v>0.36265</v>
       </c>
-      <c r="C17" s="33" t="n">
+      <c r="C17" s="37" t="n">
         <v>0.27423</v>
       </c>
-      <c r="D17" s="34" t="n">
+      <c r="D17" s="38" t="n">
+        <v>0.2617</v>
+      </c>
+      <c r="E17" s="39" t="n">
         <v>0.25352</v>
       </c>
-      <c r="E17" s="35" t="n">
+      <c r="F17" s="40" t="n">
         <v>0.25598</v>
       </c>
-      <c r="F17" s="36" t="n">
+      <c r="G17" s="41" t="n">
+        <v>0.25769</v>
+      </c>
+      <c r="H17" s="42" t="n">
         <v>0.31139</v>
       </c>
-      <c r="G17" s="37" t="n">
+      <c r="I17" s="43" t="n">
+        <v>0.30985</v>
+      </c>
+      <c r="J17" s="38" t="n">
         <v>0.26282</v>
       </c>
-      <c r="H17" s="36" t="n">
+      <c r="K17" s="42" t="n">
         <v>0.31139</v>
       </c>
-      <c r="I17" s="38" t="n">
+      <c r="L17" s="43" t="n">
+        <v>0.30985</v>
+      </c>
+      <c r="M17" s="44" t="n">
         <v>0.26699</v>
       </c>
     </row>
@@ -2243,25 +2587,37 @@
       <c r="B18" s="6" t="n">
         <v>0.31218</v>
       </c>
-      <c r="C18" s="39" t="n">
+      <c r="C18" s="45" t="n">
         <v>0.25747</v>
       </c>
-      <c r="D18" s="40" t="n">
+      <c r="D18" s="46" t="n">
+        <v>0.25715</v>
+      </c>
+      <c r="E18" s="47" t="n">
         <v>0.24924</v>
       </c>
-      <c r="E18" s="41" t="n">
+      <c r="F18" s="48" t="n">
         <v>0.25453</v>
       </c>
-      <c r="F18" s="42" t="n">
+      <c r="G18" s="49" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="H18" s="50" t="n">
         <v>0.27813</v>
       </c>
-      <c r="G18" s="43" t="n">
+      <c r="I18" s="51" t="n">
+        <v>0.27092</v>
+      </c>
+      <c r="J18" s="52" t="n">
         <v>0.25138</v>
       </c>
-      <c r="H18" s="42" t="n">
+      <c r="K18" s="50" t="n">
         <v>0.27813</v>
       </c>
-      <c r="I18" s="44" t="n">
+      <c r="L18" s="51" t="n">
+        <v>0.27092</v>
+      </c>
+      <c r="M18" s="53" t="n">
         <v>0.25406</v>
       </c>
     </row>
@@ -2279,6 +2635,10 @@
       <c r="G19" s="3" t="n"/>
       <c r="H19" s="3" t="n"/>
       <c r="I19" s="3" t="n"/>
+      <c r="J19" s="3" t="n"/>
+      <c r="K19" s="3" t="n"/>
+      <c r="L19" s="3" t="n"/>
+      <c r="M19" s="3" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="5" t="inlineStr">
@@ -2289,25 +2649,37 @@
       <c r="B20" s="6" t="n">
         <v>10.0571</v>
       </c>
-      <c r="C20" s="36" t="n">
+      <c r="C20" s="42" t="n">
         <v>8.65202</v>
       </c>
-      <c r="D20" s="45" t="n">
+      <c r="D20" s="54" t="n">
+        <v>8.821210000000001</v>
+      </c>
+      <c r="E20" s="55" t="n">
         <v>7.91982</v>
       </c>
-      <c r="E20" s="46" t="n">
+      <c r="F20" s="56" t="n">
         <v>8.012309999999999</v>
       </c>
-      <c r="F20" s="47" t="n">
+      <c r="G20" s="57" t="n">
+        <v>8.25061</v>
+      </c>
+      <c r="H20" s="58" t="n">
         <v>12.62539</v>
       </c>
-      <c r="G20" s="46" t="n">
+      <c r="I20" s="58" t="n">
+        <v>12.62539</v>
+      </c>
+      <c r="J20" s="56" t="n">
         <v>7.99512</v>
       </c>
-      <c r="H20" s="47" t="n">
+      <c r="K20" s="58" t="n">
         <v>12.62539</v>
       </c>
-      <c r="I20" s="46" t="n">
+      <c r="L20" s="58" t="n">
+        <v>12.62539</v>
+      </c>
+      <c r="M20" s="56" t="n">
         <v>7.99512</v>
       </c>
     </row>
@@ -2320,25 +2692,37 @@
       <c r="B21" s="6" t="n">
         <v>9.805490000000001</v>
       </c>
-      <c r="C21" s="48" t="n">
+      <c r="C21" s="49" t="n">
         <v>7.92593</v>
       </c>
-      <c r="D21" s="45" t="n">
+      <c r="D21" s="48" t="n">
+        <v>8.019830000000001</v>
+      </c>
+      <c r="E21" s="55" t="n">
         <v>7.71155</v>
       </c>
-      <c r="E21" s="44" t="n">
+      <c r="F21" s="53" t="n">
         <v>7.95777</v>
       </c>
-      <c r="F21" s="49" t="n">
+      <c r="G21" s="45" t="n">
+        <v>8.111610000000001</v>
+      </c>
+      <c r="H21" s="59" t="n">
         <v>8.67587</v>
       </c>
-      <c r="G21" s="46" t="n">
+      <c r="I21" s="60" t="n">
+        <v>8.43774</v>
+      </c>
+      <c r="J21" s="56" t="n">
         <v>7.81318</v>
       </c>
-      <c r="H21" s="42" t="n">
+      <c r="K21" s="50" t="n">
         <v>8.71387</v>
       </c>
-      <c r="I21" s="43" t="n">
+      <c r="L21" s="60" t="n">
+        <v>8.43774</v>
+      </c>
+      <c r="M21" s="52" t="n">
         <v>7.89753</v>
       </c>
     </row>
@@ -2351,25 +2735,37 @@
       <c r="B22" s="6" t="n">
         <v>9.61974</v>
       </c>
-      <c r="C22" s="40" t="n">
+      <c r="C22" s="47" t="n">
         <v>7.67524</v>
       </c>
-      <c r="D22" s="45" t="n">
+      <c r="D22" s="53" t="n">
+        <v>7.83533</v>
+      </c>
+      <c r="E22" s="55" t="n">
         <v>7.54344</v>
       </c>
-      <c r="E22" s="39" t="n">
+      <c r="F22" s="45" t="n">
         <v>7.94831</v>
       </c>
-      <c r="F22" s="48" t="n">
+      <c r="G22" s="60" t="n">
+        <v>8.277760000000001</v>
+      </c>
+      <c r="H22" s="49" t="n">
         <v>7.76018</v>
       </c>
-      <c r="G22" s="41" t="n">
+      <c r="I22" s="47" t="n">
+        <v>7.68619</v>
+      </c>
+      <c r="J22" s="48" t="n">
         <v>7.86289</v>
       </c>
-      <c r="H22" s="48" t="n">
+      <c r="K22" s="49" t="n">
         <v>7.76018</v>
       </c>
-      <c r="I22" s="48" t="n">
+      <c r="L22" s="47" t="n">
+        <v>7.68619</v>
+      </c>
+      <c r="M22" s="49" t="n">
         <v>7.79204</v>
       </c>
     </row>
@@ -2387,6 +2783,10 @@
       <c r="G23" s="3" t="n"/>
       <c r="H23" s="3" t="n"/>
       <c r="I23" s="3" t="n"/>
+      <c r="J23" s="3" t="n"/>
+      <c r="K23" s="3" t="n"/>
+      <c r="L23" s="3" t="n"/>
+      <c r="M23" s="3" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="inlineStr">
@@ -2397,25 +2797,37 @@
       <c r="B24" s="6" t="n">
         <v>23.46359</v>
       </c>
-      <c r="C24" s="50" t="n">
+      <c r="C24" s="61" t="n">
         <v>11.86276</v>
       </c>
-      <c r="D24" s="7" t="n">
+      <c r="D24" s="62" t="n">
+        <v>13.51856</v>
+      </c>
+      <c r="E24" s="7" t="n">
         <v>11.49325</v>
       </c>
-      <c r="E24" s="7" t="n">
+      <c r="F24" s="7" t="n">
         <v>10.64083</v>
       </c>
-      <c r="F24" s="51" t="n">
+      <c r="G24" s="7" t="n">
+        <v>10.93152</v>
+      </c>
+      <c r="H24" s="36" t="n">
         <v>26.34711</v>
       </c>
-      <c r="G24" s="15" t="n">
+      <c r="I24" s="63" t="n">
+        <v>27.06287</v>
+      </c>
+      <c r="J24" s="16" t="n">
         <v>13.36563</v>
       </c>
-      <c r="H24" s="51" t="n">
+      <c r="K24" s="36" t="n">
         <v>26.34711</v>
       </c>
-      <c r="I24" s="52" t="n">
+      <c r="L24" s="63" t="n">
+        <v>27.06287</v>
+      </c>
+      <c r="M24" s="64" t="n">
         <v>13.1607</v>
       </c>
     </row>
@@ -2432,21 +2844,33 @@
         <v>9.441509999999999</v>
       </c>
       <c r="D25" s="7" t="n">
+        <v>9.36787</v>
+      </c>
+      <c r="E25" s="7" t="n">
         <v>9.295959999999999</v>
       </c>
-      <c r="E25" s="7" t="n">
+      <c r="F25" s="7" t="n">
         <v>9.22424</v>
       </c>
-      <c r="F25" s="53" t="n">
+      <c r="G25" s="7" t="n">
+        <v>9.656549999999999</v>
+      </c>
+      <c r="H25" s="65" t="n">
         <v>13.64643</v>
       </c>
-      <c r="G25" s="7" t="n">
+      <c r="I25" s="16" t="n">
+        <v>12.94892</v>
+      </c>
+      <c r="J25" s="7" t="n">
         <v>10.99017</v>
       </c>
-      <c r="H25" s="53" t="n">
+      <c r="K25" s="65" t="n">
         <v>13.71379</v>
       </c>
-      <c r="I25" s="7" t="n">
+      <c r="L25" s="16" t="n">
+        <v>12.94892</v>
+      </c>
+      <c r="M25" s="7" t="n">
         <v>10.63908</v>
       </c>
     </row>
@@ -2463,21 +2887,33 @@
         <v>8.437139999999999</v>
       </c>
       <c r="D26" s="7" t="n">
+        <v>8.450989999999999</v>
+      </c>
+      <c r="E26" s="7" t="n">
         <v>8.88786</v>
       </c>
-      <c r="E26" s="7" t="n">
+      <c r="F26" s="7" t="n">
         <v>8.646879999999999</v>
       </c>
-      <c r="F26" s="7" t="n">
-        <v>9.093680000000001</v>
-      </c>
       <c r="G26" s="7" t="n">
-        <v>9.5162</v>
+        <v>8.981310000000001</v>
       </c>
       <c r="H26" s="7" t="n">
         <v>9.093680000000001</v>
       </c>
       <c r="I26" s="7" t="n">
+        <v>9.0107</v>
+      </c>
+      <c r="J26" s="7" t="n">
+        <v>9.5162</v>
+      </c>
+      <c r="K26" s="7" t="n">
+        <v>9.093680000000001</v>
+      </c>
+      <c r="L26" s="7" t="n">
+        <v>9.0107</v>
+      </c>
+      <c r="M26" s="7" t="n">
         <v>9.00346</v>
       </c>
     </row>
@@ -2495,6 +2931,10 @@
       <c r="G27" s="3" t="n"/>
       <c r="H27" s="3" t="n"/>
       <c r="I27" s="3" t="n"/>
+      <c r="J27" s="3" t="n"/>
+      <c r="K27" s="3" t="n"/>
+      <c r="L27" s="3" t="n"/>
+      <c r="M27" s="3" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="5" t="inlineStr">
@@ -2509,21 +2949,33 @@
         <v>75.19671</v>
       </c>
       <c r="D28" s="7" t="n">
+        <v>75.57742</v>
+      </c>
+      <c r="E28" s="7" t="n">
         <v>60.13903</v>
       </c>
-      <c r="E28" s="7" t="n">
+      <c r="F28" s="7" t="n">
         <v>60.12001</v>
       </c>
-      <c r="F28" s="54" t="n">
+      <c r="G28" s="7" t="n">
+        <v>60.5777</v>
+      </c>
+      <c r="H28" s="66" t="n">
         <v>162.22454</v>
       </c>
-      <c r="G28" s="7" t="n">
+      <c r="I28" s="67" t="n">
+        <v>161.91063</v>
+      </c>
+      <c r="J28" s="7" t="n">
         <v>61.99466</v>
       </c>
-      <c r="H28" s="54" t="n">
+      <c r="K28" s="66" t="n">
         <v>162.22454</v>
       </c>
-      <c r="I28" s="7" t="n">
+      <c r="L28" s="67" t="n">
+        <v>161.91063</v>
+      </c>
+      <c r="M28" s="7" t="n">
         <v>61.99466</v>
       </c>
     </row>
@@ -2540,21 +2992,33 @@
         <v>71.77593</v>
       </c>
       <c r="D29" s="7" t="n">
+        <v>72.06516000000001</v>
+      </c>
+      <c r="E29" s="7" t="n">
         <v>59.03437</v>
       </c>
-      <c r="E29" s="7" t="n">
+      <c r="F29" s="7" t="n">
         <v>58.1895</v>
       </c>
-      <c r="F29" s="7" t="n">
+      <c r="G29" s="7" t="n">
+        <v>58.57523</v>
+      </c>
+      <c r="H29" s="7" t="n">
         <v>79.55192</v>
       </c>
-      <c r="G29" s="7" t="n">
+      <c r="I29" s="7" t="n">
+        <v>79.13018</v>
+      </c>
+      <c r="J29" s="7" t="n">
         <v>59.58578</v>
       </c>
-      <c r="H29" s="50" t="n">
+      <c r="K29" s="61" t="n">
         <v>79.93149</v>
       </c>
-      <c r="I29" s="7" t="n">
+      <c r="L29" s="7" t="n">
+        <v>78.82154</v>
+      </c>
+      <c r="M29" s="7" t="n">
         <v>58.99715</v>
       </c>
     </row>
@@ -2571,21 +3035,33 @@
         <v>70.64700999999999</v>
       </c>
       <c r="D30" s="7" t="n">
+        <v>70.35466</v>
+      </c>
+      <c r="E30" s="7" t="n">
         <v>58.09557</v>
       </c>
-      <c r="E30" s="7" t="n">
+      <c r="F30" s="7" t="n">
         <v>57.32132</v>
       </c>
-      <c r="F30" s="7" t="n">
-        <v>73.70276</v>
-      </c>
       <c r="G30" s="7" t="n">
-        <v>58.07299</v>
+        <v>58.18924</v>
       </c>
       <c r="H30" s="7" t="n">
         <v>73.70276</v>
       </c>
       <c r="I30" s="7" t="n">
+        <v>72.51089</v>
+      </c>
+      <c r="J30" s="7" t="n">
+        <v>58.07299</v>
+      </c>
+      <c r="K30" s="7" t="n">
+        <v>73.70276</v>
+      </c>
+      <c r="L30" s="7" t="n">
+        <v>72.51089</v>
+      </c>
+      <c r="M30" s="7" t="n">
         <v>57.59407</v>
       </c>
     </row>
@@ -2603,6 +3079,10 @@
       <c r="G31" s="3" t="n"/>
       <c r="H31" s="3" t="n"/>
       <c r="I31" s="3" t="n"/>
+      <c r="J31" s="3" t="n"/>
+      <c r="K31" s="3" t="n"/>
+      <c r="L31" s="3" t="n"/>
+      <c r="M31" s="3" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="5" t="inlineStr">
@@ -2617,21 +3097,33 @@
         <v>4.01903</v>
       </c>
       <c r="D32" s="7" t="n">
+        <v>4.09528</v>
+      </c>
+      <c r="E32" s="7" t="n">
         <v>3.56454</v>
       </c>
-      <c r="E32" s="7" t="n">
+      <c r="F32" s="7" t="n">
         <v>3.53909</v>
       </c>
-      <c r="F32" s="55" t="n">
+      <c r="G32" s="7" t="n">
+        <v>3.51099</v>
+      </c>
+      <c r="H32" s="68" t="n">
         <v>10.20981</v>
       </c>
-      <c r="G32" s="7" t="n">
+      <c r="I32" s="68" t="n">
+        <v>10.20981</v>
+      </c>
+      <c r="J32" s="7" t="n">
         <v>4.05443</v>
       </c>
-      <c r="H32" s="55" t="n">
+      <c r="K32" s="68" t="n">
         <v>10.20981</v>
       </c>
-      <c r="I32" s="7" t="n">
+      <c r="L32" s="68" t="n">
+        <v>10.20981</v>
+      </c>
+      <c r="M32" s="7" t="n">
         <v>4.07393</v>
       </c>
     </row>
@@ -2648,21 +3140,33 @@
         <v>3.63481</v>
       </c>
       <c r="D33" s="7" t="n">
+        <v>3.7226</v>
+      </c>
+      <c r="E33" s="7" t="n">
         <v>3.46782</v>
       </c>
-      <c r="E33" s="7" t="n">
+      <c r="F33" s="7" t="n">
         <v>3.36022</v>
       </c>
-      <c r="F33" s="56" t="n">
+      <c r="G33" s="7" t="n">
+        <v>3.3403</v>
+      </c>
+      <c r="H33" s="69" t="n">
         <v>4.43137</v>
       </c>
-      <c r="G33" s="7" t="n">
+      <c r="I33" s="69" t="n">
+        <v>4.41592</v>
+      </c>
+      <c r="J33" s="7" t="n">
         <v>3.646</v>
       </c>
-      <c r="H33" s="57" t="n">
+      <c r="K33" s="70" t="n">
         <v>4.37289</v>
       </c>
-      <c r="I33" s="7" t="n">
+      <c r="L33" s="69" t="n">
+        <v>4.41592</v>
+      </c>
+      <c r="M33" s="7" t="n">
         <v>3.61779</v>
       </c>
     </row>
@@ -2679,21 +3183,33 @@
         <v>3.55478</v>
       </c>
       <c r="D34" s="7" t="n">
+        <v>3.58199</v>
+      </c>
+      <c r="E34" s="7" t="n">
         <v>3.4116</v>
       </c>
-      <c r="E34" s="7" t="n">
+      <c r="F34" s="7" t="n">
         <v>3.32259</v>
       </c>
-      <c r="F34" s="7" t="n">
-        <v>3.6821</v>
-      </c>
       <c r="G34" s="7" t="n">
-        <v>3.46028</v>
+        <v>3.31175</v>
       </c>
       <c r="H34" s="7" t="n">
         <v>3.6821</v>
       </c>
       <c r="I34" s="7" t="n">
+        <v>3.61144</v>
+      </c>
+      <c r="J34" s="7" t="n">
+        <v>3.46028</v>
+      </c>
+      <c r="K34" s="7" t="n">
+        <v>3.6821</v>
+      </c>
+      <c r="L34" s="7" t="n">
+        <v>3.61144</v>
+      </c>
+      <c r="M34" s="7" t="n">
         <v>3.47799</v>
       </c>
     </row>
@@ -2711,6 +3227,10 @@
       <c r="G35" s="3" t="n"/>
       <c r="H35" s="3" t="n"/>
       <c r="I35" s="3" t="n"/>
+      <c r="J35" s="3" t="n"/>
+      <c r="K35" s="3" t="n"/>
+      <c r="L35" s="3" t="n"/>
+      <c r="M35" s="3" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="5" t="inlineStr">
@@ -2721,25 +3241,37 @@
       <c r="B36" s="6" t="n">
         <v>7.86799</v>
       </c>
-      <c r="C36" s="10" t="n">
+      <c r="C36" s="11" t="n">
         <v>4.25407</v>
       </c>
-      <c r="D36" s="7" t="n">
+      <c r="D36" s="16" t="n">
+        <v>4.47943</v>
+      </c>
+      <c r="E36" s="7" t="n">
         <v>3.43478</v>
       </c>
-      <c r="E36" s="7" t="n">
+      <c r="F36" s="7" t="n">
         <v>3.40128</v>
       </c>
-      <c r="F36" s="58" t="n">
+      <c r="G36" s="7" t="n">
+        <v>3.19249</v>
+      </c>
+      <c r="H36" s="71" t="n">
         <v>10.47204</v>
       </c>
-      <c r="G36" s="10" t="n">
+      <c r="I36" s="72" t="n">
+        <v>10.72952</v>
+      </c>
+      <c r="J36" s="11" t="n">
         <v>4.25742</v>
       </c>
-      <c r="H36" s="58" t="n">
+      <c r="K36" s="71" t="n">
         <v>10.47204</v>
       </c>
-      <c r="I36" s="10" t="n">
+      <c r="L36" s="72" t="n">
+        <v>10.72952</v>
+      </c>
+      <c r="M36" s="11" t="n">
         <v>4.27924</v>
       </c>
     </row>
@@ -2756,21 +3288,33 @@
         <v>3.35905</v>
       </c>
       <c r="D37" s="7" t="n">
+        <v>3.34585</v>
+      </c>
+      <c r="E37" s="7" t="n">
         <v>3.12603</v>
       </c>
-      <c r="E37" s="7" t="n">
+      <c r="F37" s="7" t="n">
         <v>3.02606</v>
       </c>
-      <c r="F37" s="25" t="n">
+      <c r="G37" s="7" t="n">
+        <v>2.97818</v>
+      </c>
+      <c r="H37" s="28" t="n">
         <v>4.61988</v>
       </c>
-      <c r="G37" s="7" t="n">
+      <c r="I37" s="25" t="n">
+        <v>4.44569</v>
+      </c>
+      <c r="J37" s="7" t="n">
         <v>3.58631</v>
       </c>
-      <c r="H37" s="23" t="n">
+      <c r="K37" s="25" t="n">
         <v>4.45435</v>
       </c>
-      <c r="I37" s="7" t="n">
+      <c r="L37" s="25" t="n">
+        <v>4.44569</v>
+      </c>
+      <c r="M37" s="7" t="n">
         <v>3.6383</v>
       </c>
     </row>
@@ -2787,21 +3331,33 @@
         <v>3.2283</v>
       </c>
       <c r="D38" s="7" t="n">
+        <v>3.15862</v>
+      </c>
+      <c r="E38" s="7" t="n">
         <v>3.06374</v>
       </c>
-      <c r="E38" s="7" t="n">
+      <c r="F38" s="7" t="n">
         <v>2.93715</v>
       </c>
-      <c r="F38" s="7" t="n">
-        <v>3.31489</v>
-      </c>
       <c r="G38" s="7" t="n">
-        <v>3.32384</v>
+        <v>2.89769</v>
       </c>
       <c r="H38" s="7" t="n">
         <v>3.31489</v>
       </c>
       <c r="I38" s="7" t="n">
+        <v>3.34502</v>
+      </c>
+      <c r="J38" s="7" t="n">
+        <v>3.32384</v>
+      </c>
+      <c r="K38" s="7" t="n">
+        <v>3.31489</v>
+      </c>
+      <c r="L38" s="7" t="n">
+        <v>3.34502</v>
+      </c>
+      <c r="M38" s="7" t="n">
         <v>3.33949</v>
       </c>
     </row>
@@ -2819,6 +3375,10 @@
       <c r="G39" s="3" t="n"/>
       <c r="H39" s="3" t="n"/>
       <c r="I39" s="3" t="n"/>
+      <c r="J39" s="3" t="n"/>
+      <c r="K39" s="3" t="n"/>
+      <c r="L39" s="3" t="n"/>
+      <c r="M39" s="3" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="5" t="inlineStr">
@@ -2829,25 +3389,37 @@
       <c r="B40" s="6" t="n">
         <v>1.43111</v>
       </c>
-      <c r="C40" s="59" t="n">
+      <c r="C40" s="73" t="n">
         <v>1.46956</v>
       </c>
-      <c r="D40" s="60" t="n">
+      <c r="D40" s="74" t="n">
+        <v>1.43127</v>
+      </c>
+      <c r="E40" s="75" t="n">
         <v>1.42516</v>
       </c>
-      <c r="E40" s="60" t="n">
+      <c r="F40" s="75" t="n">
         <v>1.4259</v>
       </c>
-      <c r="F40" s="61" t="n">
+      <c r="G40" s="75" t="n">
+        <v>1.42726</v>
+      </c>
+      <c r="H40" s="76" t="n">
         <v>1.40774</v>
       </c>
-      <c r="G40" s="62" t="n">
+      <c r="I40" s="76" t="n">
+        <v>1.40774</v>
+      </c>
+      <c r="J40" s="77" t="n">
         <v>1.40298</v>
       </c>
-      <c r="H40" s="61" t="n">
+      <c r="K40" s="76" t="n">
         <v>1.40774</v>
       </c>
-      <c r="I40" s="62" t="n">
+      <c r="L40" s="76" t="n">
+        <v>1.40774</v>
+      </c>
+      <c r="M40" s="77" t="n">
         <v>1.40369</v>
       </c>
     </row>
@@ -2860,25 +3432,37 @@
       <c r="B41" s="6" t="n">
         <v>1.42535</v>
       </c>
-      <c r="C41" s="63" t="n">
+      <c r="C41" s="78" t="n">
         <v>1.43837</v>
       </c>
-      <c r="D41" s="63" t="n">
+      <c r="D41" s="79" t="n">
+        <v>1.43395</v>
+      </c>
+      <c r="E41" s="78" t="n">
         <v>1.43792</v>
       </c>
-      <c r="E41" s="64" t="n">
+      <c r="F41" s="74" t="n">
         <v>1.429</v>
       </c>
-      <c r="F41" s="65" t="n">
+      <c r="G41" s="78" t="n">
+        <v>1.43797</v>
+      </c>
+      <c r="H41" s="80" t="n">
         <v>1.41597</v>
       </c>
-      <c r="G41" s="62" t="n">
+      <c r="I41" s="80" t="n">
+        <v>1.41418</v>
+      </c>
+      <c r="J41" s="77" t="n">
         <v>1.39562</v>
       </c>
-      <c r="H41" s="65" t="n">
+      <c r="K41" s="80" t="n">
         <v>1.41597</v>
       </c>
-      <c r="I41" s="61" t="n">
+      <c r="L41" s="80" t="n">
+        <v>1.41418</v>
+      </c>
+      <c r="M41" s="76" t="n">
         <v>1.4059</v>
       </c>
     </row>
@@ -2891,25 +3475,37 @@
       <c r="B42" s="6" t="n">
         <v>1.41985</v>
       </c>
-      <c r="C42" s="66" t="n">
+      <c r="C42" s="81" t="n">
         <v>1.44162</v>
       </c>
-      <c r="D42" s="54" t="n">
+      <c r="D42" s="81" t="n">
+        <v>1.44205</v>
+      </c>
+      <c r="E42" s="66" t="n">
         <v>1.44869</v>
       </c>
-      <c r="E42" s="67" t="n">
+      <c r="F42" s="79" t="n">
         <v>1.43036</v>
       </c>
-      <c r="F42" s="65" t="n">
+      <c r="G42" s="67" t="n">
+        <v>1.4474</v>
+      </c>
+      <c r="H42" s="80" t="n">
         <v>1.40993</v>
       </c>
-      <c r="G42" s="60" t="n">
+      <c r="I42" s="82" t="n">
+        <v>1.43628</v>
+      </c>
+      <c r="J42" s="75" t="n">
         <v>1.41541</v>
       </c>
-      <c r="H42" s="65" t="n">
+      <c r="K42" s="80" t="n">
         <v>1.40993</v>
       </c>
-      <c r="I42" s="64" t="n">
+      <c r="L42" s="82" t="n">
+        <v>1.43628</v>
+      </c>
+      <c r="M42" s="74" t="n">
         <v>1.42282</v>
       </c>
     </row>
@@ -2927,6 +3523,10 @@
       <c r="G43" s="3" t="n"/>
       <c r="H43" s="3" t="n"/>
       <c r="I43" s="3" t="n"/>
+      <c r="J43" s="3" t="n"/>
+      <c r="K43" s="3" t="n"/>
+      <c r="L43" s="3" t="n"/>
+      <c r="M43" s="3" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="5" t="inlineStr">
@@ -2937,25 +3537,37 @@
       <c r="B44" s="6" t="n">
         <v>0.01601</v>
       </c>
-      <c r="C44" s="68" t="n">
+      <c r="C44" s="83" t="n">
         <v>0.01531</v>
       </c>
-      <c r="D44" s="69" t="n">
+      <c r="D44" s="84" t="n">
+        <v>0.01488</v>
+      </c>
+      <c r="E44" s="85" t="n">
         <v>0.01474</v>
       </c>
-      <c r="E44" s="70" t="n">
+      <c r="F44" s="86" t="n">
         <v>0.01462</v>
       </c>
-      <c r="F44" s="6" t="n">
-        <v>0.01601</v>
-      </c>
-      <c r="G44" s="71" t="n">
-        <v>0.01487</v>
+      <c r="G44" s="87" t="n">
+        <v>0.01452</v>
       </c>
       <c r="H44" s="6" t="n">
         <v>0.01601</v>
       </c>
-      <c r="I44" s="71" t="n">
+      <c r="I44" s="6" t="n">
+        <v>0.01601</v>
+      </c>
+      <c r="J44" s="84" t="n">
+        <v>0.01487</v>
+      </c>
+      <c r="K44" s="6" t="n">
+        <v>0.01601</v>
+      </c>
+      <c r="L44" s="6" t="n">
+        <v>0.01601</v>
+      </c>
+      <c r="M44" s="84" t="n">
         <v>0.01487</v>
       </c>
     </row>
@@ -2968,25 +3580,37 @@
       <c r="B45" s="6" t="n">
         <v>0.01555</v>
       </c>
-      <c r="C45" s="72" t="n">
+      <c r="C45" s="88" t="n">
         <v>0.01476</v>
       </c>
-      <c r="D45" s="69" t="n">
+      <c r="D45" s="89" t="n">
+        <v>0.01453</v>
+      </c>
+      <c r="E45" s="85" t="n">
         <v>0.01434</v>
       </c>
-      <c r="E45" s="73" t="n">
+      <c r="F45" s="90" t="n">
         <v>0.01441</v>
       </c>
-      <c r="F45" s="74" t="n">
+      <c r="G45" s="90" t="n">
+        <v>0.0144</v>
+      </c>
+      <c r="H45" s="91" t="n">
         <v>0.01478</v>
       </c>
-      <c r="G45" s="75" t="n">
+      <c r="I45" s="92" t="n">
+        <v>0.01497</v>
+      </c>
+      <c r="J45" s="89" t="n">
         <v>0.01452</v>
       </c>
-      <c r="H45" s="74" t="n">
+      <c r="K45" s="91" t="n">
         <v>0.01479</v>
       </c>
-      <c r="I45" s="76" t="n">
+      <c r="L45" s="92" t="n">
+        <v>0.01497</v>
+      </c>
+      <c r="M45" s="93" t="n">
         <v>0.01462</v>
       </c>
     </row>
@@ -2999,25 +3623,37 @@
       <c r="B46" s="6" t="n">
         <v>0.01495</v>
       </c>
-      <c r="C46" s="61" t="n">
+      <c r="C46" s="76" t="n">
         <v>0.01474</v>
       </c>
-      <c r="D46" s="68" t="n">
+      <c r="D46" s="92" t="n">
+        <v>0.01438</v>
+      </c>
+      <c r="E46" s="83" t="n">
         <v>0.01428</v>
       </c>
-      <c r="E46" s="77" t="n">
+      <c r="F46" s="94" t="n">
         <v>0.01444</v>
       </c>
-      <c r="F46" s="61" t="n">
+      <c r="G46" s="92" t="n">
+        <v>0.01435</v>
+      </c>
+      <c r="H46" s="76" t="n">
         <v>0.0147</v>
       </c>
-      <c r="G46" s="74" t="n">
+      <c r="I46" s="95" t="n">
+        <v>0.01448</v>
+      </c>
+      <c r="J46" s="91" t="n">
         <v>0.01421</v>
       </c>
-      <c r="H46" s="61" t="n">
+      <c r="K46" s="76" t="n">
         <v>0.0147</v>
       </c>
-      <c r="I46" s="68" t="n">
+      <c r="L46" s="95" t="n">
+        <v>0.01448</v>
+      </c>
+      <c r="M46" s="83" t="n">
         <v>0.01434</v>
       </c>
     </row>
@@ -3035,6 +3671,10 @@
       <c r="G47" s="3" t="n"/>
       <c r="H47" s="3" t="n"/>
       <c r="I47" s="3" t="n"/>
+      <c r="J47" s="3" t="n"/>
+      <c r="K47" s="3" t="n"/>
+      <c r="L47" s="3" t="n"/>
+      <c r="M47" s="3" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="inlineStr">
@@ -3045,25 +3685,37 @@
       <c r="B48" s="6" t="n">
         <v>12.16549</v>
       </c>
-      <c r="C48" s="78" t="n">
+      <c r="C48" s="43" t="n">
         <v>10.39442</v>
       </c>
-      <c r="D48" s="79" t="n">
+      <c r="D48" s="42" t="n">
+        <v>10.43682</v>
+      </c>
+      <c r="E48" s="96" t="n">
         <v>10.11566</v>
       </c>
-      <c r="E48" s="39" t="n">
+      <c r="F48" s="45" t="n">
         <v>10.07421</v>
       </c>
-      <c r="F48" s="80" t="n">
+      <c r="G48" s="57" t="n">
+        <v>10.00063</v>
+      </c>
+      <c r="H48" s="97" t="n">
         <v>14.17227</v>
       </c>
-      <c r="G48" s="81" t="n">
+      <c r="I48" s="98" t="n">
+        <v>14.245</v>
+      </c>
+      <c r="J48" s="99" t="n">
         <v>10.1848</v>
       </c>
-      <c r="H48" s="80" t="n">
+      <c r="K48" s="97" t="n">
         <v>14.17227</v>
       </c>
-      <c r="I48" s="81" t="n">
+      <c r="L48" s="98" t="n">
+        <v>14.245</v>
+      </c>
+      <c r="M48" s="99" t="n">
         <v>10.1848</v>
       </c>
     </row>
@@ -3076,25 +3728,37 @@
       <c r="B49" s="6" t="n">
         <v>11.86822</v>
       </c>
-      <c r="C49" s="82" t="n">
+      <c r="C49" s="51" t="n">
         <v>10.29136</v>
       </c>
-      <c r="D49" s="83" t="n">
+      <c r="D49" s="51" t="n">
+        <v>10.27701</v>
+      </c>
+      <c r="E49" s="100" t="n">
         <v>10.09344</v>
       </c>
-      <c r="E49" s="84" t="n">
+      <c r="F49" s="101" t="n">
         <v>9.96059</v>
       </c>
-      <c r="F49" s="42" t="n">
+      <c r="G49" s="101" t="n">
+        <v>9.981159999999999</v>
+      </c>
+      <c r="H49" s="50" t="n">
         <v>10.53932</v>
       </c>
-      <c r="G49" s="78" t="n">
+      <c r="I49" s="50" t="n">
+        <v>10.538</v>
+      </c>
+      <c r="J49" s="43" t="n">
         <v>10.13995</v>
       </c>
-      <c r="H49" s="42" t="n">
+      <c r="K49" s="50" t="n">
         <v>10.53932</v>
       </c>
-      <c r="I49" s="78" t="n">
+      <c r="L49" s="59" t="n">
+        <v>10.50042</v>
+      </c>
+      <c r="M49" s="43" t="n">
         <v>10.13523</v>
       </c>
     </row>
@@ -3107,25 +3771,37 @@
       <c r="B50" s="6" t="n">
         <v>11.73253</v>
       </c>
-      <c r="C50" s="85" t="n">
+      <c r="C50" s="102" t="n">
         <v>10.21133</v>
       </c>
-      <c r="D50" s="36" t="n">
+      <c r="D50" s="102" t="n">
+        <v>10.20754</v>
+      </c>
+      <c r="E50" s="42" t="n">
         <v>10.06443</v>
       </c>
-      <c r="E50" s="83" t="n">
+      <c r="F50" s="100" t="n">
         <v>9.939170000000001</v>
       </c>
-      <c r="F50" s="85" t="n">
+      <c r="G50" s="100" t="n">
+        <v>9.94933</v>
+      </c>
+      <c r="H50" s="102" t="n">
         <v>10.20878</v>
       </c>
-      <c r="G50" s="86" t="n">
+      <c r="I50" s="54" t="n">
+        <v>10.25437</v>
+      </c>
+      <c r="J50" s="60" t="n">
         <v>10.11601</v>
       </c>
-      <c r="H50" s="85" t="n">
+      <c r="K50" s="102" t="n">
         <v>10.20878</v>
       </c>
-      <c r="I50" s="86" t="n">
+      <c r="L50" s="54" t="n">
+        <v>10.25437</v>
+      </c>
+      <c r="M50" s="60" t="n">
         <v>10.12818</v>
       </c>
     </row>
@@ -3143,6 +3819,10 @@
       <c r="G51" s="3" t="n"/>
       <c r="H51" s="3" t="n"/>
       <c r="I51" s="3" t="n"/>
+      <c r="J51" s="3" t="n"/>
+      <c r="K51" s="3" t="n"/>
+      <c r="L51" s="3" t="n"/>
+      <c r="M51" s="3" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="5" t="inlineStr">
@@ -3153,25 +3833,37 @@
       <c r="B52" s="6" t="n">
         <v>39.00013</v>
       </c>
-      <c r="C52" s="45" t="n">
+      <c r="C52" s="55" t="n">
         <v>30.72467</v>
       </c>
-      <c r="D52" s="79" t="n">
+      <c r="D52" s="53" t="n">
+        <v>31.64841</v>
+      </c>
+      <c r="E52" s="96" t="n">
         <v>32.33313</v>
       </c>
-      <c r="E52" s="87" t="n">
+      <c r="F52" s="103" t="n">
         <v>30.52493</v>
       </c>
-      <c r="F52" s="88" t="n">
+      <c r="G52" s="104" t="n">
+        <v>30.31933</v>
+      </c>
+      <c r="H52" s="105" t="n">
         <v>41.72215</v>
       </c>
-      <c r="G52" s="48" t="n">
+      <c r="I52" s="106" t="n">
+        <v>42.09846</v>
+      </c>
+      <c r="J52" s="49" t="n">
         <v>31.48903</v>
       </c>
-      <c r="H52" s="88" t="n">
+      <c r="K52" s="105" t="n">
         <v>41.72215</v>
       </c>
-      <c r="I52" s="40" t="n">
+      <c r="L52" s="106" t="n">
+        <v>42.09846</v>
+      </c>
+      <c r="M52" s="47" t="n">
         <v>31.25672</v>
       </c>
     </row>
@@ -3184,25 +3876,37 @@
       <c r="B53" s="6" t="n">
         <v>38.62736</v>
       </c>
-      <c r="C53" s="46" t="n">
+      <c r="C53" s="56" t="n">
         <v>30.76472</v>
       </c>
-      <c r="D53" s="89" t="n">
+      <c r="D53" s="107" t="n">
+        <v>29.86512</v>
+      </c>
+      <c r="E53" s="108" t="n">
         <v>32.70334</v>
       </c>
-      <c r="E53" s="43" t="n">
+      <c r="F53" s="52" t="n">
         <v>31.14424</v>
       </c>
-      <c r="F53" s="44" t="n">
+      <c r="G53" s="45" t="n">
+        <v>31.96502</v>
+      </c>
+      <c r="H53" s="53" t="n">
         <v>31.35918</v>
       </c>
-      <c r="G53" s="41" t="n">
+      <c r="I53" s="57" t="n">
+        <v>31.76226</v>
+      </c>
+      <c r="J53" s="48" t="n">
         <v>31.53245</v>
       </c>
-      <c r="H53" s="44" t="n">
+      <c r="K53" s="53" t="n">
         <v>31.35918</v>
       </c>
-      <c r="I53" s="48" t="n">
+      <c r="L53" s="57" t="n">
+        <v>31.76226</v>
+      </c>
+      <c r="M53" s="49" t="n">
         <v>31.25313</v>
       </c>
     </row>
@@ -3215,25 +3919,37 @@
       <c r="B54" s="6" t="n">
         <v>38.04211</v>
       </c>
-      <c r="C54" s="41" t="n">
+      <c r="C54" s="48" t="n">
         <v>31.18511</v>
       </c>
-      <c r="D54" s="85" t="n">
+      <c r="D54" s="47" t="n">
+        <v>30.42635</v>
+      </c>
+      <c r="E54" s="102" t="n">
         <v>33.15308</v>
       </c>
-      <c r="E54" s="43" t="n">
+      <c r="F54" s="52" t="n">
         <v>30.52243</v>
       </c>
-      <c r="F54" s="39" t="n">
+      <c r="G54" s="45" t="n">
+        <v>31.40537</v>
+      </c>
+      <c r="H54" s="45" t="n">
         <v>31.50937</v>
       </c>
-      <c r="G54" s="79" t="n">
+      <c r="I54" s="47" t="n">
+        <v>30.46778</v>
+      </c>
+      <c r="J54" s="96" t="n">
         <v>31.55206</v>
       </c>
-      <c r="H54" s="39" t="n">
+      <c r="K54" s="45" t="n">
         <v>31.50937</v>
       </c>
-      <c r="I54" s="41" t="n">
+      <c r="L54" s="47" t="n">
+        <v>30.46778</v>
+      </c>
+      <c r="M54" s="48" t="n">
         <v>31.18206</v>
       </c>
     </row>
@@ -3251,6 +3967,10 @@
       <c r="G55" s="3" t="n"/>
       <c r="H55" s="3" t="n"/>
       <c r="I55" s="3" t="n"/>
+      <c r="J55" s="3" t="n"/>
+      <c r="K55" s="3" t="n"/>
+      <c r="L55" s="3" t="n"/>
+      <c r="M55" s="3" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="5" t="inlineStr">
@@ -3261,25 +3981,37 @@
       <c r="B56" s="6" t="n">
         <v>130.07759</v>
       </c>
-      <c r="C56" s="33" t="n">
+      <c r="C56" s="37" t="n">
         <v>98.13951</v>
       </c>
-      <c r="D56" s="90" t="n">
+      <c r="D56" s="37" t="n">
+        <v>98.03301</v>
+      </c>
+      <c r="E56" s="109" t="n">
         <v>99.29813</v>
       </c>
-      <c r="E56" s="24" t="n">
+      <c r="F56" s="27" t="n">
         <v>81.96151</v>
       </c>
-      <c r="F56" s="11" t="n">
+      <c r="G56" s="64" t="n">
+        <v>73.02263000000001</v>
+      </c>
+      <c r="H56" s="12" t="n">
         <v>130.7468</v>
       </c>
-      <c r="G56" s="91" t="n">
+      <c r="I56" s="12" t="n">
+        <v>130.7468</v>
+      </c>
+      <c r="J56" s="110" t="n">
         <v>99.52021000000001</v>
       </c>
-      <c r="H56" s="11" t="n">
+      <c r="K56" s="12" t="n">
         <v>130.7468</v>
       </c>
-      <c r="I56" s="91" t="n">
+      <c r="L56" s="12" t="n">
+        <v>130.7468</v>
+      </c>
+      <c r="M56" s="110" t="n">
         <v>99.52021000000001</v>
       </c>
     </row>
@@ -3292,25 +4024,37 @@
       <c r="B57" s="6" t="n">
         <v>129.44335</v>
       </c>
-      <c r="C57" s="92" t="n">
+      <c r="C57" s="111" t="n">
         <v>86.99241000000001</v>
       </c>
-      <c r="D57" s="93" t="n">
+      <c r="D57" s="112" t="n">
+        <v>83.85916</v>
+      </c>
+      <c r="E57" s="113" t="n">
         <v>99.19386</v>
       </c>
-      <c r="E57" s="17" t="n">
+      <c r="F57" s="18" t="n">
         <v>75.07709</v>
       </c>
-      <c r="F57" s="48" t="n">
+      <c r="G57" s="17" t="n">
+        <v>69.66327</v>
+      </c>
+      <c r="H57" s="49" t="n">
         <v>104.50417</v>
       </c>
-      <c r="G57" s="90" t="n">
+      <c r="I57" s="103" t="n">
+        <v>101.23463</v>
+      </c>
+      <c r="J57" s="109" t="n">
         <v>98.80894000000001</v>
       </c>
-      <c r="H57" s="46" t="n">
+      <c r="K57" s="56" t="n">
         <v>103.04212</v>
       </c>
-      <c r="I57" s="93" t="n">
+      <c r="L57" s="103" t="n">
+        <v>101.23463</v>
+      </c>
+      <c r="M57" s="113" t="n">
         <v>99.46017999999999</v>
       </c>
     </row>
@@ -3323,25 +4067,37 @@
       <c r="B58" s="6" t="n">
         <v>128.72448</v>
       </c>
-      <c r="C58" s="27" t="n">
+      <c r="C58" s="20" t="n">
         <v>83.01031999999999</v>
       </c>
-      <c r="D58" s="93" t="n">
+      <c r="D58" s="28" t="n">
+        <v>81.73676</v>
+      </c>
+      <c r="E58" s="113" t="n">
         <v>99.09629</v>
       </c>
-      <c r="E58" s="17" t="n">
+      <c r="F58" s="18" t="n">
         <v>74.79512</v>
       </c>
-      <c r="F58" s="35" t="n">
+      <c r="G58" s="114" t="n">
+        <v>68.94804999999999</v>
+      </c>
+      <c r="H58" s="40" t="n">
         <v>90.49274</v>
       </c>
-      <c r="G58" s="90" t="n">
+      <c r="I58" s="111" t="n">
+        <v>86.88974</v>
+      </c>
+      <c r="J58" s="109" t="n">
         <v>98.32332</v>
       </c>
-      <c r="H58" s="35" t="n">
+      <c r="K58" s="40" t="n">
         <v>90.49274</v>
       </c>
-      <c r="I58" s="94" t="n">
+      <c r="L58" s="111" t="n">
+        <v>86.88974</v>
+      </c>
+      <c r="M58" s="107" t="n">
         <v>99.27643</v>
       </c>
     </row>
@@ -3359,6 +4115,10 @@
       <c r="G61" s="3" t="n"/>
       <c r="H61" s="3" t="n"/>
       <c r="I61" s="3" t="n"/>
+      <c r="J61" s="3" t="n"/>
+      <c r="K61" s="3" t="n"/>
+      <c r="L61" s="3" t="n"/>
+      <c r="M61" s="3" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="3" t="inlineStr"/>
@@ -3374,30 +4134,50 @@
       </c>
       <c r="D62" s="1" t="inlineStr">
         <is>
+          <t>VARIANT 1b</t>
+        </is>
+      </c>
+      <c r="E62" s="1" t="inlineStr">
+        <is>
           <t>VARIANT 2</t>
         </is>
       </c>
-      <c r="E62" s="1" t="inlineStr">
+      <c r="F62" s="1" t="inlineStr">
         <is>
           <t>VARIANT 3</t>
         </is>
       </c>
-      <c r="F62" s="1" t="inlineStr">
+      <c r="G62" s="1" t="inlineStr">
+        <is>
+          <t>VARIANT 3b</t>
+        </is>
+      </c>
+      <c r="H62" s="1" t="inlineStr">
         <is>
           <t>VARIANT 4</t>
         </is>
       </c>
-      <c r="G62" s="1" t="inlineStr">
+      <c r="I62" s="1" t="inlineStr">
+        <is>
+          <t>VARIANT 4b</t>
+        </is>
+      </c>
+      <c r="J62" s="1" t="inlineStr">
         <is>
           <t>VARIANT 5</t>
         </is>
       </c>
-      <c r="H62" s="1" t="inlineStr">
+      <c r="K62" s="1" t="inlineStr">
         <is>
           <t>VARIANT 6</t>
         </is>
       </c>
-      <c r="I62" s="1" t="inlineStr">
+      <c r="L62" s="1" t="inlineStr">
+        <is>
+          <t>VARIANT 6b</t>
+        </is>
+      </c>
+      <c r="M62" s="1" t="inlineStr">
         <is>
           <t>VARIANT 7</t>
         </is>
@@ -3417,6 +4197,10 @@
       <c r="G63" s="3" t="n"/>
       <c r="H63" s="3" t="n"/>
       <c r="I63" s="3" t="n"/>
+      <c r="J63" s="3" t="n"/>
+      <c r="K63" s="3" t="n"/>
+      <c r="L63" s="3" t="n"/>
+      <c r="M63" s="3" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="5" t="inlineStr">
@@ -3424,28 +4208,40 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B64" s="95" t="n">
+      <c r="B64" s="115" t="n">
         <v>35</v>
       </c>
-      <c r="C64" s="96" t="n">
+      <c r="C64" s="116" t="n">
         <v>34</v>
       </c>
-      <c r="D64" s="96" t="n">
+      <c r="D64" s="117" t="n">
+        <v>33</v>
+      </c>
+      <c r="E64" s="116" t="n">
         <v>34</v>
       </c>
-      <c r="E64" s="97" t="n">
+      <c r="F64" s="118" t="n">
         <v>27</v>
       </c>
-      <c r="F64" s="98" t="n">
-        <v>3</v>
-      </c>
-      <c r="G64" s="98" t="n">
+      <c r="G64" s="119" t="n">
+        <v>29</v>
+      </c>
+      <c r="H64" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="I64" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="J64" s="120" t="n">
         <v>4</v>
       </c>
-      <c r="H64" s="98" t="n">
-        <v>3</v>
-      </c>
-      <c r="I64" s="98" t="n">
+      <c r="K64" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="L64" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="M64" s="120" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3455,28 +4251,40 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B65" s="95" t="n">
+      <c r="B65" s="115" t="n">
         <v>47</v>
       </c>
-      <c r="C65" s="99" t="n">
+      <c r="C65" s="121" t="n">
         <v>45</v>
       </c>
-      <c r="D65" s="95" t="n">
+      <c r="D65" s="121" t="n">
+        <v>45</v>
+      </c>
+      <c r="E65" s="115" t="n">
         <v>47</v>
       </c>
-      <c r="E65" s="100" t="n">
+      <c r="F65" s="122" t="n">
         <v>37</v>
       </c>
-      <c r="F65" s="98" t="n">
+      <c r="G65" s="123" t="n">
+        <v>39</v>
+      </c>
+      <c r="H65" s="120" t="n">
         <v>11</v>
       </c>
-      <c r="G65" s="101" t="n">
+      <c r="I65" s="120" t="n">
+        <v>13</v>
+      </c>
+      <c r="J65" s="124" t="n">
         <v>29</v>
       </c>
-      <c r="H65" s="98" t="n">
+      <c r="K65" s="120" t="n">
         <v>11</v>
       </c>
-      <c r="I65" s="102" t="n">
+      <c r="L65" s="120" t="n">
+        <v>13</v>
+      </c>
+      <c r="M65" s="125" t="n">
         <v>25</v>
       </c>
     </row>
@@ -3486,28 +4294,40 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B66" s="95" t="n">
+      <c r="B66" s="115" t="n">
         <v>62</v>
       </c>
-      <c r="C66" s="103" t="n">
+      <c r="C66" s="126" t="n">
         <v>67</v>
       </c>
-      <c r="D66" s="104" t="n">
+      <c r="D66" s="127" t="n">
+        <v>63</v>
+      </c>
+      <c r="E66" s="128" t="n">
         <v>68</v>
       </c>
-      <c r="E66" s="105" t="n">
+      <c r="F66" s="129" t="n">
         <v>58</v>
       </c>
-      <c r="F66" s="106" t="n">
+      <c r="G66" s="127" t="n">
+        <v>63</v>
+      </c>
+      <c r="H66" s="130" t="n">
         <v>57</v>
       </c>
-      <c r="G66" s="107" t="n">
+      <c r="I66" s="131" t="n">
+        <v>54</v>
+      </c>
+      <c r="J66" s="132" t="n">
         <v>56</v>
       </c>
-      <c r="H66" s="107" t="n">
+      <c r="K66" s="132" t="n">
         <v>56</v>
       </c>
-      <c r="I66" s="108" t="n">
+      <c r="L66" s="133" t="n">
+        <v>53</v>
+      </c>
+      <c r="M66" s="131" t="n">
         <v>54</v>
       </c>
     </row>
@@ -3525,6 +4345,10 @@
       <c r="G67" s="3" t="n"/>
       <c r="H67" s="3" t="n"/>
       <c r="I67" s="3" t="n"/>
+      <c r="J67" s="3" t="n"/>
+      <c r="K67" s="3" t="n"/>
+      <c r="L67" s="3" t="n"/>
+      <c r="M67" s="3" t="n"/>
     </row>
     <row r="68">
       <c r="A68" s="5" t="inlineStr">
@@ -3532,28 +4356,40 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B68" s="95" t="n">
+      <c r="B68" s="115" t="n">
         <v>33</v>
       </c>
-      <c r="C68" s="109" t="n">
+      <c r="C68" s="134" t="n">
         <v>35</v>
       </c>
-      <c r="D68" s="110" t="n">
+      <c r="D68" s="134" t="n">
+        <v>35</v>
+      </c>
+      <c r="E68" s="135" t="n">
         <v>31</v>
       </c>
-      <c r="E68" s="110" t="n">
+      <c r="F68" s="135" t="n">
         <v>31</v>
       </c>
-      <c r="F68" s="98" t="n">
-        <v>3</v>
-      </c>
-      <c r="G68" s="98" t="n">
+      <c r="G68" s="136" t="n">
+        <v>30</v>
+      </c>
+      <c r="H68" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="I68" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="J68" s="120" t="n">
         <v>7</v>
       </c>
-      <c r="H68" s="98" t="n">
-        <v>3</v>
-      </c>
-      <c r="I68" s="98" t="n">
+      <c r="K68" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="L68" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="M68" s="120" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3563,28 +4399,40 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B69" s="95" t="n">
+      <c r="B69" s="115" t="n">
         <v>41</v>
       </c>
-      <c r="C69" s="111" t="n">
+      <c r="C69" s="137" t="n">
         <v>42</v>
       </c>
-      <c r="D69" s="95" t="n">
+      <c r="D69" s="137" t="n">
+        <v>42</v>
+      </c>
+      <c r="E69" s="115" t="n">
         <v>41</v>
       </c>
-      <c r="E69" s="112" t="n">
+      <c r="F69" s="138" t="n">
         <v>38</v>
       </c>
-      <c r="F69" s="113" t="n">
+      <c r="G69" s="132" t="n">
+        <v>37</v>
+      </c>
+      <c r="H69" s="139" t="n">
         <v>24</v>
       </c>
-      <c r="G69" s="113" t="n">
+      <c r="I69" s="139" t="n">
         <v>24</v>
       </c>
-      <c r="H69" s="114" t="n">
+      <c r="J69" s="139" t="n">
+        <v>24</v>
+      </c>
+      <c r="K69" s="140" t="n">
         <v>23</v>
       </c>
-      <c r="I69" s="113" t="n">
+      <c r="L69" s="140" t="n">
+        <v>23</v>
+      </c>
+      <c r="M69" s="139" t="n">
         <v>24</v>
       </c>
     </row>
@@ -3594,28 +4442,40 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B70" s="95" t="n">
+      <c r="B70" s="115" t="n">
         <v>54</v>
       </c>
-      <c r="C70" s="115" t="n">
+      <c r="C70" s="141" t="n">
         <v>53</v>
       </c>
-      <c r="D70" s="116" t="n">
+      <c r="D70" s="141" t="n">
+        <v>53</v>
+      </c>
+      <c r="E70" s="117" t="n">
         <v>51</v>
       </c>
-      <c r="E70" s="112" t="n">
+      <c r="F70" s="138" t="n">
         <v>50</v>
       </c>
-      <c r="F70" s="116" t="n">
+      <c r="G70" s="142" t="n">
+        <v>52</v>
+      </c>
+      <c r="H70" s="117" t="n">
         <v>51</v>
       </c>
-      <c r="G70" s="112" t="n">
+      <c r="I70" s="117" t="n">
+        <v>51</v>
+      </c>
+      <c r="J70" s="138" t="n">
         <v>50</v>
       </c>
-      <c r="H70" s="112" t="n">
+      <c r="K70" s="138" t="n">
         <v>50</v>
       </c>
-      <c r="I70" s="112" t="n">
+      <c r="L70" s="117" t="n">
+        <v>51</v>
+      </c>
+      <c r="M70" s="138" t="n">
         <v>50</v>
       </c>
     </row>
@@ -3633,6 +4493,10 @@
       <c r="G71" s="3" t="n"/>
       <c r="H71" s="3" t="n"/>
       <c r="I71" s="3" t="n"/>
+      <c r="J71" s="3" t="n"/>
+      <c r="K71" s="3" t="n"/>
+      <c r="L71" s="3" t="n"/>
+      <c r="M71" s="3" t="n"/>
     </row>
     <row r="72">
       <c r="A72" s="5" t="inlineStr">
@@ -3640,28 +4504,40 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B72" s="95" t="n">
+      <c r="B72" s="115" t="n">
         <v>27</v>
       </c>
-      <c r="C72" s="95" t="n">
+      <c r="C72" s="115" t="n">
         <v>27</v>
       </c>
-      <c r="D72" s="95" t="n">
+      <c r="D72" s="115" t="n">
         <v>27</v>
       </c>
-      <c r="E72" s="95" t="n">
+      <c r="E72" s="115" t="n">
         <v>27</v>
       </c>
-      <c r="F72" s="98" t="n">
-        <v>3</v>
-      </c>
-      <c r="G72" s="98" t="n">
-        <v>3</v>
-      </c>
-      <c r="H72" s="98" t="n">
-        <v>3</v>
-      </c>
-      <c r="I72" s="98" t="n">
+      <c r="F72" s="115" t="n">
+        <v>27</v>
+      </c>
+      <c r="G72" s="115" t="n">
+        <v>27</v>
+      </c>
+      <c r="H72" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="I72" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="J72" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="K72" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="L72" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="M72" s="120" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3671,28 +4547,40 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B73" s="95" t="n">
+      <c r="B73" s="115" t="n">
         <v>35</v>
       </c>
-      <c r="C73" s="117" t="n">
+      <c r="C73" s="143" t="n">
         <v>31</v>
       </c>
-      <c r="D73" s="95" t="n">
+      <c r="D73" s="143" t="n">
+        <v>31</v>
+      </c>
+      <c r="E73" s="115" t="n">
         <v>35</v>
       </c>
-      <c r="E73" s="95" t="n">
+      <c r="F73" s="115" t="n">
         <v>35</v>
       </c>
-      <c r="F73" s="98" t="n">
+      <c r="G73" s="115" t="n">
+        <v>35</v>
+      </c>
+      <c r="H73" s="120" t="n">
         <v>11</v>
       </c>
-      <c r="G73" s="118" t="n">
+      <c r="I73" s="120" t="n">
+        <v>11</v>
+      </c>
+      <c r="J73" s="144" t="n">
         <v>23</v>
       </c>
-      <c r="H73" s="98" t="n">
+      <c r="K73" s="120" t="n">
         <v>11</v>
       </c>
-      <c r="I73" s="119" t="n">
+      <c r="L73" s="120" t="n">
+        <v>11</v>
+      </c>
+      <c r="M73" s="145" t="n">
         <v>20</v>
       </c>
     </row>
@@ -3702,28 +4590,40 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B74" s="95" t="n">
+      <c r="B74" s="115" t="n">
         <v>39</v>
       </c>
-      <c r="C74" s="95" t="n">
+      <c r="C74" s="115" t="n">
         <v>39</v>
       </c>
-      <c r="D74" s="120" t="n">
+      <c r="D74" s="115" t="n">
+        <v>39</v>
+      </c>
+      <c r="E74" s="146" t="n">
         <v>41</v>
       </c>
-      <c r="E74" s="120" t="n">
+      <c r="F74" s="146" t="n">
         <v>41</v>
       </c>
-      <c r="F74" s="95" t="n">
+      <c r="G74" s="147" t="n">
+        <v>43</v>
+      </c>
+      <c r="H74" s="115" t="n">
         <v>39</v>
       </c>
-      <c r="G74" s="121" t="n">
+      <c r="I74" s="146" t="n">
+        <v>41</v>
+      </c>
+      <c r="J74" s="147" t="n">
         <v>43</v>
       </c>
-      <c r="H74" s="95" t="n">
+      <c r="K74" s="115" t="n">
         <v>39</v>
       </c>
-      <c r="I74" s="121" t="n">
+      <c r="L74" s="115" t="n">
+        <v>39</v>
+      </c>
+      <c r="M74" s="147" t="n">
         <v>43</v>
       </c>
     </row>
@@ -3741,6 +4641,10 @@
       <c r="G75" s="3" t="n"/>
       <c r="H75" s="3" t="n"/>
       <c r="I75" s="3" t="n"/>
+      <c r="J75" s="3" t="n"/>
+      <c r="K75" s="3" t="n"/>
+      <c r="L75" s="3" t="n"/>
+      <c r="M75" s="3" t="n"/>
     </row>
     <row r="76">
       <c r="A76" s="5" t="inlineStr">
@@ -3748,28 +4652,40 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B76" s="95" t="n">
+      <c r="B76" s="115" t="n">
         <v>15</v>
       </c>
-      <c r="C76" s="122" t="n">
+      <c r="C76" s="148" t="n">
         <v>27</v>
       </c>
-      <c r="D76" s="122" t="n">
+      <c r="D76" s="148" t="n">
+        <v>27</v>
+      </c>
+      <c r="E76" s="148" t="n">
         <v>25</v>
       </c>
-      <c r="E76" s="122" t="n">
+      <c r="F76" s="148" t="n">
         <v>25</v>
       </c>
-      <c r="F76" s="98" t="n">
-        <v>3</v>
-      </c>
-      <c r="G76" s="98" t="n">
-        <v>3</v>
-      </c>
-      <c r="H76" s="98" t="n">
-        <v>3</v>
-      </c>
-      <c r="I76" s="98" t="n">
+      <c r="G76" s="148" t="n">
+        <v>25</v>
+      </c>
+      <c r="H76" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="I76" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="J76" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="K76" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="L76" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="M76" s="120" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3779,28 +4695,40 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B77" s="95" t="n">
+      <c r="B77" s="115" t="n">
         <v>24</v>
       </c>
-      <c r="C77" s="123" t="n">
+      <c r="C77" s="149" t="n">
         <v>33</v>
       </c>
-      <c r="D77" s="124" t="n">
+      <c r="D77" s="149" t="n">
+        <v>33</v>
+      </c>
+      <c r="E77" s="150" t="n">
         <v>31</v>
       </c>
-      <c r="E77" s="124" t="n">
+      <c r="F77" s="150" t="n">
         <v>31</v>
       </c>
-      <c r="F77" s="125" t="n">
+      <c r="G77" s="150" t="n">
+        <v>31</v>
+      </c>
+      <c r="H77" s="151" t="n">
         <v>13</v>
       </c>
-      <c r="G77" s="126" t="n">
+      <c r="I77" s="120" t="n">
+        <v>11</v>
+      </c>
+      <c r="J77" s="152" t="n">
         <v>15</v>
       </c>
-      <c r="H77" s="125" t="n">
+      <c r="K77" s="151" t="n">
         <v>13</v>
       </c>
-      <c r="I77" s="127" t="n">
+      <c r="L77" s="120" t="n">
+        <v>11</v>
+      </c>
+      <c r="M77" s="153" t="n">
         <v>17</v>
       </c>
     </row>
@@ -3810,28 +4738,40 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B78" s="95" t="n">
+      <c r="B78" s="115" t="n">
         <v>39</v>
       </c>
-      <c r="C78" s="128" t="n">
+      <c r="C78" s="154" t="n">
         <v>45</v>
       </c>
-      <c r="D78" s="121" t="n">
+      <c r="D78" s="154" t="n">
+        <v>45</v>
+      </c>
+      <c r="E78" s="147" t="n">
         <v>43</v>
       </c>
-      <c r="E78" s="121" t="n">
+      <c r="F78" s="147" t="n">
         <v>43</v>
       </c>
-      <c r="F78" s="128" t="n">
+      <c r="G78" s="146" t="n">
+        <v>41</v>
+      </c>
+      <c r="H78" s="154" t="n">
         <v>45</v>
       </c>
-      <c r="G78" s="120" t="n">
+      <c r="I78" s="146" t="n">
         <v>41</v>
       </c>
-      <c r="H78" s="129" t="n">
+      <c r="J78" s="146" t="n">
+        <v>41</v>
+      </c>
+      <c r="K78" s="155" t="n">
         <v>44</v>
       </c>
-      <c r="I78" s="120" t="n">
+      <c r="L78" s="146" t="n">
+        <v>41</v>
+      </c>
+      <c r="M78" s="146" t="n">
         <v>41</v>
       </c>
     </row>
@@ -3849,6 +4789,10 @@
       <c r="G79" s="3" t="n"/>
       <c r="H79" s="3" t="n"/>
       <c r="I79" s="3" t="n"/>
+      <c r="J79" s="3" t="n"/>
+      <c r="K79" s="3" t="n"/>
+      <c r="L79" s="3" t="n"/>
+      <c r="M79" s="3" t="n"/>
     </row>
     <row r="80">
       <c r="A80" s="5" t="inlineStr">
@@ -3856,28 +4800,40 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B80" s="95" t="n">
+      <c r="B80" s="115" t="n">
         <v>33</v>
       </c>
-      <c r="C80" s="130" t="n">
+      <c r="C80" s="136" t="n">
         <v>30</v>
       </c>
-      <c r="D80" s="130" t="n">
+      <c r="D80" s="136" t="n">
         <v>30</v>
       </c>
-      <c r="E80" s="131" t="n">
+      <c r="E80" s="136" t="n">
+        <v>30</v>
+      </c>
+      <c r="F80" s="156" t="n">
         <v>28</v>
       </c>
-      <c r="F80" s="98" t="n">
-        <v>3</v>
-      </c>
-      <c r="G80" s="98" t="n">
-        <v>3</v>
-      </c>
-      <c r="H80" s="98" t="n">
-        <v>3</v>
-      </c>
-      <c r="I80" s="98" t="n">
+      <c r="G80" s="157" t="n">
+        <v>25</v>
+      </c>
+      <c r="H80" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="I80" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="J80" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="K80" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="L80" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="M80" s="120" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3887,28 +4843,40 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B81" s="95" t="n">
+      <c r="B81" s="115" t="n">
         <v>39</v>
       </c>
-      <c r="C81" s="132" t="n">
+      <c r="C81" s="158" t="n">
         <v>37</v>
       </c>
-      <c r="D81" s="132" t="n">
+      <c r="D81" s="159" t="n">
+        <v>38</v>
+      </c>
+      <c r="E81" s="158" t="n">
         <v>37</v>
       </c>
-      <c r="E81" s="132" t="n">
+      <c r="F81" s="158" t="n">
         <v>37</v>
       </c>
-      <c r="F81" s="98" t="n">
+      <c r="G81" s="130" t="n">
+        <v>36</v>
+      </c>
+      <c r="H81" s="120" t="n">
         <v>13</v>
       </c>
-      <c r="G81" s="133" t="n">
+      <c r="I81" s="120" t="n">
+        <v>11</v>
+      </c>
+      <c r="J81" s="160" t="n">
         <v>25</v>
       </c>
-      <c r="H81" s="98" t="n">
+      <c r="K81" s="120" t="n">
         <v>12</v>
       </c>
-      <c r="I81" s="134" t="n">
+      <c r="L81" s="120" t="n">
+        <v>11</v>
+      </c>
+      <c r="M81" s="161" t="n">
         <v>23</v>
       </c>
     </row>
@@ -3918,28 +4886,40 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B82" s="95" t="n">
+      <c r="B82" s="115" t="n">
         <v>53</v>
       </c>
-      <c r="C82" s="115" t="n">
+      <c r="C82" s="141" t="n">
         <v>52</v>
       </c>
-      <c r="D82" s="135" t="n">
+      <c r="D82" s="162" t="n">
         <v>55</v>
       </c>
-      <c r="E82" s="135" t="n">
+      <c r="E82" s="162" t="n">
         <v>55</v>
       </c>
-      <c r="F82" s="95" t="n">
+      <c r="F82" s="162" t="n">
+        <v>55</v>
+      </c>
+      <c r="G82" s="163" t="n">
+        <v>54</v>
+      </c>
+      <c r="H82" s="115" t="n">
         <v>53</v>
       </c>
-      <c r="G82" s="130" t="n">
+      <c r="I82" s="162" t="n">
+        <v>55</v>
+      </c>
+      <c r="J82" s="136" t="n">
         <v>48</v>
       </c>
-      <c r="H82" s="136" t="n">
+      <c r="K82" s="142" t="n">
         <v>51</v>
       </c>
-      <c r="I82" s="117" t="n">
+      <c r="L82" s="142" t="n">
+        <v>51</v>
+      </c>
+      <c r="M82" s="143" t="n">
         <v>47</v>
       </c>
     </row>
@@ -3957,6 +4937,10 @@
       <c r="G83" s="3" t="n"/>
       <c r="H83" s="3" t="n"/>
       <c r="I83" s="3" t="n"/>
+      <c r="J83" s="3" t="n"/>
+      <c r="K83" s="3" t="n"/>
+      <c r="L83" s="3" t="n"/>
+      <c r="M83" s="3" t="n"/>
     </row>
     <row r="84">
       <c r="A84" s="5" t="inlineStr">
@@ -3964,28 +4948,40 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B84" s="95" t="n">
+      <c r="B84" s="115" t="n">
         <v>34</v>
       </c>
-      <c r="C84" s="137" t="n">
+      <c r="C84" s="164" t="n">
         <v>30</v>
       </c>
-      <c r="D84" s="138" t="n">
+      <c r="D84" s="165" t="n">
+        <v>28</v>
+      </c>
+      <c r="E84" s="166" t="n">
         <v>27</v>
       </c>
-      <c r="E84" s="139" t="n">
+      <c r="F84" s="165" t="n">
         <v>28</v>
       </c>
-      <c r="F84" s="98" t="n">
-        <v>3</v>
-      </c>
-      <c r="G84" s="98" t="n">
+      <c r="G84" s="165" t="n">
+        <v>28</v>
+      </c>
+      <c r="H84" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="I84" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="J84" s="120" t="n">
         <v>5</v>
       </c>
-      <c r="H84" s="98" t="n">
-        <v>3</v>
-      </c>
-      <c r="I84" s="98" t="n">
+      <c r="K84" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="L84" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="M84" s="120" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3995,28 +4991,40 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B85" s="95" t="n">
+      <c r="B85" s="115" t="n">
         <v>43</v>
       </c>
-      <c r="C85" s="117" t="n">
+      <c r="C85" s="143" t="n">
         <v>38</v>
       </c>
-      <c r="D85" s="140" t="n">
+      <c r="D85" s="167" t="n">
+        <v>36</v>
+      </c>
+      <c r="E85" s="168" t="n">
         <v>35</v>
       </c>
-      <c r="E85" s="140" t="n">
+      <c r="F85" s="168" t="n">
         <v>35</v>
       </c>
-      <c r="F85" s="98" t="n">
+      <c r="G85" s="169" t="n">
+        <v>37</v>
+      </c>
+      <c r="H85" s="120" t="n">
         <v>13</v>
       </c>
-      <c r="G85" s="141" t="n">
+      <c r="I85" s="120" t="n">
+        <v>13</v>
+      </c>
+      <c r="J85" s="170" t="n">
         <v>24</v>
       </c>
-      <c r="H85" s="98" t="n">
+      <c r="K85" s="120" t="n">
         <v>11</v>
       </c>
-      <c r="I85" s="102" t="n">
+      <c r="L85" s="120" t="n">
+        <v>11</v>
+      </c>
+      <c r="M85" s="125" t="n">
         <v>23</v>
       </c>
     </row>
@@ -4026,28 +5034,40 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B86" s="95" t="n">
+      <c r="B86" s="115" t="n">
         <v>55</v>
       </c>
-      <c r="C86" s="112" t="n">
+      <c r="C86" s="138" t="n">
         <v>51</v>
       </c>
-      <c r="D86" s="142" t="n">
+      <c r="D86" s="136" t="n">
+        <v>50</v>
+      </c>
+      <c r="E86" s="171" t="n">
         <v>49</v>
       </c>
-      <c r="E86" s="142" t="n">
+      <c r="F86" s="171" t="n">
         <v>49</v>
       </c>
-      <c r="F86" s="130" t="n">
+      <c r="G86" s="142" t="n">
+        <v>53</v>
+      </c>
+      <c r="H86" s="136" t="n">
         <v>50</v>
       </c>
-      <c r="G86" s="136" t="n">
+      <c r="I86" s="138" t="n">
+        <v>51</v>
+      </c>
+      <c r="J86" s="142" t="n">
         <v>53</v>
       </c>
-      <c r="H86" s="143" t="n">
+      <c r="K86" s="133" t="n">
         <v>47</v>
       </c>
-      <c r="I86" s="130" t="n">
+      <c r="L86" s="136" t="n">
+        <v>50</v>
+      </c>
+      <c r="M86" s="136" t="n">
         <v>50</v>
       </c>
     </row>
@@ -4065,6 +5085,10 @@
       <c r="G87" s="3" t="n"/>
       <c r="H87" s="3" t="n"/>
       <c r="I87" s="3" t="n"/>
+      <c r="J87" s="3" t="n"/>
+      <c r="K87" s="3" t="n"/>
+      <c r="L87" s="3" t="n"/>
+      <c r="M87" s="3" t="n"/>
     </row>
     <row r="88">
       <c r="A88" s="5" t="inlineStr">
@@ -4072,28 +5096,40 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B88" s="95" t="n">
+      <c r="B88" s="115" t="n">
         <v>34</v>
       </c>
-      <c r="C88" s="144" t="n">
+      <c r="C88" s="172" t="n">
         <v>32</v>
       </c>
-      <c r="D88" s="145" t="n">
+      <c r="D88" s="116" t="n">
+        <v>33</v>
+      </c>
+      <c r="E88" s="173" t="n">
         <v>25</v>
       </c>
-      <c r="E88" s="114" t="n">
+      <c r="F88" s="140" t="n">
         <v>19</v>
       </c>
-      <c r="F88" s="98" t="n">
+      <c r="G88" s="140" t="n">
+        <v>19</v>
+      </c>
+      <c r="H88" s="120" t="n">
         <v>5</v>
       </c>
-      <c r="G88" s="98" t="n">
-        <v>3</v>
-      </c>
-      <c r="H88" s="98" t="n">
+      <c r="I88" s="120" t="n">
+        <v>5</v>
+      </c>
+      <c r="J88" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="K88" s="120" t="n">
         <v>4</v>
       </c>
-      <c r="I88" s="98" t="n">
+      <c r="L88" s="120" t="n">
+        <v>4</v>
+      </c>
+      <c r="M88" s="120" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4103,28 +5139,40 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B89" s="95" t="n">
+      <c r="B89" s="115" t="n">
         <v>46</v>
       </c>
-      <c r="C89" s="108" t="n">
+      <c r="C89" s="131" t="n">
         <v>40</v>
       </c>
-      <c r="D89" s="146" t="n">
+      <c r="D89" s="156" t="n">
+        <v>39</v>
+      </c>
+      <c r="E89" s="174" t="n">
         <v>34</v>
       </c>
-      <c r="E89" s="147" t="n">
+      <c r="F89" s="175" t="n">
         <v>28</v>
       </c>
-      <c r="F89" s="98" t="n">
+      <c r="G89" s="176" t="n">
+        <v>27</v>
+      </c>
+      <c r="H89" s="120" t="n">
         <v>12</v>
       </c>
-      <c r="G89" s="98" t="n">
+      <c r="I89" s="120" t="n">
+        <v>12</v>
+      </c>
+      <c r="J89" s="120" t="n">
         <v>17</v>
       </c>
-      <c r="H89" s="98" t="n">
+      <c r="K89" s="120" t="n">
         <v>11</v>
       </c>
-      <c r="I89" s="98" t="n">
+      <c r="L89" s="120" t="n">
+        <v>11</v>
+      </c>
+      <c r="M89" s="120" t="n">
         <v>17</v>
       </c>
     </row>
@@ -4134,28 +5182,40 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B90" s="95" t="n">
+      <c r="B90" s="115" t="n">
         <v>57</v>
       </c>
-      <c r="C90" s="148" t="n">
+      <c r="C90" s="177" t="n">
         <v>55</v>
       </c>
-      <c r="D90" s="149" t="n">
+      <c r="D90" s="178" t="n">
+        <v>53</v>
+      </c>
+      <c r="E90" s="179" t="n">
         <v>46</v>
       </c>
-      <c r="E90" s="150" t="n">
+      <c r="F90" s="180" t="n">
         <v>43</v>
       </c>
-      <c r="F90" s="151" t="n">
+      <c r="G90" s="181" t="n">
+        <v>48</v>
+      </c>
+      <c r="H90" s="178" t="n">
         <v>53</v>
       </c>
-      <c r="G90" s="152" t="n">
+      <c r="I90" s="178" t="n">
+        <v>53</v>
+      </c>
+      <c r="J90" s="182" t="n">
         <v>45</v>
       </c>
-      <c r="H90" s="151" t="n">
+      <c r="K90" s="178" t="n">
         <v>53</v>
       </c>
-      <c r="I90" s="153" t="n">
+      <c r="L90" s="183" t="n">
+        <v>51</v>
+      </c>
+      <c r="M90" s="184" t="n">
         <v>41</v>
       </c>
     </row>
@@ -4173,6 +5233,10 @@
       <c r="G91" s="3" t="n"/>
       <c r="H91" s="3" t="n"/>
       <c r="I91" s="3" t="n"/>
+      <c r="J91" s="3" t="n"/>
+      <c r="K91" s="3" t="n"/>
+      <c r="L91" s="3" t="n"/>
+      <c r="M91" s="3" t="n"/>
     </row>
     <row r="92">
       <c r="A92" s="5" t="inlineStr">
@@ -4180,28 +5244,40 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B92" s="95" t="n">
+      <c r="B92" s="115" t="n">
         <v>33</v>
       </c>
-      <c r="C92" s="154" t="n">
+      <c r="C92" s="185" t="n">
         <v>29</v>
       </c>
-      <c r="D92" s="154" t="n">
+      <c r="D92" s="186" t="n">
+        <v>27</v>
+      </c>
+      <c r="E92" s="185" t="n">
         <v>29</v>
       </c>
-      <c r="E92" s="154" t="n">
+      <c r="F92" s="185" t="n">
         <v>29</v>
       </c>
-      <c r="F92" s="98" t="n">
-        <v>3</v>
-      </c>
-      <c r="G92" s="98" t="n">
-        <v>3</v>
-      </c>
-      <c r="H92" s="98" t="n">
-        <v>3</v>
-      </c>
-      <c r="I92" s="98" t="n">
+      <c r="G92" s="185" t="n">
+        <v>29</v>
+      </c>
+      <c r="H92" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="I92" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="J92" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="K92" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="L92" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="M92" s="120" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4211,28 +5287,40 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B93" s="95" t="n">
+      <c r="B93" s="115" t="n">
         <v>41</v>
       </c>
-      <c r="C93" s="107" t="n">
+      <c r="C93" s="132" t="n">
         <v>37</v>
       </c>
-      <c r="D93" s="155" t="n">
+      <c r="D93" s="123" t="n">
+        <v>34</v>
+      </c>
+      <c r="E93" s="187" t="n">
         <v>39</v>
       </c>
-      <c r="E93" s="107" t="n">
+      <c r="F93" s="132" t="n">
         <v>37</v>
       </c>
-      <c r="F93" s="98" t="n">
+      <c r="G93" s="132" t="n">
+        <v>37</v>
+      </c>
+      <c r="H93" s="120" t="n">
         <v>13</v>
       </c>
-      <c r="G93" s="156" t="n">
+      <c r="I93" s="120" t="n">
+        <v>11</v>
+      </c>
+      <c r="J93" s="188" t="n">
         <v>21</v>
       </c>
-      <c r="H93" s="98" t="n">
+      <c r="K93" s="120" t="n">
         <v>13</v>
       </c>
-      <c r="I93" s="98" t="n">
+      <c r="L93" s="120" t="n">
+        <v>11</v>
+      </c>
+      <c r="M93" s="120" t="n">
         <v>19</v>
       </c>
     </row>
@@ -4242,28 +5330,40 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B94" s="95" t="n">
+      <c r="B94" s="115" t="n">
         <v>51</v>
       </c>
-      <c r="C94" s="157" t="n">
+      <c r="C94" s="189" t="n">
         <v>52</v>
       </c>
-      <c r="D94" s="158" t="n">
+      <c r="D94" s="142" t="n">
+        <v>49</v>
+      </c>
+      <c r="E94" s="190" t="n">
         <v>54</v>
       </c>
-      <c r="E94" s="103" t="n">
+      <c r="F94" s="126" t="n">
         <v>55</v>
       </c>
-      <c r="F94" s="106" t="n">
+      <c r="G94" s="190" t="n">
+        <v>54</v>
+      </c>
+      <c r="H94" s="130" t="n">
         <v>47</v>
       </c>
-      <c r="G94" s="144" t="n">
+      <c r="I94" s="130" t="n">
+        <v>47</v>
+      </c>
+      <c r="J94" s="172" t="n">
         <v>48</v>
       </c>
-      <c r="H94" s="106" t="n">
+      <c r="K94" s="130" t="n">
         <v>47</v>
       </c>
-      <c r="I94" s="136" t="n">
+      <c r="L94" s="132" t="n">
+        <v>46</v>
+      </c>
+      <c r="M94" s="142" t="n">
         <v>49</v>
       </c>
     </row>
@@ -4281,6 +5381,10 @@
       <c r="G95" s="3" t="n"/>
       <c r="H95" s="3" t="n"/>
       <c r="I95" s="3" t="n"/>
+      <c r="J95" s="3" t="n"/>
+      <c r="K95" s="3" t="n"/>
+      <c r="L95" s="3" t="n"/>
+      <c r="M95" s="3" t="n"/>
     </row>
     <row r="96">
       <c r="A96" s="5" t="inlineStr">
@@ -4288,28 +5392,40 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B96" s="95" t="n">
+      <c r="B96" s="115" t="n">
         <v>31</v>
       </c>
-      <c r="C96" s="95" t="n">
+      <c r="C96" s="115" t="n">
         <v>31</v>
       </c>
-      <c r="D96" s="95" t="n">
+      <c r="D96" s="129" t="n">
+        <v>29</v>
+      </c>
+      <c r="E96" s="115" t="n">
         <v>31</v>
       </c>
-      <c r="E96" s="105" t="n">
+      <c r="F96" s="129" t="n">
         <v>29</v>
       </c>
-      <c r="F96" s="98" t="n">
-        <v>3</v>
-      </c>
-      <c r="G96" s="98" t="n">
-        <v>3</v>
-      </c>
-      <c r="H96" s="98" t="n">
-        <v>3</v>
-      </c>
-      <c r="I96" s="98" t="n">
+      <c r="G96" s="177" t="n">
+        <v>30</v>
+      </c>
+      <c r="H96" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="I96" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="J96" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="K96" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="L96" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="M96" s="120" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4319,28 +5435,40 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B97" s="95" t="n">
+      <c r="B97" s="115" t="n">
         <v>39</v>
       </c>
-      <c r="C97" s="132" t="n">
+      <c r="C97" s="158" t="n">
         <v>37</v>
       </c>
-      <c r="D97" s="95" t="n">
+      <c r="D97" s="158" t="n">
+        <v>37</v>
+      </c>
+      <c r="E97" s="115" t="n">
         <v>39</v>
       </c>
-      <c r="E97" s="159" t="n">
+      <c r="F97" s="191" t="n">
         <v>33</v>
       </c>
-      <c r="F97" s="98" t="n">
+      <c r="G97" s="159" t="n">
+        <v>38</v>
+      </c>
+      <c r="H97" s="120" t="n">
         <v>11</v>
       </c>
-      <c r="G97" s="160" t="n">
+      <c r="I97" s="120" t="n">
+        <v>11</v>
+      </c>
+      <c r="J97" s="192" t="n">
         <v>22</v>
       </c>
-      <c r="H97" s="98" t="n">
+      <c r="K97" s="120" t="n">
         <v>11</v>
       </c>
-      <c r="I97" s="98" t="n">
+      <c r="L97" s="120" t="n">
+        <v>11</v>
+      </c>
+      <c r="M97" s="120" t="n">
         <v>19</v>
       </c>
     </row>
@@ -4350,28 +5478,40 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B98" s="95" t="n">
+      <c r="B98" s="115" t="n">
         <v>49</v>
       </c>
-      <c r="C98" s="161" t="n">
+      <c r="C98" s="193" t="n">
         <v>53</v>
       </c>
-      <c r="D98" s="161" t="n">
+      <c r="D98" s="193" t="n">
         <v>53</v>
       </c>
-      <c r="E98" s="109" t="n">
+      <c r="E98" s="193" t="n">
+        <v>53</v>
+      </c>
+      <c r="F98" s="134" t="n">
         <v>52</v>
       </c>
-      <c r="F98" s="95" t="n">
+      <c r="G98" s="193" t="n">
+        <v>53</v>
+      </c>
+      <c r="H98" s="115" t="n">
         <v>49</v>
       </c>
-      <c r="G98" s="115" t="n">
+      <c r="I98" s="141" t="n">
         <v>48</v>
       </c>
-      <c r="H98" s="99" t="n">
+      <c r="J98" s="141" t="n">
+        <v>48</v>
+      </c>
+      <c r="K98" s="121" t="n">
         <v>47</v>
       </c>
-      <c r="I98" s="95" t="n">
+      <c r="L98" s="121" t="n">
+        <v>47</v>
+      </c>
+      <c r="M98" s="115" t="n">
         <v>49</v>
       </c>
     </row>
@@ -4389,6 +5529,10 @@
       <c r="G99" s="3" t="n"/>
       <c r="H99" s="3" t="n"/>
       <c r="I99" s="3" t="n"/>
+      <c r="J99" s="3" t="n"/>
+      <c r="K99" s="3" t="n"/>
+      <c r="L99" s="3" t="n"/>
+      <c r="M99" s="3" t="n"/>
     </row>
     <row r="100">
       <c r="A100" s="5" t="inlineStr">
@@ -4396,28 +5540,40 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B100" s="95" t="n">
+      <c r="B100" s="115" t="n">
         <v>18</v>
       </c>
-      <c r="C100" s="122" t="n">
+      <c r="C100" s="148" t="n">
         <v>30</v>
       </c>
-      <c r="D100" s="122" t="n">
+      <c r="D100" s="148" t="n">
         <v>27</v>
       </c>
-      <c r="E100" s="122" t="n">
+      <c r="E100" s="148" t="n">
         <v>27</v>
       </c>
-      <c r="F100" s="98" t="n">
-        <v>3</v>
-      </c>
-      <c r="G100" s="98" t="n">
-        <v>3</v>
-      </c>
-      <c r="H100" s="98" t="n">
-        <v>3</v>
-      </c>
-      <c r="I100" s="98" t="n">
+      <c r="F100" s="148" t="n">
+        <v>27</v>
+      </c>
+      <c r="G100" s="148" t="n">
+        <v>28</v>
+      </c>
+      <c r="H100" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="I100" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="J100" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="K100" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="L100" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="M100" s="120" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4427,28 +5583,40 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B101" s="95" t="n">
+      <c r="B101" s="115" t="n">
         <v>29</v>
       </c>
-      <c r="C101" s="162" t="n">
+      <c r="C101" s="194" t="n">
         <v>35</v>
       </c>
-      <c r="D101" s="163" t="n">
+      <c r="D101" s="195" t="n">
+        <v>34</v>
+      </c>
+      <c r="E101" s="196" t="n">
         <v>33</v>
       </c>
-      <c r="E101" s="164" t="n">
+      <c r="F101" s="195" t="n">
         <v>34</v>
       </c>
-      <c r="F101" s="165" t="n">
+      <c r="G101" s="196" t="n">
+        <v>33</v>
+      </c>
+      <c r="H101" s="197" t="n">
         <v>20</v>
       </c>
-      <c r="G101" s="118" t="n">
+      <c r="I101" s="144" t="n">
         <v>19</v>
       </c>
-      <c r="H101" s="118" t="n">
+      <c r="J101" s="144" t="n">
         <v>19</v>
       </c>
-      <c r="I101" s="165" t="n">
+      <c r="K101" s="144" t="n">
+        <v>19</v>
+      </c>
+      <c r="L101" s="176" t="n">
+        <v>17</v>
+      </c>
+      <c r="M101" s="197" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4458,28 +5626,40 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B102" s="95" t="n">
+      <c r="B102" s="115" t="n">
         <v>42</v>
       </c>
-      <c r="C102" s="166" t="n">
+      <c r="C102" s="198" t="n">
         <v>45</v>
       </c>
-      <c r="D102" s="111" t="n">
+      <c r="D102" s="137" t="n">
         <v>43</v>
       </c>
-      <c r="E102" s="111" t="n">
+      <c r="E102" s="137" t="n">
         <v>43</v>
       </c>
-      <c r="F102" s="167" t="n">
+      <c r="F102" s="137" t="n">
+        <v>43</v>
+      </c>
+      <c r="G102" s="137" t="n">
+        <v>43</v>
+      </c>
+      <c r="H102" s="159" t="n">
         <v>41</v>
       </c>
-      <c r="G102" s="167" t="n">
+      <c r="I102" s="137" t="n">
+        <v>43</v>
+      </c>
+      <c r="J102" s="159" t="n">
         <v>41</v>
       </c>
-      <c r="H102" s="167" t="n">
+      <c r="K102" s="159" t="n">
         <v>41</v>
       </c>
-      <c r="I102" s="111" t="n">
+      <c r="L102" s="137" t="n">
+        <v>43</v>
+      </c>
+      <c r="M102" s="137" t="n">
         <v>43</v>
       </c>
     </row>
@@ -4497,6 +5677,10 @@
       <c r="G103" s="3" t="n"/>
       <c r="H103" s="3" t="n"/>
       <c r="I103" s="3" t="n"/>
+      <c r="J103" s="3" t="n"/>
+      <c r="K103" s="3" t="n"/>
+      <c r="L103" s="3" t="n"/>
+      <c r="M103" s="3" t="n"/>
     </row>
     <row r="104">
       <c r="A104" s="5" t="inlineStr">
@@ -4504,28 +5688,40 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B104" s="95" t="n">
-        <v>3</v>
-      </c>
-      <c r="C104" s="122" t="n">
+      <c r="B104" s="115" t="n">
+        <v>3</v>
+      </c>
+      <c r="C104" s="148" t="n">
         <v>29</v>
       </c>
-      <c r="D104" s="122" t="n">
+      <c r="D104" s="148" t="n">
+        <v>25</v>
+      </c>
+      <c r="E104" s="148" t="n">
         <v>19</v>
       </c>
-      <c r="E104" s="122" t="n">
+      <c r="F104" s="148" t="n">
         <v>31</v>
       </c>
-      <c r="F104" s="95" t="n">
-        <v>3</v>
-      </c>
-      <c r="G104" s="95" t="n">
-        <v>3</v>
-      </c>
-      <c r="H104" s="95" t="n">
-        <v>3</v>
-      </c>
-      <c r="I104" s="95" t="n">
+      <c r="G104" s="148" t="n">
+        <v>26</v>
+      </c>
+      <c r="H104" s="115" t="n">
+        <v>3</v>
+      </c>
+      <c r="I104" s="115" t="n">
+        <v>3</v>
+      </c>
+      <c r="J104" s="115" t="n">
+        <v>3</v>
+      </c>
+      <c r="K104" s="115" t="n">
+        <v>3</v>
+      </c>
+      <c r="L104" s="115" t="n">
+        <v>3</v>
+      </c>
+      <c r="M104" s="115" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4535,28 +5731,40 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B105" s="95" t="n">
+      <c r="B105" s="115" t="n">
         <v>7</v>
       </c>
-      <c r="C105" s="122" t="n">
+      <c r="C105" s="148" t="n">
         <v>38</v>
       </c>
-      <c r="D105" s="122" t="n">
+      <c r="D105" s="148" t="n">
+        <v>32</v>
+      </c>
+      <c r="E105" s="148" t="n">
         <v>28</v>
       </c>
-      <c r="E105" s="122" t="n">
+      <c r="F105" s="148" t="n">
         <v>41</v>
       </c>
-      <c r="F105" s="122" t="n">
+      <c r="G105" s="148" t="n">
+        <v>34</v>
+      </c>
+      <c r="H105" s="148" t="n">
         <v>13</v>
       </c>
-      <c r="G105" s="122" t="n">
+      <c r="I105" s="148" t="n">
+        <v>11</v>
+      </c>
+      <c r="J105" s="148" t="n">
         <v>19</v>
       </c>
-      <c r="H105" s="122" t="n">
+      <c r="K105" s="148" t="n">
         <v>11</v>
       </c>
-      <c r="I105" s="122" t="n">
+      <c r="L105" s="148" t="n">
+        <v>11</v>
+      </c>
+      <c r="M105" s="148" t="n">
         <v>15</v>
       </c>
     </row>
@@ -4566,28 +5774,40 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B106" s="95" t="n">
+      <c r="B106" s="115" t="n">
         <v>13</v>
       </c>
-      <c r="C106" s="122" t="n">
+      <c r="C106" s="148" t="n">
         <v>57</v>
       </c>
-      <c r="D106" s="122" t="n">
+      <c r="D106" s="148" t="n">
+        <v>52</v>
+      </c>
+      <c r="E106" s="148" t="n">
         <v>49</v>
       </c>
-      <c r="E106" s="122" t="n">
+      <c r="F106" s="148" t="n">
         <v>59</v>
       </c>
-      <c r="F106" s="122" t="n">
+      <c r="G106" s="148" t="n">
+        <v>49</v>
+      </c>
+      <c r="H106" s="148" t="n">
         <v>53</v>
       </c>
-      <c r="G106" s="122" t="n">
+      <c r="I106" s="148" t="n">
+        <v>45</v>
+      </c>
+      <c r="J106" s="148" t="n">
         <v>46</v>
       </c>
-      <c r="H106" s="122" t="n">
+      <c r="K106" s="148" t="n">
         <v>50</v>
       </c>
-      <c r="I106" s="122" t="n">
+      <c r="L106" s="148" t="n">
+        <v>45</v>
+      </c>
+      <c r="M106" s="148" t="n">
         <v>37</v>
       </c>
     </row>
@@ -4605,6 +5825,10 @@
       <c r="G107" s="3" t="n"/>
       <c r="H107" s="3" t="n"/>
       <c r="I107" s="3" t="n"/>
+      <c r="J107" s="3" t="n"/>
+      <c r="K107" s="3" t="n"/>
+      <c r="L107" s="3" t="n"/>
+      <c r="M107" s="3" t="n"/>
     </row>
     <row r="108">
       <c r="A108" s="5" t="inlineStr">
@@ -4612,28 +5836,40 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B108" s="95" t="n">
+      <c r="B108" s="115" t="n">
         <v>33</v>
       </c>
-      <c r="C108" s="168" t="n">
+      <c r="C108" s="186" t="n">
         <v>27</v>
       </c>
-      <c r="D108" s="110" t="n">
+      <c r="D108" s="185" t="n">
+        <v>29</v>
+      </c>
+      <c r="E108" s="135" t="n">
         <v>31</v>
       </c>
-      <c r="E108" s="131" t="n">
+      <c r="F108" s="156" t="n">
         <v>28</v>
       </c>
-      <c r="F108" s="98" t="n">
-        <v>3</v>
-      </c>
-      <c r="G108" s="98" t="n">
+      <c r="G108" s="186" t="n">
+        <v>27</v>
+      </c>
+      <c r="H108" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="I108" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="J108" s="120" t="n">
         <v>5</v>
       </c>
-      <c r="H108" s="98" t="n">
-        <v>3</v>
-      </c>
-      <c r="I108" s="98" t="n">
+      <c r="K108" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="L108" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="M108" s="120" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4643,28 +5879,40 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B109" s="95" t="n">
+      <c r="B109" s="115" t="n">
         <v>40</v>
       </c>
-      <c r="C109" s="169" t="n">
+      <c r="C109" s="199" t="n">
         <v>35</v>
       </c>
-      <c r="D109" s="167" t="n">
+      <c r="D109" s="199" t="n">
+        <v>35</v>
+      </c>
+      <c r="E109" s="159" t="n">
         <v>39</v>
       </c>
-      <c r="E109" s="169" t="n">
+      <c r="F109" s="199" t="n">
         <v>35</v>
       </c>
-      <c r="F109" s="98" t="n">
+      <c r="G109" s="156" t="n">
+        <v>34</v>
+      </c>
+      <c r="H109" s="120" t="n">
         <v>9</v>
       </c>
-      <c r="G109" s="170" t="n">
+      <c r="I109" s="120" t="n">
+        <v>11</v>
+      </c>
+      <c r="J109" s="200" t="n">
         <v>21</v>
       </c>
-      <c r="H109" s="98" t="n">
+      <c r="K109" s="120" t="n">
         <v>9</v>
       </c>
-      <c r="I109" s="171" t="n">
+      <c r="L109" s="120" t="n">
+        <v>11</v>
+      </c>
+      <c r="M109" s="201" t="n">
         <v>23</v>
       </c>
     </row>
@@ -4674,28 +5922,40 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B110" s="95" t="n">
+      <c r="B110" s="115" t="n">
         <v>51</v>
       </c>
-      <c r="C110" s="137" t="n">
+      <c r="C110" s="164" t="n">
         <v>45</v>
       </c>
-      <c r="D110" s="95" t="n">
+      <c r="D110" s="130" t="n">
+        <v>47</v>
+      </c>
+      <c r="E110" s="115" t="n">
         <v>51</v>
       </c>
-      <c r="E110" s="106" t="n">
+      <c r="F110" s="130" t="n">
         <v>47</v>
       </c>
-      <c r="F110" s="137" t="n">
+      <c r="G110" s="172" t="n">
+        <v>48</v>
+      </c>
+      <c r="H110" s="164" t="n">
         <v>45</v>
       </c>
-      <c r="G110" s="137" t="n">
+      <c r="I110" s="164" t="n">
         <v>45</v>
       </c>
-      <c r="H110" s="172" t="n">
+      <c r="J110" s="164" t="n">
+        <v>45</v>
+      </c>
+      <c r="K110" s="169" t="n">
         <v>44</v>
       </c>
-      <c r="I110" s="137" t="n">
+      <c r="L110" s="164" t="n">
+        <v>45</v>
+      </c>
+      <c r="M110" s="164" t="n">
         <v>45</v>
       </c>
     </row>
@@ -4713,6 +5973,10 @@
       <c r="G111" s="3" t="n"/>
       <c r="H111" s="3" t="n"/>
       <c r="I111" s="3" t="n"/>
+      <c r="J111" s="3" t="n"/>
+      <c r="K111" s="3" t="n"/>
+      <c r="L111" s="3" t="n"/>
+      <c r="M111" s="3" t="n"/>
     </row>
     <row r="112">
       <c r="A112" s="5" t="inlineStr">
@@ -4720,28 +5984,40 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B112" s="95" t="n">
+      <c r="B112" s="115" t="n">
         <v>27</v>
       </c>
-      <c r="C112" s="95" t="n">
+      <c r="C112" s="115" t="n">
         <v>27</v>
       </c>
-      <c r="D112" s="95" t="n">
+      <c r="D112" s="115" t="n">
         <v>27</v>
       </c>
-      <c r="E112" s="95" t="n">
+      <c r="E112" s="115" t="n">
         <v>27</v>
       </c>
-      <c r="F112" s="98" t="n">
-        <v>3</v>
-      </c>
-      <c r="G112" s="98" t="n">
-        <v>3</v>
-      </c>
-      <c r="H112" s="98" t="n">
-        <v>3</v>
-      </c>
-      <c r="I112" s="98" t="n">
+      <c r="F112" s="115" t="n">
+        <v>27</v>
+      </c>
+      <c r="G112" s="115" t="n">
+        <v>27</v>
+      </c>
+      <c r="H112" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="I112" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="J112" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="K112" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="L112" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="M112" s="120" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4751,28 +6027,40 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B113" s="95" t="n">
+      <c r="B113" s="115" t="n">
         <v>31</v>
       </c>
-      <c r="C113" s="173" t="n">
+      <c r="C113" s="202" t="n">
         <v>33</v>
       </c>
-      <c r="D113" s="95" t="n">
+      <c r="D113" s="128" t="n">
+        <v>34</v>
+      </c>
+      <c r="E113" s="115" t="n">
         <v>31</v>
       </c>
-      <c r="E113" s="95" t="n">
+      <c r="F113" s="115" t="n">
         <v>31</v>
       </c>
-      <c r="F113" s="98" t="n">
+      <c r="G113" s="115" t="n">
+        <v>31</v>
+      </c>
+      <c r="H113" s="120" t="n">
         <v>13</v>
       </c>
-      <c r="G113" s="101" t="n">
+      <c r="I113" s="120" t="n">
+        <v>11</v>
+      </c>
+      <c r="J113" s="124" t="n">
         <v>19</v>
       </c>
-      <c r="H113" s="98" t="n">
+      <c r="K113" s="120" t="n">
         <v>13</v>
       </c>
-      <c r="I113" s="174" t="n">
+      <c r="L113" s="120" t="n">
+        <v>11</v>
+      </c>
+      <c r="M113" s="203" t="n">
         <v>21</v>
       </c>
     </row>
@@ -4782,28 +6070,40 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B114" s="95" t="n">
+      <c r="B114" s="115" t="n">
         <v>39</v>
       </c>
-      <c r="C114" s="95" t="n">
+      <c r="C114" s="115" t="n">
         <v>39</v>
       </c>
-      <c r="D114" s="95" t="n">
+      <c r="D114" s="115" t="n">
         <v>39</v>
       </c>
-      <c r="E114" s="95" t="n">
+      <c r="E114" s="115" t="n">
         <v>39</v>
       </c>
-      <c r="F114" s="95" t="n">
+      <c r="F114" s="115" t="n">
         <v>39</v>
       </c>
-      <c r="G114" s="95" t="n">
+      <c r="G114" s="115" t="n">
         <v>39</v>
       </c>
-      <c r="H114" s="95" t="n">
+      <c r="H114" s="115" t="n">
         <v>39</v>
       </c>
-      <c r="I114" s="95" t="n">
+      <c r="I114" s="115" t="n">
+        <v>39</v>
+      </c>
+      <c r="J114" s="115" t="n">
+        <v>39</v>
+      </c>
+      <c r="K114" s="115" t="n">
+        <v>39</v>
+      </c>
+      <c r="L114" s="115" t="n">
+        <v>39</v>
+      </c>
+      <c r="M114" s="115" t="n">
         <v>39</v>
       </c>
     </row>
@@ -4821,6 +6121,10 @@
       <c r="G115" s="3" t="n"/>
       <c r="H115" s="3" t="n"/>
       <c r="I115" s="3" t="n"/>
+      <c r="J115" s="3" t="n"/>
+      <c r="K115" s="3" t="n"/>
+      <c r="L115" s="3" t="n"/>
+      <c r="M115" s="3" t="n"/>
     </row>
     <row r="116">
       <c r="A116" s="5" t="inlineStr">
@@ -4828,28 +6132,40 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B116" s="95" t="n">
+      <c r="B116" s="115" t="n">
         <v>27</v>
       </c>
-      <c r="C116" s="95" t="n">
+      <c r="C116" s="115" t="n">
         <v>27</v>
       </c>
-      <c r="D116" s="95" t="n">
+      <c r="D116" s="115" t="n">
         <v>27</v>
       </c>
-      <c r="E116" s="95" t="n">
+      <c r="E116" s="115" t="n">
         <v>27</v>
       </c>
-      <c r="F116" s="98" t="n">
-        <v>3</v>
-      </c>
-      <c r="G116" s="98" t="n">
-        <v>3</v>
-      </c>
-      <c r="H116" s="98" t="n">
-        <v>3</v>
-      </c>
-      <c r="I116" s="98" t="n">
+      <c r="F116" s="115" t="n">
+        <v>27</v>
+      </c>
+      <c r="G116" s="142" t="n">
+        <v>26</v>
+      </c>
+      <c r="H116" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="I116" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="J116" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="K116" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="L116" s="120" t="n">
+        <v>3</v>
+      </c>
+      <c r="M116" s="120" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4859,28 +6175,40 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B117" s="95" t="n">
+      <c r="B117" s="115" t="n">
         <v>35</v>
       </c>
-      <c r="C117" s="117" t="n">
+      <c r="C117" s="143" t="n">
         <v>31</v>
       </c>
-      <c r="D117" s="117" t="n">
+      <c r="D117" s="143" t="n">
         <v>31</v>
       </c>
-      <c r="E117" s="117" t="n">
+      <c r="E117" s="143" t="n">
         <v>31</v>
       </c>
-      <c r="F117" s="98" t="n">
+      <c r="F117" s="143" t="n">
+        <v>31</v>
+      </c>
+      <c r="G117" s="143" t="n">
+        <v>31</v>
+      </c>
+      <c r="H117" s="120" t="n">
         <v>15</v>
       </c>
-      <c r="G117" s="98" t="n">
+      <c r="I117" s="204" t="n">
+        <v>18</v>
+      </c>
+      <c r="J117" s="120" t="n">
         <v>15</v>
       </c>
-      <c r="H117" s="98" t="n">
+      <c r="K117" s="120" t="n">
         <v>15</v>
       </c>
-      <c r="I117" s="125" t="n">
+      <c r="L117" s="204" t="n">
+        <v>18</v>
+      </c>
+      <c r="M117" s="151" t="n">
         <v>19</v>
       </c>
     </row>
@@ -4890,28 +6218,40 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B118" s="95" t="n">
+      <c r="B118" s="115" t="n">
         <v>41</v>
       </c>
-      <c r="C118" s="95" t="n">
+      <c r="C118" s="115" t="n">
         <v>41</v>
       </c>
-      <c r="D118" s="95" t="n">
+      <c r="D118" s="115" t="n">
         <v>41</v>
       </c>
-      <c r="E118" s="167" t="n">
+      <c r="E118" s="115" t="n">
+        <v>41</v>
+      </c>
+      <c r="F118" s="159" t="n">
         <v>40</v>
       </c>
-      <c r="F118" s="155" t="n">
+      <c r="G118" s="187" t="n">
         <v>39</v>
       </c>
-      <c r="G118" s="95" t="n">
+      <c r="H118" s="187" t="n">
+        <v>39</v>
+      </c>
+      <c r="I118" s="187" t="n">
+        <v>39</v>
+      </c>
+      <c r="J118" s="115" t="n">
         <v>41</v>
       </c>
-      <c r="H118" s="155" t="n">
+      <c r="K118" s="187" t="n">
         <v>39</v>
       </c>
-      <c r="I118" s="95" t="n">
+      <c r="L118" s="187" t="n">
+        <v>39</v>
+      </c>
+      <c r="M118" s="115" t="n">
         <v>41</v>
       </c>
     </row>

--- a/slim_gsgp/median_results.xlsx
+++ b/slim_gsgp/median_results.xlsx
@@ -45,7 +45,7 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="148">
+  <fills count="131">
     <fill>
       <patternFill/>
     </fill>
@@ -78,12 +78,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFA6A6"/>
-        <bgColor rgb="00FFA6A6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00FF9A9A"/>
         <bgColor rgb="00FF9A9A"/>
       </patternFill>
@@ -144,12 +138,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B1F3B1"/>
-        <bgColor rgb="00B1F3B1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00B0F2B0"/>
         <bgColor rgb="00B0F2B0"/>
       </patternFill>
@@ -162,398 +150,572 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FFE2E2"/>
+        <bgColor rgb="00FFE2E2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A7F1A7"/>
+        <bgColor rgb="00A7F1A7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ABF2AB"/>
+        <bgColor rgb="00ABF2AB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ACF2AC"/>
+        <bgColor rgb="00ACF2AC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ADF2AD"/>
+        <bgColor rgb="00ADF2AD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AEF2AE"/>
+        <bgColor rgb="00AEF2AE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AFF2AF"/>
+        <bgColor rgb="00AFF2AF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B3F3B3"/>
+        <bgColor rgb="00B3F3B3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009AEF9A"/>
+        <bgColor rgb="009AEF9A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009EF09E"/>
+        <bgColor rgb="009EF09E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFD4D4"/>
+        <bgColor rgb="00FFD4D4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C1F5C1"/>
+        <bgColor rgb="00C1F5C1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BCF4BC"/>
+        <bgColor rgb="00BCF4BC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BEF5BE"/>
+        <bgColor rgb="00BEF5BE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DEFADE"/>
+        <bgColor rgb="00DEFADE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C4F6C4"/>
+        <bgColor rgb="00C4F6C4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D7F9D7"/>
+        <bgColor rgb="00D7F9D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D2F8D2"/>
+        <bgColor rgb="00D2F8D2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D4F8D4"/>
+        <bgColor rgb="00D4F8D4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E1FAE1"/>
+        <bgColor rgb="00E1FAE1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D3F8D3"/>
+        <bgColor rgb="00D3F8D3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D5F8D5"/>
+        <bgColor rgb="00D5F8D5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E3FAE3"/>
+        <bgColor rgb="00E3FAE3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CFF7CF"/>
+        <bgColor rgb="00CFF7CF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D7F8D7"/>
+        <bgColor rgb="00D7F8D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFA4A4"/>
+        <bgColor rgb="00FFA4A4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D1F8D1"/>
+        <bgColor rgb="00D1F8D1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D6F8D6"/>
+        <bgColor rgb="00D6F8D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D8F9D8"/>
+        <bgColor rgb="00D8F9D8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E0FAE0"/>
+        <bgColor rgb="00E0FAE0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A0F0A0"/>
+        <bgColor rgb="00A0F0A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFC9C9"/>
+        <bgColor rgb="00FFC9C9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009DF09D"/>
+        <bgColor rgb="009DF09D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF9F9"/>
+        <bgColor rgb="00FFF9F9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFA7A7"/>
+        <bgColor rgb="00FFA7A7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009CEF9C"/>
+        <bgColor rgb="009CEF9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF7E7E"/>
+        <bgColor rgb="00FF7E7E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A8F1A8"/>
+        <bgColor rgb="00A8F1A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEFEFE"/>
+        <bgColor rgb="00FEFEFE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBFEFB"/>
+        <bgColor rgb="00FBFEFB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FAFEFA"/>
+        <bgColor rgb="00FAFEFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFDFD"/>
+        <bgColor rgb="00FFFDFD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFCFC"/>
+        <bgColor rgb="00FFFCFC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDFEFD"/>
+        <bgColor rgb="00FDFEFD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFAFA"/>
+        <bgColor rgb="00FFFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF8F8"/>
+        <bgColor rgb="00FFF8F8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFBFB"/>
+        <bgColor rgb="00FFFBFB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EFFCEF"/>
+        <bgColor rgb="00EFFCEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EDFCED"/>
+        <bgColor rgb="00EDFCED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EAFBEA"/>
+        <bgColor rgb="00EAFBEA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F0FCF0"/>
+        <bgColor rgb="00F0FCF0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EEFCEE"/>
+        <bgColor rgb="00EEFCEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F6FDF6"/>
+        <bgColor rgb="00F6FDF6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F1FCF1"/>
+        <bgColor rgb="00F1FCF1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F5FDF5"/>
+        <bgColor rgb="00F5FDF5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F8FDF8"/>
+        <bgColor rgb="00F8FDF8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F4FDF4"/>
+        <bgColor rgb="00F4FDF4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DFFADF"/>
+        <bgColor rgb="00DFFADF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9F9D9"/>
+        <bgColor rgb="00D9F9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFC2C2"/>
+        <bgColor rgb="00FFC2C2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DAF9DA"/>
+        <bgColor rgb="00DAF9DA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DDF9DD"/>
+        <bgColor rgb="00DDF9DD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DBF9DB"/>
+        <bgColor rgb="00DBF9DB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E6FBE6"/>
+        <bgColor rgb="00E6FBE6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E5FBE5"/>
+        <bgColor rgb="00E5FBE5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E2FAE2"/>
+        <bgColor rgb="00E2FAE2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CDF7CD"/>
+        <bgColor rgb="00CDF7CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFE3E3"/>
+        <bgColor rgb="00FFE3E3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CCF7CC"/>
+        <bgColor rgb="00CCF7CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DCF9DC"/>
+        <bgColor rgb="00DCF9DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C8F6C8"/>
+        <bgColor rgb="00C8F6C8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CAF6CA"/>
+        <bgColor rgb="00CAF6CA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CAF7CA"/>
+        <bgColor rgb="00CAF7CA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B0F3B0"/>
+        <bgColor rgb="00B0F3B0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CBF7CB"/>
+        <bgColor rgb="00CBF7CB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CEF7CE"/>
+        <bgColor rgb="00CEF7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0097EF97"/>
+        <bgColor rgb="0097EF97"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B6F3B6"/>
+        <bgColor rgb="00B6F3B6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2FDF2"/>
+        <bgColor rgb="00F2FDF2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F8FEF8"/>
+        <bgColor rgb="00F8FEF8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00A9F1A9"/>
         <bgColor rgb="00A9F1A9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFE2E2"/>
-        <bgColor rgb="00FFE2E2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A7F1A7"/>
-        <bgColor rgb="00A7F1A7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A8F1A8"/>
-        <bgColor rgb="00A8F1A8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ABF2AB"/>
-        <bgColor rgb="00ABF2AB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ACF2AC"/>
-        <bgColor rgb="00ACF2AC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ADF2AD"/>
-        <bgColor rgb="00ADF2AD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00AEF2AE"/>
-        <bgColor rgb="00AEF2AE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00AFF2AF"/>
-        <bgColor rgb="00AFF2AF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B8F4B8"/>
-        <bgColor rgb="00B8F4B8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B3F3B3"/>
-        <bgColor rgb="00B3F3B3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009AEF9A"/>
-        <bgColor rgb="009AEF9A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009EF09E"/>
-        <bgColor rgb="009EF09E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFD8D8"/>
-        <bgColor rgb="00FFD8D8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFD4D4"/>
-        <bgColor rgb="00FFD4D4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C8F6C8"/>
-        <bgColor rgb="00C8F6C8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C1F5C1"/>
-        <bgColor rgb="00C1F5C1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BCF4BC"/>
-        <bgColor rgb="00BCF4BC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BDF4BD"/>
-        <bgColor rgb="00BDF4BD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BEF5BE"/>
-        <bgColor rgb="00BEF5BE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DFFADF"/>
-        <bgColor rgb="00DFFADF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DEFADE"/>
-        <bgColor rgb="00DEFADE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C4F6C4"/>
-        <bgColor rgb="00C4F6C4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D8F9D8"/>
-        <bgColor rgb="00D8F9D8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D7F9D7"/>
-        <bgColor rgb="00D7F9D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D2F8D2"/>
-        <bgColor rgb="00D2F8D2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D6F8D6"/>
-        <bgColor rgb="00D6F8D6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D4F8D4"/>
-        <bgColor rgb="00D4F8D4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E6FBE6"/>
-        <bgColor rgb="00E6FBE6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E1FAE1"/>
-        <bgColor rgb="00E1FAE1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D3F8D3"/>
-        <bgColor rgb="00D3F8D3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D5F8D5"/>
-        <bgColor rgb="00D5F8D5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E3FAE3"/>
-        <bgColor rgb="00E3FAE3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CFF7CF"/>
-        <bgColor rgb="00CFF7CF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D1F8D1"/>
-        <bgColor rgb="00D1F8D1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D7F8D7"/>
-        <bgColor rgb="00D7F8D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFA4A4"/>
-        <bgColor rgb="00FFA4A4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E5FBE5"/>
-        <bgColor rgb="00E5FBE5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E0FAE0"/>
-        <bgColor rgb="00E0FAE0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0091EE91"/>
-        <bgColor rgb="0091EE91"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A0F0A0"/>
-        <bgColor rgb="00A0F0A0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFC9C9"/>
-        <bgColor rgb="00FFC9C9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009DF09D"/>
-        <bgColor rgb="009DF09D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A6F1A6"/>
-        <bgColor rgb="00A6F1A6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFF8F8"/>
-        <bgColor rgb="00FFF8F8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFF9F9"/>
-        <bgColor rgb="00FFF9F9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFA7A7"/>
-        <bgColor rgb="00FFA7A7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009CEF9C"/>
-        <bgColor rgb="009CEF9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009BEF9B"/>
-        <bgColor rgb="009BEF9B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF8989"/>
-        <bgColor rgb="00FF8989"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF7E7E"/>
-        <bgColor rgb="00FF7E7E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFF6F6"/>
-        <bgColor rgb="00FFF6F6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
-        <bgColor rgb="00FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FEFEFE"/>
-        <bgColor rgb="00FEFEFE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FBFEFB"/>
-        <bgColor rgb="00FBFEFB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FAFEFA"/>
-        <bgColor rgb="00FAFEFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFCFC"/>
-        <bgColor rgb="00FFFCFC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFDFD"/>
-        <bgColor rgb="00FFFDFD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FDFEFD"/>
-        <bgColor rgb="00FDFEFD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFAFA"/>
-        <bgColor rgb="00FFFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFBFB"/>
-        <bgColor rgb="00FFFBFB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F5FDF5"/>
-        <bgColor rgb="00F5FDF5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EFFCEF"/>
-        <bgColor rgb="00EFFCEF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EDFCED"/>
-        <bgColor rgb="00EDFCED"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EBFCEB"/>
-        <bgColor rgb="00EBFCEB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EAFBEA"/>
-        <bgColor rgb="00EAFBEA"/>
+        <fgColor rgb="00FFDDDD"/>
+        <bgColor rgb="00FFDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E9FBE9"/>
+        <bgColor rgb="00E9FBE9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFEAEA"/>
+        <bgColor rgb="00FFEAEA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF7F7"/>
+        <bgColor rgb="00FFF7F7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A2F0A2"/>
+        <bgColor rgb="00A2F0A2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B2F3B2"/>
+        <bgColor rgb="00B2F3B2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFEDED"/>
+        <bgColor rgb="00FFEDED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFDBDB"/>
+        <bgColor rgb="00FFDBDB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF4D4D"/>
+        <bgColor rgb="00FF4D4D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF7A7A"/>
+        <bgColor rgb="00FF7A7A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF9797"/>
+        <bgColor rgb="00FF9797"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C9F6C9"/>
+        <bgColor rgb="00C9F6C9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F9FEF9"/>
+        <bgColor rgb="00F9FEF9"/>
       </patternFill>
     </fill>
     <fill>
@@ -564,32 +726,62 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F0FCF0"/>
-        <bgColor rgb="00F0FCF0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EEFCEE"/>
-        <bgColor rgb="00EEFCEE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F4FDF4"/>
-        <bgColor rgb="00F4FDF4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F6FDF6"/>
-        <bgColor rgb="00F6FDF6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F1FCF1"/>
-        <bgColor rgb="00F1FCF1"/>
+        <fgColor rgb="00A3F1A3"/>
+        <bgColor rgb="00A3F1A3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF2F2"/>
+        <bgColor rgb="00FFF2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A3F0A3"/>
+        <bgColor rgb="00A3F0A3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D0F7D0"/>
+        <bgColor rgb="00D0F7D0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E7FBE7"/>
+        <bgColor rgb="00E7FBE7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C0F5C0"/>
+        <bgColor rgb="00C0F5C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E4FAE4"/>
+        <bgColor rgb="00E4FAE4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0092EE92"/>
+        <bgColor rgb="0092EE92"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFEBEB"/>
+        <bgColor rgb="00FFEBEB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F1FDF1"/>
+        <bgColor rgb="00F1FDF1"/>
       </patternFill>
     </fill>
     <fill>
@@ -600,320 +792,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F8FDF8"/>
-        <bgColor rgb="00F8FDF8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D9F9D9"/>
-        <bgColor rgb="00D9F9D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFC5C5"/>
-        <bgColor rgb="00FFC5C5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFC2C2"/>
-        <bgColor rgb="00FFC2C2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DAF9DA"/>
-        <bgColor rgb="00DAF9DA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DDF9DD"/>
-        <bgColor rgb="00DDF9DD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DBF9DB"/>
-        <bgColor rgb="00DBF9DB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E2FAE2"/>
-        <bgColor rgb="00E2FAE2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CEF7CE"/>
-        <bgColor rgb="00CEF7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CDF7CD"/>
-        <bgColor rgb="00CDF7CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFE7E7"/>
-        <bgColor rgb="00FFE7E7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFE3E3"/>
-        <bgColor rgb="00FFE3E3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CCF7CC"/>
-        <bgColor rgb="00CCF7CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DCF9DC"/>
-        <bgColor rgb="00DCF9DC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CAF6CA"/>
-        <bgColor rgb="00CAF6CA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CAF7CA"/>
-        <bgColor rgb="00CAF7CA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B6F3B6"/>
-        <bgColor rgb="00B6F3B6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B0F3B0"/>
-        <bgColor rgb="00B0F3B0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CBF7CB"/>
-        <bgColor rgb="00CBF7CB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0097EF97"/>
-        <bgColor rgb="0097EF97"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F8FEF8"/>
-        <bgColor rgb="00F8FEF8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F2FDF2"/>
-        <bgColor rgb="00F2FDF2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFDDDD"/>
-        <bgColor rgb="00FFDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E9FBE9"/>
-        <bgColor rgb="00E9FBE9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFEAEA"/>
-        <bgColor rgb="00FFEAEA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFF7F7"/>
-        <bgColor rgb="00FFF7F7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A2F0A2"/>
-        <bgColor rgb="00A2F0A2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B2F3B2"/>
-        <bgColor rgb="00B2F3B2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFEDED"/>
-        <bgColor rgb="00FFEDED"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFDBDB"/>
-        <bgColor rgb="00FFDBDB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF4D4D"/>
-        <bgColor rgb="00FF4D4D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF7A7A"/>
-        <bgColor rgb="00FF7A7A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF9797"/>
-        <bgColor rgb="00FF9797"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFD2D2"/>
-        <bgColor rgb="00FFD2D2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C9F6C9"/>
-        <bgColor rgb="00C9F6C9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F9FEF9"/>
-        <bgColor rgb="00F9FEF9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A3F1A3"/>
-        <bgColor rgb="00A3F1A3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFF2F2"/>
-        <bgColor rgb="00FFF2F2"/>
+        <fgColor rgb="00FFCECE"/>
+        <bgColor rgb="00FFCECE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BAF4BA"/>
+        <bgColor rgb="00BAF4BA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0095EE95"/>
+        <bgColor rgb="0095EE95"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00E4FBE4"/>
         <bgColor rgb="00E4FBE4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F1FDF1"/>
-        <bgColor rgb="00F1FDF1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A3F0A3"/>
-        <bgColor rgb="00A3F0A3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D0F7D0"/>
-        <bgColor rgb="00D0F7D0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E7FBE7"/>
-        <bgColor rgb="00E7FBE7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C0F5C0"/>
-        <bgColor rgb="00C0F5C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E4FAE4"/>
-        <bgColor rgb="00E4FAE4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0092EE92"/>
-        <bgColor rgb="0092EE92"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFEBEB"/>
-        <bgColor rgb="00FFEBEB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFB6B6"/>
-        <bgColor rgb="00FFB6B6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFCECE"/>
-        <bgColor rgb="00FFCECE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BAF4BA"/>
-        <bgColor rgb="00BAF4BA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFE6E6"/>
-        <bgColor rgb="00FFE6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0095EE95"/>
-        <bgColor rgb="0095EE95"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFE8E8"/>
-        <bgColor rgb="00FFE8E8"/>
       </patternFill>
     </fill>
     <fill>
@@ -947,7 +845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1241,147 +1139,192 @@
     <xf numFmtId="164" fontId="0" fillId="96" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="97" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="98" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="99" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="100" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="101" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="102" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="103" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="104" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="105" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="106" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="107" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="108" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="109" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="110" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="111" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="112" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="97" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="98" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="46" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="73" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="77" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="99" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="95" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="63" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="100" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="84" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="101" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="32" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="102" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="72" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="68" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="103" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="104" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="50" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="59" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="71" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="70" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="83" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="105" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="106" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="107" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="108" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="109" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="110" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="20" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="31" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="49" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="111" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="112" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="113" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="67" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="24" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="114" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="105" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="43" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="0" fillId="115" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="51" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="34" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="44" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="79" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="39" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="47" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="53" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="82" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="33" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="80" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="116" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="66" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="36" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="81" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="53" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="94" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="20" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="112" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="104" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="79" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="115" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="87" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="83" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="100" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="116" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="41" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="117" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="91" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="85" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="118" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="88" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="119" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="62" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="0" fillId="45" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="120" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="75" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="90" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="57" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="120" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="121" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1391,172 +1334,46 @@
     <xf numFmtId="165" fontId="0" fillId="123" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="69" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="124" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="27" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="18" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="78" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="125" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="24" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="39" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="61" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="126" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="98" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="0" fillId="40" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="127" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="86" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="0" fillId="48" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="128" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="28" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="129" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="130" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="65" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="131" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="44" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="54" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="97" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="51" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="58" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="67" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="48" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="132" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="42" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="23" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="133" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="92" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="82" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="47" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="35" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="99" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="134" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="135" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="136" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="137" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="46" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="89" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="138" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="64" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="139" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="106" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="32" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="21" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="140" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="96" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="141" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="142" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="143" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="52" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="144" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="60" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="145" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="146" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="147" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1924,7 +1741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M118"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1941,79 +1758,55 @@
     <col width="15" customWidth="1" min="7" max="7"/>
     <col width="15" customWidth="1" min="8" max="8"/>
     <col width="15" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
-    <col width="15" customWidth="1" min="11" max="11"/>
-    <col width="15" customWidth="1" min="12" max="12"/>
-    <col width="15" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr"/>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>VARIANT 20</t>
+          <t>SLIM-GSGP</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>VARIANT 1</t>
+          <t>OMS</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>VARIANT 1b</t>
+          <t>LS</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>VARIANT 2</t>
+          <t>OMS + LS</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>VARIANT 3</t>
+          <t>OMS + PT</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>VARIANT 3b</t>
+          <t>LS + PT</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>VARIANT 4</t>
+          <t>OMS + PT + AS</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>VARIANT 4b</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>VARIANT 5</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>VARIANT 6</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>VARIANT 6b</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>VARIANT 7</t>
+          <t>LS + PT + AS</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>PERFORMANCE - TEST FITNESS</t>
+          <t>TEST RMSE</t>
         </is>
       </c>
       <c r="B2" s="3" t="n"/>
@@ -2024,10 +1817,6 @@
       <c r="G2" s="3" t="n"/>
       <c r="H2" s="3" t="n"/>
       <c r="I2" s="3" t="n"/>
-      <c r="J2" s="3" t="n"/>
-      <c r="K2" s="3" t="n"/>
-      <c r="L2" s="3" t="n"/>
-      <c r="M2" s="3" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
@@ -2043,10 +1832,6 @@
       <c r="G3" s="3" t="n"/>
       <c r="H3" s="3" t="n"/>
       <c r="I3" s="3" t="n"/>
-      <c r="J3" s="3" t="n"/>
-      <c r="K3" s="3" t="n"/>
-      <c r="L3" s="3" t="n"/>
-      <c r="M3" s="3" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="5" t="inlineStr">
@@ -2058,36 +1843,24 @@
         <v>53.26123</v>
       </c>
       <c r="C4" s="7" t="n">
-        <v>6.81853</v>
+        <v>6.53892</v>
       </c>
       <c r="D4" s="7" t="n">
-        <v>6.53892</v>
+        <v>5.57669</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>5.57669</v>
-      </c>
-      <c r="F4" s="7" t="n">
-        <v>5.30838</v>
+        <v>5.3279</v>
+      </c>
+      <c r="F4" s="8" t="n">
+        <v>68.41387</v>
       </c>
       <c r="G4" s="7" t="n">
-        <v>5.3279</v>
+        <v>5.60731</v>
       </c>
       <c r="H4" s="8" t="n">
-        <v>66.54095</v>
-      </c>
-      <c r="I4" s="9" t="n">
         <v>68.41387</v>
       </c>
-      <c r="J4" s="7" t="n">
-        <v>5.60731</v>
-      </c>
-      <c r="K4" s="8" t="n">
-        <v>66.54095</v>
-      </c>
-      <c r="L4" s="9" t="n">
-        <v>68.41387</v>
-      </c>
-      <c r="M4" s="7" t="n">
+      <c r="I4" s="7" t="n">
         <v>5.60731</v>
       </c>
     </row>
@@ -2101,36 +1874,24 @@
         <v>52.71062</v>
       </c>
       <c r="C5" s="7" t="n">
-        <v>5.2768</v>
+        <v>5.27807</v>
       </c>
       <c r="D5" s="7" t="n">
-        <v>5.27807</v>
+        <v>5.56285</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>5.56285</v>
+        <v>5.10387</v>
       </c>
       <c r="F5" s="7" t="n">
-        <v>5.03688</v>
+        <v>12.94713</v>
       </c>
       <c r="G5" s="7" t="n">
-        <v>5.10387</v>
+        <v>5.58863</v>
       </c>
       <c r="H5" s="7" t="n">
-        <v>10.16575</v>
+        <v>11.83031</v>
       </c>
       <c r="I5" s="7" t="n">
-        <v>12.94713</v>
-      </c>
-      <c r="J5" s="7" t="n">
-        <v>5.58863</v>
-      </c>
-      <c r="K5" s="7" t="n">
-        <v>10.16575</v>
-      </c>
-      <c r="L5" s="7" t="n">
-        <v>11.83031</v>
-      </c>
-      <c r="M5" s="7" t="n">
         <v>5.58662</v>
       </c>
     </row>
@@ -2144,36 +1905,24 @@
         <v>52.23274</v>
       </c>
       <c r="C6" s="7" t="n">
-        <v>4.84492</v>
+        <v>4.95316</v>
       </c>
       <c r="D6" s="7" t="n">
-        <v>4.95316</v>
+        <v>5.55251</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>5.55251</v>
+        <v>4.99834</v>
       </c>
       <c r="F6" s="7" t="n">
-        <v>4.88101</v>
+        <v>5.19566</v>
       </c>
       <c r="G6" s="7" t="n">
-        <v>4.99834</v>
+        <v>5.5693</v>
       </c>
       <c r="H6" s="7" t="n">
-        <v>5.26271</v>
+        <v>5.19566</v>
       </c>
       <c r="I6" s="7" t="n">
-        <v>5.19566</v>
-      </c>
-      <c r="J6" s="7" t="n">
-        <v>5.5693</v>
-      </c>
-      <c r="K6" s="7" t="n">
-        <v>5.26271</v>
-      </c>
-      <c r="L6" s="7" t="n">
-        <v>5.19566</v>
-      </c>
-      <c r="M6" s="7" t="n">
         <v>5.56366</v>
       </c>
     </row>
@@ -2191,10 +1940,6 @@
       <c r="G7" s="3" t="n"/>
       <c r="H7" s="3" t="n"/>
       <c r="I7" s="3" t="n"/>
-      <c r="J7" s="3" t="n"/>
-      <c r="K7" s="3" t="n"/>
-      <c r="L7" s="3" t="n"/>
-      <c r="M7" s="3" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
@@ -2205,37 +1950,25 @@
       <c r="B8" s="6" t="n">
         <v>1079.93854</v>
       </c>
-      <c r="C8" s="10" t="n">
+      <c r="C8" s="9" t="n">
         <v>720.95236</v>
       </c>
       <c r="D8" s="10" t="n">
-        <v>720.95236</v>
-      </c>
-      <c r="E8" s="11" t="n">
         <v>585.13028</v>
       </c>
-      <c r="F8" s="7" t="n">
-        <v>400.62356</v>
-      </c>
-      <c r="G8" s="7" t="n">
+      <c r="E8" s="7" t="n">
         <v>417.85297</v>
       </c>
-      <c r="H8" s="12" t="n">
+      <c r="F8" s="11" t="n">
         <v>1083.82989</v>
       </c>
-      <c r="I8" s="12" t="n">
+      <c r="G8" s="10" t="n">
+        <v>587.71896</v>
+      </c>
+      <c r="H8" s="11" t="n">
         <v>1083.82989</v>
       </c>
-      <c r="J8" s="11" t="n">
-        <v>587.71896</v>
-      </c>
-      <c r="K8" s="12" t="n">
-        <v>1083.82989</v>
-      </c>
-      <c r="L8" s="12" t="n">
-        <v>1083.82989</v>
-      </c>
-      <c r="M8" s="11" t="n">
+      <c r="I8" s="10" t="n">
         <v>587.71896</v>
       </c>
     </row>
@@ -2248,37 +1981,25 @@
       <c r="B9" s="6" t="n">
         <v>1078.67029</v>
       </c>
-      <c r="C9" s="13" t="n">
+      <c r="C9" s="12" t="n">
         <v>638.93103</v>
       </c>
-      <c r="D9" s="13" t="n">
-        <v>638.93103</v>
-      </c>
-      <c r="E9" s="11" t="n">
+      <c r="D9" s="10" t="n">
         <v>583.23545</v>
       </c>
-      <c r="F9" s="7" t="n">
-        <v>378.6277</v>
-      </c>
-      <c r="G9" s="7" t="n">
+      <c r="E9" s="7" t="n">
         <v>382.5485</v>
       </c>
+      <c r="F9" s="13" t="n">
+        <v>807.65723</v>
+      </c>
+      <c r="G9" s="10" t="n">
+        <v>585.66845</v>
+      </c>
       <c r="H9" s="14" t="n">
-        <v>807.65723</v>
-      </c>
-      <c r="I9" s="14" t="n">
-        <v>807.65723</v>
-      </c>
-      <c r="J9" s="11" t="n">
-        <v>585.66845</v>
-      </c>
-      <c r="K9" s="15" t="n">
         <v>799.11456</v>
       </c>
-      <c r="L9" s="15" t="n">
-        <v>799.11456</v>
-      </c>
-      <c r="M9" s="11" t="n">
+      <c r="I9" s="10" t="n">
         <v>583.8019399999999</v>
       </c>
     </row>
@@ -2291,37 +2012,25 @@
       <c r="B10" s="6" t="n">
         <v>1077.87536</v>
       </c>
-      <c r="C10" s="16" t="n">
+      <c r="C10" s="15" t="n">
         <v>615.82516</v>
       </c>
       <c r="D10" s="16" t="n">
-        <v>615.82516</v>
-      </c>
-      <c r="E10" s="17" t="n">
         <v>582.47226</v>
       </c>
-      <c r="F10" s="7" t="n">
-        <v>369.81244</v>
-      </c>
-      <c r="G10" s="7" t="n">
+      <c r="E10" s="7" t="n">
         <v>365.57486</v>
       </c>
-      <c r="H10" s="18" t="n">
+      <c r="F10" s="17" t="n">
         <v>622.65265</v>
       </c>
-      <c r="I10" s="18" t="n">
+      <c r="G10" s="10" t="n">
+        <v>583.89368</v>
+      </c>
+      <c r="H10" s="17" t="n">
         <v>622.65265</v>
       </c>
-      <c r="J10" s="11" t="n">
-        <v>583.89368</v>
-      </c>
-      <c r="K10" s="18" t="n">
-        <v>622.65265</v>
-      </c>
-      <c r="L10" s="18" t="n">
-        <v>622.65265</v>
-      </c>
-      <c r="M10" s="17" t="n">
+      <c r="I10" s="16" t="n">
         <v>582.59683</v>
       </c>
     </row>
@@ -2339,10 +2048,6 @@
       <c r="G11" s="3" t="n"/>
       <c r="H11" s="3" t="n"/>
       <c r="I11" s="3" t="n"/>
-      <c r="J11" s="3" t="n"/>
-      <c r="K11" s="3" t="n"/>
-      <c r="L11" s="3" t="n"/>
-      <c r="M11" s="3" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="5" t="inlineStr">
@@ -2353,37 +2058,25 @@
       <c r="B12" s="6" t="n">
         <v>48.75194</v>
       </c>
-      <c r="C12" s="19" t="n">
-        <v>31.66343</v>
-      </c>
-      <c r="D12" s="20" t="n">
+      <c r="C12" s="18" t="n">
         <v>31.47191</v>
       </c>
-      <c r="E12" s="21" t="n">
+      <c r="D12" s="19" t="n">
         <v>30.26415</v>
       </c>
-      <c r="F12" s="22" t="n">
-        <v>30.00599</v>
+      <c r="E12" s="19" t="n">
+        <v>30.11256</v>
+      </c>
+      <c r="F12" s="20" t="n">
+        <v>52.84061</v>
       </c>
       <c r="G12" s="21" t="n">
-        <v>30.11256</v>
-      </c>
-      <c r="H12" s="23" t="n">
+        <v>29.62381</v>
+      </c>
+      <c r="H12" s="20" t="n">
         <v>52.84061</v>
       </c>
-      <c r="I12" s="23" t="n">
-        <v>52.84061</v>
-      </c>
-      <c r="J12" s="24" t="n">
-        <v>29.62381</v>
-      </c>
-      <c r="K12" s="23" t="n">
-        <v>52.84061</v>
-      </c>
-      <c r="L12" s="23" t="n">
-        <v>52.84061</v>
-      </c>
-      <c r="M12" s="24" t="n">
+      <c r="I12" s="21" t="n">
         <v>29.62383</v>
       </c>
     </row>
@@ -2396,37 +2089,25 @@
       <c r="B13" s="6" t="n">
         <v>48.06084</v>
       </c>
-      <c r="C13" s="25" t="n">
-        <v>29.38904</v>
-      </c>
-      <c r="D13" s="26" t="n">
+      <c r="C13" s="22" t="n">
         <v>29.95866</v>
       </c>
-      <c r="E13" s="27" t="n">
+      <c r="D13" s="23" t="n">
         <v>30.20508</v>
       </c>
-      <c r="F13" s="21" t="n">
-        <v>29.83667</v>
-      </c>
-      <c r="G13" s="27" t="n">
+      <c r="E13" s="23" t="n">
         <v>30.13128</v>
       </c>
-      <c r="H13" s="28" t="n">
-        <v>30.34767</v>
-      </c>
-      <c r="I13" s="28" t="n">
+      <c r="F13" s="24" t="n">
         <v>30.50054</v>
       </c>
-      <c r="J13" s="26" t="n">
+      <c r="G13" s="22" t="n">
         <v>30.01577</v>
       </c>
-      <c r="K13" s="28" t="n">
-        <v>30.34767</v>
-      </c>
-      <c r="L13" s="28" t="n">
+      <c r="H13" s="24" t="n">
         <v>30.50054</v>
       </c>
-      <c r="M13" s="21" t="n">
+      <c r="I13" s="19" t="n">
         <v>29.85764</v>
       </c>
     </row>
@@ -2439,37 +2120,25 @@
       <c r="B14" s="6" t="n">
         <v>47.24595</v>
       </c>
-      <c r="C14" s="27" t="n">
-        <v>29.77508</v>
-      </c>
-      <c r="D14" s="27" t="n">
+      <c r="C14" s="23" t="n">
         <v>29.75474</v>
       </c>
-      <c r="E14" s="20" t="n">
+      <c r="D14" s="18" t="n">
         <v>30.43679</v>
       </c>
-      <c r="F14" s="29" t="n">
-        <v>30.12746</v>
-      </c>
-      <c r="G14" s="29" t="n">
+      <c r="E14" s="25" t="n">
         <v>30.11693</v>
       </c>
-      <c r="H14" s="26" t="n">
-        <v>29.38319</v>
-      </c>
-      <c r="I14" s="27" t="n">
+      <c r="F14" s="23" t="n">
         <v>29.6119</v>
       </c>
-      <c r="J14" s="20" t="n">
+      <c r="G14" s="18" t="n">
         <v>30.47903</v>
       </c>
-      <c r="K14" s="26" t="n">
-        <v>29.38319</v>
-      </c>
-      <c r="L14" s="27" t="n">
+      <c r="H14" s="23" t="n">
         <v>29.6119</v>
       </c>
-      <c r="M14" s="30" t="n">
+      <c r="I14" s="26" t="n">
         <v>30.32424</v>
       </c>
     </row>
@@ -2487,10 +2156,6 @@
       <c r="G15" s="3" t="n"/>
       <c r="H15" s="3" t="n"/>
       <c r="I15" s="3" t="n"/>
-      <c r="J15" s="3" t="n"/>
-      <c r="K15" s="3" t="n"/>
-      <c r="L15" s="3" t="n"/>
-      <c r="M15" s="3" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="inlineStr">
@@ -2501,37 +2166,25 @@
       <c r="B16" s="6" t="n">
         <v>0.47504</v>
       </c>
-      <c r="C16" s="31" t="n">
-        <v>0.32472</v>
-      </c>
-      <c r="D16" s="32" t="n">
+      <c r="C16" s="27" t="n">
         <v>0.31439</v>
       </c>
-      <c r="E16" s="33" t="n">
+      <c r="D16" s="28" t="n">
         <v>0.25926</v>
       </c>
-      <c r="F16" s="16" t="n">
-        <v>0.27128</v>
-      </c>
-      <c r="G16" s="34" t="n">
+      <c r="E16" s="29" t="n">
         <v>0.26895</v>
       </c>
-      <c r="H16" s="35" t="n">
-        <v>0.5278</v>
-      </c>
-      <c r="I16" s="36" t="n">
+      <c r="F16" s="30" t="n">
         <v>0.53347</v>
       </c>
-      <c r="J16" s="26" t="n">
+      <c r="G16" s="22" t="n">
         <v>0.29659</v>
       </c>
-      <c r="K16" s="35" t="n">
-        <v>0.5278</v>
-      </c>
-      <c r="L16" s="36" t="n">
+      <c r="H16" s="30" t="n">
         <v>0.53347</v>
       </c>
-      <c r="M16" s="21" t="n">
+      <c r="I16" s="19" t="n">
         <v>0.29458</v>
       </c>
     </row>
@@ -2544,37 +2197,25 @@
       <c r="B17" s="6" t="n">
         <v>0.36265</v>
       </c>
-      <c r="C17" s="37" t="n">
-        <v>0.27423</v>
-      </c>
-      <c r="D17" s="38" t="n">
+      <c r="C17" s="31" t="n">
         <v>0.2617</v>
       </c>
-      <c r="E17" s="39" t="n">
+      <c r="D17" s="32" t="n">
         <v>0.25352</v>
       </c>
-      <c r="F17" s="40" t="n">
-        <v>0.25598</v>
-      </c>
-      <c r="G17" s="41" t="n">
+      <c r="E17" s="33" t="n">
         <v>0.25769</v>
       </c>
-      <c r="H17" s="42" t="n">
-        <v>0.31139</v>
-      </c>
-      <c r="I17" s="43" t="n">
+      <c r="F17" s="34" t="n">
         <v>0.30985</v>
       </c>
-      <c r="J17" s="38" t="n">
+      <c r="G17" s="31" t="n">
         <v>0.26282</v>
       </c>
-      <c r="K17" s="42" t="n">
-        <v>0.31139</v>
-      </c>
-      <c r="L17" s="43" t="n">
+      <c r="H17" s="34" t="n">
         <v>0.30985</v>
       </c>
-      <c r="M17" s="44" t="n">
+      <c r="I17" s="35" t="n">
         <v>0.26699</v>
       </c>
     </row>
@@ -2587,37 +2228,25 @@
       <c r="B18" s="6" t="n">
         <v>0.31218</v>
       </c>
-      <c r="C18" s="45" t="n">
-        <v>0.25747</v>
-      </c>
-      <c r="D18" s="46" t="n">
+      <c r="C18" s="36" t="n">
         <v>0.25715</v>
       </c>
-      <c r="E18" s="47" t="n">
+      <c r="D18" s="37" t="n">
         <v>0.24924</v>
       </c>
-      <c r="F18" s="48" t="n">
-        <v>0.25453</v>
-      </c>
-      <c r="G18" s="49" t="n">
+      <c r="E18" s="38" t="n">
         <v>0.2526</v>
       </c>
-      <c r="H18" s="50" t="n">
-        <v>0.27813</v>
-      </c>
-      <c r="I18" s="51" t="n">
+      <c r="F18" s="39" t="n">
         <v>0.27092</v>
       </c>
-      <c r="J18" s="52" t="n">
+      <c r="G18" s="40" t="n">
         <v>0.25138</v>
       </c>
-      <c r="K18" s="50" t="n">
-        <v>0.27813</v>
-      </c>
-      <c r="L18" s="51" t="n">
+      <c r="H18" s="39" t="n">
         <v>0.27092</v>
       </c>
-      <c r="M18" s="53" t="n">
+      <c r="I18" s="41" t="n">
         <v>0.25406</v>
       </c>
     </row>
@@ -2635,10 +2264,6 @@
       <c r="G19" s="3" t="n"/>
       <c r="H19" s="3" t="n"/>
       <c r="I19" s="3" t="n"/>
-      <c r="J19" s="3" t="n"/>
-      <c r="K19" s="3" t="n"/>
-      <c r="L19" s="3" t="n"/>
-      <c r="M19" s="3" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="5" t="inlineStr">
@@ -2650,36 +2275,24 @@
         <v>10.0571</v>
       </c>
       <c r="C20" s="42" t="n">
-        <v>8.65202</v>
-      </c>
-      <c r="D20" s="54" t="n">
         <v>8.821210000000001</v>
       </c>
-      <c r="E20" s="55" t="n">
+      <c r="D20" s="43" t="n">
         <v>7.91982</v>
       </c>
-      <c r="F20" s="56" t="n">
-        <v>8.012309999999999</v>
-      </c>
-      <c r="G20" s="57" t="n">
+      <c r="E20" s="44" t="n">
         <v>8.25061</v>
       </c>
-      <c r="H20" s="58" t="n">
+      <c r="F20" s="45" t="n">
         <v>12.62539</v>
       </c>
-      <c r="I20" s="58" t="n">
+      <c r="G20" s="46" t="n">
+        <v>7.99512</v>
+      </c>
+      <c r="H20" s="45" t="n">
         <v>12.62539</v>
       </c>
-      <c r="J20" s="56" t="n">
-        <v>7.99512</v>
-      </c>
-      <c r="K20" s="58" t="n">
-        <v>12.62539</v>
-      </c>
-      <c r="L20" s="58" t="n">
-        <v>12.62539</v>
-      </c>
-      <c r="M20" s="56" t="n">
+      <c r="I20" s="46" t="n">
         <v>7.99512</v>
       </c>
     </row>
@@ -2692,37 +2305,25 @@
       <c r="B21" s="6" t="n">
         <v>9.805490000000001</v>
       </c>
-      <c r="C21" s="49" t="n">
-        <v>7.92593</v>
-      </c>
-      <c r="D21" s="48" t="n">
+      <c r="C21" s="47" t="n">
         <v>8.019830000000001</v>
       </c>
-      <c r="E21" s="55" t="n">
+      <c r="D21" s="43" t="n">
         <v>7.71155</v>
       </c>
-      <c r="F21" s="53" t="n">
-        <v>7.95777</v>
-      </c>
-      <c r="G21" s="45" t="n">
+      <c r="E21" s="48" t="n">
         <v>8.111610000000001</v>
       </c>
-      <c r="H21" s="59" t="n">
-        <v>8.67587</v>
-      </c>
-      <c r="I21" s="60" t="n">
+      <c r="F21" s="49" t="n">
         <v>8.43774</v>
       </c>
-      <c r="J21" s="56" t="n">
+      <c r="G21" s="46" t="n">
         <v>7.81318</v>
       </c>
-      <c r="K21" s="50" t="n">
-        <v>8.71387</v>
-      </c>
-      <c r="L21" s="60" t="n">
+      <c r="H21" s="49" t="n">
         <v>8.43774</v>
       </c>
-      <c r="M21" s="52" t="n">
+      <c r="I21" s="40" t="n">
         <v>7.89753</v>
       </c>
     </row>
@@ -2735,37 +2336,25 @@
       <c r="B22" s="6" t="n">
         <v>9.61974</v>
       </c>
-      <c r="C22" s="47" t="n">
-        <v>7.67524</v>
-      </c>
-      <c r="D22" s="53" t="n">
+      <c r="C22" s="41" t="n">
         <v>7.83533</v>
       </c>
-      <c r="E22" s="55" t="n">
+      <c r="D22" s="43" t="n">
         <v>7.54344</v>
       </c>
-      <c r="F22" s="45" t="n">
-        <v>7.94831</v>
-      </c>
-      <c r="G22" s="60" t="n">
+      <c r="E22" s="49" t="n">
         <v>8.277760000000001</v>
       </c>
-      <c r="H22" s="49" t="n">
-        <v>7.76018</v>
-      </c>
-      <c r="I22" s="47" t="n">
+      <c r="F22" s="37" t="n">
         <v>7.68619</v>
       </c>
-      <c r="J22" s="48" t="n">
+      <c r="G22" s="47" t="n">
         <v>7.86289</v>
       </c>
-      <c r="K22" s="49" t="n">
-        <v>7.76018</v>
-      </c>
-      <c r="L22" s="47" t="n">
+      <c r="H22" s="37" t="n">
         <v>7.68619</v>
       </c>
-      <c r="M22" s="49" t="n">
+      <c r="I22" s="38" t="n">
         <v>7.79204</v>
       </c>
     </row>
@@ -2783,10 +2372,6 @@
       <c r="G23" s="3" t="n"/>
       <c r="H23" s="3" t="n"/>
       <c r="I23" s="3" t="n"/>
-      <c r="J23" s="3" t="n"/>
-      <c r="K23" s="3" t="n"/>
-      <c r="L23" s="3" t="n"/>
-      <c r="M23" s="3" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="inlineStr">
@@ -2797,37 +2382,25 @@
       <c r="B24" s="6" t="n">
         <v>23.46359</v>
       </c>
-      <c r="C24" s="61" t="n">
-        <v>11.86276</v>
-      </c>
-      <c r="D24" s="62" t="n">
+      <c r="C24" s="50" t="n">
         <v>13.51856</v>
       </c>
+      <c r="D24" s="7" t="n">
+        <v>11.49325</v>
+      </c>
       <c r="E24" s="7" t="n">
-        <v>11.49325</v>
-      </c>
-      <c r="F24" s="7" t="n">
-        <v>10.64083</v>
-      </c>
-      <c r="G24" s="7" t="n">
         <v>10.93152</v>
       </c>
-      <c r="H24" s="36" t="n">
-        <v>26.34711</v>
-      </c>
-      <c r="I24" s="63" t="n">
+      <c r="F24" s="51" t="n">
         <v>27.06287</v>
       </c>
-      <c r="J24" s="16" t="n">
+      <c r="G24" s="15" t="n">
         <v>13.36563</v>
       </c>
-      <c r="K24" s="36" t="n">
-        <v>26.34711</v>
-      </c>
-      <c r="L24" s="63" t="n">
+      <c r="H24" s="51" t="n">
         <v>27.06287</v>
       </c>
-      <c r="M24" s="64" t="n">
+      <c r="I24" s="52" t="n">
         <v>13.1607</v>
       </c>
     </row>
@@ -2841,36 +2414,24 @@
         <v>22.72794</v>
       </c>
       <c r="C25" s="7" t="n">
-        <v>9.441509999999999</v>
+        <v>9.36787</v>
       </c>
       <c r="D25" s="7" t="n">
-        <v>9.36787</v>
+        <v>9.295959999999999</v>
       </c>
       <c r="E25" s="7" t="n">
-        <v>9.295959999999999</v>
-      </c>
-      <c r="F25" s="7" t="n">
-        <v>9.22424</v>
+        <v>9.656549999999999</v>
+      </c>
+      <c r="F25" s="15" t="n">
+        <v>12.94892</v>
       </c>
       <c r="G25" s="7" t="n">
-        <v>9.656549999999999</v>
-      </c>
-      <c r="H25" s="65" t="n">
-        <v>13.64643</v>
-      </c>
-      <c r="I25" s="16" t="n">
+        <v>10.99017</v>
+      </c>
+      <c r="H25" s="15" t="n">
         <v>12.94892</v>
       </c>
-      <c r="J25" s="7" t="n">
-        <v>10.99017</v>
-      </c>
-      <c r="K25" s="65" t="n">
-        <v>13.71379</v>
-      </c>
-      <c r="L25" s="16" t="n">
-        <v>12.94892</v>
-      </c>
-      <c r="M25" s="7" t="n">
+      <c r="I25" s="7" t="n">
         <v>10.63908</v>
       </c>
     </row>
@@ -2884,36 +2445,24 @@
         <v>22.04623</v>
       </c>
       <c r="C26" s="7" t="n">
-        <v>8.437139999999999</v>
+        <v>8.450989999999999</v>
       </c>
       <c r="D26" s="7" t="n">
-        <v>8.450989999999999</v>
+        <v>8.88786</v>
       </c>
       <c r="E26" s="7" t="n">
-        <v>8.88786</v>
+        <v>8.981310000000001</v>
       </c>
       <c r="F26" s="7" t="n">
-        <v>8.646879999999999</v>
+        <v>9.0107</v>
       </c>
       <c r="G26" s="7" t="n">
-        <v>8.981310000000001</v>
+        <v>9.5162</v>
       </c>
       <c r="H26" s="7" t="n">
-        <v>9.093680000000001</v>
+        <v>9.0107</v>
       </c>
       <c r="I26" s="7" t="n">
-        <v>9.0107</v>
-      </c>
-      <c r="J26" s="7" t="n">
-        <v>9.5162</v>
-      </c>
-      <c r="K26" s="7" t="n">
-        <v>9.093680000000001</v>
-      </c>
-      <c r="L26" s="7" t="n">
-        <v>9.0107</v>
-      </c>
-      <c r="M26" s="7" t="n">
         <v>9.00346</v>
       </c>
     </row>
@@ -2931,10 +2480,6 @@
       <c r="G27" s="3" t="n"/>
       <c r="H27" s="3" t="n"/>
       <c r="I27" s="3" t="n"/>
-      <c r="J27" s="3" t="n"/>
-      <c r="K27" s="3" t="n"/>
-      <c r="L27" s="3" t="n"/>
-      <c r="M27" s="3" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="5" t="inlineStr">
@@ -2946,36 +2491,24 @@
         <v>158.99016</v>
       </c>
       <c r="C28" s="7" t="n">
-        <v>75.19671</v>
+        <v>75.57742</v>
       </c>
       <c r="D28" s="7" t="n">
-        <v>75.57742</v>
+        <v>60.13903</v>
       </c>
       <c r="E28" s="7" t="n">
-        <v>60.13903</v>
-      </c>
-      <c r="F28" s="7" t="n">
-        <v>60.12001</v>
+        <v>60.5777</v>
+      </c>
+      <c r="F28" s="53" t="n">
+        <v>161.91063</v>
       </c>
       <c r="G28" s="7" t="n">
-        <v>60.5777</v>
-      </c>
-      <c r="H28" s="66" t="n">
-        <v>162.22454</v>
-      </c>
-      <c r="I28" s="67" t="n">
+        <v>61.99466</v>
+      </c>
+      <c r="H28" s="53" t="n">
         <v>161.91063</v>
       </c>
-      <c r="J28" s="7" t="n">
-        <v>61.99466</v>
-      </c>
-      <c r="K28" s="66" t="n">
-        <v>162.22454</v>
-      </c>
-      <c r="L28" s="67" t="n">
-        <v>161.91063</v>
-      </c>
-      <c r="M28" s="7" t="n">
+      <c r="I28" s="7" t="n">
         <v>61.99466</v>
       </c>
     </row>
@@ -2989,36 +2522,24 @@
         <v>157.82999</v>
       </c>
       <c r="C29" s="7" t="n">
-        <v>71.77593</v>
+        <v>72.06516000000001</v>
       </c>
       <c r="D29" s="7" t="n">
-        <v>72.06516000000001</v>
+        <v>59.03437</v>
       </c>
       <c r="E29" s="7" t="n">
-        <v>59.03437</v>
+        <v>58.57523</v>
       </c>
       <c r="F29" s="7" t="n">
-        <v>58.1895</v>
+        <v>79.13018</v>
       </c>
       <c r="G29" s="7" t="n">
-        <v>58.57523</v>
+        <v>59.58578</v>
       </c>
       <c r="H29" s="7" t="n">
-        <v>79.55192</v>
+        <v>78.82154</v>
       </c>
       <c r="I29" s="7" t="n">
-        <v>79.13018</v>
-      </c>
-      <c r="J29" s="7" t="n">
-        <v>59.58578</v>
-      </c>
-      <c r="K29" s="61" t="n">
-        <v>79.93149</v>
-      </c>
-      <c r="L29" s="7" t="n">
-        <v>78.82154</v>
-      </c>
-      <c r="M29" s="7" t="n">
         <v>58.99715</v>
       </c>
     </row>
@@ -3032,36 +2553,24 @@
         <v>156.75501</v>
       </c>
       <c r="C30" s="7" t="n">
-        <v>70.64700999999999</v>
+        <v>70.35466</v>
       </c>
       <c r="D30" s="7" t="n">
-        <v>70.35466</v>
+        <v>58.09557</v>
       </c>
       <c r="E30" s="7" t="n">
-        <v>58.09557</v>
+        <v>58.18924</v>
       </c>
       <c r="F30" s="7" t="n">
-        <v>57.32132</v>
+        <v>72.51089</v>
       </c>
       <c r="G30" s="7" t="n">
-        <v>58.18924</v>
+        <v>58.07299</v>
       </c>
       <c r="H30" s="7" t="n">
-        <v>73.70276</v>
+        <v>72.51089</v>
       </c>
       <c r="I30" s="7" t="n">
-        <v>72.51089</v>
-      </c>
-      <c r="J30" s="7" t="n">
-        <v>58.07299</v>
-      </c>
-      <c r="K30" s="7" t="n">
-        <v>73.70276</v>
-      </c>
-      <c r="L30" s="7" t="n">
-        <v>72.51089</v>
-      </c>
-      <c r="M30" s="7" t="n">
         <v>57.59407</v>
       </c>
     </row>
@@ -3079,10 +2588,6 @@
       <c r="G31" s="3" t="n"/>
       <c r="H31" s="3" t="n"/>
       <c r="I31" s="3" t="n"/>
-      <c r="J31" s="3" t="n"/>
-      <c r="K31" s="3" t="n"/>
-      <c r="L31" s="3" t="n"/>
-      <c r="M31" s="3" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="5" t="inlineStr">
@@ -3094,36 +2599,24 @@
         <v>8.18088</v>
       </c>
       <c r="C32" s="7" t="n">
-        <v>4.01903</v>
+        <v>4.09528</v>
       </c>
       <c r="D32" s="7" t="n">
-        <v>4.09528</v>
+        <v>3.56454</v>
       </c>
       <c r="E32" s="7" t="n">
-        <v>3.56454</v>
-      </c>
-      <c r="F32" s="7" t="n">
-        <v>3.53909</v>
+        <v>3.51099</v>
+      </c>
+      <c r="F32" s="54" t="n">
+        <v>10.20981</v>
       </c>
       <c r="G32" s="7" t="n">
-        <v>3.51099</v>
-      </c>
-      <c r="H32" s="68" t="n">
+        <v>4.05443</v>
+      </c>
+      <c r="H32" s="54" t="n">
         <v>10.20981</v>
       </c>
-      <c r="I32" s="68" t="n">
-        <v>10.20981</v>
-      </c>
-      <c r="J32" s="7" t="n">
-        <v>4.05443</v>
-      </c>
-      <c r="K32" s="68" t="n">
-        <v>10.20981</v>
-      </c>
-      <c r="L32" s="68" t="n">
-        <v>10.20981</v>
-      </c>
-      <c r="M32" s="7" t="n">
+      <c r="I32" s="7" t="n">
         <v>4.07393</v>
       </c>
     </row>
@@ -3137,36 +2630,24 @@
         <v>7.93724</v>
       </c>
       <c r="C33" s="7" t="n">
-        <v>3.63481</v>
+        <v>3.7226</v>
       </c>
       <c r="D33" s="7" t="n">
-        <v>3.7226</v>
+        <v>3.46782</v>
       </c>
       <c r="E33" s="7" t="n">
-        <v>3.46782</v>
-      </c>
-      <c r="F33" s="7" t="n">
-        <v>3.36022</v>
+        <v>3.3403</v>
+      </c>
+      <c r="F33" s="55" t="n">
+        <v>4.41592</v>
       </c>
       <c r="G33" s="7" t="n">
-        <v>3.3403</v>
-      </c>
-      <c r="H33" s="69" t="n">
-        <v>4.43137</v>
-      </c>
-      <c r="I33" s="69" t="n">
+        <v>3.646</v>
+      </c>
+      <c r="H33" s="55" t="n">
         <v>4.41592</v>
       </c>
-      <c r="J33" s="7" t="n">
-        <v>3.646</v>
-      </c>
-      <c r="K33" s="70" t="n">
-        <v>4.37289</v>
-      </c>
-      <c r="L33" s="69" t="n">
-        <v>4.41592</v>
-      </c>
-      <c r="M33" s="7" t="n">
+      <c r="I33" s="7" t="n">
         <v>3.61779</v>
       </c>
     </row>
@@ -3180,36 +2661,24 @@
         <v>7.78299</v>
       </c>
       <c r="C34" s="7" t="n">
-        <v>3.55478</v>
+        <v>3.58199</v>
       </c>
       <c r="D34" s="7" t="n">
-        <v>3.58199</v>
+        <v>3.4116</v>
       </c>
       <c r="E34" s="7" t="n">
-        <v>3.4116</v>
+        <v>3.31175</v>
       </c>
       <c r="F34" s="7" t="n">
-        <v>3.32259</v>
+        <v>3.61144</v>
       </c>
       <c r="G34" s="7" t="n">
-        <v>3.31175</v>
+        <v>3.46028</v>
       </c>
       <c r="H34" s="7" t="n">
-        <v>3.6821</v>
+        <v>3.61144</v>
       </c>
       <c r="I34" s="7" t="n">
-        <v>3.61144</v>
-      </c>
-      <c r="J34" s="7" t="n">
-        <v>3.46028</v>
-      </c>
-      <c r="K34" s="7" t="n">
-        <v>3.6821</v>
-      </c>
-      <c r="L34" s="7" t="n">
-        <v>3.61144</v>
-      </c>
-      <c r="M34" s="7" t="n">
         <v>3.47799</v>
       </c>
     </row>
@@ -3227,10 +2696,6 @@
       <c r="G35" s="3" t="n"/>
       <c r="H35" s="3" t="n"/>
       <c r="I35" s="3" t="n"/>
-      <c r="J35" s="3" t="n"/>
-      <c r="K35" s="3" t="n"/>
-      <c r="L35" s="3" t="n"/>
-      <c r="M35" s="3" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="5" t="inlineStr">
@@ -3241,37 +2706,25 @@
       <c r="B36" s="6" t="n">
         <v>7.86799</v>
       </c>
-      <c r="C36" s="11" t="n">
-        <v>4.25407</v>
-      </c>
-      <c r="D36" s="16" t="n">
+      <c r="C36" s="15" t="n">
         <v>4.47943</v>
       </c>
+      <c r="D36" s="7" t="n">
+        <v>3.43478</v>
+      </c>
       <c r="E36" s="7" t="n">
-        <v>3.43478</v>
-      </c>
-      <c r="F36" s="7" t="n">
-        <v>3.40128</v>
-      </c>
-      <c r="G36" s="7" t="n">
         <v>3.19249</v>
       </c>
-      <c r="H36" s="71" t="n">
-        <v>10.47204</v>
-      </c>
-      <c r="I36" s="72" t="n">
+      <c r="F36" s="56" t="n">
         <v>10.72952</v>
       </c>
-      <c r="J36" s="11" t="n">
+      <c r="G36" s="10" t="n">
         <v>4.25742</v>
       </c>
-      <c r="K36" s="71" t="n">
-        <v>10.47204</v>
-      </c>
-      <c r="L36" s="72" t="n">
+      <c r="H36" s="56" t="n">
         <v>10.72952</v>
       </c>
-      <c r="M36" s="11" t="n">
+      <c r="I36" s="10" t="n">
         <v>4.27924</v>
       </c>
     </row>
@@ -3285,36 +2738,24 @@
         <v>7.27558</v>
       </c>
       <c r="C37" s="7" t="n">
-        <v>3.35905</v>
+        <v>3.34585</v>
       </c>
       <c r="D37" s="7" t="n">
-        <v>3.34585</v>
+        <v>3.12603</v>
       </c>
       <c r="E37" s="7" t="n">
-        <v>3.12603</v>
-      </c>
-      <c r="F37" s="7" t="n">
-        <v>3.02606</v>
+        <v>2.97818</v>
+      </c>
+      <c r="F37" s="57" t="n">
+        <v>4.44569</v>
       </c>
       <c r="G37" s="7" t="n">
-        <v>2.97818</v>
-      </c>
-      <c r="H37" s="28" t="n">
-        <v>4.61988</v>
-      </c>
-      <c r="I37" s="25" t="n">
+        <v>3.58631</v>
+      </c>
+      <c r="H37" s="57" t="n">
         <v>4.44569</v>
       </c>
-      <c r="J37" s="7" t="n">
-        <v>3.58631</v>
-      </c>
-      <c r="K37" s="25" t="n">
-        <v>4.45435</v>
-      </c>
-      <c r="L37" s="25" t="n">
-        <v>4.44569</v>
-      </c>
-      <c r="M37" s="7" t="n">
+      <c r="I37" s="7" t="n">
         <v>3.6383</v>
       </c>
     </row>
@@ -3328,36 +2769,24 @@
         <v>6.9975</v>
       </c>
       <c r="C38" s="7" t="n">
-        <v>3.2283</v>
+        <v>3.15862</v>
       </c>
       <c r="D38" s="7" t="n">
-        <v>3.15862</v>
+        <v>3.06374</v>
       </c>
       <c r="E38" s="7" t="n">
-        <v>3.06374</v>
+        <v>2.89769</v>
       </c>
       <c r="F38" s="7" t="n">
-        <v>2.93715</v>
+        <v>3.34502</v>
       </c>
       <c r="G38" s="7" t="n">
-        <v>2.89769</v>
+        <v>3.32384</v>
       </c>
       <c r="H38" s="7" t="n">
-        <v>3.31489</v>
+        <v>3.34502</v>
       </c>
       <c r="I38" s="7" t="n">
-        <v>3.34502</v>
-      </c>
-      <c r="J38" s="7" t="n">
-        <v>3.32384</v>
-      </c>
-      <c r="K38" s="7" t="n">
-        <v>3.31489</v>
-      </c>
-      <c r="L38" s="7" t="n">
-        <v>3.34502</v>
-      </c>
-      <c r="M38" s="7" t="n">
         <v>3.33949</v>
       </c>
     </row>
@@ -3375,10 +2804,6 @@
       <c r="G39" s="3" t="n"/>
       <c r="H39" s="3" t="n"/>
       <c r="I39" s="3" t="n"/>
-      <c r="J39" s="3" t="n"/>
-      <c r="K39" s="3" t="n"/>
-      <c r="L39" s="3" t="n"/>
-      <c r="M39" s="3" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="5" t="inlineStr">
@@ -3389,37 +2814,25 @@
       <c r="B40" s="6" t="n">
         <v>1.43111</v>
       </c>
-      <c r="C40" s="73" t="n">
-        <v>1.46956</v>
-      </c>
-      <c r="D40" s="74" t="n">
+      <c r="C40" s="58" t="n">
         <v>1.43127</v>
       </c>
-      <c r="E40" s="75" t="n">
+      <c r="D40" s="59" t="n">
         <v>1.42516</v>
       </c>
-      <c r="F40" s="75" t="n">
-        <v>1.4259</v>
-      </c>
-      <c r="G40" s="75" t="n">
+      <c r="E40" s="59" t="n">
         <v>1.42726</v>
       </c>
-      <c r="H40" s="76" t="n">
+      <c r="F40" s="60" t="n">
         <v>1.40774</v>
       </c>
-      <c r="I40" s="76" t="n">
+      <c r="G40" s="61" t="n">
+        <v>1.40298</v>
+      </c>
+      <c r="H40" s="60" t="n">
         <v>1.40774</v>
       </c>
-      <c r="J40" s="77" t="n">
-        <v>1.40298</v>
-      </c>
-      <c r="K40" s="76" t="n">
-        <v>1.40774</v>
-      </c>
-      <c r="L40" s="76" t="n">
-        <v>1.40774</v>
-      </c>
-      <c r="M40" s="77" t="n">
+      <c r="I40" s="61" t="n">
         <v>1.40369</v>
       </c>
     </row>
@@ -3432,37 +2845,25 @@
       <c r="B41" s="6" t="n">
         <v>1.42535</v>
       </c>
-      <c r="C41" s="78" t="n">
-        <v>1.43837</v>
-      </c>
-      <c r="D41" s="79" t="n">
+      <c r="C41" s="62" t="n">
         <v>1.43395</v>
       </c>
-      <c r="E41" s="78" t="n">
+      <c r="D41" s="63" t="n">
         <v>1.43792</v>
       </c>
-      <c r="F41" s="74" t="n">
-        <v>1.429</v>
-      </c>
-      <c r="G41" s="78" t="n">
+      <c r="E41" s="63" t="n">
         <v>1.43797</v>
       </c>
-      <c r="H41" s="80" t="n">
-        <v>1.41597</v>
-      </c>
-      <c r="I41" s="80" t="n">
+      <c r="F41" s="64" t="n">
         <v>1.41418</v>
       </c>
-      <c r="J41" s="77" t="n">
+      <c r="G41" s="61" t="n">
         <v>1.39562</v>
       </c>
-      <c r="K41" s="80" t="n">
-        <v>1.41597</v>
-      </c>
-      <c r="L41" s="80" t="n">
+      <c r="H41" s="64" t="n">
         <v>1.41418</v>
       </c>
-      <c r="M41" s="76" t="n">
+      <c r="I41" s="60" t="n">
         <v>1.4059</v>
       </c>
     </row>
@@ -3475,37 +2876,25 @@
       <c r="B42" s="6" t="n">
         <v>1.41985</v>
       </c>
-      <c r="C42" s="81" t="n">
-        <v>1.44162</v>
-      </c>
-      <c r="D42" s="81" t="n">
+      <c r="C42" s="65" t="n">
         <v>1.44205</v>
       </c>
-      <c r="E42" s="66" t="n">
+      <c r="D42" s="66" t="n">
         <v>1.44869</v>
       </c>
-      <c r="F42" s="79" t="n">
-        <v>1.43036</v>
-      </c>
-      <c r="G42" s="67" t="n">
+      <c r="E42" s="53" t="n">
         <v>1.4474</v>
       </c>
-      <c r="H42" s="80" t="n">
-        <v>1.40993</v>
-      </c>
-      <c r="I42" s="82" t="n">
+      <c r="F42" s="67" t="n">
         <v>1.43628</v>
       </c>
-      <c r="J42" s="75" t="n">
+      <c r="G42" s="59" t="n">
         <v>1.41541</v>
       </c>
-      <c r="K42" s="80" t="n">
-        <v>1.40993</v>
-      </c>
-      <c r="L42" s="82" t="n">
+      <c r="H42" s="67" t="n">
         <v>1.43628</v>
       </c>
-      <c r="M42" s="74" t="n">
+      <c r="I42" s="58" t="n">
         <v>1.42282</v>
       </c>
     </row>
@@ -3523,10 +2912,6 @@
       <c r="G43" s="3" t="n"/>
       <c r="H43" s="3" t="n"/>
       <c r="I43" s="3" t="n"/>
-      <c r="J43" s="3" t="n"/>
-      <c r="K43" s="3" t="n"/>
-      <c r="L43" s="3" t="n"/>
-      <c r="M43" s="3" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="5" t="inlineStr">
@@ -3537,37 +2922,25 @@
       <c r="B44" s="6" t="n">
         <v>0.01601</v>
       </c>
-      <c r="C44" s="83" t="n">
-        <v>0.01531</v>
-      </c>
-      <c r="D44" s="84" t="n">
+      <c r="C44" s="68" t="n">
         <v>0.01488</v>
       </c>
-      <c r="E44" s="85" t="n">
+      <c r="D44" s="69" t="n">
         <v>0.01474</v>
       </c>
-      <c r="F44" s="86" t="n">
-        <v>0.01462</v>
-      </c>
-      <c r="G44" s="87" t="n">
+      <c r="E44" s="70" t="n">
         <v>0.01452</v>
+      </c>
+      <c r="F44" s="6" t="n">
+        <v>0.01601</v>
+      </c>
+      <c r="G44" s="68" t="n">
+        <v>0.01487</v>
       </c>
       <c r="H44" s="6" t="n">
         <v>0.01601</v>
       </c>
-      <c r="I44" s="6" t="n">
-        <v>0.01601</v>
-      </c>
-      <c r="J44" s="84" t="n">
-        <v>0.01487</v>
-      </c>
-      <c r="K44" s="6" t="n">
-        <v>0.01601</v>
-      </c>
-      <c r="L44" s="6" t="n">
-        <v>0.01601</v>
-      </c>
-      <c r="M44" s="84" t="n">
+      <c r="I44" s="68" t="n">
         <v>0.01487</v>
       </c>
     </row>
@@ -3580,37 +2953,25 @@
       <c r="B45" s="6" t="n">
         <v>0.01555</v>
       </c>
-      <c r="C45" s="88" t="n">
-        <v>0.01476</v>
-      </c>
-      <c r="D45" s="89" t="n">
+      <c r="C45" s="71" t="n">
         <v>0.01453</v>
       </c>
-      <c r="E45" s="85" t="n">
+      <c r="D45" s="69" t="n">
         <v>0.01434</v>
       </c>
-      <c r="F45" s="90" t="n">
-        <v>0.01441</v>
-      </c>
-      <c r="G45" s="90" t="n">
+      <c r="E45" s="72" t="n">
         <v>0.0144</v>
       </c>
-      <c r="H45" s="91" t="n">
-        <v>0.01478</v>
-      </c>
-      <c r="I45" s="92" t="n">
+      <c r="F45" s="73" t="n">
         <v>0.01497</v>
       </c>
-      <c r="J45" s="89" t="n">
+      <c r="G45" s="71" t="n">
         <v>0.01452</v>
       </c>
-      <c r="K45" s="91" t="n">
-        <v>0.01479</v>
-      </c>
-      <c r="L45" s="92" t="n">
+      <c r="H45" s="73" t="n">
         <v>0.01497</v>
       </c>
-      <c r="M45" s="93" t="n">
+      <c r="I45" s="74" t="n">
         <v>0.01462</v>
       </c>
     </row>
@@ -3623,37 +2984,25 @@
       <c r="B46" s="6" t="n">
         <v>0.01495</v>
       </c>
-      <c r="C46" s="76" t="n">
-        <v>0.01474</v>
-      </c>
-      <c r="D46" s="92" t="n">
+      <c r="C46" s="73" t="n">
         <v>0.01438</v>
       </c>
-      <c r="E46" s="83" t="n">
+      <c r="D46" s="75" t="n">
         <v>0.01428</v>
       </c>
-      <c r="F46" s="94" t="n">
-        <v>0.01444</v>
-      </c>
-      <c r="G46" s="92" t="n">
+      <c r="E46" s="73" t="n">
         <v>0.01435</v>
       </c>
+      <c r="F46" s="76" t="n">
+        <v>0.01448</v>
+      </c>
+      <c r="G46" s="77" t="n">
+        <v>0.01421</v>
+      </c>
       <c r="H46" s="76" t="n">
-        <v>0.0147</v>
-      </c>
-      <c r="I46" s="95" t="n">
         <v>0.01448</v>
       </c>
-      <c r="J46" s="91" t="n">
-        <v>0.01421</v>
-      </c>
-      <c r="K46" s="76" t="n">
-        <v>0.0147</v>
-      </c>
-      <c r="L46" s="95" t="n">
-        <v>0.01448</v>
-      </c>
-      <c r="M46" s="83" t="n">
+      <c r="I46" s="75" t="n">
         <v>0.01434</v>
       </c>
     </row>
@@ -3671,10 +3020,6 @@
       <c r="G47" s="3" t="n"/>
       <c r="H47" s="3" t="n"/>
       <c r="I47" s="3" t="n"/>
-      <c r="J47" s="3" t="n"/>
-      <c r="K47" s="3" t="n"/>
-      <c r="L47" s="3" t="n"/>
-      <c r="M47" s="3" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="inlineStr">
@@ -3685,37 +3030,25 @@
       <c r="B48" s="6" t="n">
         <v>12.16549</v>
       </c>
-      <c r="C48" s="43" t="n">
-        <v>10.39442</v>
-      </c>
-      <c r="D48" s="42" t="n">
+      <c r="C48" s="78" t="n">
         <v>10.43682</v>
       </c>
-      <c r="E48" s="96" t="n">
+      <c r="D48" s="79" t="n">
         <v>10.11566</v>
       </c>
-      <c r="F48" s="45" t="n">
-        <v>10.07421</v>
-      </c>
-      <c r="G48" s="57" t="n">
+      <c r="E48" s="44" t="n">
         <v>10.00063</v>
       </c>
-      <c r="H48" s="97" t="n">
-        <v>14.17227</v>
-      </c>
-      <c r="I48" s="98" t="n">
+      <c r="F48" s="80" t="n">
         <v>14.245</v>
       </c>
-      <c r="J48" s="99" t="n">
+      <c r="G48" s="81" t="n">
         <v>10.1848</v>
       </c>
-      <c r="K48" s="97" t="n">
-        <v>14.17227</v>
-      </c>
-      <c r="L48" s="98" t="n">
+      <c r="H48" s="80" t="n">
         <v>14.245</v>
       </c>
-      <c r="M48" s="99" t="n">
+      <c r="I48" s="81" t="n">
         <v>10.1848</v>
       </c>
     </row>
@@ -3728,37 +3061,25 @@
       <c r="B49" s="6" t="n">
         <v>11.86822</v>
       </c>
-      <c r="C49" s="51" t="n">
-        <v>10.29136</v>
-      </c>
-      <c r="D49" s="51" t="n">
+      <c r="C49" s="39" t="n">
         <v>10.27701</v>
       </c>
-      <c r="E49" s="100" t="n">
+      <c r="D49" s="82" t="n">
         <v>10.09344</v>
       </c>
-      <c r="F49" s="101" t="n">
-        <v>9.96059</v>
-      </c>
-      <c r="G49" s="101" t="n">
+      <c r="E49" s="83" t="n">
         <v>9.981159999999999</v>
       </c>
-      <c r="H49" s="50" t="n">
-        <v>10.53932</v>
-      </c>
-      <c r="I49" s="50" t="n">
+      <c r="F49" s="84" t="n">
         <v>10.538</v>
       </c>
-      <c r="J49" s="43" t="n">
+      <c r="G49" s="34" t="n">
         <v>10.13995</v>
       </c>
-      <c r="K49" s="50" t="n">
-        <v>10.53932</v>
-      </c>
-      <c r="L49" s="59" t="n">
+      <c r="H49" s="85" t="n">
         <v>10.50042</v>
       </c>
-      <c r="M49" s="43" t="n">
+      <c r="I49" s="34" t="n">
         <v>10.13523</v>
       </c>
     </row>
@@ -3771,37 +3092,25 @@
       <c r="B50" s="6" t="n">
         <v>11.73253</v>
       </c>
-      <c r="C50" s="102" t="n">
-        <v>10.21133</v>
-      </c>
-      <c r="D50" s="102" t="n">
+      <c r="C50" s="86" t="n">
         <v>10.20754</v>
       </c>
-      <c r="E50" s="42" t="n">
+      <c r="D50" s="78" t="n">
         <v>10.06443</v>
       </c>
-      <c r="F50" s="100" t="n">
-        <v>9.939170000000001</v>
-      </c>
-      <c r="G50" s="100" t="n">
+      <c r="E50" s="82" t="n">
         <v>9.94933</v>
       </c>
-      <c r="H50" s="102" t="n">
-        <v>10.20878</v>
-      </c>
-      <c r="I50" s="54" t="n">
+      <c r="F50" s="42" t="n">
         <v>10.25437</v>
       </c>
-      <c r="J50" s="60" t="n">
+      <c r="G50" s="49" t="n">
         <v>10.11601</v>
       </c>
-      <c r="K50" s="102" t="n">
-        <v>10.20878</v>
-      </c>
-      <c r="L50" s="54" t="n">
+      <c r="H50" s="42" t="n">
         <v>10.25437</v>
       </c>
-      <c r="M50" s="60" t="n">
+      <c r="I50" s="49" t="n">
         <v>10.12818</v>
       </c>
     </row>
@@ -3819,10 +3128,6 @@
       <c r="G51" s="3" t="n"/>
       <c r="H51" s="3" t="n"/>
       <c r="I51" s="3" t="n"/>
-      <c r="J51" s="3" t="n"/>
-      <c r="K51" s="3" t="n"/>
-      <c r="L51" s="3" t="n"/>
-      <c r="M51" s="3" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="5" t="inlineStr">
@@ -3833,37 +3138,25 @@
       <c r="B52" s="6" t="n">
         <v>39.00013</v>
       </c>
-      <c r="C52" s="55" t="n">
-        <v>30.72467</v>
-      </c>
-      <c r="D52" s="53" t="n">
+      <c r="C52" s="41" t="n">
         <v>31.64841</v>
       </c>
-      <c r="E52" s="96" t="n">
+      <c r="D52" s="79" t="n">
         <v>32.33313</v>
       </c>
-      <c r="F52" s="103" t="n">
-        <v>30.52493</v>
-      </c>
-      <c r="G52" s="104" t="n">
+      <c r="E52" s="87" t="n">
         <v>30.31933</v>
       </c>
-      <c r="H52" s="105" t="n">
-        <v>41.72215</v>
-      </c>
-      <c r="I52" s="106" t="n">
+      <c r="F52" s="88" t="n">
         <v>42.09846</v>
       </c>
-      <c r="J52" s="49" t="n">
+      <c r="G52" s="38" t="n">
         <v>31.48903</v>
       </c>
-      <c r="K52" s="105" t="n">
-        <v>41.72215</v>
-      </c>
-      <c r="L52" s="106" t="n">
+      <c r="H52" s="88" t="n">
         <v>42.09846</v>
       </c>
-      <c r="M52" s="47" t="n">
+      <c r="I52" s="37" t="n">
         <v>31.25672</v>
       </c>
     </row>
@@ -3876,37 +3169,25 @@
       <c r="B53" s="6" t="n">
         <v>38.62736</v>
       </c>
-      <c r="C53" s="56" t="n">
-        <v>30.76472</v>
-      </c>
-      <c r="D53" s="107" t="n">
+      <c r="C53" s="89" t="n">
         <v>29.86512</v>
       </c>
-      <c r="E53" s="108" t="n">
+      <c r="D53" s="90" t="n">
         <v>32.70334</v>
       </c>
-      <c r="F53" s="52" t="n">
-        <v>31.14424</v>
-      </c>
-      <c r="G53" s="45" t="n">
+      <c r="E53" s="48" t="n">
         <v>31.96502</v>
       </c>
-      <c r="H53" s="53" t="n">
-        <v>31.35918</v>
-      </c>
-      <c r="I53" s="57" t="n">
+      <c r="F53" s="44" t="n">
         <v>31.76226</v>
       </c>
-      <c r="J53" s="48" t="n">
+      <c r="G53" s="47" t="n">
         <v>31.53245</v>
       </c>
-      <c r="K53" s="53" t="n">
-        <v>31.35918</v>
-      </c>
-      <c r="L53" s="57" t="n">
+      <c r="H53" s="44" t="n">
         <v>31.76226</v>
       </c>
-      <c r="M53" s="49" t="n">
+      <c r="I53" s="38" t="n">
         <v>31.25313</v>
       </c>
     </row>
@@ -3919,37 +3200,25 @@
       <c r="B54" s="6" t="n">
         <v>38.04211</v>
       </c>
-      <c r="C54" s="48" t="n">
-        <v>31.18511</v>
-      </c>
-      <c r="D54" s="47" t="n">
+      <c r="C54" s="37" t="n">
         <v>30.42635</v>
       </c>
-      <c r="E54" s="102" t="n">
+      <c r="D54" s="86" t="n">
         <v>33.15308</v>
       </c>
-      <c r="F54" s="52" t="n">
-        <v>30.52243</v>
-      </c>
-      <c r="G54" s="45" t="n">
+      <c r="E54" s="48" t="n">
         <v>31.40537</v>
       </c>
-      <c r="H54" s="45" t="n">
-        <v>31.50937</v>
+      <c r="F54" s="37" t="n">
+        <v>30.46778</v>
+      </c>
+      <c r="G54" s="79" t="n">
+        <v>31.55206</v>
+      </c>
+      <c r="H54" s="37" t="n">
+        <v>30.46778</v>
       </c>
       <c r="I54" s="47" t="n">
-        <v>30.46778</v>
-      </c>
-      <c r="J54" s="96" t="n">
-        <v>31.55206</v>
-      </c>
-      <c r="K54" s="45" t="n">
-        <v>31.50937</v>
-      </c>
-      <c r="L54" s="47" t="n">
-        <v>30.46778</v>
-      </c>
-      <c r="M54" s="48" t="n">
         <v>31.18206</v>
       </c>
     </row>
@@ -3967,10 +3236,6 @@
       <c r="G55" s="3" t="n"/>
       <c r="H55" s="3" t="n"/>
       <c r="I55" s="3" t="n"/>
-      <c r="J55" s="3" t="n"/>
-      <c r="K55" s="3" t="n"/>
-      <c r="L55" s="3" t="n"/>
-      <c r="M55" s="3" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="5" t="inlineStr">
@@ -3981,37 +3246,25 @@
       <c r="B56" s="6" t="n">
         <v>130.07759</v>
       </c>
-      <c r="C56" s="37" t="n">
-        <v>98.13951</v>
-      </c>
-      <c r="D56" s="37" t="n">
+      <c r="C56" s="91" t="n">
         <v>98.03301</v>
       </c>
-      <c r="E56" s="109" t="n">
+      <c r="D56" s="92" t="n">
         <v>99.29813</v>
       </c>
-      <c r="F56" s="27" t="n">
-        <v>81.96151</v>
-      </c>
-      <c r="G56" s="64" t="n">
+      <c r="E56" s="52" t="n">
         <v>73.02263000000001</v>
       </c>
-      <c r="H56" s="12" t="n">
+      <c r="F56" s="11" t="n">
         <v>130.7468</v>
       </c>
-      <c r="I56" s="12" t="n">
+      <c r="G56" s="93" t="n">
+        <v>99.52021000000001</v>
+      </c>
+      <c r="H56" s="11" t="n">
         <v>130.7468</v>
       </c>
-      <c r="J56" s="110" t="n">
-        <v>99.52021000000001</v>
-      </c>
-      <c r="K56" s="12" t="n">
-        <v>130.7468</v>
-      </c>
-      <c r="L56" s="12" t="n">
-        <v>130.7468</v>
-      </c>
-      <c r="M56" s="110" t="n">
+      <c r="I56" s="93" t="n">
         <v>99.52021000000001</v>
       </c>
     </row>
@@ -4024,37 +3277,25 @@
       <c r="B57" s="6" t="n">
         <v>129.44335</v>
       </c>
-      <c r="C57" s="111" t="n">
-        <v>86.99241000000001</v>
-      </c>
-      <c r="D57" s="112" t="n">
+      <c r="C57" s="94" t="n">
         <v>83.85916</v>
       </c>
-      <c r="E57" s="113" t="n">
+      <c r="D57" s="95" t="n">
         <v>99.19386</v>
       </c>
-      <c r="F57" s="18" t="n">
-        <v>75.07709</v>
-      </c>
-      <c r="G57" s="17" t="n">
+      <c r="E57" s="16" t="n">
         <v>69.66327</v>
       </c>
-      <c r="H57" s="49" t="n">
-        <v>104.50417</v>
-      </c>
-      <c r="I57" s="103" t="n">
+      <c r="F57" s="96" t="n">
         <v>101.23463</v>
       </c>
-      <c r="J57" s="109" t="n">
+      <c r="G57" s="92" t="n">
         <v>98.80894000000001</v>
       </c>
-      <c r="K57" s="56" t="n">
-        <v>103.04212</v>
-      </c>
-      <c r="L57" s="103" t="n">
+      <c r="H57" s="96" t="n">
         <v>101.23463</v>
       </c>
-      <c r="M57" s="113" t="n">
+      <c r="I57" s="95" t="n">
         <v>99.46017999999999</v>
       </c>
     </row>
@@ -4067,44 +3308,32 @@
       <c r="B58" s="6" t="n">
         <v>128.72448</v>
       </c>
-      <c r="C58" s="20" t="n">
-        <v>83.01031999999999</v>
-      </c>
-      <c r="D58" s="28" t="n">
+      <c r="C58" s="24" t="n">
         <v>81.73676</v>
       </c>
-      <c r="E58" s="113" t="n">
+      <c r="D58" s="95" t="n">
         <v>99.09629</v>
       </c>
-      <c r="F58" s="18" t="n">
-        <v>74.79512</v>
-      </c>
-      <c r="G58" s="114" t="n">
+      <c r="E58" s="97" t="n">
         <v>68.94804999999999</v>
       </c>
-      <c r="H58" s="40" t="n">
-        <v>90.49274</v>
-      </c>
-      <c r="I58" s="111" t="n">
+      <c r="F58" s="98" t="n">
         <v>86.88974</v>
       </c>
-      <c r="J58" s="109" t="n">
+      <c r="G58" s="92" t="n">
         <v>98.32332</v>
       </c>
-      <c r="K58" s="40" t="n">
-        <v>90.49274</v>
-      </c>
-      <c r="L58" s="111" t="n">
+      <c r="H58" s="98" t="n">
         <v>86.88974</v>
       </c>
-      <c r="M58" s="107" t="n">
+      <c r="I58" s="89" t="n">
         <v>99.27643</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>PERFORMANCE - MODEL SIZE</t>
+          <t>TEST SIZE (NODES)</t>
         </is>
       </c>
       <c r="B61" s="3" t="n"/>
@@ -4115,71 +3344,47 @@
       <c r="G61" s="3" t="n"/>
       <c r="H61" s="3" t="n"/>
       <c r="I61" s="3" t="n"/>
-      <c r="J61" s="3" t="n"/>
-      <c r="K61" s="3" t="n"/>
-      <c r="L61" s="3" t="n"/>
-      <c r="M61" s="3" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="3" t="inlineStr"/>
       <c r="B62" s="1" t="inlineStr">
         <is>
-          <t>VARIANT 20</t>
+          <t>SLIM-GSGP</t>
         </is>
       </c>
       <c r="C62" s="1" t="inlineStr">
         <is>
-          <t>VARIANT 1</t>
+          <t>OMS</t>
         </is>
       </c>
       <c r="D62" s="1" t="inlineStr">
         <is>
-          <t>VARIANT 1b</t>
+          <t>LS</t>
         </is>
       </c>
       <c r="E62" s="1" t="inlineStr">
         <is>
-          <t>VARIANT 2</t>
+          <t>OMS + LS</t>
         </is>
       </c>
       <c r="F62" s="1" t="inlineStr">
         <is>
-          <t>VARIANT 3</t>
+          <t>OMS + PT</t>
         </is>
       </c>
       <c r="G62" s="1" t="inlineStr">
         <is>
-          <t>VARIANT 3b</t>
+          <t>LS + PT</t>
         </is>
       </c>
       <c r="H62" s="1" t="inlineStr">
         <is>
-          <t>VARIANT 4</t>
+          <t>OMS + PT + AS</t>
         </is>
       </c>
       <c r="I62" s="1" t="inlineStr">
         <is>
-          <t>VARIANT 4b</t>
-        </is>
-      </c>
-      <c r="J62" s="1" t="inlineStr">
-        <is>
-          <t>VARIANT 5</t>
-        </is>
-      </c>
-      <c r="K62" s="1" t="inlineStr">
-        <is>
-          <t>VARIANT 6</t>
-        </is>
-      </c>
-      <c r="L62" s="1" t="inlineStr">
-        <is>
-          <t>VARIANT 6b</t>
-        </is>
-      </c>
-      <c r="M62" s="1" t="inlineStr">
-        <is>
-          <t>VARIANT 7</t>
+          <t>LS + PT + AS</t>
         </is>
       </c>
     </row>
@@ -4197,10 +3402,6 @@
       <c r="G63" s="3" t="n"/>
       <c r="H63" s="3" t="n"/>
       <c r="I63" s="3" t="n"/>
-      <c r="J63" s="3" t="n"/>
-      <c r="K63" s="3" t="n"/>
-      <c r="L63" s="3" t="n"/>
-      <c r="M63" s="3" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="5" t="inlineStr">
@@ -4208,40 +3409,28 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B64" s="115" t="n">
+      <c r="B64" s="99" t="n">
         <v>35</v>
       </c>
-      <c r="C64" s="116" t="n">
+      <c r="C64" s="100" t="n">
+        <v>33</v>
+      </c>
+      <c r="D64" s="101" t="n">
         <v>34</v>
       </c>
-      <c r="D64" s="117" t="n">
-        <v>33</v>
-      </c>
-      <c r="E64" s="116" t="n">
-        <v>34</v>
-      </c>
-      <c r="F64" s="118" t="n">
-        <v>27</v>
-      </c>
-      <c r="G64" s="119" t="n">
+      <c r="E64" s="102" t="n">
         <v>29</v>
       </c>
-      <c r="H64" s="120" t="n">
+      <c r="F64" s="103" t="n">
         <v>3</v>
       </c>
-      <c r="I64" s="120" t="n">
+      <c r="G64" s="103" t="n">
+        <v>4</v>
+      </c>
+      <c r="H64" s="103" t="n">
         <v>3</v>
       </c>
-      <c r="J64" s="120" t="n">
-        <v>4</v>
-      </c>
-      <c r="K64" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="L64" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="M64" s="120" t="n">
+      <c r="I64" s="103" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4251,40 +3440,28 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B65" s="115" t="n">
+      <c r="B65" s="99" t="n">
         <v>47</v>
       </c>
-      <c r="C65" s="121" t="n">
+      <c r="C65" s="104" t="n">
         <v>45</v>
       </c>
-      <c r="D65" s="121" t="n">
-        <v>45</v>
-      </c>
-      <c r="E65" s="115" t="n">
+      <c r="D65" s="99" t="n">
         <v>47</v>
       </c>
-      <c r="F65" s="122" t="n">
-        <v>37</v>
-      </c>
-      <c r="G65" s="123" t="n">
+      <c r="E65" s="105" t="n">
         <v>39</v>
       </c>
-      <c r="H65" s="120" t="n">
-        <v>11</v>
-      </c>
-      <c r="I65" s="120" t="n">
+      <c r="F65" s="103" t="n">
         <v>13</v>
       </c>
-      <c r="J65" s="124" t="n">
+      <c r="G65" s="106" t="n">
         <v>29</v>
       </c>
-      <c r="K65" s="120" t="n">
-        <v>11</v>
-      </c>
-      <c r="L65" s="120" t="n">
+      <c r="H65" s="103" t="n">
         <v>13</v>
       </c>
-      <c r="M65" s="125" t="n">
+      <c r="I65" s="107" t="n">
         <v>25</v>
       </c>
     </row>
@@ -4294,40 +3471,28 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B66" s="115" t="n">
+      <c r="B66" s="99" t="n">
         <v>62</v>
       </c>
-      <c r="C66" s="126" t="n">
-        <v>67</v>
-      </c>
-      <c r="D66" s="127" t="n">
+      <c r="C66" s="108" t="n">
         <v>63</v>
       </c>
-      <c r="E66" s="128" t="n">
+      <c r="D66" s="109" t="n">
         <v>68</v>
       </c>
-      <c r="F66" s="129" t="n">
-        <v>58</v>
-      </c>
-      <c r="G66" s="127" t="n">
+      <c r="E66" s="108" t="n">
         <v>63</v>
       </c>
-      <c r="H66" s="130" t="n">
-        <v>57</v>
-      </c>
-      <c r="I66" s="131" t="n">
+      <c r="F66" s="110" t="n">
         <v>54</v>
       </c>
-      <c r="J66" s="132" t="n">
+      <c r="G66" s="111" t="n">
         <v>56</v>
       </c>
-      <c r="K66" s="132" t="n">
-        <v>56</v>
-      </c>
-      <c r="L66" s="133" t="n">
+      <c r="H66" s="112" t="n">
         <v>53</v>
       </c>
-      <c r="M66" s="131" t="n">
+      <c r="I66" s="110" t="n">
         <v>54</v>
       </c>
     </row>
@@ -4345,10 +3510,6 @@
       <c r="G67" s="3" t="n"/>
       <c r="H67" s="3" t="n"/>
       <c r="I67" s="3" t="n"/>
-      <c r="J67" s="3" t="n"/>
-      <c r="K67" s="3" t="n"/>
-      <c r="L67" s="3" t="n"/>
-      <c r="M67" s="3" t="n"/>
     </row>
     <row r="68">
       <c r="A68" s="5" t="inlineStr">
@@ -4356,40 +3517,28 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B68" s="115" t="n">
+      <c r="B68" s="99" t="n">
         <v>33</v>
       </c>
-      <c r="C68" s="134" t="n">
+      <c r="C68" s="113" t="n">
         <v>35</v>
       </c>
-      <c r="D68" s="134" t="n">
-        <v>35</v>
-      </c>
-      <c r="E68" s="135" t="n">
+      <c r="D68" s="114" t="n">
         <v>31</v>
       </c>
-      <c r="F68" s="135" t="n">
-        <v>31</v>
-      </c>
-      <c r="G68" s="136" t="n">
+      <c r="E68" s="115" t="n">
         <v>30</v>
       </c>
-      <c r="H68" s="120" t="n">
+      <c r="F68" s="103" t="n">
         <v>3</v>
       </c>
-      <c r="I68" s="120" t="n">
+      <c r="G68" s="103" t="n">
+        <v>7</v>
+      </c>
+      <c r="H68" s="103" t="n">
         <v>3</v>
       </c>
-      <c r="J68" s="120" t="n">
-        <v>7</v>
-      </c>
-      <c r="K68" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="L68" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="M68" s="120" t="n">
+      <c r="I68" s="103" t="n">
         <v>7</v>
       </c>
     </row>
@@ -4399,40 +3548,28 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B69" s="115" t="n">
+      <c r="B69" s="99" t="n">
         <v>41</v>
       </c>
-      <c r="C69" s="137" t="n">
+      <c r="C69" s="116" t="n">
         <v>42</v>
       </c>
-      <c r="D69" s="137" t="n">
-        <v>42</v>
-      </c>
-      <c r="E69" s="115" t="n">
+      <c r="D69" s="99" t="n">
         <v>41</v>
       </c>
-      <c r="F69" s="138" t="n">
-        <v>38</v>
-      </c>
-      <c r="G69" s="132" t="n">
+      <c r="E69" s="111" t="n">
         <v>37</v>
       </c>
-      <c r="H69" s="139" t="n">
+      <c r="F69" s="117" t="n">
         <v>24</v>
       </c>
-      <c r="I69" s="139" t="n">
+      <c r="G69" s="117" t="n">
         <v>24</v>
       </c>
-      <c r="J69" s="139" t="n">
-        <v>24</v>
-      </c>
-      <c r="K69" s="140" t="n">
+      <c r="H69" s="118" t="n">
         <v>23</v>
       </c>
-      <c r="L69" s="140" t="n">
-        <v>23</v>
-      </c>
-      <c r="M69" s="139" t="n">
+      <c r="I69" s="117" t="n">
         <v>24</v>
       </c>
     </row>
@@ -4442,40 +3579,28 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B70" s="115" t="n">
+      <c r="B70" s="99" t="n">
         <v>54</v>
       </c>
-      <c r="C70" s="141" t="n">
+      <c r="C70" s="119" t="n">
         <v>53</v>
       </c>
-      <c r="D70" s="141" t="n">
-        <v>53</v>
-      </c>
-      <c r="E70" s="117" t="n">
+      <c r="D70" s="100" t="n">
         <v>51</v>
       </c>
-      <c r="F70" s="138" t="n">
+      <c r="E70" s="120" t="n">
+        <v>52</v>
+      </c>
+      <c r="F70" s="100" t="n">
+        <v>51</v>
+      </c>
+      <c r="G70" s="121" t="n">
         <v>50</v>
       </c>
-      <c r="G70" s="142" t="n">
-        <v>52</v>
-      </c>
-      <c r="H70" s="117" t="n">
+      <c r="H70" s="100" t="n">
         <v>51</v>
       </c>
-      <c r="I70" s="117" t="n">
-        <v>51</v>
-      </c>
-      <c r="J70" s="138" t="n">
-        <v>50</v>
-      </c>
-      <c r="K70" s="138" t="n">
-        <v>50</v>
-      </c>
-      <c r="L70" s="117" t="n">
-        <v>51</v>
-      </c>
-      <c r="M70" s="138" t="n">
+      <c r="I70" s="121" t="n">
         <v>50</v>
       </c>
     </row>
@@ -4493,10 +3618,6 @@
       <c r="G71" s="3" t="n"/>
       <c r="H71" s="3" t="n"/>
       <c r="I71" s="3" t="n"/>
-      <c r="J71" s="3" t="n"/>
-      <c r="K71" s="3" t="n"/>
-      <c r="L71" s="3" t="n"/>
-      <c r="M71" s="3" t="n"/>
     </row>
     <row r="72">
       <c r="A72" s="5" t="inlineStr">
@@ -4504,40 +3625,28 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B72" s="115" t="n">
+      <c r="B72" s="99" t="n">
         <v>27</v>
       </c>
-      <c r="C72" s="115" t="n">
+      <c r="C72" s="99" t="n">
         <v>27</v>
       </c>
-      <c r="D72" s="115" t="n">
+      <c r="D72" s="99" t="n">
         <v>27</v>
       </c>
-      <c r="E72" s="115" t="n">
+      <c r="E72" s="99" t="n">
         <v>27</v>
       </c>
-      <c r="F72" s="115" t="n">
-        <v>27</v>
-      </c>
-      <c r="G72" s="115" t="n">
-        <v>27</v>
-      </c>
-      <c r="H72" s="120" t="n">
+      <c r="F72" s="103" t="n">
         <v>3</v>
       </c>
-      <c r="I72" s="120" t="n">
+      <c r="G72" s="103" t="n">
         <v>3</v>
       </c>
-      <c r="J72" s="120" t="n">
+      <c r="H72" s="103" t="n">
         <v>3</v>
       </c>
-      <c r="K72" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="L72" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="M72" s="120" t="n">
+      <c r="I72" s="103" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4547,40 +3656,28 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B73" s="115" t="n">
+      <c r="B73" s="99" t="n">
         <v>35</v>
       </c>
-      <c r="C73" s="143" t="n">
+      <c r="C73" s="122" t="n">
         <v>31</v>
       </c>
-      <c r="D73" s="143" t="n">
-        <v>31</v>
-      </c>
-      <c r="E73" s="115" t="n">
+      <c r="D73" s="99" t="n">
         <v>35</v>
       </c>
-      <c r="F73" s="115" t="n">
+      <c r="E73" s="99" t="n">
         <v>35</v>
       </c>
-      <c r="G73" s="115" t="n">
-        <v>35</v>
-      </c>
-      <c r="H73" s="120" t="n">
+      <c r="F73" s="103" t="n">
         <v>11</v>
       </c>
-      <c r="I73" s="120" t="n">
+      <c r="G73" s="123" t="n">
+        <v>23</v>
+      </c>
+      <c r="H73" s="103" t="n">
         <v>11</v>
       </c>
-      <c r="J73" s="144" t="n">
-        <v>23</v>
-      </c>
-      <c r="K73" s="120" t="n">
-        <v>11</v>
-      </c>
-      <c r="L73" s="120" t="n">
-        <v>11</v>
-      </c>
-      <c r="M73" s="145" t="n">
+      <c r="I73" s="124" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4590,40 +3687,28 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B74" s="115" t="n">
+      <c r="B74" s="99" t="n">
         <v>39</v>
       </c>
-      <c r="C74" s="115" t="n">
+      <c r="C74" s="99" t="n">
         <v>39</v>
       </c>
-      <c r="D74" s="115" t="n">
+      <c r="D74" s="125" t="n">
+        <v>41</v>
+      </c>
+      <c r="E74" s="126" t="n">
+        <v>43</v>
+      </c>
+      <c r="F74" s="125" t="n">
+        <v>41</v>
+      </c>
+      <c r="G74" s="126" t="n">
+        <v>43</v>
+      </c>
+      <c r="H74" s="99" t="n">
         <v>39</v>
       </c>
-      <c r="E74" s="146" t="n">
-        <v>41</v>
-      </c>
-      <c r="F74" s="146" t="n">
-        <v>41</v>
-      </c>
-      <c r="G74" s="147" t="n">
-        <v>43</v>
-      </c>
-      <c r="H74" s="115" t="n">
-        <v>39</v>
-      </c>
-      <c r="I74" s="146" t="n">
-        <v>41</v>
-      </c>
-      <c r="J74" s="147" t="n">
-        <v>43</v>
-      </c>
-      <c r="K74" s="115" t="n">
-        <v>39</v>
-      </c>
-      <c r="L74" s="115" t="n">
-        <v>39</v>
-      </c>
-      <c r="M74" s="147" t="n">
+      <c r="I74" s="126" t="n">
         <v>43</v>
       </c>
     </row>
@@ -4641,10 +3726,6 @@
       <c r="G75" s="3" t="n"/>
       <c r="H75" s="3" t="n"/>
       <c r="I75" s="3" t="n"/>
-      <c r="J75" s="3" t="n"/>
-      <c r="K75" s="3" t="n"/>
-      <c r="L75" s="3" t="n"/>
-      <c r="M75" s="3" t="n"/>
     </row>
     <row r="76">
       <c r="A76" s="5" t="inlineStr">
@@ -4652,40 +3733,28 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B76" s="115" t="n">
+      <c r="B76" s="99" t="n">
         <v>15</v>
       </c>
-      <c r="C76" s="148" t="n">
+      <c r="C76" s="127" t="n">
         <v>27</v>
       </c>
-      <c r="D76" s="148" t="n">
-        <v>27</v>
-      </c>
-      <c r="E76" s="148" t="n">
+      <c r="D76" s="127" t="n">
         <v>25</v>
       </c>
-      <c r="F76" s="148" t="n">
+      <c r="E76" s="127" t="n">
         <v>25</v>
       </c>
-      <c r="G76" s="148" t="n">
-        <v>25</v>
-      </c>
-      <c r="H76" s="120" t="n">
+      <c r="F76" s="103" t="n">
         <v>3</v>
       </c>
-      <c r="I76" s="120" t="n">
+      <c r="G76" s="103" t="n">
         <v>3</v>
       </c>
-      <c r="J76" s="120" t="n">
+      <c r="H76" s="103" t="n">
         <v>3</v>
       </c>
-      <c r="K76" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="L76" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="M76" s="120" t="n">
+      <c r="I76" s="103" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4695,40 +3764,28 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B77" s="115" t="n">
+      <c r="B77" s="99" t="n">
         <v>24</v>
       </c>
-      <c r="C77" s="149" t="n">
+      <c r="C77" s="128" t="n">
         <v>33</v>
       </c>
-      <c r="D77" s="149" t="n">
-        <v>33</v>
-      </c>
-      <c r="E77" s="150" t="n">
+      <c r="D77" s="129" t="n">
         <v>31</v>
       </c>
-      <c r="F77" s="150" t="n">
+      <c r="E77" s="129" t="n">
         <v>31</v>
       </c>
-      <c r="G77" s="150" t="n">
-        <v>31</v>
-      </c>
-      <c r="H77" s="151" t="n">
-        <v>13</v>
-      </c>
-      <c r="I77" s="120" t="n">
+      <c r="F77" s="103" t="n">
         <v>11</v>
       </c>
-      <c r="J77" s="152" t="n">
+      <c r="G77" s="130" t="n">
         <v>15</v>
       </c>
-      <c r="K77" s="151" t="n">
-        <v>13</v>
-      </c>
-      <c r="L77" s="120" t="n">
+      <c r="H77" s="103" t="n">
         <v>11</v>
       </c>
-      <c r="M77" s="153" t="n">
+      <c r="I77" s="131" t="n">
         <v>17</v>
       </c>
     </row>
@@ -4738,40 +3795,28 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B78" s="115" t="n">
+      <c r="B78" s="99" t="n">
         <v>39</v>
       </c>
-      <c r="C78" s="154" t="n">
+      <c r="C78" s="132" t="n">
         <v>45</v>
       </c>
-      <c r="D78" s="154" t="n">
-        <v>45</v>
-      </c>
-      <c r="E78" s="147" t="n">
+      <c r="D78" s="126" t="n">
         <v>43</v>
       </c>
-      <c r="F78" s="147" t="n">
-        <v>43</v>
-      </c>
-      <c r="G78" s="146" t="n">
+      <c r="E78" s="125" t="n">
         <v>41</v>
       </c>
-      <c r="H78" s="154" t="n">
-        <v>45</v>
-      </c>
-      <c r="I78" s="146" t="n">
+      <c r="F78" s="125" t="n">
         <v>41</v>
       </c>
-      <c r="J78" s="146" t="n">
+      <c r="G78" s="125" t="n">
         <v>41</v>
       </c>
-      <c r="K78" s="155" t="n">
-        <v>44</v>
-      </c>
-      <c r="L78" s="146" t="n">
+      <c r="H78" s="125" t="n">
         <v>41</v>
       </c>
-      <c r="M78" s="146" t="n">
+      <c r="I78" s="125" t="n">
         <v>41</v>
       </c>
     </row>
@@ -4789,10 +3834,6 @@
       <c r="G79" s="3" t="n"/>
       <c r="H79" s="3" t="n"/>
       <c r="I79" s="3" t="n"/>
-      <c r="J79" s="3" t="n"/>
-      <c r="K79" s="3" t="n"/>
-      <c r="L79" s="3" t="n"/>
-      <c r="M79" s="3" t="n"/>
     </row>
     <row r="80">
       <c r="A80" s="5" t="inlineStr">
@@ -4800,40 +3841,28 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B80" s="115" t="n">
+      <c r="B80" s="99" t="n">
         <v>33</v>
       </c>
-      <c r="C80" s="136" t="n">
+      <c r="C80" s="115" t="n">
         <v>30</v>
       </c>
-      <c r="D80" s="136" t="n">
+      <c r="D80" s="115" t="n">
         <v>30</v>
       </c>
-      <c r="E80" s="136" t="n">
-        <v>30</v>
-      </c>
-      <c r="F80" s="156" t="n">
-        <v>28</v>
-      </c>
-      <c r="G80" s="157" t="n">
+      <c r="E80" s="133" t="n">
         <v>25</v>
       </c>
-      <c r="H80" s="120" t="n">
+      <c r="F80" s="103" t="n">
         <v>3</v>
       </c>
-      <c r="I80" s="120" t="n">
+      <c r="G80" s="103" t="n">
         <v>3</v>
       </c>
-      <c r="J80" s="120" t="n">
+      <c r="H80" s="103" t="n">
         <v>3</v>
       </c>
-      <c r="K80" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="L80" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="M80" s="120" t="n">
+      <c r="I80" s="103" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4843,40 +3872,28 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B81" s="115" t="n">
+      <c r="B81" s="99" t="n">
         <v>39</v>
       </c>
-      <c r="C81" s="158" t="n">
+      <c r="C81" s="134" t="n">
+        <v>38</v>
+      </c>
+      <c r="D81" s="135" t="n">
         <v>37</v>
       </c>
-      <c r="D81" s="159" t="n">
-        <v>38</v>
-      </c>
-      <c r="E81" s="158" t="n">
-        <v>37</v>
-      </c>
-      <c r="F81" s="158" t="n">
-        <v>37</v>
-      </c>
-      <c r="G81" s="130" t="n">
+      <c r="E81" s="136" t="n">
         <v>36</v>
       </c>
-      <c r="H81" s="120" t="n">
-        <v>13</v>
-      </c>
-      <c r="I81" s="120" t="n">
+      <c r="F81" s="103" t="n">
         <v>11</v>
       </c>
-      <c r="J81" s="160" t="n">
+      <c r="G81" s="137" t="n">
         <v>25</v>
       </c>
-      <c r="K81" s="120" t="n">
-        <v>12</v>
-      </c>
-      <c r="L81" s="120" t="n">
+      <c r="H81" s="103" t="n">
         <v>11</v>
       </c>
-      <c r="M81" s="161" t="n">
+      <c r="I81" s="138" t="n">
         <v>23</v>
       </c>
     </row>
@@ -4886,40 +3903,28 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B82" s="115" t="n">
+      <c r="B82" s="99" t="n">
         <v>53</v>
       </c>
-      <c r="C82" s="141" t="n">
-        <v>52</v>
-      </c>
-      <c r="D82" s="162" t="n">
+      <c r="C82" s="139" t="n">
         <v>55</v>
       </c>
-      <c r="E82" s="162" t="n">
+      <c r="D82" s="139" t="n">
         <v>55</v>
       </c>
-      <c r="F82" s="162" t="n">
+      <c r="E82" s="140" t="n">
+        <v>54</v>
+      </c>
+      <c r="F82" s="139" t="n">
         <v>55</v>
       </c>
-      <c r="G82" s="163" t="n">
-        <v>54</v>
-      </c>
-      <c r="H82" s="115" t="n">
-        <v>53</v>
-      </c>
-      <c r="I82" s="162" t="n">
-        <v>55</v>
-      </c>
-      <c r="J82" s="136" t="n">
+      <c r="G82" s="115" t="n">
         <v>48</v>
       </c>
-      <c r="K82" s="142" t="n">
+      <c r="H82" s="120" t="n">
         <v>51</v>
       </c>
-      <c r="L82" s="142" t="n">
-        <v>51</v>
-      </c>
-      <c r="M82" s="143" t="n">
+      <c r="I82" s="122" t="n">
         <v>47</v>
       </c>
     </row>
@@ -4937,10 +3942,6 @@
       <c r="G83" s="3" t="n"/>
       <c r="H83" s="3" t="n"/>
       <c r="I83" s="3" t="n"/>
-      <c r="J83" s="3" t="n"/>
-      <c r="K83" s="3" t="n"/>
-      <c r="L83" s="3" t="n"/>
-      <c r="M83" s="3" t="n"/>
     </row>
     <row r="84">
       <c r="A84" s="5" t="inlineStr">
@@ -4948,40 +3949,28 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B84" s="115" t="n">
+      <c r="B84" s="99" t="n">
         <v>34</v>
       </c>
-      <c r="C84" s="164" t="n">
-        <v>30</v>
-      </c>
-      <c r="D84" s="165" t="n">
+      <c r="C84" s="141" t="n">
         <v>28</v>
       </c>
-      <c r="E84" s="166" t="n">
+      <c r="D84" s="142" t="n">
         <v>27</v>
       </c>
-      <c r="F84" s="165" t="n">
+      <c r="E84" s="141" t="n">
         <v>28</v>
       </c>
-      <c r="G84" s="165" t="n">
-        <v>28</v>
-      </c>
-      <c r="H84" s="120" t="n">
+      <c r="F84" s="103" t="n">
         <v>3</v>
       </c>
-      <c r="I84" s="120" t="n">
+      <c r="G84" s="103" t="n">
+        <v>5</v>
+      </c>
+      <c r="H84" s="103" t="n">
         <v>3</v>
       </c>
-      <c r="J84" s="120" t="n">
-        <v>5</v>
-      </c>
-      <c r="K84" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="L84" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="M84" s="120" t="n">
+      <c r="I84" s="103" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4991,40 +3980,28 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B85" s="115" t="n">
+      <c r="B85" s="99" t="n">
         <v>43</v>
       </c>
       <c r="C85" s="143" t="n">
-        <v>38</v>
-      </c>
-      <c r="D85" s="167" t="n">
         <v>36</v>
       </c>
-      <c r="E85" s="168" t="n">
+      <c r="D85" s="144" t="n">
         <v>35</v>
       </c>
-      <c r="F85" s="168" t="n">
-        <v>35</v>
-      </c>
-      <c r="G85" s="169" t="n">
+      <c r="E85" s="145" t="n">
         <v>37</v>
       </c>
-      <c r="H85" s="120" t="n">
+      <c r="F85" s="103" t="n">
         <v>13</v>
       </c>
-      <c r="I85" s="120" t="n">
-        <v>13</v>
-      </c>
-      <c r="J85" s="170" t="n">
+      <c r="G85" s="146" t="n">
         <v>24</v>
       </c>
-      <c r="K85" s="120" t="n">
+      <c r="H85" s="103" t="n">
         <v>11</v>
       </c>
-      <c r="L85" s="120" t="n">
-        <v>11</v>
-      </c>
-      <c r="M85" s="125" t="n">
+      <c r="I85" s="107" t="n">
         <v>23</v>
       </c>
     </row>
@@ -5034,40 +4011,28 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B86" s="115" t="n">
+      <c r="B86" s="99" t="n">
         <v>55</v>
       </c>
-      <c r="C86" s="138" t="n">
+      <c r="C86" s="115" t="n">
+        <v>50</v>
+      </c>
+      <c r="D86" s="147" t="n">
+        <v>49</v>
+      </c>
+      <c r="E86" s="120" t="n">
+        <v>53</v>
+      </c>
+      <c r="F86" s="121" t="n">
         <v>51</v>
       </c>
-      <c r="D86" s="136" t="n">
+      <c r="G86" s="120" t="n">
+        <v>53</v>
+      </c>
+      <c r="H86" s="115" t="n">
         <v>50</v>
       </c>
-      <c r="E86" s="171" t="n">
-        <v>49</v>
-      </c>
-      <c r="F86" s="171" t="n">
-        <v>49</v>
-      </c>
-      <c r="G86" s="142" t="n">
-        <v>53</v>
-      </c>
-      <c r="H86" s="136" t="n">
-        <v>50</v>
-      </c>
-      <c r="I86" s="138" t="n">
-        <v>51</v>
-      </c>
-      <c r="J86" s="142" t="n">
-        <v>53</v>
-      </c>
-      <c r="K86" s="133" t="n">
-        <v>47</v>
-      </c>
-      <c r="L86" s="136" t="n">
-        <v>50</v>
-      </c>
-      <c r="M86" s="136" t="n">
+      <c r="I86" s="115" t="n">
         <v>50</v>
       </c>
     </row>
@@ -5085,10 +4050,6 @@
       <c r="G87" s="3" t="n"/>
       <c r="H87" s="3" t="n"/>
       <c r="I87" s="3" t="n"/>
-      <c r="J87" s="3" t="n"/>
-      <c r="K87" s="3" t="n"/>
-      <c r="L87" s="3" t="n"/>
-      <c r="M87" s="3" t="n"/>
     </row>
     <row r="88">
       <c r="A88" s="5" t="inlineStr">
@@ -5096,40 +4057,28 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B88" s="115" t="n">
+      <c r="B88" s="99" t="n">
         <v>34</v>
       </c>
-      <c r="C88" s="172" t="n">
-        <v>32</v>
-      </c>
-      <c r="D88" s="116" t="n">
+      <c r="C88" s="101" t="n">
         <v>33</v>
       </c>
-      <c r="E88" s="173" t="n">
+      <c r="D88" s="148" t="n">
         <v>25</v>
       </c>
-      <c r="F88" s="140" t="n">
+      <c r="E88" s="118" t="n">
         <v>19</v>
       </c>
-      <c r="G88" s="140" t="n">
-        <v>19</v>
-      </c>
-      <c r="H88" s="120" t="n">
+      <c r="F88" s="103" t="n">
         <v>5</v>
       </c>
-      <c r="I88" s="120" t="n">
-        <v>5</v>
-      </c>
-      <c r="J88" s="120" t="n">
+      <c r="G88" s="103" t="n">
         <v>3</v>
       </c>
-      <c r="K88" s="120" t="n">
+      <c r="H88" s="103" t="n">
         <v>4</v>
       </c>
-      <c r="L88" s="120" t="n">
-        <v>4</v>
-      </c>
-      <c r="M88" s="120" t="n">
+      <c r="I88" s="103" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5139,40 +4088,28 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B89" s="115" t="n">
+      <c r="B89" s="99" t="n">
         <v>46</v>
       </c>
-      <c r="C89" s="131" t="n">
-        <v>40</v>
-      </c>
-      <c r="D89" s="156" t="n">
+      <c r="C89" s="149" t="n">
         <v>39</v>
       </c>
-      <c r="E89" s="174" t="n">
+      <c r="D89" s="150" t="n">
         <v>34</v>
       </c>
-      <c r="F89" s="175" t="n">
-        <v>28</v>
-      </c>
-      <c r="G89" s="176" t="n">
+      <c r="E89" s="151" t="n">
         <v>27</v>
       </c>
-      <c r="H89" s="120" t="n">
+      <c r="F89" s="103" t="n">
         <v>12</v>
       </c>
-      <c r="I89" s="120" t="n">
-        <v>12</v>
-      </c>
-      <c r="J89" s="120" t="n">
+      <c r="G89" s="103" t="n">
         <v>17</v>
       </c>
-      <c r="K89" s="120" t="n">
+      <c r="H89" s="103" t="n">
         <v>11</v>
       </c>
-      <c r="L89" s="120" t="n">
-        <v>11</v>
-      </c>
-      <c r="M89" s="120" t="n">
+      <c r="I89" s="103" t="n">
         <v>17</v>
       </c>
     </row>
@@ -5182,40 +4119,28 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B90" s="115" t="n">
+      <c r="B90" s="99" t="n">
         <v>57</v>
       </c>
-      <c r="C90" s="177" t="n">
-        <v>55</v>
-      </c>
-      <c r="D90" s="178" t="n">
+      <c r="C90" s="152" t="n">
         <v>53</v>
       </c>
-      <c r="E90" s="179" t="n">
+      <c r="D90" s="153" t="n">
         <v>46</v>
       </c>
-      <c r="F90" s="180" t="n">
-        <v>43</v>
-      </c>
-      <c r="G90" s="181" t="n">
+      <c r="E90" s="154" t="n">
         <v>48</v>
       </c>
-      <c r="H90" s="178" t="n">
+      <c r="F90" s="152" t="n">
         <v>53</v>
       </c>
-      <c r="I90" s="178" t="n">
-        <v>53</v>
-      </c>
-      <c r="J90" s="182" t="n">
+      <c r="G90" s="155" t="n">
         <v>45</v>
       </c>
-      <c r="K90" s="178" t="n">
-        <v>53</v>
-      </c>
-      <c r="L90" s="183" t="n">
+      <c r="H90" s="156" t="n">
         <v>51</v>
       </c>
-      <c r="M90" s="184" t="n">
+      <c r="I90" s="157" t="n">
         <v>41</v>
       </c>
     </row>
@@ -5233,10 +4158,6 @@
       <c r="G91" s="3" t="n"/>
       <c r="H91" s="3" t="n"/>
       <c r="I91" s="3" t="n"/>
-      <c r="J91" s="3" t="n"/>
-      <c r="K91" s="3" t="n"/>
-      <c r="L91" s="3" t="n"/>
-      <c r="M91" s="3" t="n"/>
     </row>
     <row r="92">
       <c r="A92" s="5" t="inlineStr">
@@ -5244,40 +4165,28 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B92" s="115" t="n">
+      <c r="B92" s="99" t="n">
         <v>33</v>
       </c>
-      <c r="C92" s="185" t="n">
+      <c r="C92" s="158" t="n">
+        <v>27</v>
+      </c>
+      <c r="D92" s="159" t="n">
         <v>29</v>
       </c>
-      <c r="D92" s="186" t="n">
-        <v>27</v>
-      </c>
-      <c r="E92" s="185" t="n">
+      <c r="E92" s="159" t="n">
         <v>29</v>
       </c>
-      <c r="F92" s="185" t="n">
-        <v>29</v>
-      </c>
-      <c r="G92" s="185" t="n">
-        <v>29</v>
-      </c>
-      <c r="H92" s="120" t="n">
+      <c r="F92" s="103" t="n">
         <v>3</v>
       </c>
-      <c r="I92" s="120" t="n">
+      <c r="G92" s="103" t="n">
         <v>3</v>
       </c>
-      <c r="J92" s="120" t="n">
+      <c r="H92" s="103" t="n">
         <v>3</v>
       </c>
-      <c r="K92" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="L92" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="M92" s="120" t="n">
+      <c r="I92" s="103" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5287,40 +4196,28 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B93" s="115" t="n">
+      <c r="B93" s="99" t="n">
         <v>41</v>
       </c>
-      <c r="C93" s="132" t="n">
+      <c r="C93" s="105" t="n">
+        <v>34</v>
+      </c>
+      <c r="D93" s="160" t="n">
+        <v>39</v>
+      </c>
+      <c r="E93" s="111" t="n">
         <v>37</v>
       </c>
-      <c r="D93" s="123" t="n">
-        <v>34</v>
-      </c>
-      <c r="E93" s="187" t="n">
-        <v>39</v>
-      </c>
-      <c r="F93" s="132" t="n">
-        <v>37</v>
-      </c>
-      <c r="G93" s="132" t="n">
-        <v>37</v>
-      </c>
-      <c r="H93" s="120" t="n">
-        <v>13</v>
-      </c>
-      <c r="I93" s="120" t="n">
+      <c r="F93" s="103" t="n">
         <v>11</v>
       </c>
-      <c r="J93" s="188" t="n">
+      <c r="G93" s="161" t="n">
         <v>21</v>
       </c>
-      <c r="K93" s="120" t="n">
-        <v>13</v>
-      </c>
-      <c r="L93" s="120" t="n">
+      <c r="H93" s="103" t="n">
         <v>11</v>
       </c>
-      <c r="M93" s="120" t="n">
+      <c r="I93" s="103" t="n">
         <v>19</v>
       </c>
     </row>
@@ -5330,40 +4227,28 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B94" s="115" t="n">
+      <c r="B94" s="99" t="n">
         <v>51</v>
       </c>
-      <c r="C94" s="189" t="n">
-        <v>52</v>
-      </c>
-      <c r="D94" s="142" t="n">
+      <c r="C94" s="120" t="n">
         <v>49</v>
       </c>
-      <c r="E94" s="190" t="n">
+      <c r="D94" s="162" t="n">
         <v>54</v>
       </c>
-      <c r="F94" s="126" t="n">
-        <v>55</v>
-      </c>
-      <c r="G94" s="190" t="n">
+      <c r="E94" s="162" t="n">
         <v>54</v>
       </c>
-      <c r="H94" s="130" t="n">
+      <c r="F94" s="136" t="n">
         <v>47</v>
       </c>
-      <c r="I94" s="130" t="n">
-        <v>47</v>
-      </c>
-      <c r="J94" s="172" t="n">
+      <c r="G94" s="163" t="n">
         <v>48</v>
       </c>
-      <c r="K94" s="130" t="n">
-        <v>47</v>
-      </c>
-      <c r="L94" s="132" t="n">
+      <c r="H94" s="111" t="n">
         <v>46</v>
       </c>
-      <c r="M94" s="142" t="n">
+      <c r="I94" s="120" t="n">
         <v>49</v>
       </c>
     </row>
@@ -5381,10 +4266,6 @@
       <c r="G95" s="3" t="n"/>
       <c r="H95" s="3" t="n"/>
       <c r="I95" s="3" t="n"/>
-      <c r="J95" s="3" t="n"/>
-      <c r="K95" s="3" t="n"/>
-      <c r="L95" s="3" t="n"/>
-      <c r="M95" s="3" t="n"/>
     </row>
     <row r="96">
       <c r="A96" s="5" t="inlineStr">
@@ -5392,40 +4273,28 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B96" s="115" t="n">
+      <c r="B96" s="99" t="n">
         <v>31</v>
       </c>
-      <c r="C96" s="115" t="n">
+      <c r="C96" s="164" t="n">
+        <v>29</v>
+      </c>
+      <c r="D96" s="99" t="n">
         <v>31</v>
       </c>
-      <c r="D96" s="129" t="n">
-        <v>29</v>
-      </c>
-      <c r="E96" s="115" t="n">
-        <v>31</v>
-      </c>
-      <c r="F96" s="129" t="n">
-        <v>29</v>
-      </c>
-      <c r="G96" s="177" t="n">
+      <c r="E96" s="165" t="n">
         <v>30</v>
       </c>
-      <c r="H96" s="120" t="n">
+      <c r="F96" s="103" t="n">
         <v>3</v>
       </c>
-      <c r="I96" s="120" t="n">
+      <c r="G96" s="103" t="n">
         <v>3</v>
       </c>
-      <c r="J96" s="120" t="n">
+      <c r="H96" s="103" t="n">
         <v>3</v>
       </c>
-      <c r="K96" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="L96" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="M96" s="120" t="n">
+      <c r="I96" s="103" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5435,40 +4304,28 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B97" s="115" t="n">
+      <c r="B97" s="99" t="n">
         <v>39</v>
       </c>
-      <c r="C97" s="158" t="n">
+      <c r="C97" s="135" t="n">
         <v>37</v>
       </c>
-      <c r="D97" s="158" t="n">
-        <v>37</v>
-      </c>
-      <c r="E97" s="115" t="n">
+      <c r="D97" s="99" t="n">
         <v>39</v>
       </c>
-      <c r="F97" s="191" t="n">
-        <v>33</v>
-      </c>
-      <c r="G97" s="159" t="n">
+      <c r="E97" s="134" t="n">
         <v>38</v>
       </c>
-      <c r="H97" s="120" t="n">
+      <c r="F97" s="103" t="n">
         <v>11</v>
       </c>
-      <c r="I97" s="120" t="n">
+      <c r="G97" s="166" t="n">
+        <v>22</v>
+      </c>
+      <c r="H97" s="103" t="n">
         <v>11</v>
       </c>
-      <c r="J97" s="192" t="n">
-        <v>22</v>
-      </c>
-      <c r="K97" s="120" t="n">
-        <v>11</v>
-      </c>
-      <c r="L97" s="120" t="n">
-        <v>11</v>
-      </c>
-      <c r="M97" s="120" t="n">
+      <c r="I97" s="103" t="n">
         <v>19</v>
       </c>
     </row>
@@ -5478,40 +4335,28 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B98" s="115" t="n">
+      <c r="B98" s="99" t="n">
         <v>49</v>
       </c>
-      <c r="C98" s="193" t="n">
+      <c r="C98" s="167" t="n">
         <v>53</v>
       </c>
-      <c r="D98" s="193" t="n">
+      <c r="D98" s="167" t="n">
         <v>53</v>
       </c>
-      <c r="E98" s="193" t="n">
+      <c r="E98" s="167" t="n">
         <v>53</v>
       </c>
-      <c r="F98" s="134" t="n">
-        <v>52</v>
-      </c>
-      <c r="G98" s="193" t="n">
-        <v>53</v>
-      </c>
-      <c r="H98" s="115" t="n">
-        <v>49</v>
-      </c>
-      <c r="I98" s="141" t="n">
+      <c r="F98" s="119" t="n">
         <v>48</v>
       </c>
-      <c r="J98" s="141" t="n">
+      <c r="G98" s="119" t="n">
         <v>48</v>
       </c>
-      <c r="K98" s="121" t="n">
+      <c r="H98" s="104" t="n">
         <v>47</v>
       </c>
-      <c r="L98" s="121" t="n">
-        <v>47</v>
-      </c>
-      <c r="M98" s="115" t="n">
+      <c r="I98" s="99" t="n">
         <v>49</v>
       </c>
     </row>
@@ -5529,10 +4374,6 @@
       <c r="G99" s="3" t="n"/>
       <c r="H99" s="3" t="n"/>
       <c r="I99" s="3" t="n"/>
-      <c r="J99" s="3" t="n"/>
-      <c r="K99" s="3" t="n"/>
-      <c r="L99" s="3" t="n"/>
-      <c r="M99" s="3" t="n"/>
     </row>
     <row r="100">
       <c r="A100" s="5" t="inlineStr">
@@ -5540,40 +4381,28 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B100" s="115" t="n">
+      <c r="B100" s="99" t="n">
         <v>18</v>
       </c>
-      <c r="C100" s="148" t="n">
-        <v>30</v>
-      </c>
-      <c r="D100" s="148" t="n">
+      <c r="C100" s="127" t="n">
         <v>27</v>
       </c>
-      <c r="E100" s="148" t="n">
+      <c r="D100" s="127" t="n">
         <v>27</v>
       </c>
-      <c r="F100" s="148" t="n">
-        <v>27</v>
-      </c>
-      <c r="G100" s="148" t="n">
+      <c r="E100" s="127" t="n">
         <v>28</v>
       </c>
-      <c r="H100" s="120" t="n">
+      <c r="F100" s="103" t="n">
         <v>3</v>
       </c>
-      <c r="I100" s="120" t="n">
+      <c r="G100" s="103" t="n">
         <v>3</v>
       </c>
-      <c r="J100" s="120" t="n">
+      <c r="H100" s="103" t="n">
         <v>3</v>
       </c>
-      <c r="K100" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="L100" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="M100" s="120" t="n">
+      <c r="I100" s="103" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5583,40 +4412,28 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B101" s="115" t="n">
+      <c r="B101" s="99" t="n">
         <v>29</v>
       </c>
-      <c r="C101" s="194" t="n">
-        <v>35</v>
-      </c>
-      <c r="D101" s="195" t="n">
+      <c r="C101" s="168" t="n">
         <v>34</v>
       </c>
-      <c r="E101" s="196" t="n">
+      <c r="D101" s="169" t="n">
         <v>33</v>
       </c>
-      <c r="F101" s="195" t="n">
-        <v>34</v>
-      </c>
-      <c r="G101" s="196" t="n">
+      <c r="E101" s="169" t="n">
         <v>33</v>
       </c>
-      <c r="H101" s="197" t="n">
-        <v>20</v>
-      </c>
-      <c r="I101" s="144" t="n">
+      <c r="F101" s="123" t="n">
         <v>19</v>
       </c>
-      <c r="J101" s="144" t="n">
+      <c r="G101" s="123" t="n">
         <v>19</v>
       </c>
-      <c r="K101" s="144" t="n">
-        <v>19</v>
-      </c>
-      <c r="L101" s="176" t="n">
+      <c r="H101" s="151" t="n">
         <v>17</v>
       </c>
-      <c r="M101" s="197" t="n">
+      <c r="I101" s="170" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5626,40 +4443,28 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B102" s="115" t="n">
+      <c r="B102" s="99" t="n">
         <v>42</v>
       </c>
-      <c r="C102" s="198" t="n">
-        <v>45</v>
-      </c>
-      <c r="D102" s="137" t="n">
+      <c r="C102" s="116" t="n">
         <v>43</v>
       </c>
-      <c r="E102" s="137" t="n">
+      <c r="D102" s="116" t="n">
         <v>43</v>
       </c>
-      <c r="F102" s="137" t="n">
+      <c r="E102" s="116" t="n">
         <v>43</v>
       </c>
-      <c r="G102" s="137" t="n">
+      <c r="F102" s="116" t="n">
         <v>43</v>
       </c>
-      <c r="H102" s="159" t="n">
+      <c r="G102" s="134" t="n">
         <v>41</v>
       </c>
-      <c r="I102" s="137" t="n">
+      <c r="H102" s="116" t="n">
         <v>43</v>
       </c>
-      <c r="J102" s="159" t="n">
-        <v>41</v>
-      </c>
-      <c r="K102" s="159" t="n">
-        <v>41</v>
-      </c>
-      <c r="L102" s="137" t="n">
-        <v>43</v>
-      </c>
-      <c r="M102" s="137" t="n">
+      <c r="I102" s="116" t="n">
         <v>43</v>
       </c>
     </row>
@@ -5677,10 +4482,6 @@
       <c r="G103" s="3" t="n"/>
       <c r="H103" s="3" t="n"/>
       <c r="I103" s="3" t="n"/>
-      <c r="J103" s="3" t="n"/>
-      <c r="K103" s="3" t="n"/>
-      <c r="L103" s="3" t="n"/>
-      <c r="M103" s="3" t="n"/>
     </row>
     <row r="104">
       <c r="A104" s="5" t="inlineStr">
@@ -5688,40 +4489,28 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B104" s="115" t="n">
+      <c r="B104" s="99" t="n">
         <v>3</v>
       </c>
-      <c r="C104" s="148" t="n">
-        <v>29</v>
-      </c>
-      <c r="D104" s="148" t="n">
+      <c r="C104" s="127" t="n">
         <v>25</v>
       </c>
-      <c r="E104" s="148" t="n">
+      <c r="D104" s="127" t="n">
         <v>19</v>
       </c>
-      <c r="F104" s="148" t="n">
-        <v>31</v>
-      </c>
-      <c r="G104" s="148" t="n">
+      <c r="E104" s="127" t="n">
         <v>26</v>
       </c>
-      <c r="H104" s="115" t="n">
+      <c r="F104" s="99" t="n">
         <v>3</v>
       </c>
-      <c r="I104" s="115" t="n">
+      <c r="G104" s="99" t="n">
         <v>3</v>
       </c>
-      <c r="J104" s="115" t="n">
+      <c r="H104" s="99" t="n">
         <v>3</v>
       </c>
-      <c r="K104" s="115" t="n">
-        <v>3</v>
-      </c>
-      <c r="L104" s="115" t="n">
-        <v>3</v>
-      </c>
-      <c r="M104" s="115" t="n">
+      <c r="I104" s="99" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5731,40 +4520,28 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B105" s="115" t="n">
+      <c r="B105" s="99" t="n">
         <v>7</v>
       </c>
-      <c r="C105" s="148" t="n">
-        <v>38</v>
-      </c>
-      <c r="D105" s="148" t="n">
+      <c r="C105" s="127" t="n">
         <v>32</v>
       </c>
-      <c r="E105" s="148" t="n">
+      <c r="D105" s="127" t="n">
         <v>28</v>
       </c>
-      <c r="F105" s="148" t="n">
-        <v>41</v>
-      </c>
-      <c r="G105" s="148" t="n">
+      <c r="E105" s="127" t="n">
         <v>34</v>
       </c>
-      <c r="H105" s="148" t="n">
-        <v>13</v>
-      </c>
-      <c r="I105" s="148" t="n">
+      <c r="F105" s="127" t="n">
         <v>11</v>
       </c>
-      <c r="J105" s="148" t="n">
+      <c r="G105" s="127" t="n">
         <v>19</v>
       </c>
-      <c r="K105" s="148" t="n">
+      <c r="H105" s="127" t="n">
         <v>11</v>
       </c>
-      <c r="L105" s="148" t="n">
-        <v>11</v>
-      </c>
-      <c r="M105" s="148" t="n">
+      <c r="I105" s="127" t="n">
         <v>15</v>
       </c>
     </row>
@@ -5774,40 +4551,28 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B106" s="115" t="n">
+      <c r="B106" s="99" t="n">
         <v>13</v>
       </c>
-      <c r="C106" s="148" t="n">
-        <v>57</v>
-      </c>
-      <c r="D106" s="148" t="n">
+      <c r="C106" s="127" t="n">
         <v>52</v>
       </c>
-      <c r="E106" s="148" t="n">
+      <c r="D106" s="127" t="n">
         <v>49</v>
       </c>
-      <c r="F106" s="148" t="n">
-        <v>59</v>
-      </c>
-      <c r="G106" s="148" t="n">
+      <c r="E106" s="127" t="n">
         <v>49</v>
       </c>
-      <c r="H106" s="148" t="n">
-        <v>53</v>
-      </c>
-      <c r="I106" s="148" t="n">
+      <c r="F106" s="127" t="n">
         <v>45</v>
       </c>
-      <c r="J106" s="148" t="n">
+      <c r="G106" s="127" t="n">
         <v>46</v>
       </c>
-      <c r="K106" s="148" t="n">
-        <v>50</v>
-      </c>
-      <c r="L106" s="148" t="n">
+      <c r="H106" s="127" t="n">
         <v>45</v>
       </c>
-      <c r="M106" s="148" t="n">
+      <c r="I106" s="127" t="n">
         <v>37</v>
       </c>
     </row>
@@ -5825,10 +4590,6 @@
       <c r="G107" s="3" t="n"/>
       <c r="H107" s="3" t="n"/>
       <c r="I107" s="3" t="n"/>
-      <c r="J107" s="3" t="n"/>
-      <c r="K107" s="3" t="n"/>
-      <c r="L107" s="3" t="n"/>
-      <c r="M107" s="3" t="n"/>
     </row>
     <row r="108">
       <c r="A108" s="5" t="inlineStr">
@@ -5836,40 +4597,28 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B108" s="115" t="n">
+      <c r="B108" s="99" t="n">
         <v>33</v>
       </c>
-      <c r="C108" s="186" t="n">
+      <c r="C108" s="159" t="n">
+        <v>29</v>
+      </c>
+      <c r="D108" s="114" t="n">
+        <v>31</v>
+      </c>
+      <c r="E108" s="158" t="n">
         <v>27</v>
       </c>
-      <c r="D108" s="185" t="n">
-        <v>29</v>
-      </c>
-      <c r="E108" s="135" t="n">
-        <v>31</v>
-      </c>
-      <c r="F108" s="156" t="n">
-        <v>28</v>
-      </c>
-      <c r="G108" s="186" t="n">
-        <v>27</v>
-      </c>
-      <c r="H108" s="120" t="n">
+      <c r="F108" s="103" t="n">
         <v>3</v>
       </c>
-      <c r="I108" s="120" t="n">
+      <c r="G108" s="103" t="n">
+        <v>5</v>
+      </c>
+      <c r="H108" s="103" t="n">
         <v>3</v>
       </c>
-      <c r="J108" s="120" t="n">
-        <v>5</v>
-      </c>
-      <c r="K108" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="L108" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="M108" s="120" t="n">
+      <c r="I108" s="103" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5879,40 +4628,28 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B109" s="115" t="n">
+      <c r="B109" s="99" t="n">
         <v>40</v>
       </c>
-      <c r="C109" s="199" t="n">
+      <c r="C109" s="171" t="n">
         <v>35</v>
       </c>
-      <c r="D109" s="199" t="n">
-        <v>35</v>
-      </c>
-      <c r="E109" s="159" t="n">
+      <c r="D109" s="134" t="n">
         <v>39</v>
       </c>
-      <c r="F109" s="199" t="n">
-        <v>35</v>
-      </c>
-      <c r="G109" s="156" t="n">
+      <c r="E109" s="149" t="n">
         <v>34</v>
       </c>
-      <c r="H109" s="120" t="n">
-        <v>9</v>
-      </c>
-      <c r="I109" s="120" t="n">
+      <c r="F109" s="103" t="n">
         <v>11</v>
       </c>
-      <c r="J109" s="200" t="n">
+      <c r="G109" s="172" t="n">
         <v>21</v>
       </c>
-      <c r="K109" s="120" t="n">
-        <v>9</v>
-      </c>
-      <c r="L109" s="120" t="n">
+      <c r="H109" s="103" t="n">
         <v>11</v>
       </c>
-      <c r="M109" s="201" t="n">
+      <c r="I109" s="173" t="n">
         <v>23</v>
       </c>
     </row>
@@ -5922,40 +4659,28 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B110" s="115" t="n">
+      <c r="B110" s="99" t="n">
         <v>51</v>
       </c>
-      <c r="C110" s="164" t="n">
+      <c r="C110" s="136" t="n">
+        <v>47</v>
+      </c>
+      <c r="D110" s="99" t="n">
+        <v>51</v>
+      </c>
+      <c r="E110" s="163" t="n">
+        <v>48</v>
+      </c>
+      <c r="F110" s="174" t="n">
         <v>45</v>
       </c>
-      <c r="D110" s="130" t="n">
-        <v>47</v>
-      </c>
-      <c r="E110" s="115" t="n">
-        <v>51</v>
-      </c>
-      <c r="F110" s="130" t="n">
-        <v>47</v>
-      </c>
-      <c r="G110" s="172" t="n">
-        <v>48</v>
-      </c>
-      <c r="H110" s="164" t="n">
+      <c r="G110" s="174" t="n">
         <v>45</v>
       </c>
-      <c r="I110" s="164" t="n">
+      <c r="H110" s="174" t="n">
         <v>45</v>
       </c>
-      <c r="J110" s="164" t="n">
-        <v>45</v>
-      </c>
-      <c r="K110" s="169" t="n">
-        <v>44</v>
-      </c>
-      <c r="L110" s="164" t="n">
-        <v>45</v>
-      </c>
-      <c r="M110" s="164" t="n">
+      <c r="I110" s="174" t="n">
         <v>45</v>
       </c>
     </row>
@@ -5973,10 +4698,6 @@
       <c r="G111" s="3" t="n"/>
       <c r="H111" s="3" t="n"/>
       <c r="I111" s="3" t="n"/>
-      <c r="J111" s="3" t="n"/>
-      <c r="K111" s="3" t="n"/>
-      <c r="L111" s="3" t="n"/>
-      <c r="M111" s="3" t="n"/>
     </row>
     <row r="112">
       <c r="A112" s="5" t="inlineStr">
@@ -5984,40 +4705,28 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B112" s="115" t="n">
+      <c r="B112" s="99" t="n">
         <v>27</v>
       </c>
-      <c r="C112" s="115" t="n">
+      <c r="C112" s="99" t="n">
         <v>27</v>
       </c>
-      <c r="D112" s="115" t="n">
+      <c r="D112" s="99" t="n">
         <v>27</v>
       </c>
-      <c r="E112" s="115" t="n">
+      <c r="E112" s="99" t="n">
         <v>27</v>
       </c>
-      <c r="F112" s="115" t="n">
-        <v>27</v>
-      </c>
-      <c r="G112" s="115" t="n">
-        <v>27</v>
-      </c>
-      <c r="H112" s="120" t="n">
+      <c r="F112" s="103" t="n">
         <v>3</v>
       </c>
-      <c r="I112" s="120" t="n">
+      <c r="G112" s="103" t="n">
         <v>3</v>
       </c>
-      <c r="J112" s="120" t="n">
+      <c r="H112" s="103" t="n">
         <v>3</v>
       </c>
-      <c r="K112" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="L112" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="M112" s="120" t="n">
+      <c r="I112" s="103" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6027,40 +4736,28 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B113" s="115" t="n">
+      <c r="B113" s="99" t="n">
         <v>31</v>
       </c>
-      <c r="C113" s="202" t="n">
-        <v>33</v>
-      </c>
-      <c r="D113" s="128" t="n">
+      <c r="C113" s="109" t="n">
         <v>34</v>
       </c>
-      <c r="E113" s="115" t="n">
+      <c r="D113" s="99" t="n">
         <v>31</v>
       </c>
-      <c r="F113" s="115" t="n">
+      <c r="E113" s="99" t="n">
         <v>31</v>
       </c>
-      <c r="G113" s="115" t="n">
-        <v>31</v>
-      </c>
-      <c r="H113" s="120" t="n">
-        <v>13</v>
-      </c>
-      <c r="I113" s="120" t="n">
+      <c r="F113" s="103" t="n">
         <v>11</v>
       </c>
-      <c r="J113" s="124" t="n">
+      <c r="G113" s="106" t="n">
         <v>19</v>
       </c>
-      <c r="K113" s="120" t="n">
-        <v>13</v>
-      </c>
-      <c r="L113" s="120" t="n">
+      <c r="H113" s="103" t="n">
         <v>11</v>
       </c>
-      <c r="M113" s="203" t="n">
+      <c r="I113" s="175" t="n">
         <v>21</v>
       </c>
     </row>
@@ -6070,40 +4767,28 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B114" s="115" t="n">
+      <c r="B114" s="99" t="n">
         <v>39</v>
       </c>
-      <c r="C114" s="115" t="n">
+      <c r="C114" s="99" t="n">
         <v>39</v>
       </c>
-      <c r="D114" s="115" t="n">
+      <c r="D114" s="99" t="n">
         <v>39</v>
       </c>
-      <c r="E114" s="115" t="n">
+      <c r="E114" s="99" t="n">
         <v>39</v>
       </c>
-      <c r="F114" s="115" t="n">
+      <c r="F114" s="99" t="n">
         <v>39</v>
       </c>
-      <c r="G114" s="115" t="n">
+      <c r="G114" s="99" t="n">
         <v>39</v>
       </c>
-      <c r="H114" s="115" t="n">
+      <c r="H114" s="99" t="n">
         <v>39</v>
       </c>
-      <c r="I114" s="115" t="n">
-        <v>39</v>
-      </c>
-      <c r="J114" s="115" t="n">
-        <v>39</v>
-      </c>
-      <c r="K114" s="115" t="n">
-        <v>39</v>
-      </c>
-      <c r="L114" s="115" t="n">
-        <v>39</v>
-      </c>
-      <c r="M114" s="115" t="n">
+      <c r="I114" s="99" t="n">
         <v>39</v>
       </c>
     </row>
@@ -6121,10 +4806,6 @@
       <c r="G115" s="3" t="n"/>
       <c r="H115" s="3" t="n"/>
       <c r="I115" s="3" t="n"/>
-      <c r="J115" s="3" t="n"/>
-      <c r="K115" s="3" t="n"/>
-      <c r="L115" s="3" t="n"/>
-      <c r="M115" s="3" t="n"/>
     </row>
     <row r="116">
       <c r="A116" s="5" t="inlineStr">
@@ -6132,40 +4813,28 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B116" s="115" t="n">
+      <c r="B116" s="99" t="n">
         <v>27</v>
       </c>
-      <c r="C116" s="115" t="n">
+      <c r="C116" s="99" t="n">
         <v>27</v>
       </c>
-      <c r="D116" s="115" t="n">
+      <c r="D116" s="99" t="n">
         <v>27</v>
       </c>
-      <c r="E116" s="115" t="n">
-        <v>27</v>
-      </c>
-      <c r="F116" s="115" t="n">
-        <v>27</v>
-      </c>
-      <c r="G116" s="142" t="n">
+      <c r="E116" s="120" t="n">
         <v>26</v>
       </c>
-      <c r="H116" s="120" t="n">
+      <c r="F116" s="103" t="n">
         <v>3</v>
       </c>
-      <c r="I116" s="120" t="n">
+      <c r="G116" s="103" t="n">
         <v>3</v>
       </c>
-      <c r="J116" s="120" t="n">
+      <c r="H116" s="103" t="n">
         <v>3</v>
       </c>
-      <c r="K116" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="L116" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="M116" s="120" t="n">
+      <c r="I116" s="103" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6175,40 +4844,28 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B117" s="115" t="n">
+      <c r="B117" s="99" t="n">
         <v>35</v>
       </c>
-      <c r="C117" s="143" t="n">
+      <c r="C117" s="122" t="n">
         <v>31</v>
       </c>
-      <c r="D117" s="143" t="n">
+      <c r="D117" s="122" t="n">
         <v>31</v>
       </c>
-      <c r="E117" s="143" t="n">
+      <c r="E117" s="122" t="n">
         <v>31</v>
       </c>
-      <c r="F117" s="143" t="n">
-        <v>31</v>
-      </c>
-      <c r="G117" s="143" t="n">
-        <v>31</v>
-      </c>
-      <c r="H117" s="120" t="n">
+      <c r="F117" s="176" t="n">
+        <v>18</v>
+      </c>
+      <c r="G117" s="103" t="n">
         <v>15</v>
       </c>
-      <c r="I117" s="204" t="n">
+      <c r="H117" s="176" t="n">
         <v>18</v>
       </c>
-      <c r="J117" s="120" t="n">
-        <v>15</v>
-      </c>
-      <c r="K117" s="120" t="n">
-        <v>15</v>
-      </c>
-      <c r="L117" s="204" t="n">
-        <v>18</v>
-      </c>
-      <c r="M117" s="151" t="n">
+      <c r="I117" s="177" t="n">
         <v>19</v>
       </c>
     </row>
@@ -6218,40 +4875,28 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B118" s="115" t="n">
+      <c r="B118" s="99" t="n">
         <v>41</v>
       </c>
-      <c r="C118" s="115" t="n">
+      <c r="C118" s="99" t="n">
         <v>41</v>
       </c>
-      <c r="D118" s="115" t="n">
+      <c r="D118" s="99" t="n">
         <v>41</v>
       </c>
-      <c r="E118" s="115" t="n">
+      <c r="E118" s="160" t="n">
+        <v>39</v>
+      </c>
+      <c r="F118" s="160" t="n">
+        <v>39</v>
+      </c>
+      <c r="G118" s="99" t="n">
         <v>41</v>
       </c>
-      <c r="F118" s="159" t="n">
-        <v>40</v>
-      </c>
-      <c r="G118" s="187" t="n">
+      <c r="H118" s="160" t="n">
         <v>39</v>
       </c>
-      <c r="H118" s="187" t="n">
-        <v>39</v>
-      </c>
-      <c r="I118" s="187" t="n">
-        <v>39</v>
-      </c>
-      <c r="J118" s="115" t="n">
-        <v>41</v>
-      </c>
-      <c r="K118" s="187" t="n">
-        <v>39</v>
-      </c>
-      <c r="L118" s="187" t="n">
-        <v>39</v>
-      </c>
-      <c r="M118" s="115" t="n">
+      <c r="I118" s="99" t="n">
         <v>41</v>
       </c>
     </row>

--- a/slim_gsgp/median_results.xlsx
+++ b/slim_gsgp/median_results.xlsx
@@ -45,7 +45,7 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="148">
+  <fills count="146">
     <fill>
       <patternFill/>
     </fill>
@@ -528,344 +528,332 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00D9F9D9"/>
+        <bgColor rgb="00D9F9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFC5C5"/>
+        <bgColor rgb="00FFC5C5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFC2C2"/>
+        <bgColor rgb="00FFC2C2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DAF9DA"/>
+        <bgColor rgb="00DAF9DA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DDF9DD"/>
+        <bgColor rgb="00DDF9DD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DBF9DB"/>
+        <bgColor rgb="00DBF9DB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E2FAE2"/>
+        <bgColor rgb="00E2FAE2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CEF7CE"/>
+        <bgColor rgb="00CEF7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CDF7CD"/>
+        <bgColor rgb="00CDF7CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFE7E7"/>
+        <bgColor rgb="00FFE7E7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFE3E3"/>
+        <bgColor rgb="00FFE3E3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CCF7CC"/>
+        <bgColor rgb="00CCF7CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DCF9DC"/>
+        <bgColor rgb="00DCF9DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CAF6CA"/>
+        <bgColor rgb="00CAF6CA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CAF7CA"/>
+        <bgColor rgb="00CAF7CA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B6F3B6"/>
+        <bgColor rgb="00B6F3B6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B0F3B0"/>
+        <bgColor rgb="00B0F3B0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CBF7CB"/>
+        <bgColor rgb="00CBF7CB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0097EF97"/>
+        <bgColor rgb="0097EF97"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F8FEF8"/>
+        <bgColor rgb="00F8FEF8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2FDF2"/>
+        <bgColor rgb="00F2FDF2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00F5FDF5"/>
         <bgColor rgb="00F5FDF5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FFDDDD"/>
+        <bgColor rgb="00FFDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F0FCF0"/>
+        <bgColor rgb="00F0FCF0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EDFCED"/>
+        <bgColor rgb="00EDFCED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E9FBE9"/>
+        <bgColor rgb="00E9FBE9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFEAEA"/>
+        <bgColor rgb="00FFEAEA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F1FCF1"/>
+        <bgColor rgb="00F1FCF1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EAFBEA"/>
+        <bgColor rgb="00EAFBEA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF7F7"/>
+        <bgColor rgb="00FFF7F7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EEFCEE"/>
+        <bgColor rgb="00EEFCEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A2F0A2"/>
+        <bgColor rgb="00A2F0A2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F6FDF6"/>
+        <bgColor rgb="00F6FDF6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B2F3B2"/>
+        <bgColor rgb="00B2F3B2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFEDED"/>
+        <bgColor rgb="00FFEDED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFDBDB"/>
+        <bgColor rgb="00FFDBDB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF4D4D"/>
+        <bgColor rgb="00FF4D4D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF7A7A"/>
+        <bgColor rgb="00FF7A7A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF9797"/>
+        <bgColor rgb="00FF9797"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFD2D2"/>
+        <bgColor rgb="00FFD2D2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C9F6C9"/>
+        <bgColor rgb="00C9F6C9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F3FDF3"/>
+        <bgColor rgb="00F3FDF3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F9FEF9"/>
+        <bgColor rgb="00F9FEF9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A3F1A3"/>
+        <bgColor rgb="00A3F1A3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF2F2"/>
+        <bgColor rgb="00FFF2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E4FBE4"/>
+        <bgColor rgb="00E4FBE4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F1FDF1"/>
+        <bgColor rgb="00F1FDF1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A3F0A3"/>
+        <bgColor rgb="00A3F0A3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F7FDF7"/>
+        <bgColor rgb="00F7FDF7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00EFFCEF"/>
         <bgColor rgb="00EFFCEF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EDFCED"/>
-        <bgColor rgb="00EDFCED"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EBFCEB"/>
-        <bgColor rgb="00EBFCEB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EAFBEA"/>
-        <bgColor rgb="00EAFBEA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F3FDF3"/>
-        <bgColor rgb="00F3FDF3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F0FCF0"/>
-        <bgColor rgb="00F0FCF0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EEFCEE"/>
-        <bgColor rgb="00EEFCEE"/>
+        <fgColor rgb="00D0F7D0"/>
+        <bgColor rgb="00D0F7D0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E7FBE7"/>
+        <bgColor rgb="00E7FBE7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C0F5C0"/>
+        <bgColor rgb="00C0F5C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E4FAE4"/>
+        <bgColor rgb="00E4FAE4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00F4FDF4"/>
         <bgColor rgb="00F4FDF4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F6FDF6"/>
-        <bgColor rgb="00F6FDF6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F1FCF1"/>
-        <bgColor rgb="00F1FCF1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F7FDF7"/>
-        <bgColor rgb="00F7FDF7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F8FDF8"/>
-        <bgColor rgb="00F8FDF8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D9F9D9"/>
-        <bgColor rgb="00D9F9D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFC5C5"/>
-        <bgColor rgb="00FFC5C5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFC2C2"/>
-        <bgColor rgb="00FFC2C2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DAF9DA"/>
-        <bgColor rgb="00DAF9DA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DDF9DD"/>
-        <bgColor rgb="00DDF9DD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DBF9DB"/>
-        <bgColor rgb="00DBF9DB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E2FAE2"/>
-        <bgColor rgb="00E2FAE2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CEF7CE"/>
-        <bgColor rgb="00CEF7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CDF7CD"/>
-        <bgColor rgb="00CDF7CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFE7E7"/>
-        <bgColor rgb="00FFE7E7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFE3E3"/>
-        <bgColor rgb="00FFE3E3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CCF7CC"/>
-        <bgColor rgb="00CCF7CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DCF9DC"/>
-        <bgColor rgb="00DCF9DC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CAF6CA"/>
-        <bgColor rgb="00CAF6CA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CAF7CA"/>
-        <bgColor rgb="00CAF7CA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B6F3B6"/>
-        <bgColor rgb="00B6F3B6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B0F3B0"/>
-        <bgColor rgb="00B0F3B0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CBF7CB"/>
-        <bgColor rgb="00CBF7CB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0097EF97"/>
-        <bgColor rgb="0097EF97"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F8FEF8"/>
-        <bgColor rgb="00F8FEF8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F2FDF2"/>
-        <bgColor rgb="00F2FDF2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFDDDD"/>
-        <bgColor rgb="00FFDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E9FBE9"/>
-        <bgColor rgb="00E9FBE9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFEAEA"/>
-        <bgColor rgb="00FFEAEA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFF7F7"/>
-        <bgColor rgb="00FFF7F7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A2F0A2"/>
-        <bgColor rgb="00A2F0A2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B2F3B2"/>
-        <bgColor rgb="00B2F3B2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFEDED"/>
-        <bgColor rgb="00FFEDED"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFDBDB"/>
-        <bgColor rgb="00FFDBDB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF4D4D"/>
-        <bgColor rgb="00FF4D4D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF7A7A"/>
-        <bgColor rgb="00FF7A7A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF9797"/>
-        <bgColor rgb="00FF9797"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFD2D2"/>
-        <bgColor rgb="00FFD2D2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C9F6C9"/>
-        <bgColor rgb="00C9F6C9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F9FEF9"/>
-        <bgColor rgb="00F9FEF9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A3F1A3"/>
-        <bgColor rgb="00A3F1A3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFF2F2"/>
-        <bgColor rgb="00FFF2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E4FBE4"/>
-        <bgColor rgb="00E4FBE4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F1FDF1"/>
-        <bgColor rgb="00F1FDF1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A3F0A3"/>
-        <bgColor rgb="00A3F0A3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D0F7D0"/>
-        <bgColor rgb="00D0F7D0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E7FBE7"/>
-        <bgColor rgb="00E7FBE7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C0F5C0"/>
-        <bgColor rgb="00C0F5C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E4FAE4"/>
-        <bgColor rgb="00E4FAE4"/>
       </patternFill>
     </fill>
     <fill>
@@ -947,7 +935,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1250,313 +1238,274 @@
     <xf numFmtId="164" fontId="0" fillId="99" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="100" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="101" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="102" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="103" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="104" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="105" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="106" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="107" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="108" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="109" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="110" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="111" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="112" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="100" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="101" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="92" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="43" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="102" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="53" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="81" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="20" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="99" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="91" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="79" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="103" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="104" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="105" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="87" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="106" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="41" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="107" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="108" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="109" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="110" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="111" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="112" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="62" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="75" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="113" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="57" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="114" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="105" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="43" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="81" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="53" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="94" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="20" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="112" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="104" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="79" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="0" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="115" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="87" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="0" fillId="116" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="117" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="118" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="119" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="24" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="39" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="61" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="120" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="85" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="121" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="122" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="123" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="28" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="124" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="125" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="65" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="126" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="44" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="54" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="84" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="51" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="58" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="67" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="48" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="127" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="42" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="23" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="128" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="129" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="130" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="47" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="35" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="86" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="131" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="132" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="133" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="134" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="46" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="135" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="136" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="64" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="137" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="93" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="32" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="21" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="138" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="83" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="100" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="116" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="41" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="117" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="91" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="85" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="118" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="88" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="119" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="62" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="75" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="90" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="57" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="120" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="121" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="122" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="123" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="124" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="125" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="24" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="39" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="61" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="126" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="98" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="127" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="86" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="128" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="28" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="129" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="130" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="65" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="131" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="44" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="54" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="97" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="51" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="58" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="67" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="48" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="132" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="42" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="23" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="133" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="92" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="82" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="47" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="35" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="99" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="134" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="135" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="136" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="137" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="46" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="89" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="138" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="64" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="139" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="106" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="32" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="21" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="140" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="96" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="141" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="52" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="142" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="60" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="143" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="52" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="144" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="60" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="145" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="146" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="147" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1924,7 +1873,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M118"/>
+  <dimension ref="A1:M110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3512,7 +3461,7 @@
     <row r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>Dataset 12 istanbul</t>
+          <t>Dataset 13 parkinson_updrs</t>
         </is>
       </c>
       <c r="B43" s="3" t="n"/>
@@ -3535,40 +3484,40 @@
         </is>
       </c>
       <c r="B44" s="6" t="n">
-        <v>0.01601</v>
-      </c>
-      <c r="C44" s="83" t="n">
-        <v>0.01531</v>
-      </c>
-      <c r="D44" s="84" t="n">
-        <v>0.01488</v>
-      </c>
-      <c r="E44" s="85" t="n">
-        <v>0.01474</v>
-      </c>
-      <c r="F44" s="86" t="n">
-        <v>0.01462</v>
-      </c>
-      <c r="G44" s="87" t="n">
-        <v>0.01452</v>
-      </c>
-      <c r="H44" s="6" t="n">
-        <v>0.01601</v>
-      </c>
-      <c r="I44" s="6" t="n">
-        <v>0.01601</v>
-      </c>
-      <c r="J44" s="84" t="n">
-        <v>0.01487</v>
-      </c>
-      <c r="K44" s="6" t="n">
-        <v>0.01601</v>
-      </c>
-      <c r="L44" s="6" t="n">
-        <v>0.01601</v>
-      </c>
-      <c r="M44" s="84" t="n">
-        <v>0.01487</v>
+        <v>12.16549</v>
+      </c>
+      <c r="C44" s="43" t="n">
+        <v>10.39442</v>
+      </c>
+      <c r="D44" s="42" t="n">
+        <v>10.43682</v>
+      </c>
+      <c r="E44" s="83" t="n">
+        <v>10.11566</v>
+      </c>
+      <c r="F44" s="45" t="n">
+        <v>10.07421</v>
+      </c>
+      <c r="G44" s="57" t="n">
+        <v>10.00063</v>
+      </c>
+      <c r="H44" s="84" t="n">
+        <v>14.17227</v>
+      </c>
+      <c r="I44" s="85" t="n">
+        <v>14.245</v>
+      </c>
+      <c r="J44" s="86" t="n">
+        <v>10.1848</v>
+      </c>
+      <c r="K44" s="84" t="n">
+        <v>14.17227</v>
+      </c>
+      <c r="L44" s="85" t="n">
+        <v>14.245</v>
+      </c>
+      <c r="M44" s="86" t="n">
+        <v>10.1848</v>
       </c>
     </row>
     <row r="45">
@@ -3578,40 +3527,40 @@
         </is>
       </c>
       <c r="B45" s="6" t="n">
-        <v>0.01555</v>
-      </c>
-      <c r="C45" s="88" t="n">
-        <v>0.01476</v>
-      </c>
-      <c r="D45" s="89" t="n">
-        <v>0.01453</v>
-      </c>
-      <c r="E45" s="85" t="n">
-        <v>0.01434</v>
-      </c>
-      <c r="F45" s="90" t="n">
-        <v>0.01441</v>
-      </c>
-      <c r="G45" s="90" t="n">
-        <v>0.0144</v>
-      </c>
-      <c r="H45" s="91" t="n">
-        <v>0.01478</v>
-      </c>
-      <c r="I45" s="92" t="n">
-        <v>0.01497</v>
-      </c>
-      <c r="J45" s="89" t="n">
-        <v>0.01452</v>
-      </c>
-      <c r="K45" s="91" t="n">
-        <v>0.01479</v>
-      </c>
-      <c r="L45" s="92" t="n">
-        <v>0.01497</v>
-      </c>
-      <c r="M45" s="93" t="n">
-        <v>0.01462</v>
+        <v>11.86822</v>
+      </c>
+      <c r="C45" s="51" t="n">
+        <v>10.29136</v>
+      </c>
+      <c r="D45" s="51" t="n">
+        <v>10.27701</v>
+      </c>
+      <c r="E45" s="87" t="n">
+        <v>10.09344</v>
+      </c>
+      <c r="F45" s="88" t="n">
+        <v>9.96059</v>
+      </c>
+      <c r="G45" s="88" t="n">
+        <v>9.981159999999999</v>
+      </c>
+      <c r="H45" s="50" t="n">
+        <v>10.53932</v>
+      </c>
+      <c r="I45" s="50" t="n">
+        <v>10.538</v>
+      </c>
+      <c r="J45" s="43" t="n">
+        <v>10.13995</v>
+      </c>
+      <c r="K45" s="50" t="n">
+        <v>10.53932</v>
+      </c>
+      <c r="L45" s="59" t="n">
+        <v>10.50042</v>
+      </c>
+      <c r="M45" s="43" t="n">
+        <v>10.13523</v>
       </c>
     </row>
     <row r="46">
@@ -3621,46 +3570,46 @@
         </is>
       </c>
       <c r="B46" s="6" t="n">
-        <v>0.01495</v>
-      </c>
-      <c r="C46" s="76" t="n">
-        <v>0.01474</v>
-      </c>
-      <c r="D46" s="92" t="n">
-        <v>0.01438</v>
-      </c>
-      <c r="E46" s="83" t="n">
-        <v>0.01428</v>
-      </c>
-      <c r="F46" s="94" t="n">
-        <v>0.01444</v>
-      </c>
-      <c r="G46" s="92" t="n">
-        <v>0.01435</v>
-      </c>
-      <c r="H46" s="76" t="n">
-        <v>0.0147</v>
-      </c>
-      <c r="I46" s="95" t="n">
-        <v>0.01448</v>
-      </c>
-      <c r="J46" s="91" t="n">
-        <v>0.01421</v>
-      </c>
-      <c r="K46" s="76" t="n">
-        <v>0.0147</v>
-      </c>
-      <c r="L46" s="95" t="n">
-        <v>0.01448</v>
-      </c>
-      <c r="M46" s="83" t="n">
-        <v>0.01434</v>
+        <v>11.73253</v>
+      </c>
+      <c r="C46" s="89" t="n">
+        <v>10.21133</v>
+      </c>
+      <c r="D46" s="89" t="n">
+        <v>10.20754</v>
+      </c>
+      <c r="E46" s="42" t="n">
+        <v>10.06443</v>
+      </c>
+      <c r="F46" s="87" t="n">
+        <v>9.939170000000001</v>
+      </c>
+      <c r="G46" s="87" t="n">
+        <v>9.94933</v>
+      </c>
+      <c r="H46" s="89" t="n">
+        <v>10.20878</v>
+      </c>
+      <c r="I46" s="54" t="n">
+        <v>10.25437</v>
+      </c>
+      <c r="J46" s="60" t="n">
+        <v>10.11601</v>
+      </c>
+      <c r="K46" s="89" t="n">
+        <v>10.20878</v>
+      </c>
+      <c r="L46" s="54" t="n">
+        <v>10.25437</v>
+      </c>
+      <c r="M46" s="60" t="n">
+        <v>10.12818</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>Dataset 13 parkinson_updrs</t>
+          <t>Dataset 14 ppb</t>
         </is>
       </c>
       <c r="B47" s="3" t="n"/>
@@ -3683,40 +3632,40 @@
         </is>
       </c>
       <c r="B48" s="6" t="n">
-        <v>12.16549</v>
-      </c>
-      <c r="C48" s="43" t="n">
-        <v>10.39442</v>
-      </c>
-      <c r="D48" s="42" t="n">
-        <v>10.43682</v>
-      </c>
-      <c r="E48" s="96" t="n">
-        <v>10.11566</v>
-      </c>
-      <c r="F48" s="45" t="n">
-        <v>10.07421</v>
-      </c>
-      <c r="G48" s="57" t="n">
-        <v>10.00063</v>
-      </c>
-      <c r="H48" s="97" t="n">
-        <v>14.17227</v>
-      </c>
-      <c r="I48" s="98" t="n">
-        <v>14.245</v>
-      </c>
-      <c r="J48" s="99" t="n">
-        <v>10.1848</v>
-      </c>
-      <c r="K48" s="97" t="n">
-        <v>14.17227</v>
-      </c>
-      <c r="L48" s="98" t="n">
-        <v>14.245</v>
-      </c>
-      <c r="M48" s="99" t="n">
-        <v>10.1848</v>
+        <v>39.00013</v>
+      </c>
+      <c r="C48" s="55" t="n">
+        <v>30.72467</v>
+      </c>
+      <c r="D48" s="53" t="n">
+        <v>31.64841</v>
+      </c>
+      <c r="E48" s="83" t="n">
+        <v>32.33313</v>
+      </c>
+      <c r="F48" s="90" t="n">
+        <v>30.52493</v>
+      </c>
+      <c r="G48" s="91" t="n">
+        <v>30.31933</v>
+      </c>
+      <c r="H48" s="92" t="n">
+        <v>41.72215</v>
+      </c>
+      <c r="I48" s="93" t="n">
+        <v>42.09846</v>
+      </c>
+      <c r="J48" s="49" t="n">
+        <v>31.48903</v>
+      </c>
+      <c r="K48" s="92" t="n">
+        <v>41.72215</v>
+      </c>
+      <c r="L48" s="93" t="n">
+        <v>42.09846</v>
+      </c>
+      <c r="M48" s="47" t="n">
+        <v>31.25672</v>
       </c>
     </row>
     <row r="49">
@@ -3726,40 +3675,40 @@
         </is>
       </c>
       <c r="B49" s="6" t="n">
-        <v>11.86822</v>
-      </c>
-      <c r="C49" s="51" t="n">
-        <v>10.29136</v>
-      </c>
-      <c r="D49" s="51" t="n">
-        <v>10.27701</v>
-      </c>
-      <c r="E49" s="100" t="n">
-        <v>10.09344</v>
-      </c>
-      <c r="F49" s="101" t="n">
-        <v>9.96059</v>
-      </c>
-      <c r="G49" s="101" t="n">
-        <v>9.981159999999999</v>
-      </c>
-      <c r="H49" s="50" t="n">
-        <v>10.53932</v>
-      </c>
-      <c r="I49" s="50" t="n">
-        <v>10.538</v>
-      </c>
-      <c r="J49" s="43" t="n">
-        <v>10.13995</v>
-      </c>
-      <c r="K49" s="50" t="n">
-        <v>10.53932</v>
-      </c>
-      <c r="L49" s="59" t="n">
-        <v>10.50042</v>
-      </c>
-      <c r="M49" s="43" t="n">
-        <v>10.13523</v>
+        <v>38.62736</v>
+      </c>
+      <c r="C49" s="56" t="n">
+        <v>30.76472</v>
+      </c>
+      <c r="D49" s="94" t="n">
+        <v>29.86512</v>
+      </c>
+      <c r="E49" s="95" t="n">
+        <v>32.70334</v>
+      </c>
+      <c r="F49" s="52" t="n">
+        <v>31.14424</v>
+      </c>
+      <c r="G49" s="45" t="n">
+        <v>31.96502</v>
+      </c>
+      <c r="H49" s="53" t="n">
+        <v>31.35918</v>
+      </c>
+      <c r="I49" s="57" t="n">
+        <v>31.76226</v>
+      </c>
+      <c r="J49" s="48" t="n">
+        <v>31.53245</v>
+      </c>
+      <c r="K49" s="53" t="n">
+        <v>31.35918</v>
+      </c>
+      <c r="L49" s="57" t="n">
+        <v>31.76226</v>
+      </c>
+      <c r="M49" s="49" t="n">
+        <v>31.25313</v>
       </c>
     </row>
     <row r="50">
@@ -3769,46 +3718,46 @@
         </is>
       </c>
       <c r="B50" s="6" t="n">
-        <v>11.73253</v>
-      </c>
-      <c r="C50" s="102" t="n">
-        <v>10.21133</v>
-      </c>
-      <c r="D50" s="102" t="n">
-        <v>10.20754</v>
-      </c>
-      <c r="E50" s="42" t="n">
-        <v>10.06443</v>
-      </c>
-      <c r="F50" s="100" t="n">
-        <v>9.939170000000001</v>
-      </c>
-      <c r="G50" s="100" t="n">
-        <v>9.94933</v>
-      </c>
-      <c r="H50" s="102" t="n">
-        <v>10.20878</v>
-      </c>
-      <c r="I50" s="54" t="n">
-        <v>10.25437</v>
-      </c>
-      <c r="J50" s="60" t="n">
-        <v>10.11601</v>
-      </c>
-      <c r="K50" s="102" t="n">
-        <v>10.20878</v>
-      </c>
-      <c r="L50" s="54" t="n">
-        <v>10.25437</v>
-      </c>
-      <c r="M50" s="60" t="n">
-        <v>10.12818</v>
+        <v>38.04211</v>
+      </c>
+      <c r="C50" s="48" t="n">
+        <v>31.18511</v>
+      </c>
+      <c r="D50" s="47" t="n">
+        <v>30.42635</v>
+      </c>
+      <c r="E50" s="89" t="n">
+        <v>33.15308</v>
+      </c>
+      <c r="F50" s="52" t="n">
+        <v>30.52243</v>
+      </c>
+      <c r="G50" s="45" t="n">
+        <v>31.40537</v>
+      </c>
+      <c r="H50" s="45" t="n">
+        <v>31.50937</v>
+      </c>
+      <c r="I50" s="47" t="n">
+        <v>30.46778</v>
+      </c>
+      <c r="J50" s="83" t="n">
+        <v>31.55206</v>
+      </c>
+      <c r="K50" s="45" t="n">
+        <v>31.50937</v>
+      </c>
+      <c r="L50" s="47" t="n">
+        <v>30.46778</v>
+      </c>
+      <c r="M50" s="48" t="n">
+        <v>31.18206</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>Dataset 14 ppb</t>
+          <t>Dataset 15 resid_build_sale_price</t>
         </is>
       </c>
       <c r="B51" s="3" t="n"/>
@@ -3831,40 +3780,40 @@
         </is>
       </c>
       <c r="B52" s="6" t="n">
-        <v>39.00013</v>
-      </c>
-      <c r="C52" s="55" t="n">
-        <v>30.72467</v>
-      </c>
-      <c r="D52" s="53" t="n">
-        <v>31.64841</v>
+        <v>130.07759</v>
+      </c>
+      <c r="C52" s="37" t="n">
+        <v>98.13951</v>
+      </c>
+      <c r="D52" s="37" t="n">
+        <v>98.03301</v>
       </c>
       <c r="E52" s="96" t="n">
-        <v>32.33313</v>
-      </c>
-      <c r="F52" s="103" t="n">
-        <v>30.52493</v>
-      </c>
-      <c r="G52" s="104" t="n">
-        <v>30.31933</v>
-      </c>
-      <c r="H52" s="105" t="n">
-        <v>41.72215</v>
-      </c>
-      <c r="I52" s="106" t="n">
-        <v>42.09846</v>
-      </c>
-      <c r="J52" s="49" t="n">
-        <v>31.48903</v>
-      </c>
-      <c r="K52" s="105" t="n">
-        <v>41.72215</v>
-      </c>
-      <c r="L52" s="106" t="n">
-        <v>42.09846</v>
-      </c>
-      <c r="M52" s="47" t="n">
-        <v>31.25672</v>
+        <v>99.29813</v>
+      </c>
+      <c r="F52" s="27" t="n">
+        <v>81.96151</v>
+      </c>
+      <c r="G52" s="64" t="n">
+        <v>73.02263000000001</v>
+      </c>
+      <c r="H52" s="12" t="n">
+        <v>130.7468</v>
+      </c>
+      <c r="I52" s="12" t="n">
+        <v>130.7468</v>
+      </c>
+      <c r="J52" s="97" t="n">
+        <v>99.52021000000001</v>
+      </c>
+      <c r="K52" s="12" t="n">
+        <v>130.7468</v>
+      </c>
+      <c r="L52" s="12" t="n">
+        <v>130.7468</v>
+      </c>
+      <c r="M52" s="97" t="n">
+        <v>99.52021000000001</v>
       </c>
     </row>
     <row r="53">
@@ -3874,40 +3823,40 @@
         </is>
       </c>
       <c r="B53" s="6" t="n">
-        <v>38.62736</v>
-      </c>
-      <c r="C53" s="56" t="n">
-        <v>30.76472</v>
-      </c>
-      <c r="D53" s="107" t="n">
-        <v>29.86512</v>
-      </c>
-      <c r="E53" s="108" t="n">
-        <v>32.70334</v>
-      </c>
-      <c r="F53" s="52" t="n">
-        <v>31.14424</v>
-      </c>
-      <c r="G53" s="45" t="n">
-        <v>31.96502</v>
-      </c>
-      <c r="H53" s="53" t="n">
-        <v>31.35918</v>
-      </c>
-      <c r="I53" s="57" t="n">
-        <v>31.76226</v>
-      </c>
-      <c r="J53" s="48" t="n">
-        <v>31.53245</v>
-      </c>
-      <c r="K53" s="53" t="n">
-        <v>31.35918</v>
-      </c>
-      <c r="L53" s="57" t="n">
-        <v>31.76226</v>
-      </c>
-      <c r="M53" s="49" t="n">
-        <v>31.25313</v>
+        <v>129.44335</v>
+      </c>
+      <c r="C53" s="98" t="n">
+        <v>86.99241000000001</v>
+      </c>
+      <c r="D53" s="99" t="n">
+        <v>83.85916</v>
+      </c>
+      <c r="E53" s="100" t="n">
+        <v>99.19386</v>
+      </c>
+      <c r="F53" s="18" t="n">
+        <v>75.07709</v>
+      </c>
+      <c r="G53" s="17" t="n">
+        <v>69.66327</v>
+      </c>
+      <c r="H53" s="49" t="n">
+        <v>104.50417</v>
+      </c>
+      <c r="I53" s="90" t="n">
+        <v>101.23463</v>
+      </c>
+      <c r="J53" s="96" t="n">
+        <v>98.80894000000001</v>
+      </c>
+      <c r="K53" s="56" t="n">
+        <v>103.04212</v>
+      </c>
+      <c r="L53" s="90" t="n">
+        <v>101.23463</v>
+      </c>
+      <c r="M53" s="100" t="n">
+        <v>99.46017999999999</v>
       </c>
     </row>
     <row r="54">
@@ -3917,276 +3866,276 @@
         </is>
       </c>
       <c r="B54" s="6" t="n">
-        <v>38.04211</v>
-      </c>
-      <c r="C54" s="48" t="n">
-        <v>31.18511</v>
-      </c>
-      <c r="D54" s="47" t="n">
-        <v>30.42635</v>
-      </c>
-      <c r="E54" s="102" t="n">
-        <v>33.15308</v>
-      </c>
-      <c r="F54" s="52" t="n">
-        <v>30.52243</v>
-      </c>
-      <c r="G54" s="45" t="n">
-        <v>31.40537</v>
-      </c>
-      <c r="H54" s="45" t="n">
-        <v>31.50937</v>
-      </c>
-      <c r="I54" s="47" t="n">
-        <v>30.46778</v>
+        <v>128.72448</v>
+      </c>
+      <c r="C54" s="20" t="n">
+        <v>83.01031999999999</v>
+      </c>
+      <c r="D54" s="28" t="n">
+        <v>81.73676</v>
+      </c>
+      <c r="E54" s="100" t="n">
+        <v>99.09629</v>
+      </c>
+      <c r="F54" s="18" t="n">
+        <v>74.79512</v>
+      </c>
+      <c r="G54" s="101" t="n">
+        <v>68.94804999999999</v>
+      </c>
+      <c r="H54" s="40" t="n">
+        <v>90.49274</v>
+      </c>
+      <c r="I54" s="98" t="n">
+        <v>86.88974</v>
       </c>
       <c r="J54" s="96" t="n">
-        <v>31.55206</v>
-      </c>
-      <c r="K54" s="45" t="n">
-        <v>31.50937</v>
-      </c>
-      <c r="L54" s="47" t="n">
-        <v>30.46778</v>
-      </c>
-      <c r="M54" s="48" t="n">
-        <v>31.18206</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="4" t="inlineStr">
-        <is>
-          <t>Dataset 15 resid_build_sale_price</t>
-        </is>
-      </c>
-      <c r="B55" s="3" t="n"/>
-      <c r="C55" s="3" t="n"/>
-      <c r="D55" s="3" t="n"/>
-      <c r="E55" s="3" t="n"/>
-      <c r="F55" s="3" t="n"/>
-      <c r="G55" s="3" t="n"/>
-      <c r="H55" s="3" t="n"/>
-      <c r="I55" s="3" t="n"/>
-      <c r="J55" s="3" t="n"/>
-      <c r="K55" s="3" t="n"/>
-      <c r="L55" s="3" t="n"/>
-      <c r="M55" s="3" t="n"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="5" t="inlineStr">
+        <v>98.32332</v>
+      </c>
+      <c r="K54" s="40" t="n">
+        <v>90.49274</v>
+      </c>
+      <c r="L54" s="98" t="n">
+        <v>86.88974</v>
+      </c>
+      <c r="M54" s="94" t="n">
+        <v>99.27643</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>PERFORMANCE - MODEL SIZE</t>
+        </is>
+      </c>
+      <c r="B57" s="3" t="n"/>
+      <c r="C57" s="3" t="n"/>
+      <c r="D57" s="3" t="n"/>
+      <c r="E57" s="3" t="n"/>
+      <c r="F57" s="3" t="n"/>
+      <c r="G57" s="3" t="n"/>
+      <c r="H57" s="3" t="n"/>
+      <c r="I57" s="3" t="n"/>
+      <c r="J57" s="3" t="n"/>
+      <c r="K57" s="3" t="n"/>
+      <c r="L57" s="3" t="n"/>
+      <c r="M57" s="3" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="inlineStr"/>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>VARIANT 20</t>
+        </is>
+      </c>
+      <c r="C58" s="1" t="inlineStr">
+        <is>
+          <t>VARIANT 1</t>
+        </is>
+      </c>
+      <c r="D58" s="1" t="inlineStr">
+        <is>
+          <t>VARIANT 1b</t>
+        </is>
+      </c>
+      <c r="E58" s="1" t="inlineStr">
+        <is>
+          <t>VARIANT 2</t>
+        </is>
+      </c>
+      <c r="F58" s="1" t="inlineStr">
+        <is>
+          <t>VARIANT 3</t>
+        </is>
+      </c>
+      <c r="G58" s="1" t="inlineStr">
+        <is>
+          <t>VARIANT 3b</t>
+        </is>
+      </c>
+      <c r="H58" s="1" t="inlineStr">
+        <is>
+          <t>VARIANT 4</t>
+        </is>
+      </c>
+      <c r="I58" s="1" t="inlineStr">
+        <is>
+          <t>VARIANT 4b</t>
+        </is>
+      </c>
+      <c r="J58" s="1" t="inlineStr">
+        <is>
+          <t>VARIANT 5</t>
+        </is>
+      </c>
+      <c r="K58" s="1" t="inlineStr">
+        <is>
+          <t>VARIANT 6</t>
+        </is>
+      </c>
+      <c r="L58" s="1" t="inlineStr">
+        <is>
+          <t>VARIANT 6b</t>
+        </is>
+      </c>
+      <c r="M58" s="1" t="inlineStr">
+        <is>
+          <t>VARIANT 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="inlineStr">
+        <is>
+          <t>Dataset 1 airfoil</t>
+        </is>
+      </c>
+      <c r="B59" s="3" t="n"/>
+      <c r="C59" s="3" t="n"/>
+      <c r="D59" s="3" t="n"/>
+      <c r="E59" s="3" t="n"/>
+      <c r="F59" s="3" t="n"/>
+      <c r="G59" s="3" t="n"/>
+      <c r="H59" s="3" t="n"/>
+      <c r="I59" s="3" t="n"/>
+      <c r="J59" s="3" t="n"/>
+      <c r="K59" s="3" t="n"/>
+      <c r="L59" s="3" t="n"/>
+      <c r="M59" s="3" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="5" t="inlineStr">
         <is>
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B56" s="6" t="n">
-        <v>130.07759</v>
-      </c>
-      <c r="C56" s="37" t="n">
-        <v>98.13951</v>
-      </c>
-      <c r="D56" s="37" t="n">
-        <v>98.03301</v>
-      </c>
-      <c r="E56" s="109" t="n">
-        <v>99.29813</v>
-      </c>
-      <c r="F56" s="27" t="n">
-        <v>81.96151</v>
-      </c>
-      <c r="G56" s="64" t="n">
-        <v>73.02263000000001</v>
-      </c>
-      <c r="H56" s="12" t="n">
-        <v>130.7468</v>
-      </c>
-      <c r="I56" s="12" t="n">
-        <v>130.7468</v>
-      </c>
-      <c r="J56" s="110" t="n">
-        <v>99.52021000000001</v>
-      </c>
-      <c r="K56" s="12" t="n">
-        <v>130.7468</v>
-      </c>
-      <c r="L56" s="12" t="n">
-        <v>130.7468</v>
-      </c>
-      <c r="M56" s="110" t="n">
-        <v>99.52021000000001</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="5" t="inlineStr">
+      <c r="B60" s="102" t="n">
+        <v>35</v>
+      </c>
+      <c r="C60" s="103" t="n">
+        <v>34</v>
+      </c>
+      <c r="D60" s="104" t="n">
+        <v>33</v>
+      </c>
+      <c r="E60" s="103" t="n">
+        <v>34</v>
+      </c>
+      <c r="F60" s="105" t="n">
+        <v>27</v>
+      </c>
+      <c r="G60" s="106" t="n">
+        <v>29</v>
+      </c>
+      <c r="H60" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="I60" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="J60" s="107" t="n">
+        <v>4</v>
+      </c>
+      <c r="K60" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="L60" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="M60" s="107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="inlineStr">
         <is>
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B57" s="6" t="n">
-        <v>129.44335</v>
-      </c>
-      <c r="C57" s="111" t="n">
-        <v>86.99241000000001</v>
-      </c>
-      <c r="D57" s="112" t="n">
-        <v>83.85916</v>
-      </c>
-      <c r="E57" s="113" t="n">
-        <v>99.19386</v>
-      </c>
-      <c r="F57" s="18" t="n">
-        <v>75.07709</v>
-      </c>
-      <c r="G57" s="17" t="n">
-        <v>69.66327</v>
-      </c>
-      <c r="H57" s="49" t="n">
-        <v>104.50417</v>
-      </c>
-      <c r="I57" s="103" t="n">
-        <v>101.23463</v>
-      </c>
-      <c r="J57" s="109" t="n">
-        <v>98.80894000000001</v>
-      </c>
-      <c r="K57" s="56" t="n">
-        <v>103.04212</v>
-      </c>
-      <c r="L57" s="103" t="n">
-        <v>101.23463</v>
-      </c>
-      <c r="M57" s="113" t="n">
-        <v>99.46017999999999</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="5" t="inlineStr">
+      <c r="B61" s="102" t="n">
+        <v>47</v>
+      </c>
+      <c r="C61" s="108" t="n">
+        <v>45</v>
+      </c>
+      <c r="D61" s="108" t="n">
+        <v>45</v>
+      </c>
+      <c r="E61" s="102" t="n">
+        <v>47</v>
+      </c>
+      <c r="F61" s="109" t="n">
+        <v>37</v>
+      </c>
+      <c r="G61" s="110" t="n">
+        <v>39</v>
+      </c>
+      <c r="H61" s="107" t="n">
+        <v>11</v>
+      </c>
+      <c r="I61" s="107" t="n">
+        <v>13</v>
+      </c>
+      <c r="J61" s="111" t="n">
+        <v>29</v>
+      </c>
+      <c r="K61" s="107" t="n">
+        <v>11</v>
+      </c>
+      <c r="L61" s="107" t="n">
+        <v>13</v>
+      </c>
+      <c r="M61" s="112" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="5" t="inlineStr">
         <is>
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B58" s="6" t="n">
-        <v>128.72448</v>
-      </c>
-      <c r="C58" s="20" t="n">
-        <v>83.01031999999999</v>
-      </c>
-      <c r="D58" s="28" t="n">
-        <v>81.73676</v>
-      </c>
-      <c r="E58" s="113" t="n">
-        <v>99.09629</v>
-      </c>
-      <c r="F58" s="18" t="n">
-        <v>74.79512</v>
-      </c>
-      <c r="G58" s="114" t="n">
-        <v>68.94804999999999</v>
-      </c>
-      <c r="H58" s="40" t="n">
-        <v>90.49274</v>
-      </c>
-      <c r="I58" s="111" t="n">
-        <v>86.88974</v>
-      </c>
-      <c r="J58" s="109" t="n">
-        <v>98.32332</v>
-      </c>
-      <c r="K58" s="40" t="n">
-        <v>90.49274</v>
-      </c>
-      <c r="L58" s="111" t="n">
-        <v>86.88974</v>
-      </c>
-      <c r="M58" s="107" t="n">
-        <v>99.27643</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="inlineStr">
-        <is>
-          <t>PERFORMANCE - MODEL SIZE</t>
-        </is>
-      </c>
-      <c r="B61" s="3" t="n"/>
-      <c r="C61" s="3" t="n"/>
-      <c r="D61" s="3" t="n"/>
-      <c r="E61" s="3" t="n"/>
-      <c r="F61" s="3" t="n"/>
-      <c r="G61" s="3" t="n"/>
-      <c r="H61" s="3" t="n"/>
-      <c r="I61" s="3" t="n"/>
-      <c r="J61" s="3" t="n"/>
-      <c r="K61" s="3" t="n"/>
-      <c r="L61" s="3" t="n"/>
-      <c r="M61" s="3" t="n"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="3" t="inlineStr"/>
-      <c r="B62" s="1" t="inlineStr">
-        <is>
-          <t>VARIANT 20</t>
-        </is>
-      </c>
-      <c r="C62" s="1" t="inlineStr">
-        <is>
-          <t>VARIANT 1</t>
-        </is>
-      </c>
-      <c r="D62" s="1" t="inlineStr">
-        <is>
-          <t>VARIANT 1b</t>
-        </is>
-      </c>
-      <c r="E62" s="1" t="inlineStr">
-        <is>
-          <t>VARIANT 2</t>
-        </is>
-      </c>
-      <c r="F62" s="1" t="inlineStr">
-        <is>
-          <t>VARIANT 3</t>
-        </is>
-      </c>
-      <c r="G62" s="1" t="inlineStr">
-        <is>
-          <t>VARIANT 3b</t>
-        </is>
-      </c>
-      <c r="H62" s="1" t="inlineStr">
-        <is>
-          <t>VARIANT 4</t>
-        </is>
-      </c>
-      <c r="I62" s="1" t="inlineStr">
-        <is>
-          <t>VARIANT 4b</t>
-        </is>
-      </c>
-      <c r="J62" s="1" t="inlineStr">
-        <is>
-          <t>VARIANT 5</t>
-        </is>
-      </c>
-      <c r="K62" s="1" t="inlineStr">
-        <is>
-          <t>VARIANT 6</t>
-        </is>
-      </c>
-      <c r="L62" s="1" t="inlineStr">
-        <is>
-          <t>VARIANT 6b</t>
-        </is>
-      </c>
-      <c r="M62" s="1" t="inlineStr">
-        <is>
-          <t>VARIANT 7</t>
-        </is>
+      <c r="B62" s="102" t="n">
+        <v>62</v>
+      </c>
+      <c r="C62" s="113" t="n">
+        <v>67</v>
+      </c>
+      <c r="D62" s="114" t="n">
+        <v>63</v>
+      </c>
+      <c r="E62" s="115" t="n">
+        <v>68</v>
+      </c>
+      <c r="F62" s="116" t="n">
+        <v>58</v>
+      </c>
+      <c r="G62" s="114" t="n">
+        <v>63</v>
+      </c>
+      <c r="H62" s="117" t="n">
+        <v>57</v>
+      </c>
+      <c r="I62" s="118" t="n">
+        <v>54</v>
+      </c>
+      <c r="J62" s="119" t="n">
+        <v>56</v>
+      </c>
+      <c r="K62" s="119" t="n">
+        <v>56</v>
+      </c>
+      <c r="L62" s="120" t="n">
+        <v>53</v>
+      </c>
+      <c r="M62" s="118" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>Dataset 1 airfoil</t>
+          <t>Dataset 2 bike_sharing</t>
         </is>
       </c>
       <c r="B63" s="3" t="n"/>
@@ -4208,41 +4157,41 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B64" s="115" t="n">
+      <c r="B64" s="102" t="n">
+        <v>33</v>
+      </c>
+      <c r="C64" s="121" t="n">
         <v>35</v>
       </c>
-      <c r="C64" s="116" t="n">
-        <v>34</v>
-      </c>
-      <c r="D64" s="117" t="n">
-        <v>33</v>
-      </c>
-      <c r="E64" s="116" t="n">
-        <v>34</v>
-      </c>
-      <c r="F64" s="118" t="n">
-        <v>27</v>
-      </c>
-      <c r="G64" s="119" t="n">
-        <v>29</v>
-      </c>
-      <c r="H64" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="I64" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="J64" s="120" t="n">
-        <v>4</v>
-      </c>
-      <c r="K64" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="L64" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="M64" s="120" t="n">
-        <v>4</v>
+      <c r="D64" s="121" t="n">
+        <v>35</v>
+      </c>
+      <c r="E64" s="122" t="n">
+        <v>31</v>
+      </c>
+      <c r="F64" s="122" t="n">
+        <v>31</v>
+      </c>
+      <c r="G64" s="123" t="n">
+        <v>30</v>
+      </c>
+      <c r="H64" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="I64" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="J64" s="107" t="n">
+        <v>7</v>
+      </c>
+      <c r="K64" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="L64" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="M64" s="107" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="65">
@@ -4251,41 +4200,41 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B65" s="115" t="n">
-        <v>47</v>
-      </c>
-      <c r="C65" s="121" t="n">
-        <v>45</v>
-      </c>
-      <c r="D65" s="121" t="n">
-        <v>45</v>
-      </c>
-      <c r="E65" s="115" t="n">
-        <v>47</v>
-      </c>
-      <c r="F65" s="122" t="n">
+      <c r="B65" s="102" t="n">
+        <v>41</v>
+      </c>
+      <c r="C65" s="124" t="n">
+        <v>42</v>
+      </c>
+      <c r="D65" s="124" t="n">
+        <v>42</v>
+      </c>
+      <c r="E65" s="102" t="n">
+        <v>41</v>
+      </c>
+      <c r="F65" s="125" t="n">
+        <v>38</v>
+      </c>
+      <c r="G65" s="119" t="n">
         <v>37</v>
       </c>
-      <c r="G65" s="123" t="n">
-        <v>39</v>
-      </c>
-      <c r="H65" s="120" t="n">
-        <v>11</v>
-      </c>
-      <c r="I65" s="120" t="n">
-        <v>13</v>
-      </c>
-      <c r="J65" s="124" t="n">
-        <v>29</v>
-      </c>
-      <c r="K65" s="120" t="n">
-        <v>11</v>
-      </c>
-      <c r="L65" s="120" t="n">
-        <v>13</v>
-      </c>
-      <c r="M65" s="125" t="n">
-        <v>25</v>
+      <c r="H65" s="126" t="n">
+        <v>24</v>
+      </c>
+      <c r="I65" s="126" t="n">
+        <v>24</v>
+      </c>
+      <c r="J65" s="126" t="n">
+        <v>24</v>
+      </c>
+      <c r="K65" s="127" t="n">
+        <v>23</v>
+      </c>
+      <c r="L65" s="127" t="n">
+        <v>23</v>
+      </c>
+      <c r="M65" s="126" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="66">
@@ -4294,47 +4243,47 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B66" s="115" t="n">
-        <v>62</v>
-      </c>
-      <c r="C66" s="126" t="n">
-        <v>67</v>
-      </c>
-      <c r="D66" s="127" t="n">
-        <v>63</v>
-      </c>
-      <c r="E66" s="128" t="n">
-        <v>68</v>
-      </c>
-      <c r="F66" s="129" t="n">
-        <v>58</v>
-      </c>
-      <c r="G66" s="127" t="n">
-        <v>63</v>
-      </c>
-      <c r="H66" s="130" t="n">
-        <v>57</v>
-      </c>
-      <c r="I66" s="131" t="n">
+      <c r="B66" s="102" t="n">
         <v>54</v>
       </c>
-      <c r="J66" s="132" t="n">
-        <v>56</v>
-      </c>
-      <c r="K66" s="132" t="n">
-        <v>56</v>
-      </c>
-      <c r="L66" s="133" t="n">
+      <c r="C66" s="128" t="n">
         <v>53</v>
       </c>
-      <c r="M66" s="131" t="n">
-        <v>54</v>
+      <c r="D66" s="128" t="n">
+        <v>53</v>
+      </c>
+      <c r="E66" s="104" t="n">
+        <v>51</v>
+      </c>
+      <c r="F66" s="125" t="n">
+        <v>50</v>
+      </c>
+      <c r="G66" s="129" t="n">
+        <v>52</v>
+      </c>
+      <c r="H66" s="104" t="n">
+        <v>51</v>
+      </c>
+      <c r="I66" s="104" t="n">
+        <v>51</v>
+      </c>
+      <c r="J66" s="125" t="n">
+        <v>50</v>
+      </c>
+      <c r="K66" s="125" t="n">
+        <v>50</v>
+      </c>
+      <c r="L66" s="104" t="n">
+        <v>51</v>
+      </c>
+      <c r="M66" s="125" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>Dataset 2 bike_sharing</t>
+          <t>Dataset 3 bioavailability</t>
         </is>
       </c>
       <c r="B67" s="3" t="n"/>
@@ -4356,41 +4305,41 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B68" s="115" t="n">
-        <v>33</v>
-      </c>
-      <c r="C68" s="134" t="n">
-        <v>35</v>
-      </c>
-      <c r="D68" s="134" t="n">
-        <v>35</v>
-      </c>
-      <c r="E68" s="135" t="n">
-        <v>31</v>
-      </c>
-      <c r="F68" s="135" t="n">
-        <v>31</v>
-      </c>
-      <c r="G68" s="136" t="n">
-        <v>30</v>
-      </c>
-      <c r="H68" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="I68" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="J68" s="120" t="n">
-        <v>7</v>
-      </c>
-      <c r="K68" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="L68" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="M68" s="120" t="n">
-        <v>7</v>
+      <c r="B68" s="102" t="n">
+        <v>27</v>
+      </c>
+      <c r="C68" s="102" t="n">
+        <v>27</v>
+      </c>
+      <c r="D68" s="102" t="n">
+        <v>27</v>
+      </c>
+      <c r="E68" s="102" t="n">
+        <v>27</v>
+      </c>
+      <c r="F68" s="102" t="n">
+        <v>27</v>
+      </c>
+      <c r="G68" s="102" t="n">
+        <v>27</v>
+      </c>
+      <c r="H68" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="I68" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="J68" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="K68" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="L68" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="M68" s="107" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="69">
@@ -4399,41 +4348,41 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B69" s="115" t="n">
-        <v>41</v>
-      </c>
-      <c r="C69" s="137" t="n">
-        <v>42</v>
-      </c>
-      <c r="D69" s="137" t="n">
-        <v>42</v>
-      </c>
-      <c r="E69" s="115" t="n">
-        <v>41</v>
-      </c>
-      <c r="F69" s="138" t="n">
-        <v>38</v>
-      </c>
-      <c r="G69" s="132" t="n">
-        <v>37</v>
-      </c>
-      <c r="H69" s="139" t="n">
-        <v>24</v>
-      </c>
-      <c r="I69" s="139" t="n">
-        <v>24</v>
-      </c>
-      <c r="J69" s="139" t="n">
-        <v>24</v>
-      </c>
-      <c r="K69" s="140" t="n">
+      <c r="B69" s="102" t="n">
+        <v>35</v>
+      </c>
+      <c r="C69" s="130" t="n">
+        <v>31</v>
+      </c>
+      <c r="D69" s="130" t="n">
+        <v>31</v>
+      </c>
+      <c r="E69" s="102" t="n">
+        <v>35</v>
+      </c>
+      <c r="F69" s="102" t="n">
+        <v>35</v>
+      </c>
+      <c r="G69" s="102" t="n">
+        <v>35</v>
+      </c>
+      <c r="H69" s="107" t="n">
+        <v>11</v>
+      </c>
+      <c r="I69" s="107" t="n">
+        <v>11</v>
+      </c>
+      <c r="J69" s="131" t="n">
         <v>23</v>
       </c>
-      <c r="L69" s="140" t="n">
-        <v>23</v>
-      </c>
-      <c r="M69" s="139" t="n">
-        <v>24</v>
+      <c r="K69" s="107" t="n">
+        <v>11</v>
+      </c>
+      <c r="L69" s="107" t="n">
+        <v>11</v>
+      </c>
+      <c r="M69" s="132" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="70">
@@ -4442,47 +4391,47 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B70" s="115" t="n">
-        <v>54</v>
-      </c>
-      <c r="C70" s="141" t="n">
-        <v>53</v>
-      </c>
-      <c r="D70" s="141" t="n">
-        <v>53</v>
-      </c>
-      <c r="E70" s="117" t="n">
-        <v>51</v>
-      </c>
-      <c r="F70" s="138" t="n">
-        <v>50</v>
-      </c>
-      <c r="G70" s="142" t="n">
-        <v>52</v>
-      </c>
-      <c r="H70" s="117" t="n">
-        <v>51</v>
-      </c>
-      <c r="I70" s="117" t="n">
-        <v>51</v>
-      </c>
-      <c r="J70" s="138" t="n">
-        <v>50</v>
-      </c>
-      <c r="K70" s="138" t="n">
-        <v>50</v>
-      </c>
-      <c r="L70" s="117" t="n">
-        <v>51</v>
-      </c>
-      <c r="M70" s="138" t="n">
-        <v>50</v>
+      <c r="B70" s="102" t="n">
+        <v>39</v>
+      </c>
+      <c r="C70" s="102" t="n">
+        <v>39</v>
+      </c>
+      <c r="D70" s="102" t="n">
+        <v>39</v>
+      </c>
+      <c r="E70" s="133" t="n">
+        <v>41</v>
+      </c>
+      <c r="F70" s="133" t="n">
+        <v>41</v>
+      </c>
+      <c r="G70" s="134" t="n">
+        <v>43</v>
+      </c>
+      <c r="H70" s="102" t="n">
+        <v>39</v>
+      </c>
+      <c r="I70" s="133" t="n">
+        <v>41</v>
+      </c>
+      <c r="J70" s="134" t="n">
+        <v>43</v>
+      </c>
+      <c r="K70" s="102" t="n">
+        <v>39</v>
+      </c>
+      <c r="L70" s="102" t="n">
+        <v>39</v>
+      </c>
+      <c r="M70" s="134" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>Dataset 3 bioavailability</t>
+          <t>Dataset 5 breast_cancer</t>
         </is>
       </c>
       <c r="B71" s="3" t="n"/>
@@ -4504,41 +4453,41 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B72" s="115" t="n">
+      <c r="B72" s="102" t="n">
+        <v>15</v>
+      </c>
+      <c r="C72" s="135" t="n">
         <v>27</v>
       </c>
-      <c r="C72" s="115" t="n">
+      <c r="D72" s="135" t="n">
         <v>27</v>
       </c>
-      <c r="D72" s="115" t="n">
-        <v>27</v>
-      </c>
-      <c r="E72" s="115" t="n">
-        <v>27</v>
-      </c>
-      <c r="F72" s="115" t="n">
-        <v>27</v>
-      </c>
-      <c r="G72" s="115" t="n">
-        <v>27</v>
-      </c>
-      <c r="H72" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="I72" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="J72" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="K72" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="L72" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="M72" s="120" t="n">
-        <v>4</v>
+      <c r="E72" s="135" t="n">
+        <v>25</v>
+      </c>
+      <c r="F72" s="135" t="n">
+        <v>25</v>
+      </c>
+      <c r="G72" s="135" t="n">
+        <v>25</v>
+      </c>
+      <c r="H72" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="I72" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="J72" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="K72" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="L72" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="M72" s="107" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="73">
@@ -4547,41 +4496,41 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B73" s="115" t="n">
-        <v>35</v>
-      </c>
-      <c r="C73" s="143" t="n">
+      <c r="B73" s="102" t="n">
+        <v>24</v>
+      </c>
+      <c r="C73" s="136" t="n">
+        <v>33</v>
+      </c>
+      <c r="D73" s="136" t="n">
+        <v>33</v>
+      </c>
+      <c r="E73" s="137" t="n">
         <v>31</v>
       </c>
-      <c r="D73" s="143" t="n">
+      <c r="F73" s="137" t="n">
         <v>31</v>
       </c>
-      <c r="E73" s="115" t="n">
-        <v>35</v>
-      </c>
-      <c r="F73" s="115" t="n">
-        <v>35</v>
-      </c>
-      <c r="G73" s="115" t="n">
-        <v>35</v>
-      </c>
-      <c r="H73" s="120" t="n">
+      <c r="G73" s="137" t="n">
+        <v>31</v>
+      </c>
+      <c r="H73" s="138" t="n">
+        <v>13</v>
+      </c>
+      <c r="I73" s="107" t="n">
         <v>11</v>
       </c>
-      <c r="I73" s="120" t="n">
+      <c r="J73" s="139" t="n">
+        <v>15</v>
+      </c>
+      <c r="K73" s="138" t="n">
+        <v>13</v>
+      </c>
+      <c r="L73" s="107" t="n">
         <v>11</v>
       </c>
-      <c r="J73" s="144" t="n">
-        <v>23</v>
-      </c>
-      <c r="K73" s="120" t="n">
-        <v>11</v>
-      </c>
-      <c r="L73" s="120" t="n">
-        <v>11</v>
-      </c>
-      <c r="M73" s="145" t="n">
-        <v>20</v>
+      <c r="M73" s="140" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="74">
@@ -4590,47 +4539,47 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B74" s="115" t="n">
+      <c r="B74" s="102" t="n">
         <v>39</v>
       </c>
-      <c r="C74" s="115" t="n">
-        <v>39</v>
-      </c>
-      <c r="D74" s="115" t="n">
-        <v>39</v>
-      </c>
-      <c r="E74" s="146" t="n">
+      <c r="C74" s="141" t="n">
+        <v>45</v>
+      </c>
+      <c r="D74" s="141" t="n">
+        <v>45</v>
+      </c>
+      <c r="E74" s="134" t="n">
+        <v>43</v>
+      </c>
+      <c r="F74" s="134" t="n">
+        <v>43</v>
+      </c>
+      <c r="G74" s="133" t="n">
         <v>41</v>
       </c>
-      <c r="F74" s="146" t="n">
+      <c r="H74" s="141" t="n">
+        <v>45</v>
+      </c>
+      <c r="I74" s="133" t="n">
         <v>41</v>
       </c>
-      <c r="G74" s="147" t="n">
-        <v>43</v>
-      </c>
-      <c r="H74" s="115" t="n">
-        <v>39</v>
-      </c>
-      <c r="I74" s="146" t="n">
+      <c r="J74" s="133" t="n">
         <v>41</v>
       </c>
-      <c r="J74" s="147" t="n">
-        <v>43</v>
-      </c>
-      <c r="K74" s="115" t="n">
-        <v>39</v>
-      </c>
-      <c r="L74" s="115" t="n">
-        <v>39</v>
-      </c>
-      <c r="M74" s="147" t="n">
-        <v>43</v>
+      <c r="K74" s="142" t="n">
+        <v>44</v>
+      </c>
+      <c r="L74" s="133" t="n">
+        <v>41</v>
+      </c>
+      <c r="M74" s="133" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>Dataset 5 breast_cancer</t>
+          <t>Dataset 6 concrete_slump</t>
         </is>
       </c>
       <c r="B75" s="3" t="n"/>
@@ -4652,40 +4601,40 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B76" s="115" t="n">
-        <v>15</v>
-      </c>
-      <c r="C76" s="148" t="n">
-        <v>27</v>
-      </c>
-      <c r="D76" s="148" t="n">
-        <v>27</v>
-      </c>
-      <c r="E76" s="148" t="n">
+      <c r="B76" s="102" t="n">
+        <v>33</v>
+      </c>
+      <c r="C76" s="123" t="n">
+        <v>30</v>
+      </c>
+      <c r="D76" s="123" t="n">
+        <v>30</v>
+      </c>
+      <c r="E76" s="123" t="n">
+        <v>30</v>
+      </c>
+      <c r="F76" s="143" t="n">
+        <v>28</v>
+      </c>
+      <c r="G76" s="144" t="n">
         <v>25</v>
       </c>
-      <c r="F76" s="148" t="n">
-        <v>25</v>
-      </c>
-      <c r="G76" s="148" t="n">
-        <v>25</v>
-      </c>
-      <c r="H76" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="I76" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="J76" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="K76" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="L76" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="M76" s="120" t="n">
+      <c r="H76" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="I76" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="J76" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="K76" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="L76" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="M76" s="107" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4695,41 +4644,41 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B77" s="115" t="n">
-        <v>24</v>
-      </c>
-      <c r="C77" s="149" t="n">
-        <v>33</v>
-      </c>
-      <c r="D77" s="149" t="n">
-        <v>33</v>
-      </c>
-      <c r="E77" s="150" t="n">
-        <v>31</v>
-      </c>
-      <c r="F77" s="150" t="n">
-        <v>31</v>
-      </c>
-      <c r="G77" s="150" t="n">
-        <v>31</v>
-      </c>
-      <c r="H77" s="151" t="n">
+      <c r="B77" s="102" t="n">
+        <v>39</v>
+      </c>
+      <c r="C77" s="145" t="n">
+        <v>37</v>
+      </c>
+      <c r="D77" s="146" t="n">
+        <v>38</v>
+      </c>
+      <c r="E77" s="145" t="n">
+        <v>37</v>
+      </c>
+      <c r="F77" s="145" t="n">
+        <v>37</v>
+      </c>
+      <c r="G77" s="117" t="n">
+        <v>36</v>
+      </c>
+      <c r="H77" s="107" t="n">
         <v>13</v>
       </c>
-      <c r="I77" s="120" t="n">
+      <c r="I77" s="107" t="n">
         <v>11</v>
       </c>
-      <c r="J77" s="152" t="n">
-        <v>15</v>
-      </c>
-      <c r="K77" s="151" t="n">
-        <v>13</v>
-      </c>
-      <c r="L77" s="120" t="n">
+      <c r="J77" s="147" t="n">
+        <v>25</v>
+      </c>
+      <c r="K77" s="107" t="n">
+        <v>12</v>
+      </c>
+      <c r="L77" s="107" t="n">
         <v>11</v>
       </c>
-      <c r="M77" s="153" t="n">
-        <v>17</v>
+      <c r="M77" s="148" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="78">
@@ -4738,47 +4687,47 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B78" s="115" t="n">
-        <v>39</v>
-      </c>
-      <c r="C78" s="154" t="n">
-        <v>45</v>
-      </c>
-      <c r="D78" s="154" t="n">
-        <v>45</v>
-      </c>
-      <c r="E78" s="147" t="n">
-        <v>43</v>
-      </c>
-      <c r="F78" s="147" t="n">
-        <v>43</v>
-      </c>
-      <c r="G78" s="146" t="n">
-        <v>41</v>
-      </c>
-      <c r="H78" s="154" t="n">
-        <v>45</v>
-      </c>
-      <c r="I78" s="146" t="n">
-        <v>41</v>
-      </c>
-      <c r="J78" s="146" t="n">
-        <v>41</v>
-      </c>
-      <c r="K78" s="155" t="n">
-        <v>44</v>
-      </c>
-      <c r="L78" s="146" t="n">
-        <v>41</v>
-      </c>
-      <c r="M78" s="146" t="n">
-        <v>41</v>
+      <c r="B78" s="102" t="n">
+        <v>53</v>
+      </c>
+      <c r="C78" s="128" t="n">
+        <v>52</v>
+      </c>
+      <c r="D78" s="149" t="n">
+        <v>55</v>
+      </c>
+      <c r="E78" s="149" t="n">
+        <v>55</v>
+      </c>
+      <c r="F78" s="149" t="n">
+        <v>55</v>
+      </c>
+      <c r="G78" s="150" t="n">
+        <v>54</v>
+      </c>
+      <c r="H78" s="102" t="n">
+        <v>53</v>
+      </c>
+      <c r="I78" s="149" t="n">
+        <v>55</v>
+      </c>
+      <c r="J78" s="123" t="n">
+        <v>48</v>
+      </c>
+      <c r="K78" s="129" t="n">
+        <v>51</v>
+      </c>
+      <c r="L78" s="129" t="n">
+        <v>51</v>
+      </c>
+      <c r="M78" s="130" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>Dataset 6 concrete_slump</t>
+          <t>Dataset 7 concrete_strength</t>
         </is>
       </c>
       <c r="B79" s="3" t="n"/>
@@ -4800,41 +4749,41 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B80" s="115" t="n">
-        <v>33</v>
-      </c>
-      <c r="C80" s="136" t="n">
+      <c r="B80" s="102" t="n">
+        <v>34</v>
+      </c>
+      <c r="C80" s="151" t="n">
         <v>30</v>
       </c>
-      <c r="D80" s="136" t="n">
-        <v>30</v>
-      </c>
-      <c r="E80" s="136" t="n">
-        <v>30</v>
-      </c>
-      <c r="F80" s="156" t="n">
+      <c r="D80" s="152" t="n">
         <v>28</v>
       </c>
-      <c r="G80" s="157" t="n">
-        <v>25</v>
-      </c>
-      <c r="H80" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="I80" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="J80" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="K80" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="L80" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="M80" s="120" t="n">
-        <v>3</v>
+      <c r="E80" s="153" t="n">
+        <v>27</v>
+      </c>
+      <c r="F80" s="152" t="n">
+        <v>28</v>
+      </c>
+      <c r="G80" s="152" t="n">
+        <v>28</v>
+      </c>
+      <c r="H80" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="I80" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="J80" s="107" t="n">
+        <v>5</v>
+      </c>
+      <c r="K80" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="L80" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="M80" s="107" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="81">
@@ -4843,40 +4792,40 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B81" s="115" t="n">
-        <v>39</v>
-      </c>
-      <c r="C81" s="158" t="n">
+      <c r="B81" s="102" t="n">
+        <v>43</v>
+      </c>
+      <c r="C81" s="130" t="n">
+        <v>38</v>
+      </c>
+      <c r="D81" s="154" t="n">
+        <v>36</v>
+      </c>
+      <c r="E81" s="155" t="n">
+        <v>35</v>
+      </c>
+      <c r="F81" s="155" t="n">
+        <v>35</v>
+      </c>
+      <c r="G81" s="156" t="n">
         <v>37</v>
       </c>
-      <c r="D81" s="159" t="n">
-        <v>38</v>
-      </c>
-      <c r="E81" s="158" t="n">
-        <v>37</v>
-      </c>
-      <c r="F81" s="158" t="n">
-        <v>37</v>
-      </c>
-      <c r="G81" s="130" t="n">
-        <v>36</v>
-      </c>
-      <c r="H81" s="120" t="n">
+      <c r="H81" s="107" t="n">
         <v>13</v>
       </c>
-      <c r="I81" s="120" t="n">
+      <c r="I81" s="107" t="n">
+        <v>13</v>
+      </c>
+      <c r="J81" s="157" t="n">
+        <v>24</v>
+      </c>
+      <c r="K81" s="107" t="n">
         <v>11</v>
       </c>
-      <c r="J81" s="160" t="n">
-        <v>25</v>
-      </c>
-      <c r="K81" s="120" t="n">
-        <v>12</v>
-      </c>
-      <c r="L81" s="120" t="n">
+      <c r="L81" s="107" t="n">
         <v>11</v>
       </c>
-      <c r="M81" s="161" t="n">
+      <c r="M81" s="112" t="n">
         <v>23</v>
       </c>
     </row>
@@ -4886,47 +4835,47 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B82" s="115" t="n">
+      <c r="B82" s="102" t="n">
+        <v>55</v>
+      </c>
+      <c r="C82" s="125" t="n">
+        <v>51</v>
+      </c>
+      <c r="D82" s="123" t="n">
+        <v>50</v>
+      </c>
+      <c r="E82" s="158" t="n">
+        <v>49</v>
+      </c>
+      <c r="F82" s="158" t="n">
+        <v>49</v>
+      </c>
+      <c r="G82" s="129" t="n">
         <v>53</v>
       </c>
-      <c r="C82" s="141" t="n">
-        <v>52</v>
-      </c>
-      <c r="D82" s="162" t="n">
-        <v>55</v>
-      </c>
-      <c r="E82" s="162" t="n">
-        <v>55</v>
-      </c>
-      <c r="F82" s="162" t="n">
-        <v>55</v>
-      </c>
-      <c r="G82" s="163" t="n">
-        <v>54</v>
-      </c>
-      <c r="H82" s="115" t="n">
+      <c r="H82" s="123" t="n">
+        <v>50</v>
+      </c>
+      <c r="I82" s="125" t="n">
+        <v>51</v>
+      </c>
+      <c r="J82" s="129" t="n">
         <v>53</v>
       </c>
-      <c r="I82" s="162" t="n">
-        <v>55</v>
-      </c>
-      <c r="J82" s="136" t="n">
-        <v>48</v>
-      </c>
-      <c r="K82" s="142" t="n">
-        <v>51</v>
-      </c>
-      <c r="L82" s="142" t="n">
-        <v>51</v>
-      </c>
-      <c r="M82" s="143" t="n">
+      <c r="K82" s="120" t="n">
         <v>47</v>
+      </c>
+      <c r="L82" s="123" t="n">
+        <v>50</v>
+      </c>
+      <c r="M82" s="123" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="4" t="inlineStr">
         <is>
-          <t>Dataset 7 concrete_strength</t>
+          <t>Dataset 8 diabetes</t>
         </is>
       </c>
       <c r="B83" s="3" t="n"/>
@@ -4948,41 +4897,41 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B84" s="115" t="n">
+      <c r="B84" s="102" t="n">
         <v>34</v>
       </c>
-      <c r="C84" s="164" t="n">
-        <v>30</v>
-      </c>
-      <c r="D84" s="165" t="n">
-        <v>28</v>
-      </c>
-      <c r="E84" s="166" t="n">
-        <v>27</v>
-      </c>
-      <c r="F84" s="165" t="n">
-        <v>28</v>
-      </c>
-      <c r="G84" s="165" t="n">
-        <v>28</v>
-      </c>
-      <c r="H84" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="I84" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="J84" s="120" t="n">
+      <c r="C84" s="159" t="n">
+        <v>32</v>
+      </c>
+      <c r="D84" s="103" t="n">
+        <v>33</v>
+      </c>
+      <c r="E84" s="160" t="n">
+        <v>25</v>
+      </c>
+      <c r="F84" s="127" t="n">
+        <v>19</v>
+      </c>
+      <c r="G84" s="127" t="n">
+        <v>19</v>
+      </c>
+      <c r="H84" s="107" t="n">
         <v>5</v>
       </c>
-      <c r="K84" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="L84" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="M84" s="120" t="n">
+      <c r="I84" s="107" t="n">
         <v>5</v>
+      </c>
+      <c r="J84" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="K84" s="107" t="n">
+        <v>4</v>
+      </c>
+      <c r="L84" s="107" t="n">
+        <v>4</v>
+      </c>
+      <c r="M84" s="107" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="85">
@@ -4991,41 +4940,41 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B85" s="115" t="n">
-        <v>43</v>
-      </c>
-      <c r="C85" s="143" t="n">
-        <v>38</v>
-      </c>
-      <c r="D85" s="167" t="n">
-        <v>36</v>
-      </c>
-      <c r="E85" s="168" t="n">
-        <v>35</v>
-      </c>
-      <c r="F85" s="168" t="n">
-        <v>35</v>
-      </c>
-      <c r="G85" s="169" t="n">
-        <v>37</v>
-      </c>
-      <c r="H85" s="120" t="n">
-        <v>13</v>
-      </c>
-      <c r="I85" s="120" t="n">
-        <v>13</v>
-      </c>
-      <c r="J85" s="170" t="n">
-        <v>24</v>
-      </c>
-      <c r="K85" s="120" t="n">
+      <c r="B85" s="102" t="n">
+        <v>46</v>
+      </c>
+      <c r="C85" s="118" t="n">
+        <v>40</v>
+      </c>
+      <c r="D85" s="143" t="n">
+        <v>39</v>
+      </c>
+      <c r="E85" s="161" t="n">
+        <v>34</v>
+      </c>
+      <c r="F85" s="162" t="n">
+        <v>28</v>
+      </c>
+      <c r="G85" s="163" t="n">
+        <v>27</v>
+      </c>
+      <c r="H85" s="107" t="n">
+        <v>12</v>
+      </c>
+      <c r="I85" s="107" t="n">
+        <v>12</v>
+      </c>
+      <c r="J85" s="107" t="n">
+        <v>17</v>
+      </c>
+      <c r="K85" s="107" t="n">
         <v>11</v>
       </c>
-      <c r="L85" s="120" t="n">
+      <c r="L85" s="107" t="n">
         <v>11</v>
       </c>
-      <c r="M85" s="125" t="n">
-        <v>23</v>
+      <c r="M85" s="107" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="86">
@@ -5034,47 +4983,47 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B86" s="115" t="n">
+      <c r="B86" s="102" t="n">
+        <v>57</v>
+      </c>
+      <c r="C86" s="164" t="n">
         <v>55</v>
       </c>
-      <c r="C86" s="138" t="n">
+      <c r="D86" s="165" t="n">
+        <v>53</v>
+      </c>
+      <c r="E86" s="166" t="n">
+        <v>46</v>
+      </c>
+      <c r="F86" s="167" t="n">
+        <v>43</v>
+      </c>
+      <c r="G86" s="168" t="n">
+        <v>48</v>
+      </c>
+      <c r="H86" s="165" t="n">
+        <v>53</v>
+      </c>
+      <c r="I86" s="165" t="n">
+        <v>53</v>
+      </c>
+      <c r="J86" s="169" t="n">
+        <v>45</v>
+      </c>
+      <c r="K86" s="165" t="n">
+        <v>53</v>
+      </c>
+      <c r="L86" s="170" t="n">
         <v>51</v>
       </c>
-      <c r="D86" s="136" t="n">
-        <v>50</v>
-      </c>
-      <c r="E86" s="171" t="n">
-        <v>49</v>
-      </c>
-      <c r="F86" s="171" t="n">
-        <v>49</v>
-      </c>
-      <c r="G86" s="142" t="n">
-        <v>53</v>
-      </c>
-      <c r="H86" s="136" t="n">
-        <v>50</v>
-      </c>
-      <c r="I86" s="138" t="n">
-        <v>51</v>
-      </c>
-      <c r="J86" s="142" t="n">
-        <v>53</v>
-      </c>
-      <c r="K86" s="133" t="n">
-        <v>47</v>
-      </c>
-      <c r="L86" s="136" t="n">
-        <v>50</v>
-      </c>
-      <c r="M86" s="136" t="n">
-        <v>50</v>
+      <c r="M86" s="171" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="4" t="inlineStr">
         <is>
-          <t>Dataset 8 diabetes</t>
+          <t>Dataset 9 efficiency_cooling</t>
         </is>
       </c>
       <c r="B87" s="3" t="n"/>
@@ -5096,40 +5045,40 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B88" s="115" t="n">
-        <v>34</v>
+      <c r="B88" s="102" t="n">
+        <v>33</v>
       </c>
       <c r="C88" s="172" t="n">
-        <v>32</v>
-      </c>
-      <c r="D88" s="116" t="n">
-        <v>33</v>
-      </c>
-      <c r="E88" s="173" t="n">
-        <v>25</v>
-      </c>
-      <c r="F88" s="140" t="n">
-        <v>19</v>
-      </c>
-      <c r="G88" s="140" t="n">
-        <v>19</v>
-      </c>
-      <c r="H88" s="120" t="n">
-        <v>5</v>
-      </c>
-      <c r="I88" s="120" t="n">
-        <v>5</v>
-      </c>
-      <c r="J88" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="K88" s="120" t="n">
-        <v>4</v>
-      </c>
-      <c r="L88" s="120" t="n">
-        <v>4</v>
-      </c>
-      <c r="M88" s="120" t="n">
+        <v>29</v>
+      </c>
+      <c r="D88" s="173" t="n">
+        <v>27</v>
+      </c>
+      <c r="E88" s="172" t="n">
+        <v>29</v>
+      </c>
+      <c r="F88" s="172" t="n">
+        <v>29</v>
+      </c>
+      <c r="G88" s="172" t="n">
+        <v>29</v>
+      </c>
+      <c r="H88" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="I88" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="J88" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="K88" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="L88" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="M88" s="107" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5139,41 +5088,41 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B89" s="115" t="n">
-        <v>46</v>
-      </c>
-      <c r="C89" s="131" t="n">
-        <v>40</v>
-      </c>
-      <c r="D89" s="156" t="n">
+      <c r="B89" s="102" t="n">
+        <v>41</v>
+      </c>
+      <c r="C89" s="119" t="n">
+        <v>37</v>
+      </c>
+      <c r="D89" s="110" t="n">
+        <v>34</v>
+      </c>
+      <c r="E89" s="174" t="n">
         <v>39</v>
       </c>
-      <c r="E89" s="174" t="n">
-        <v>34</v>
-      </c>
-      <c r="F89" s="175" t="n">
-        <v>28</v>
-      </c>
-      <c r="G89" s="176" t="n">
-        <v>27</v>
-      </c>
-      <c r="H89" s="120" t="n">
-        <v>12</v>
-      </c>
-      <c r="I89" s="120" t="n">
-        <v>12</v>
-      </c>
-      <c r="J89" s="120" t="n">
-        <v>17</v>
-      </c>
-      <c r="K89" s="120" t="n">
+      <c r="F89" s="119" t="n">
+        <v>37</v>
+      </c>
+      <c r="G89" s="119" t="n">
+        <v>37</v>
+      </c>
+      <c r="H89" s="107" t="n">
+        <v>13</v>
+      </c>
+      <c r="I89" s="107" t="n">
         <v>11</v>
       </c>
-      <c r="L89" s="120" t="n">
+      <c r="J89" s="175" t="n">
+        <v>21</v>
+      </c>
+      <c r="K89" s="107" t="n">
+        <v>13</v>
+      </c>
+      <c r="L89" s="107" t="n">
         <v>11</v>
       </c>
-      <c r="M89" s="120" t="n">
-        <v>17</v>
+      <c r="M89" s="107" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="90">
@@ -5182,47 +5131,47 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B90" s="115" t="n">
-        <v>57</v>
-      </c>
-      <c r="C90" s="177" t="n">
+      <c r="B90" s="102" t="n">
+        <v>51</v>
+      </c>
+      <c r="C90" s="176" t="n">
+        <v>52</v>
+      </c>
+      <c r="D90" s="129" t="n">
+        <v>49</v>
+      </c>
+      <c r="E90" s="177" t="n">
+        <v>54</v>
+      </c>
+      <c r="F90" s="113" t="n">
         <v>55</v>
       </c>
-      <c r="D90" s="178" t="n">
-        <v>53</v>
-      </c>
-      <c r="E90" s="179" t="n">
+      <c r="G90" s="177" t="n">
+        <v>54</v>
+      </c>
+      <c r="H90" s="117" t="n">
+        <v>47</v>
+      </c>
+      <c r="I90" s="117" t="n">
+        <v>47</v>
+      </c>
+      <c r="J90" s="159" t="n">
+        <v>48</v>
+      </c>
+      <c r="K90" s="117" t="n">
+        <v>47</v>
+      </c>
+      <c r="L90" s="119" t="n">
         <v>46</v>
       </c>
-      <c r="F90" s="180" t="n">
-        <v>43</v>
-      </c>
-      <c r="G90" s="181" t="n">
-        <v>48</v>
-      </c>
-      <c r="H90" s="178" t="n">
-        <v>53</v>
-      </c>
-      <c r="I90" s="178" t="n">
-        <v>53</v>
-      </c>
-      <c r="J90" s="182" t="n">
-        <v>45</v>
-      </c>
-      <c r="K90" s="178" t="n">
-        <v>53</v>
-      </c>
-      <c r="L90" s="183" t="n">
-        <v>51</v>
-      </c>
-      <c r="M90" s="184" t="n">
-        <v>41</v>
+      <c r="M90" s="129" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="4" t="inlineStr">
         <is>
-          <t>Dataset 9 efficiency_cooling</t>
+          <t>Dataset 10 efficiency_heating</t>
         </is>
       </c>
       <c r="B91" s="3" t="n"/>
@@ -5244,40 +5193,40 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B92" s="115" t="n">
-        <v>33</v>
-      </c>
-      <c r="C92" s="185" t="n">
+      <c r="B92" s="102" t="n">
+        <v>31</v>
+      </c>
+      <c r="C92" s="102" t="n">
+        <v>31</v>
+      </c>
+      <c r="D92" s="116" t="n">
         <v>29</v>
       </c>
-      <c r="D92" s="186" t="n">
-        <v>27</v>
-      </c>
-      <c r="E92" s="185" t="n">
+      <c r="E92" s="102" t="n">
+        <v>31</v>
+      </c>
+      <c r="F92" s="116" t="n">
         <v>29</v>
       </c>
-      <c r="F92" s="185" t="n">
-        <v>29</v>
-      </c>
-      <c r="G92" s="185" t="n">
-        <v>29</v>
-      </c>
-      <c r="H92" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="I92" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="J92" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="K92" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="L92" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="M92" s="120" t="n">
+      <c r="G92" s="164" t="n">
+        <v>30</v>
+      </c>
+      <c r="H92" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="I92" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="J92" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="K92" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="L92" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="M92" s="107" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5287,40 +5236,40 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B93" s="115" t="n">
-        <v>41</v>
-      </c>
-      <c r="C93" s="132" t="n">
+      <c r="B93" s="102" t="n">
+        <v>39</v>
+      </c>
+      <c r="C93" s="145" t="n">
         <v>37</v>
       </c>
-      <c r="D93" s="123" t="n">
-        <v>34</v>
-      </c>
-      <c r="E93" s="187" t="n">
+      <c r="D93" s="145" t="n">
+        <v>37</v>
+      </c>
+      <c r="E93" s="102" t="n">
         <v>39</v>
       </c>
-      <c r="F93" s="132" t="n">
-        <v>37</v>
-      </c>
-      <c r="G93" s="132" t="n">
-        <v>37</v>
-      </c>
-      <c r="H93" s="120" t="n">
-        <v>13</v>
-      </c>
-      <c r="I93" s="120" t="n">
+      <c r="F93" s="178" t="n">
+        <v>33</v>
+      </c>
+      <c r="G93" s="146" t="n">
+        <v>38</v>
+      </c>
+      <c r="H93" s="107" t="n">
         <v>11</v>
       </c>
-      <c r="J93" s="188" t="n">
-        <v>21</v>
-      </c>
-      <c r="K93" s="120" t="n">
-        <v>13</v>
-      </c>
-      <c r="L93" s="120" t="n">
+      <c r="I93" s="107" t="n">
         <v>11</v>
       </c>
-      <c r="M93" s="120" t="n">
+      <c r="J93" s="179" t="n">
+        <v>22</v>
+      </c>
+      <c r="K93" s="107" t="n">
+        <v>11</v>
+      </c>
+      <c r="L93" s="107" t="n">
+        <v>11</v>
+      </c>
+      <c r="M93" s="107" t="n">
         <v>19</v>
       </c>
     </row>
@@ -5330,47 +5279,47 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B94" s="115" t="n">
-        <v>51</v>
-      </c>
-      <c r="C94" s="189" t="n">
+      <c r="B94" s="102" t="n">
+        <v>49</v>
+      </c>
+      <c r="C94" s="180" t="n">
+        <v>53</v>
+      </c>
+      <c r="D94" s="180" t="n">
+        <v>53</v>
+      </c>
+      <c r="E94" s="180" t="n">
+        <v>53</v>
+      </c>
+      <c r="F94" s="121" t="n">
         <v>52</v>
       </c>
-      <c r="D94" s="142" t="n">
+      <c r="G94" s="180" t="n">
+        <v>53</v>
+      </c>
+      <c r="H94" s="102" t="n">
         <v>49</v>
       </c>
-      <c r="E94" s="190" t="n">
-        <v>54</v>
-      </c>
-      <c r="F94" s="126" t="n">
-        <v>55</v>
-      </c>
-      <c r="G94" s="190" t="n">
-        <v>54</v>
-      </c>
-      <c r="H94" s="130" t="n">
+      <c r="I94" s="128" t="n">
+        <v>48</v>
+      </c>
+      <c r="J94" s="128" t="n">
+        <v>48</v>
+      </c>
+      <c r="K94" s="108" t="n">
         <v>47</v>
       </c>
-      <c r="I94" s="130" t="n">
+      <c r="L94" s="108" t="n">
         <v>47</v>
       </c>
-      <c r="J94" s="172" t="n">
-        <v>48</v>
-      </c>
-      <c r="K94" s="130" t="n">
-        <v>47</v>
-      </c>
-      <c r="L94" s="132" t="n">
-        <v>46</v>
-      </c>
-      <c r="M94" s="142" t="n">
+      <c r="M94" s="102" t="n">
         <v>49</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="4" t="inlineStr">
         <is>
-          <t>Dataset 10 efficiency_heating</t>
+          <t>Dataset 11 forest_fires</t>
         </is>
       </c>
       <c r="B95" s="3" t="n"/>
@@ -5392,40 +5341,40 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B96" s="115" t="n">
-        <v>31</v>
-      </c>
-      <c r="C96" s="115" t="n">
-        <v>31</v>
-      </c>
-      <c r="D96" s="129" t="n">
-        <v>29</v>
-      </c>
-      <c r="E96" s="115" t="n">
-        <v>31</v>
-      </c>
-      <c r="F96" s="129" t="n">
-        <v>29</v>
-      </c>
-      <c r="G96" s="177" t="n">
+      <c r="B96" s="102" t="n">
+        <v>18</v>
+      </c>
+      <c r="C96" s="135" t="n">
         <v>30</v>
       </c>
-      <c r="H96" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="I96" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="J96" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="K96" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="L96" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="M96" s="120" t="n">
+      <c r="D96" s="135" t="n">
+        <v>27</v>
+      </c>
+      <c r="E96" s="135" t="n">
+        <v>27</v>
+      </c>
+      <c r="F96" s="135" t="n">
+        <v>27</v>
+      </c>
+      <c r="G96" s="135" t="n">
+        <v>28</v>
+      </c>
+      <c r="H96" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="I96" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="J96" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="K96" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="L96" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="M96" s="107" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5435,41 +5384,41 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B97" s="115" t="n">
-        <v>39</v>
-      </c>
-      <c r="C97" s="158" t="n">
-        <v>37</v>
-      </c>
-      <c r="D97" s="158" t="n">
-        <v>37</v>
-      </c>
-      <c r="E97" s="115" t="n">
-        <v>39</v>
-      </c>
-      <c r="F97" s="191" t="n">
+      <c r="B97" s="102" t="n">
+        <v>29</v>
+      </c>
+      <c r="C97" s="181" t="n">
+        <v>35</v>
+      </c>
+      <c r="D97" s="182" t="n">
+        <v>34</v>
+      </c>
+      <c r="E97" s="183" t="n">
         <v>33</v>
       </c>
-      <c r="G97" s="159" t="n">
-        <v>38</v>
-      </c>
-      <c r="H97" s="120" t="n">
-        <v>11</v>
-      </c>
-      <c r="I97" s="120" t="n">
-        <v>11</v>
-      </c>
-      <c r="J97" s="192" t="n">
-        <v>22</v>
-      </c>
-      <c r="K97" s="120" t="n">
-        <v>11</v>
-      </c>
-      <c r="L97" s="120" t="n">
-        <v>11</v>
-      </c>
-      <c r="M97" s="120" t="n">
+      <c r="F97" s="182" t="n">
+        <v>34</v>
+      </c>
+      <c r="G97" s="183" t="n">
+        <v>33</v>
+      </c>
+      <c r="H97" s="184" t="n">
+        <v>20</v>
+      </c>
+      <c r="I97" s="131" t="n">
         <v>19</v>
+      </c>
+      <c r="J97" s="131" t="n">
+        <v>19</v>
+      </c>
+      <c r="K97" s="131" t="n">
+        <v>19</v>
+      </c>
+      <c r="L97" s="163" t="n">
+        <v>17</v>
+      </c>
+      <c r="M97" s="184" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="98">
@@ -5478,47 +5427,47 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B98" s="115" t="n">
-        <v>49</v>
-      </c>
-      <c r="C98" s="193" t="n">
-        <v>53</v>
-      </c>
-      <c r="D98" s="193" t="n">
-        <v>53</v>
-      </c>
-      <c r="E98" s="193" t="n">
-        <v>53</v>
-      </c>
-      <c r="F98" s="134" t="n">
-        <v>52</v>
-      </c>
-      <c r="G98" s="193" t="n">
-        <v>53</v>
-      </c>
-      <c r="H98" s="115" t="n">
-        <v>49</v>
-      </c>
-      <c r="I98" s="141" t="n">
-        <v>48</v>
-      </c>
-      <c r="J98" s="141" t="n">
-        <v>48</v>
-      </c>
-      <c r="K98" s="121" t="n">
-        <v>47</v>
-      </c>
-      <c r="L98" s="121" t="n">
-        <v>47</v>
-      </c>
-      <c r="M98" s="115" t="n">
-        <v>49</v>
+      <c r="B98" s="102" t="n">
+        <v>42</v>
+      </c>
+      <c r="C98" s="185" t="n">
+        <v>45</v>
+      </c>
+      <c r="D98" s="124" t="n">
+        <v>43</v>
+      </c>
+      <c r="E98" s="124" t="n">
+        <v>43</v>
+      </c>
+      <c r="F98" s="124" t="n">
+        <v>43</v>
+      </c>
+      <c r="G98" s="124" t="n">
+        <v>43</v>
+      </c>
+      <c r="H98" s="146" t="n">
+        <v>41</v>
+      </c>
+      <c r="I98" s="124" t="n">
+        <v>43</v>
+      </c>
+      <c r="J98" s="146" t="n">
+        <v>41</v>
+      </c>
+      <c r="K98" s="146" t="n">
+        <v>41</v>
+      </c>
+      <c r="L98" s="124" t="n">
+        <v>43</v>
+      </c>
+      <c r="M98" s="124" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="4" t="inlineStr">
         <is>
-          <t>Dataset 11 forest_fires</t>
+          <t>Dataset 13 parkinson_updrs</t>
         </is>
       </c>
       <c r="B99" s="3" t="n"/>
@@ -5540,41 +5489,41 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B100" s="115" t="n">
-        <v>18</v>
-      </c>
-      <c r="C100" s="148" t="n">
-        <v>30</v>
-      </c>
-      <c r="D100" s="148" t="n">
+      <c r="B100" s="102" t="n">
+        <v>33</v>
+      </c>
+      <c r="C100" s="173" t="n">
         <v>27</v>
       </c>
-      <c r="E100" s="148" t="n">
+      <c r="D100" s="172" t="n">
+        <v>29</v>
+      </c>
+      <c r="E100" s="122" t="n">
+        <v>31</v>
+      </c>
+      <c r="F100" s="143" t="n">
+        <v>28</v>
+      </c>
+      <c r="G100" s="173" t="n">
         <v>27</v>
       </c>
-      <c r="F100" s="148" t="n">
-        <v>27</v>
-      </c>
-      <c r="G100" s="148" t="n">
-        <v>28</v>
-      </c>
-      <c r="H100" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="I100" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="J100" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="K100" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="L100" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="M100" s="120" t="n">
-        <v>3</v>
+      <c r="H100" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="I100" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="J100" s="107" t="n">
+        <v>5</v>
+      </c>
+      <c r="K100" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="L100" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="M100" s="107" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="101">
@@ -5583,41 +5532,41 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B101" s="115" t="n">
-        <v>29</v>
-      </c>
-      <c r="C101" s="194" t="n">
+      <c r="B101" s="102" t="n">
+        <v>40</v>
+      </c>
+      <c r="C101" s="186" t="n">
         <v>35</v>
       </c>
-      <c r="D101" s="195" t="n">
+      <c r="D101" s="186" t="n">
+        <v>35</v>
+      </c>
+      <c r="E101" s="146" t="n">
+        <v>39</v>
+      </c>
+      <c r="F101" s="186" t="n">
+        <v>35</v>
+      </c>
+      <c r="G101" s="143" t="n">
         <v>34</v>
       </c>
-      <c r="E101" s="196" t="n">
-        <v>33</v>
-      </c>
-      <c r="F101" s="195" t="n">
-        <v>34</v>
-      </c>
-      <c r="G101" s="196" t="n">
-        <v>33</v>
-      </c>
-      <c r="H101" s="197" t="n">
-        <v>20</v>
-      </c>
-      <c r="I101" s="144" t="n">
-        <v>19</v>
-      </c>
-      <c r="J101" s="144" t="n">
-        <v>19</v>
-      </c>
-      <c r="K101" s="144" t="n">
-        <v>19</v>
-      </c>
-      <c r="L101" s="176" t="n">
-        <v>17</v>
-      </c>
-      <c r="M101" s="197" t="n">
-        <v>20</v>
+      <c r="H101" s="107" t="n">
+        <v>9</v>
+      </c>
+      <c r="I101" s="107" t="n">
+        <v>11</v>
+      </c>
+      <c r="J101" s="187" t="n">
+        <v>21</v>
+      </c>
+      <c r="K101" s="107" t="n">
+        <v>9</v>
+      </c>
+      <c r="L101" s="107" t="n">
+        <v>11</v>
+      </c>
+      <c r="M101" s="188" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="102">
@@ -5626,47 +5575,47 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B102" s="115" t="n">
-        <v>42</v>
-      </c>
-      <c r="C102" s="198" t="n">
+      <c r="B102" s="102" t="n">
+        <v>51</v>
+      </c>
+      <c r="C102" s="151" t="n">
         <v>45</v>
       </c>
-      <c r="D102" s="137" t="n">
-        <v>43</v>
-      </c>
-      <c r="E102" s="137" t="n">
-        <v>43</v>
-      </c>
-      <c r="F102" s="137" t="n">
-        <v>43</v>
-      </c>
-      <c r="G102" s="137" t="n">
-        <v>43</v>
-      </c>
-      <c r="H102" s="159" t="n">
-        <v>41</v>
-      </c>
-      <c r="I102" s="137" t="n">
-        <v>43</v>
-      </c>
-      <c r="J102" s="159" t="n">
-        <v>41</v>
-      </c>
-      <c r="K102" s="159" t="n">
-        <v>41</v>
-      </c>
-      <c r="L102" s="137" t="n">
-        <v>43</v>
-      </c>
-      <c r="M102" s="137" t="n">
-        <v>43</v>
+      <c r="D102" s="117" t="n">
+        <v>47</v>
+      </c>
+      <c r="E102" s="102" t="n">
+        <v>51</v>
+      </c>
+      <c r="F102" s="117" t="n">
+        <v>47</v>
+      </c>
+      <c r="G102" s="159" t="n">
+        <v>48</v>
+      </c>
+      <c r="H102" s="151" t="n">
+        <v>45</v>
+      </c>
+      <c r="I102" s="151" t="n">
+        <v>45</v>
+      </c>
+      <c r="J102" s="151" t="n">
+        <v>45</v>
+      </c>
+      <c r="K102" s="156" t="n">
+        <v>44</v>
+      </c>
+      <c r="L102" s="151" t="n">
+        <v>45</v>
+      </c>
+      <c r="M102" s="151" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="4" t="inlineStr">
         <is>
-          <t>Dataset 12 istanbul</t>
+          <t>Dataset 14 ppb</t>
         </is>
       </c>
       <c r="B103" s="3" t="n"/>
@@ -5688,40 +5637,40 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B104" s="115" t="n">
-        <v>3</v>
-      </c>
-      <c r="C104" s="148" t="n">
-        <v>29</v>
-      </c>
-      <c r="D104" s="148" t="n">
-        <v>25</v>
-      </c>
-      <c r="E104" s="148" t="n">
-        <v>19</v>
-      </c>
-      <c r="F104" s="148" t="n">
-        <v>31</v>
-      </c>
-      <c r="G104" s="148" t="n">
-        <v>26</v>
-      </c>
-      <c r="H104" s="115" t="n">
-        <v>3</v>
-      </c>
-      <c r="I104" s="115" t="n">
-        <v>3</v>
-      </c>
-      <c r="J104" s="115" t="n">
-        <v>3</v>
-      </c>
-      <c r="K104" s="115" t="n">
-        <v>3</v>
-      </c>
-      <c r="L104" s="115" t="n">
-        <v>3</v>
-      </c>
-      <c r="M104" s="115" t="n">
+      <c r="B104" s="102" t="n">
+        <v>27</v>
+      </c>
+      <c r="C104" s="102" t="n">
+        <v>27</v>
+      </c>
+      <c r="D104" s="102" t="n">
+        <v>27</v>
+      </c>
+      <c r="E104" s="102" t="n">
+        <v>27</v>
+      </c>
+      <c r="F104" s="102" t="n">
+        <v>27</v>
+      </c>
+      <c r="G104" s="102" t="n">
+        <v>27</v>
+      </c>
+      <c r="H104" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="I104" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="J104" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="K104" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="L104" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="M104" s="107" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5731,41 +5680,41 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B105" s="115" t="n">
-        <v>7</v>
-      </c>
-      <c r="C105" s="148" t="n">
-        <v>38</v>
-      </c>
-      <c r="D105" s="148" t="n">
-        <v>32</v>
-      </c>
-      <c r="E105" s="148" t="n">
-        <v>28</v>
-      </c>
-      <c r="F105" s="148" t="n">
-        <v>41</v>
-      </c>
-      <c r="G105" s="148" t="n">
+      <c r="B105" s="102" t="n">
+        <v>31</v>
+      </c>
+      <c r="C105" s="189" t="n">
+        <v>33</v>
+      </c>
+      <c r="D105" s="115" t="n">
         <v>34</v>
       </c>
-      <c r="H105" s="148" t="n">
+      <c r="E105" s="102" t="n">
+        <v>31</v>
+      </c>
+      <c r="F105" s="102" t="n">
+        <v>31</v>
+      </c>
+      <c r="G105" s="102" t="n">
+        <v>31</v>
+      </c>
+      <c r="H105" s="107" t="n">
         <v>13</v>
       </c>
-      <c r="I105" s="148" t="n">
+      <c r="I105" s="107" t="n">
         <v>11</v>
       </c>
-      <c r="J105" s="148" t="n">
+      <c r="J105" s="111" t="n">
         <v>19</v>
       </c>
-      <c r="K105" s="148" t="n">
+      <c r="K105" s="107" t="n">
+        <v>13</v>
+      </c>
+      <c r="L105" s="107" t="n">
         <v>11</v>
       </c>
-      <c r="L105" s="148" t="n">
-        <v>11</v>
-      </c>
-      <c r="M105" s="148" t="n">
-        <v>15</v>
+      <c r="M105" s="190" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="106">
@@ -5774,47 +5723,47 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B106" s="115" t="n">
-        <v>13</v>
-      </c>
-      <c r="C106" s="148" t="n">
-        <v>57</v>
-      </c>
-      <c r="D106" s="148" t="n">
-        <v>52</v>
-      </c>
-      <c r="E106" s="148" t="n">
-        <v>49</v>
-      </c>
-      <c r="F106" s="148" t="n">
-        <v>59</v>
-      </c>
-      <c r="G106" s="148" t="n">
-        <v>49</v>
-      </c>
-      <c r="H106" s="148" t="n">
-        <v>53</v>
-      </c>
-      <c r="I106" s="148" t="n">
-        <v>45</v>
-      </c>
-      <c r="J106" s="148" t="n">
-        <v>46</v>
-      </c>
-      <c r="K106" s="148" t="n">
-        <v>50</v>
-      </c>
-      <c r="L106" s="148" t="n">
-        <v>45</v>
-      </c>
-      <c r="M106" s="148" t="n">
-        <v>37</v>
+      <c r="B106" s="102" t="n">
+        <v>39</v>
+      </c>
+      <c r="C106" s="102" t="n">
+        <v>39</v>
+      </c>
+      <c r="D106" s="102" t="n">
+        <v>39</v>
+      </c>
+      <c r="E106" s="102" t="n">
+        <v>39</v>
+      </c>
+      <c r="F106" s="102" t="n">
+        <v>39</v>
+      </c>
+      <c r="G106" s="102" t="n">
+        <v>39</v>
+      </c>
+      <c r="H106" s="102" t="n">
+        <v>39</v>
+      </c>
+      <c r="I106" s="102" t="n">
+        <v>39</v>
+      </c>
+      <c r="J106" s="102" t="n">
+        <v>39</v>
+      </c>
+      <c r="K106" s="102" t="n">
+        <v>39</v>
+      </c>
+      <c r="L106" s="102" t="n">
+        <v>39</v>
+      </c>
+      <c r="M106" s="102" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="4" t="inlineStr">
         <is>
-          <t>Dataset 13 parkinson_updrs</t>
+          <t>Dataset 15 resid_build_sale_price</t>
         </is>
       </c>
       <c r="B107" s="3" t="n"/>
@@ -5836,41 +5785,41 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B108" s="115" t="n">
-        <v>33</v>
-      </c>
-      <c r="C108" s="186" t="n">
+      <c r="B108" s="102" t="n">
         <v>27</v>
       </c>
-      <c r="D108" s="185" t="n">
-        <v>29</v>
-      </c>
-      <c r="E108" s="135" t="n">
-        <v>31</v>
-      </c>
-      <c r="F108" s="156" t="n">
-        <v>28</v>
-      </c>
-      <c r="G108" s="186" t="n">
+      <c r="C108" s="102" t="n">
         <v>27</v>
       </c>
-      <c r="H108" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="I108" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="J108" s="120" t="n">
-        <v>5</v>
-      </c>
-      <c r="K108" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="L108" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="M108" s="120" t="n">
-        <v>5</v>
+      <c r="D108" s="102" t="n">
+        <v>27</v>
+      </c>
+      <c r="E108" s="102" t="n">
+        <v>27</v>
+      </c>
+      <c r="F108" s="102" t="n">
+        <v>27</v>
+      </c>
+      <c r="G108" s="129" t="n">
+        <v>26</v>
+      </c>
+      <c r="H108" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="I108" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="J108" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="K108" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="L108" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="M108" s="107" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="109">
@@ -5879,41 +5828,41 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B109" s="115" t="n">
-        <v>40</v>
-      </c>
-      <c r="C109" s="199" t="n">
+      <c r="B109" s="102" t="n">
         <v>35</v>
       </c>
-      <c r="D109" s="199" t="n">
-        <v>35</v>
-      </c>
-      <c r="E109" s="159" t="n">
-        <v>39</v>
-      </c>
-      <c r="F109" s="199" t="n">
-        <v>35</v>
-      </c>
-      <c r="G109" s="156" t="n">
-        <v>34</v>
-      </c>
-      <c r="H109" s="120" t="n">
-        <v>9</v>
-      </c>
-      <c r="I109" s="120" t="n">
-        <v>11</v>
-      </c>
-      <c r="J109" s="200" t="n">
-        <v>21</v>
-      </c>
-      <c r="K109" s="120" t="n">
-        <v>9</v>
-      </c>
-      <c r="L109" s="120" t="n">
-        <v>11</v>
-      </c>
-      <c r="M109" s="201" t="n">
-        <v>23</v>
+      <c r="C109" s="130" t="n">
+        <v>31</v>
+      </c>
+      <c r="D109" s="130" t="n">
+        <v>31</v>
+      </c>
+      <c r="E109" s="130" t="n">
+        <v>31</v>
+      </c>
+      <c r="F109" s="130" t="n">
+        <v>31</v>
+      </c>
+      <c r="G109" s="130" t="n">
+        <v>31</v>
+      </c>
+      <c r="H109" s="107" t="n">
+        <v>15</v>
+      </c>
+      <c r="I109" s="191" t="n">
+        <v>18</v>
+      </c>
+      <c r="J109" s="107" t="n">
+        <v>15</v>
+      </c>
+      <c r="K109" s="107" t="n">
+        <v>15</v>
+      </c>
+      <c r="L109" s="191" t="n">
+        <v>18</v>
+      </c>
+      <c r="M109" s="138" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="110">
@@ -5922,336 +5871,40 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B110" s="115" t="n">
-        <v>51</v>
-      </c>
-      <c r="C110" s="164" t="n">
-        <v>45</v>
-      </c>
-      <c r="D110" s="130" t="n">
-        <v>47</v>
-      </c>
-      <c r="E110" s="115" t="n">
-        <v>51</v>
-      </c>
-      <c r="F110" s="130" t="n">
-        <v>47</v>
-      </c>
-      <c r="G110" s="172" t="n">
-        <v>48</v>
-      </c>
-      <c r="H110" s="164" t="n">
-        <v>45</v>
-      </c>
-      <c r="I110" s="164" t="n">
-        <v>45</v>
-      </c>
-      <c r="J110" s="164" t="n">
-        <v>45</v>
-      </c>
-      <c r="K110" s="169" t="n">
-        <v>44</v>
-      </c>
-      <c r="L110" s="164" t="n">
-        <v>45</v>
-      </c>
-      <c r="M110" s="164" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="4" t="inlineStr">
-        <is>
-          <t>Dataset 14 ppb</t>
-        </is>
-      </c>
-      <c r="B111" s="3" t="n"/>
-      <c r="C111" s="3" t="n"/>
-      <c r="D111" s="3" t="n"/>
-      <c r="E111" s="3" t="n"/>
-      <c r="F111" s="3" t="n"/>
-      <c r="G111" s="3" t="n"/>
-      <c r="H111" s="3" t="n"/>
-      <c r="I111" s="3" t="n"/>
-      <c r="J111" s="3" t="n"/>
-      <c r="K111" s="3" t="n"/>
-      <c r="L111" s="3" t="n"/>
-      <c r="M111" s="3" t="n"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="5" t="inlineStr">
-        <is>
-          <t>Smallest</t>
-        </is>
-      </c>
-      <c r="B112" s="115" t="n">
-        <v>27</v>
-      </c>
-      <c r="C112" s="115" t="n">
-        <v>27</v>
-      </c>
-      <c r="D112" s="115" t="n">
-        <v>27</v>
-      </c>
-      <c r="E112" s="115" t="n">
-        <v>27</v>
-      </c>
-      <c r="F112" s="115" t="n">
-        <v>27</v>
-      </c>
-      <c r="G112" s="115" t="n">
-        <v>27</v>
-      </c>
-      <c r="H112" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="I112" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="J112" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="K112" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="L112" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="M112" s="120" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="5" t="inlineStr">
-        <is>
-          <t>Best normalized</t>
-        </is>
-      </c>
-      <c r="B113" s="115" t="n">
-        <v>31</v>
-      </c>
-      <c r="C113" s="202" t="n">
-        <v>33</v>
-      </c>
-      <c r="D113" s="128" t="n">
-        <v>34</v>
-      </c>
-      <c r="E113" s="115" t="n">
-        <v>31</v>
-      </c>
-      <c r="F113" s="115" t="n">
-        <v>31</v>
-      </c>
-      <c r="G113" s="115" t="n">
-        <v>31</v>
-      </c>
-      <c r="H113" s="120" t="n">
-        <v>13</v>
-      </c>
-      <c r="I113" s="120" t="n">
-        <v>11</v>
-      </c>
-      <c r="J113" s="124" t="n">
-        <v>19</v>
-      </c>
-      <c r="K113" s="120" t="n">
-        <v>13</v>
-      </c>
-      <c r="L113" s="120" t="n">
-        <v>11</v>
-      </c>
-      <c r="M113" s="203" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="5" t="inlineStr">
-        <is>
-          <t>Best fitness</t>
-        </is>
-      </c>
-      <c r="B114" s="115" t="n">
+      <c r="B110" s="102" t="n">
+        <v>41</v>
+      </c>
+      <c r="C110" s="102" t="n">
+        <v>41</v>
+      </c>
+      <c r="D110" s="102" t="n">
+        <v>41</v>
+      </c>
+      <c r="E110" s="102" t="n">
+        <v>41</v>
+      </c>
+      <c r="F110" s="146" t="n">
+        <v>40</v>
+      </c>
+      <c r="G110" s="174" t="n">
         <v>39</v>
       </c>
-      <c r="C114" s="115" t="n">
+      <c r="H110" s="174" t="n">
         <v>39</v>
       </c>
-      <c r="D114" s="115" t="n">
+      <c r="I110" s="174" t="n">
         <v>39</v>
       </c>
-      <c r="E114" s="115" t="n">
+      <c r="J110" s="102" t="n">
+        <v>41</v>
+      </c>
+      <c r="K110" s="174" t="n">
         <v>39</v>
       </c>
-      <c r="F114" s="115" t="n">
+      <c r="L110" s="174" t="n">
         <v>39</v>
       </c>
-      <c r="G114" s="115" t="n">
-        <v>39</v>
-      </c>
-      <c r="H114" s="115" t="n">
-        <v>39</v>
-      </c>
-      <c r="I114" s="115" t="n">
-        <v>39</v>
-      </c>
-      <c r="J114" s="115" t="n">
-        <v>39</v>
-      </c>
-      <c r="K114" s="115" t="n">
-        <v>39</v>
-      </c>
-      <c r="L114" s="115" t="n">
-        <v>39</v>
-      </c>
-      <c r="M114" s="115" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="4" t="inlineStr">
-        <is>
-          <t>Dataset 15 resid_build_sale_price</t>
-        </is>
-      </c>
-      <c r="B115" s="3" t="n"/>
-      <c r="C115" s="3" t="n"/>
-      <c r="D115" s="3" t="n"/>
-      <c r="E115" s="3" t="n"/>
-      <c r="F115" s="3" t="n"/>
-      <c r="G115" s="3" t="n"/>
-      <c r="H115" s="3" t="n"/>
-      <c r="I115" s="3" t="n"/>
-      <c r="J115" s="3" t="n"/>
-      <c r="K115" s="3" t="n"/>
-      <c r="L115" s="3" t="n"/>
-      <c r="M115" s="3" t="n"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="5" t="inlineStr">
-        <is>
-          <t>Smallest</t>
-        </is>
-      </c>
-      <c r="B116" s="115" t="n">
-        <v>27</v>
-      </c>
-      <c r="C116" s="115" t="n">
-        <v>27</v>
-      </c>
-      <c r="D116" s="115" t="n">
-        <v>27</v>
-      </c>
-      <c r="E116" s="115" t="n">
-        <v>27</v>
-      </c>
-      <c r="F116" s="115" t="n">
-        <v>27</v>
-      </c>
-      <c r="G116" s="142" t="n">
-        <v>26</v>
-      </c>
-      <c r="H116" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="I116" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="J116" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="K116" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="L116" s="120" t="n">
-        <v>3</v>
-      </c>
-      <c r="M116" s="120" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="5" t="inlineStr">
-        <is>
-          <t>Best normalized</t>
-        </is>
-      </c>
-      <c r="B117" s="115" t="n">
-        <v>35</v>
-      </c>
-      <c r="C117" s="143" t="n">
-        <v>31</v>
-      </c>
-      <c r="D117" s="143" t="n">
-        <v>31</v>
-      </c>
-      <c r="E117" s="143" t="n">
-        <v>31</v>
-      </c>
-      <c r="F117" s="143" t="n">
-        <v>31</v>
-      </c>
-      <c r="G117" s="143" t="n">
-        <v>31</v>
-      </c>
-      <c r="H117" s="120" t="n">
-        <v>15</v>
-      </c>
-      <c r="I117" s="204" t="n">
-        <v>18</v>
-      </c>
-      <c r="J117" s="120" t="n">
-        <v>15</v>
-      </c>
-      <c r="K117" s="120" t="n">
-        <v>15</v>
-      </c>
-      <c r="L117" s="204" t="n">
-        <v>18</v>
-      </c>
-      <c r="M117" s="151" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="5" t="inlineStr">
-        <is>
-          <t>Best fitness</t>
-        </is>
-      </c>
-      <c r="B118" s="115" t="n">
-        <v>41</v>
-      </c>
-      <c r="C118" s="115" t="n">
-        <v>41</v>
-      </c>
-      <c r="D118" s="115" t="n">
-        <v>41</v>
-      </c>
-      <c r="E118" s="115" t="n">
-        <v>41</v>
-      </c>
-      <c r="F118" s="159" t="n">
-        <v>40</v>
-      </c>
-      <c r="G118" s="187" t="n">
-        <v>39</v>
-      </c>
-      <c r="H118" s="187" t="n">
-        <v>39</v>
-      </c>
-      <c r="I118" s="187" t="n">
-        <v>39</v>
-      </c>
-      <c r="J118" s="115" t="n">
-        <v>41</v>
-      </c>
-      <c r="K118" s="187" t="n">
-        <v>39</v>
-      </c>
-      <c r="L118" s="187" t="n">
-        <v>39</v>
-      </c>
-      <c r="M118" s="115" t="n">
+      <c r="M110" s="102" t="n">
         <v>41</v>
       </c>
     </row>

--- a/slim_gsgp/median_results.xlsx
+++ b/slim_gsgp/median_results.xlsx
@@ -45,7 +45,7 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="146">
+  <fills count="131">
     <fill>
       <patternFill/>
     </fill>
@@ -78,12 +78,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFA6A6"/>
-        <bgColor rgb="00FFA6A6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00FF9A9A"/>
         <bgColor rgb="00FF9A9A"/>
       </patternFill>
@@ -144,12 +138,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B1F3B1"/>
-        <bgColor rgb="00B1F3B1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00B0F2B0"/>
         <bgColor rgb="00B0F2B0"/>
       </patternFill>
@@ -162,20 +150,230 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FFE2E2"/>
+        <bgColor rgb="00FFE2E2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A7F1A7"/>
+        <bgColor rgb="00A7F1A7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ABF2AB"/>
+        <bgColor rgb="00ABF2AB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ACF2AC"/>
+        <bgColor rgb="00ACF2AC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ADF2AD"/>
+        <bgColor rgb="00ADF2AD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00A9F1A9"/>
         <bgColor rgb="00A9F1A9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFE2E2"/>
-        <bgColor rgb="00FFE2E2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A7F1A7"/>
-        <bgColor rgb="00A7F1A7"/>
+        <fgColor rgb="00AEF2AE"/>
+        <bgColor rgb="00AEF2AE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AFF2AF"/>
+        <bgColor rgb="00AFF2AF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B3F3B3"/>
+        <bgColor rgb="00B3F3B3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009AEF9A"/>
+        <bgColor rgb="009AEF9A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009EF09E"/>
+        <bgColor rgb="009EF09E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFD4D4"/>
+        <bgColor rgb="00FFD4D4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C1F5C1"/>
+        <bgColor rgb="00C1F5C1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BCF4BC"/>
+        <bgColor rgb="00BCF4BC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BEF5BE"/>
+        <bgColor rgb="00BEF5BE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DEFADE"/>
+        <bgColor rgb="00DEFADE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C4F6C4"/>
+        <bgColor rgb="00C4F6C4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D7F9D7"/>
+        <bgColor rgb="00D7F9D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D2F8D2"/>
+        <bgColor rgb="00D2F8D2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D4F8D4"/>
+        <bgColor rgb="00D4F8D4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E1FAE1"/>
+        <bgColor rgb="00E1FAE1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D3F8D3"/>
+        <bgColor rgb="00D3F8D3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D5F8D5"/>
+        <bgColor rgb="00D5F8D5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D6F8D6"/>
+        <bgColor rgb="00D6F8D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E3FAE3"/>
+        <bgColor rgb="00E3FAE3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CFF7CF"/>
+        <bgColor rgb="00CFF7CF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D7F8D7"/>
+        <bgColor rgb="00D7F8D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFA4A4"/>
+        <bgColor rgb="00FFA4A4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D1F8D1"/>
+        <bgColor rgb="00D1F8D1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D8F9D8"/>
+        <bgColor rgb="00D8F9D8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E0FAE0"/>
+        <bgColor rgb="00E0FAE0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A0F0A0"/>
+        <bgColor rgb="00A0F0A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFC9C9"/>
+        <bgColor rgb="00FFC9C9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009DF09D"/>
+        <bgColor rgb="009DF09D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF9F9"/>
+        <bgColor rgb="00FFF9F9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFA7A7"/>
+        <bgColor rgb="00FFA7A7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009CEF9C"/>
+        <bgColor rgb="009CEF9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF7E7E"/>
+        <bgColor rgb="00FF7E7E"/>
       </patternFill>
     </fill>
     <fill>
@@ -186,68 +384,146 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ABF2AB"/>
-        <bgColor rgb="00ABF2AB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ACF2AC"/>
-        <bgColor rgb="00ACF2AC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ADF2AD"/>
-        <bgColor rgb="00ADF2AD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00AEF2AE"/>
-        <bgColor rgb="00AEF2AE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00AFF2AF"/>
-        <bgColor rgb="00AFF2AF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B8F4B8"/>
-        <bgColor rgb="00B8F4B8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B3F3B3"/>
-        <bgColor rgb="00B3F3B3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009AEF9A"/>
-        <bgColor rgb="009AEF9A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009EF09E"/>
-        <bgColor rgb="009EF09E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFD8D8"/>
-        <bgColor rgb="00FFD8D8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFD4D4"/>
-        <bgColor rgb="00FFD4D4"/>
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEFEFE"/>
+        <bgColor rgb="00FEFEFE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FBFEFB"/>
+        <bgColor rgb="00FBFEFB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FAFEFA"/>
+        <bgColor rgb="00FAFEFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F9FEF9"/>
+        <bgColor rgb="00F9FEF9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFDFD"/>
+        <bgColor rgb="00FFFDFD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFCFC"/>
+        <bgColor rgb="00FFFCFC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDFEFD"/>
+        <bgColor rgb="00FDFEFD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFAFA"/>
+        <bgColor rgb="00FFFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF8F8"/>
+        <bgColor rgb="00FFF8F8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFBFB"/>
+        <bgColor rgb="00FFFBFB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DFFADF"/>
+        <bgColor rgb="00DFFADF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9F9D9"/>
+        <bgColor rgb="00D9F9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFC2C2"/>
+        <bgColor rgb="00FFC2C2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DAF9DA"/>
+        <bgColor rgb="00DAF9DA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DDF9DD"/>
+        <bgColor rgb="00DDF9DD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DBF9DB"/>
+        <bgColor rgb="00DBF9DB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E6FBE6"/>
+        <bgColor rgb="00E6FBE6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E5FBE5"/>
+        <bgColor rgb="00E5FBE5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DCF9DC"/>
+        <bgColor rgb="00DCF9DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E2FAE2"/>
+        <bgColor rgb="00E2FAE2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CDF7CD"/>
+        <bgColor rgb="00CDF7CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFE3E3"/>
+        <bgColor rgb="00FFE3E3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CCF7CC"/>
+        <bgColor rgb="00CCF7CC"/>
       </patternFill>
     </fill>
     <fill>
@@ -258,314 +534,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C1F5C1"/>
-        <bgColor rgb="00C1F5C1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BCF4BC"/>
-        <bgColor rgb="00BCF4BC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BDF4BD"/>
-        <bgColor rgb="00BDF4BD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BEF5BE"/>
-        <bgColor rgb="00BEF5BE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DFFADF"/>
-        <bgColor rgb="00DFFADF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DEFADE"/>
-        <bgColor rgb="00DEFADE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C4F6C4"/>
-        <bgColor rgb="00C4F6C4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D8F9D8"/>
-        <bgColor rgb="00D8F9D8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D7F9D7"/>
-        <bgColor rgb="00D7F9D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D2F8D2"/>
-        <bgColor rgb="00D2F8D2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D6F8D6"/>
-        <bgColor rgb="00D6F8D6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D4F8D4"/>
-        <bgColor rgb="00D4F8D4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E6FBE6"/>
-        <bgColor rgb="00E6FBE6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E1FAE1"/>
-        <bgColor rgb="00E1FAE1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D3F8D3"/>
-        <bgColor rgb="00D3F8D3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D5F8D5"/>
-        <bgColor rgb="00D5F8D5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E3FAE3"/>
-        <bgColor rgb="00E3FAE3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CFF7CF"/>
-        <bgColor rgb="00CFF7CF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D1F8D1"/>
-        <bgColor rgb="00D1F8D1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D7F8D7"/>
-        <bgColor rgb="00D7F8D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFA4A4"/>
-        <bgColor rgb="00FFA4A4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E5FBE5"/>
-        <bgColor rgb="00E5FBE5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E0FAE0"/>
-        <bgColor rgb="00E0FAE0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0091EE91"/>
-        <bgColor rgb="0091EE91"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A0F0A0"/>
-        <bgColor rgb="00A0F0A0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFC9C9"/>
-        <bgColor rgb="00FFC9C9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009DF09D"/>
-        <bgColor rgb="009DF09D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A6F1A6"/>
-        <bgColor rgb="00A6F1A6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFF8F8"/>
-        <bgColor rgb="00FFF8F8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFF9F9"/>
-        <bgColor rgb="00FFF9F9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFA7A7"/>
-        <bgColor rgb="00FFA7A7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009CEF9C"/>
-        <bgColor rgb="009CEF9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009BEF9B"/>
-        <bgColor rgb="009BEF9B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF8989"/>
-        <bgColor rgb="00FF8989"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF7E7E"/>
-        <bgColor rgb="00FF7E7E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFF6F6"/>
-        <bgColor rgb="00FFF6F6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
-        <bgColor rgb="00FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FEFEFE"/>
-        <bgColor rgb="00FEFEFE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FBFEFB"/>
-        <bgColor rgb="00FBFEFB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FAFEFA"/>
-        <bgColor rgb="00FAFEFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFCFC"/>
-        <bgColor rgb="00FFFCFC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFDFD"/>
-        <bgColor rgb="00FFFDFD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FDFEFD"/>
-        <bgColor rgb="00FDFEFD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFAFA"/>
-        <bgColor rgb="00FFFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFBFB"/>
-        <bgColor rgb="00FFFBFB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D9F9D9"/>
-        <bgColor rgb="00D9F9D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFC5C5"/>
-        <bgColor rgb="00FFC5C5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFC2C2"/>
-        <bgColor rgb="00FFC2C2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DAF9DA"/>
-        <bgColor rgb="00DAF9DA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DDF9DD"/>
-        <bgColor rgb="00DDF9DD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DBF9DB"/>
-        <bgColor rgb="00DBF9DB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E2FAE2"/>
-        <bgColor rgb="00E2FAE2"/>
+        <fgColor rgb="00CAF6CA"/>
+        <bgColor rgb="00CAF6CA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CAF7CA"/>
+        <bgColor rgb="00CAF7CA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B0F3B0"/>
+        <bgColor rgb="00B0F3B0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CBF7CB"/>
+        <bgColor rgb="00CBF7CB"/>
       </patternFill>
     </fill>
     <fill>
@@ -576,44 +564,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CDF7CD"/>
-        <bgColor rgb="00CDF7CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFE7E7"/>
-        <bgColor rgb="00FFE7E7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFE3E3"/>
-        <bgColor rgb="00FFE3E3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CCF7CC"/>
-        <bgColor rgb="00CCF7CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DCF9DC"/>
-        <bgColor rgb="00DCF9DC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CAF6CA"/>
-        <bgColor rgb="00CAF6CA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CAF7CA"/>
-        <bgColor rgb="00CAF7CA"/>
+        <fgColor rgb="0097EF97"/>
+        <bgColor rgb="0097EF97"/>
       </patternFill>
     </fill>
     <fill>
@@ -624,20 +576,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B0F3B0"/>
-        <bgColor rgb="00B0F3B0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CBF7CB"/>
-        <bgColor rgb="00CBF7CB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0097EF97"/>
-        <bgColor rgb="0097EF97"/>
+        <fgColor rgb="00F2FDF2"/>
+        <bgColor rgb="00F2FDF2"/>
       </patternFill>
     </fill>
     <fill>
@@ -648,12 +588,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F2FDF2"/>
-        <bgColor rgb="00F2FDF2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00F5FDF5"/>
         <bgColor rgb="00F5FDF5"/>
       </patternFill>
@@ -666,242 +600,218 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00E9FBE9"/>
+        <bgColor rgb="00E9FBE9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFEAEA"/>
+        <bgColor rgb="00FFEAEA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F1FCF1"/>
+        <bgColor rgb="00F1FCF1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EAFBEA"/>
+        <bgColor rgb="00EAFBEA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF7F7"/>
+        <bgColor rgb="00FFF7F7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A2F0A2"/>
+        <bgColor rgb="00A2F0A2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0092EE92"/>
+        <bgColor rgb="0092EE92"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F6FDF6"/>
+        <bgColor rgb="00F6FDF6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EEFCEE"/>
+        <bgColor rgb="00EEFCEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B2F3B2"/>
+        <bgColor rgb="00B2F3B2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFEDED"/>
+        <bgColor rgb="00FFEDED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFDBDB"/>
+        <bgColor rgb="00FFDBDB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF4D4D"/>
+        <bgColor rgb="00FF4D4D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF7A7A"/>
+        <bgColor rgb="00FF7A7A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF9797"/>
+        <bgColor rgb="00FF9797"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C9F6C9"/>
+        <bgColor rgb="00C9F6C9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F3FDF3"/>
+        <bgColor rgb="00F3FDF3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EDFCED"/>
+        <bgColor rgb="00EDFCED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A3F1A3"/>
+        <bgColor rgb="00A3F1A3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF2F2"/>
+        <bgColor rgb="00FFF2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A3F0A3"/>
+        <bgColor rgb="00A3F0A3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EFFCEF"/>
+        <bgColor rgb="00EFFCEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D0F7D0"/>
+        <bgColor rgb="00D0F7D0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E7FBE7"/>
+        <bgColor rgb="00E7FBE7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C0F5C0"/>
+        <bgColor rgb="00C0F5C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0095EE95"/>
+        <bgColor rgb="0095EE95"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E4FAE4"/>
+        <bgColor rgb="00E4FAE4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F4FDF4"/>
+        <bgColor rgb="00F4FDF4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFEBEB"/>
+        <bgColor rgb="00FFEBEB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F1FDF1"/>
+        <bgColor rgb="00F1FDF1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00F0FCF0"/>
         <bgColor rgb="00F0FCF0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EDFCED"/>
-        <bgColor rgb="00EDFCED"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E9FBE9"/>
-        <bgColor rgb="00E9FBE9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFEAEA"/>
-        <bgColor rgb="00FFEAEA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F1FCF1"/>
-        <bgColor rgb="00F1FCF1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EAFBEA"/>
-        <bgColor rgb="00EAFBEA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFF7F7"/>
-        <bgColor rgb="00FFF7F7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EEFCEE"/>
-        <bgColor rgb="00EEFCEE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A2F0A2"/>
-        <bgColor rgb="00A2F0A2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F6FDF6"/>
-        <bgColor rgb="00F6FDF6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B2F3B2"/>
-        <bgColor rgb="00B2F3B2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFEDED"/>
-        <bgColor rgb="00FFEDED"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFDBDB"/>
-        <bgColor rgb="00FFDBDB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF4D4D"/>
-        <bgColor rgb="00FF4D4D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF7A7A"/>
-        <bgColor rgb="00FF7A7A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF9797"/>
-        <bgColor rgb="00FF9797"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFD2D2"/>
-        <bgColor rgb="00FFD2D2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C9F6C9"/>
-        <bgColor rgb="00C9F6C9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F3FDF3"/>
-        <bgColor rgb="00F3FDF3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F9FEF9"/>
-        <bgColor rgb="00F9FEF9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A3F1A3"/>
-        <bgColor rgb="00A3F1A3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFF2F2"/>
-        <bgColor rgb="00FFF2F2"/>
+        <fgColor rgb="00F7FDF7"/>
+        <bgColor rgb="00F7FDF7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E8FBE8"/>
+        <bgColor rgb="00E8FBE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFCECE"/>
+        <bgColor rgb="00FFCECE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BAF4BA"/>
+        <bgColor rgb="00BAF4BA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00E4FBE4"/>
         <bgColor rgb="00E4FBE4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F1FDF1"/>
-        <bgColor rgb="00F1FDF1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A3F0A3"/>
-        <bgColor rgb="00A3F0A3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F7FDF7"/>
-        <bgColor rgb="00F7FDF7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EFFCEF"/>
-        <bgColor rgb="00EFFCEF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D0F7D0"/>
-        <bgColor rgb="00D0F7D0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E7FBE7"/>
-        <bgColor rgb="00E7FBE7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C0F5C0"/>
-        <bgColor rgb="00C0F5C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E4FAE4"/>
-        <bgColor rgb="00E4FAE4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F4FDF4"/>
-        <bgColor rgb="00F4FDF4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0092EE92"/>
-        <bgColor rgb="0092EE92"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFEBEB"/>
-        <bgColor rgb="00FFEBEB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFB6B6"/>
-        <bgColor rgb="00FFB6B6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFCECE"/>
-        <bgColor rgb="00FFCECE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BAF4BA"/>
-        <bgColor rgb="00BAF4BA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFE6E6"/>
-        <bgColor rgb="00FFE6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0095EE95"/>
-        <bgColor rgb="0095EE95"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFE8E8"/>
-        <bgColor rgb="00FFE8E8"/>
       </patternFill>
     </fill>
     <fill>
@@ -935,7 +845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1205,165 +1115,207 @@
     <xf numFmtId="164" fontId="0" fillId="88" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="89" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="90" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="91" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="92" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="93" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="94" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="95" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="96" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="97" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="98" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="99" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="89" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="90" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="47" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="91" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="69" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="23" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="87" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="65" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="92" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="77" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="93" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="33" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="94" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="95" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="96" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="97" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="98" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="51" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="99" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="60" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="100" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="101" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="92" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="43" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="0" fillId="75" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="102" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="53" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="81" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="21" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="103" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="104" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="105" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="106" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="107" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="20" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="99" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="91" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="79" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="103" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="104" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="105" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="87" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="106" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="0" fillId="32" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="50" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="108" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="61" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="109" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="110" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="25" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="111" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="112" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="52" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="35" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="46" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="71" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="40" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="48" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="54" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="74" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="34" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="72" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="113" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="114" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="37" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="73" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="115" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="116" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="117" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="118" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="41" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="107" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="108" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="109" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="110" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="111" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="112" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="62" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="75" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="113" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="57" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="114" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="115" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="116" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="117" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="118" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="119" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="24" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="39" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="61" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="120" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="85" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="121" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1373,139 +1325,43 @@
     <xf numFmtId="165" fontId="0" fillId="123" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="124" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="28" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="124" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="0" fillId="18" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="125" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="65" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="0" fillId="70" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="126" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="44" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="54" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="84" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="51" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="58" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="67" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="48" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="127" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="42" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="23" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="0" fillId="49" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="128" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="76" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="129" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="130" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="47" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="35" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="86" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="131" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="132" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="133" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="134" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="46" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="135" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="136" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="64" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="137" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="93" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="32" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="21" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="138" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="83" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="139" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="140" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="141" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="52" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="142" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="60" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="143" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="144" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="145" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1873,7 +1729,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M110"/>
+  <dimension ref="A1:J110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1891,78 +1747,60 @@
     <col width="15" customWidth="1" min="8" max="8"/>
     <col width="15" customWidth="1" min="9" max="9"/>
     <col width="15" customWidth="1" min="10" max="10"/>
-    <col width="15" customWidth="1" min="11" max="11"/>
-    <col width="15" customWidth="1" min="12" max="12"/>
-    <col width="15" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr"/>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>VARIANT 20</t>
+          <t>SLIM-GSGP</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>VARIANT 1</t>
+          <t>OMS</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>VARIANT 1b</t>
+          <t>LS</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>VARIANT 2</t>
+          <t>OMS + LS</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>VARIANT 3</t>
+          <t>OMS + PT</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>VARIANT 3b</t>
+          <t>LS + PT</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>VARIANT 4</t>
+          <t>OMS + PT + AS</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>VARIANT 4b</t>
+          <t>LS + PT + AS</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>VARIANT 5</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>VARIANT 6</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>VARIANT 6b</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>VARIANT 7</t>
+          <t>OMS + LS + PT + AS</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>PERFORMANCE - TEST FITNESS</t>
+          <t>TEST RMSE</t>
         </is>
       </c>
       <c r="B2" s="3" t="n"/>
@@ -1974,9 +1812,6 @@
       <c r="H2" s="3" t="n"/>
       <c r="I2" s="3" t="n"/>
       <c r="J2" s="3" t="n"/>
-      <c r="K2" s="3" t="n"/>
-      <c r="L2" s="3" t="n"/>
-      <c r="M2" s="3" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
@@ -1993,9 +1828,6 @@
       <c r="H3" s="3" t="n"/>
       <c r="I3" s="3" t="n"/>
       <c r="J3" s="3" t="n"/>
-      <c r="K3" s="3" t="n"/>
-      <c r="L3" s="3" t="n"/>
-      <c r="M3" s="3" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="5" t="inlineStr">
@@ -2007,38 +1839,29 @@
         <v>53.26123</v>
       </c>
       <c r="C4" s="7" t="n">
-        <v>6.81853</v>
+        <v>6.53892</v>
       </c>
       <c r="D4" s="7" t="n">
-        <v>6.53892</v>
+        <v>5.57669</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>5.57669</v>
-      </c>
-      <c r="F4" s="7" t="n">
-        <v>5.30838</v>
+        <v>5.3279</v>
+      </c>
+      <c r="F4" s="8" t="n">
+        <v>68.41387</v>
       </c>
       <c r="G4" s="7" t="n">
-        <v>5.3279</v>
+        <v>5.60731</v>
       </c>
       <c r="H4" s="8" t="n">
-        <v>66.54095</v>
-      </c>
-      <c r="I4" s="9" t="n">
         <v>68.41387</v>
+      </c>
+      <c r="I4" s="7" t="n">
+        <v>5.60731</v>
       </c>
       <c r="J4" s="7" t="n">
         <v>5.60731</v>
       </c>
-      <c r="K4" s="8" t="n">
-        <v>66.54095</v>
-      </c>
-      <c r="L4" s="9" t="n">
-        <v>68.41387</v>
-      </c>
-      <c r="M4" s="7" t="n">
-        <v>5.60731</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="inlineStr">
@@ -2050,37 +1873,28 @@
         <v>52.71062</v>
       </c>
       <c r="C5" s="7" t="n">
-        <v>5.2768</v>
+        <v>5.27807</v>
       </c>
       <c r="D5" s="7" t="n">
-        <v>5.27807</v>
+        <v>5.56285</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>5.56285</v>
+        <v>5.10387</v>
       </c>
       <c r="F5" s="7" t="n">
-        <v>5.03688</v>
+        <v>12.94713</v>
       </c>
       <c r="G5" s="7" t="n">
-        <v>5.10387</v>
+        <v>5.58863</v>
       </c>
       <c r="H5" s="7" t="n">
-        <v>10.16575</v>
+        <v>11.83031</v>
       </c>
       <c r="I5" s="7" t="n">
-        <v>12.94713</v>
+        <v>5.58662</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>5.58863</v>
-      </c>
-      <c r="K5" s="7" t="n">
-        <v>10.16575</v>
-      </c>
-      <c r="L5" s="7" t="n">
-        <v>11.83031</v>
-      </c>
-      <c r="M5" s="7" t="n">
-        <v>5.58662</v>
+        <v>5.0534</v>
       </c>
     </row>
     <row r="6">
@@ -2093,37 +1907,28 @@
         <v>52.23274</v>
       </c>
       <c r="C6" s="7" t="n">
-        <v>4.84492</v>
+        <v>4.95316</v>
       </c>
       <c r="D6" s="7" t="n">
-        <v>4.95316</v>
+        <v>5.55251</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>5.55251</v>
+        <v>4.99834</v>
       </c>
       <c r="F6" s="7" t="n">
-        <v>4.88101</v>
+        <v>5.19566</v>
       </c>
       <c r="G6" s="7" t="n">
-        <v>4.99834</v>
+        <v>5.5693</v>
       </c>
       <c r="H6" s="7" t="n">
-        <v>5.26271</v>
+        <v>5.19566</v>
       </c>
       <c r="I6" s="7" t="n">
-        <v>5.19566</v>
+        <v>5.56366</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>5.5693</v>
-      </c>
-      <c r="K6" s="7" t="n">
-        <v>5.26271</v>
-      </c>
-      <c r="L6" s="7" t="n">
-        <v>5.19566</v>
-      </c>
-      <c r="M6" s="7" t="n">
-        <v>5.56366</v>
+        <v>4.88993</v>
       </c>
     </row>
     <row r="7">
@@ -2141,9 +1946,6 @@
       <c r="H7" s="3" t="n"/>
       <c r="I7" s="3" t="n"/>
       <c r="J7" s="3" t="n"/>
-      <c r="K7" s="3" t="n"/>
-      <c r="L7" s="3" t="n"/>
-      <c r="M7" s="3" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
@@ -2154,37 +1956,28 @@
       <c r="B8" s="6" t="n">
         <v>1079.93854</v>
       </c>
-      <c r="C8" s="10" t="n">
+      <c r="C8" s="9" t="n">
         <v>720.95236</v>
       </c>
       <c r="D8" s="10" t="n">
-        <v>720.95236</v>
-      </c>
-      <c r="E8" s="11" t="n">
         <v>585.13028</v>
       </c>
-      <c r="F8" s="7" t="n">
-        <v>400.62356</v>
-      </c>
-      <c r="G8" s="7" t="n">
+      <c r="E8" s="7" t="n">
         <v>417.85297</v>
       </c>
-      <c r="H8" s="12" t="n">
+      <c r="F8" s="11" t="n">
         <v>1083.82989</v>
       </c>
-      <c r="I8" s="12" t="n">
+      <c r="G8" s="10" t="n">
+        <v>587.71896</v>
+      </c>
+      <c r="H8" s="11" t="n">
         <v>1083.82989</v>
       </c>
-      <c r="J8" s="11" t="n">
+      <c r="I8" s="10" t="n">
         <v>587.71896</v>
       </c>
-      <c r="K8" s="12" t="n">
-        <v>1083.82989</v>
-      </c>
-      <c r="L8" s="12" t="n">
-        <v>1083.82989</v>
-      </c>
-      <c r="M8" s="11" t="n">
+      <c r="J8" s="10" t="n">
         <v>587.71896</v>
       </c>
     </row>
@@ -2197,38 +1990,29 @@
       <c r="B9" s="6" t="n">
         <v>1078.67029</v>
       </c>
-      <c r="C9" s="13" t="n">
+      <c r="C9" s="12" t="n">
         <v>638.93103</v>
       </c>
-      <c r="D9" s="13" t="n">
-        <v>638.93103</v>
-      </c>
-      <c r="E9" s="11" t="n">
+      <c r="D9" s="10" t="n">
         <v>583.23545</v>
       </c>
-      <c r="F9" s="7" t="n">
-        <v>378.6277</v>
-      </c>
-      <c r="G9" s="7" t="n">
+      <c r="E9" s="7" t="n">
         <v>382.5485</v>
       </c>
+      <c r="F9" s="13" t="n">
+        <v>807.65723</v>
+      </c>
+      <c r="G9" s="10" t="n">
+        <v>585.66845</v>
+      </c>
       <c r="H9" s="14" t="n">
-        <v>807.65723</v>
-      </c>
-      <c r="I9" s="14" t="n">
-        <v>807.65723</v>
-      </c>
-      <c r="J9" s="11" t="n">
-        <v>585.66845</v>
-      </c>
-      <c r="K9" s="15" t="n">
         <v>799.11456</v>
       </c>
-      <c r="L9" s="15" t="n">
-        <v>799.11456</v>
-      </c>
-      <c r="M9" s="11" t="n">
+      <c r="I9" s="10" t="n">
         <v>583.8019399999999</v>
+      </c>
+      <c r="J9" s="7" t="n">
+        <v>444.84982</v>
       </c>
     </row>
     <row r="10">
@@ -2240,38 +2024,29 @@
       <c r="B10" s="6" t="n">
         <v>1077.87536</v>
       </c>
-      <c r="C10" s="16" t="n">
+      <c r="C10" s="15" t="n">
         <v>615.82516</v>
       </c>
       <c r="D10" s="16" t="n">
-        <v>615.82516</v>
-      </c>
-      <c r="E10" s="17" t="n">
         <v>582.47226</v>
       </c>
-      <c r="F10" s="7" t="n">
-        <v>369.81244</v>
-      </c>
-      <c r="G10" s="7" t="n">
+      <c r="E10" s="7" t="n">
         <v>365.57486</v>
       </c>
-      <c r="H10" s="18" t="n">
+      <c r="F10" s="17" t="n">
         <v>622.65265</v>
       </c>
-      <c r="I10" s="18" t="n">
+      <c r="G10" s="10" t="n">
+        <v>583.89368</v>
+      </c>
+      <c r="H10" s="17" t="n">
         <v>622.65265</v>
       </c>
-      <c r="J10" s="11" t="n">
-        <v>583.89368</v>
-      </c>
-      <c r="K10" s="18" t="n">
-        <v>622.65265</v>
-      </c>
-      <c r="L10" s="18" t="n">
-        <v>622.65265</v>
-      </c>
-      <c r="M10" s="17" t="n">
+      <c r="I10" s="16" t="n">
         <v>582.59683</v>
+      </c>
+      <c r="J10" s="7" t="n">
+        <v>398.63148</v>
       </c>
     </row>
     <row r="11">
@@ -2289,9 +2064,6 @@
       <c r="H11" s="3" t="n"/>
       <c r="I11" s="3" t="n"/>
       <c r="J11" s="3" t="n"/>
-      <c r="K11" s="3" t="n"/>
-      <c r="L11" s="3" t="n"/>
-      <c r="M11" s="3" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="5" t="inlineStr">
@@ -2302,38 +2074,29 @@
       <c r="B12" s="6" t="n">
         <v>48.75194</v>
       </c>
-      <c r="C12" s="19" t="n">
-        <v>31.66343</v>
-      </c>
-      <c r="D12" s="20" t="n">
+      <c r="C12" s="18" t="n">
         <v>31.47191</v>
       </c>
-      <c r="E12" s="21" t="n">
+      <c r="D12" s="19" t="n">
         <v>30.26415</v>
       </c>
-      <c r="F12" s="22" t="n">
-        <v>30.00599</v>
+      <c r="E12" s="19" t="n">
+        <v>30.11256</v>
+      </c>
+      <c r="F12" s="20" t="n">
+        <v>52.84061</v>
       </c>
       <c r="G12" s="21" t="n">
-        <v>30.11256</v>
-      </c>
-      <c r="H12" s="23" t="n">
+        <v>29.62381</v>
+      </c>
+      <c r="H12" s="20" t="n">
         <v>52.84061</v>
       </c>
-      <c r="I12" s="23" t="n">
-        <v>52.84061</v>
-      </c>
-      <c r="J12" s="24" t="n">
-        <v>29.62381</v>
-      </c>
-      <c r="K12" s="23" t="n">
-        <v>52.84061</v>
-      </c>
-      <c r="L12" s="23" t="n">
-        <v>52.84061</v>
-      </c>
-      <c r="M12" s="24" t="n">
+      <c r="I12" s="21" t="n">
         <v>29.62383</v>
+      </c>
+      <c r="J12" s="19" t="n">
+        <v>30.29147</v>
       </c>
     </row>
     <row r="13">
@@ -2345,38 +2108,29 @@
       <c r="B13" s="6" t="n">
         <v>48.06084</v>
       </c>
-      <c r="C13" s="25" t="n">
-        <v>29.38904</v>
-      </c>
-      <c r="D13" s="26" t="n">
+      <c r="C13" s="22" t="n">
         <v>29.95866</v>
       </c>
-      <c r="E13" s="27" t="n">
+      <c r="D13" s="23" t="n">
         <v>30.20508</v>
       </c>
-      <c r="F13" s="21" t="n">
-        <v>29.83667</v>
-      </c>
-      <c r="G13" s="27" t="n">
+      <c r="E13" s="23" t="n">
         <v>30.13128</v>
       </c>
-      <c r="H13" s="28" t="n">
-        <v>30.34767</v>
-      </c>
-      <c r="I13" s="28" t="n">
+      <c r="F13" s="24" t="n">
         <v>30.50054</v>
       </c>
-      <c r="J13" s="26" t="n">
+      <c r="G13" s="22" t="n">
         <v>30.01577</v>
       </c>
-      <c r="K13" s="28" t="n">
-        <v>30.34767</v>
-      </c>
-      <c r="L13" s="28" t="n">
+      <c r="H13" s="24" t="n">
         <v>30.50054</v>
       </c>
-      <c r="M13" s="21" t="n">
+      <c r="I13" s="19" t="n">
         <v>29.85764</v>
+      </c>
+      <c r="J13" s="25" t="n">
+        <v>29.51452</v>
       </c>
     </row>
     <row r="14">
@@ -2388,38 +2142,29 @@
       <c r="B14" s="6" t="n">
         <v>47.24595</v>
       </c>
-      <c r="C14" s="27" t="n">
-        <v>29.77508</v>
-      </c>
-      <c r="D14" s="27" t="n">
+      <c r="C14" s="23" t="n">
         <v>29.75474</v>
       </c>
-      <c r="E14" s="20" t="n">
+      <c r="D14" s="18" t="n">
         <v>30.43679</v>
       </c>
-      <c r="F14" s="29" t="n">
-        <v>30.12746</v>
-      </c>
-      <c r="G14" s="29" t="n">
+      <c r="E14" s="26" t="n">
         <v>30.11693</v>
       </c>
-      <c r="H14" s="26" t="n">
-        <v>29.38319</v>
+      <c r="F14" s="23" t="n">
+        <v>29.6119</v>
+      </c>
+      <c r="G14" s="18" t="n">
+        <v>30.47903</v>
+      </c>
+      <c r="H14" s="23" t="n">
+        <v>29.6119</v>
       </c>
       <c r="I14" s="27" t="n">
-        <v>29.6119</v>
-      </c>
-      <c r="J14" s="20" t="n">
-        <v>30.47903</v>
-      </c>
-      <c r="K14" s="26" t="n">
-        <v>29.38319</v>
-      </c>
-      <c r="L14" s="27" t="n">
-        <v>29.6119</v>
-      </c>
-      <c r="M14" s="30" t="n">
         <v>30.32424</v>
+      </c>
+      <c r="J14" s="26" t="n">
+        <v>30.05644</v>
       </c>
     </row>
     <row r="15">
@@ -2437,9 +2182,6 @@
       <c r="H15" s="3" t="n"/>
       <c r="I15" s="3" t="n"/>
       <c r="J15" s="3" t="n"/>
-      <c r="K15" s="3" t="n"/>
-      <c r="L15" s="3" t="n"/>
-      <c r="M15" s="3" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="inlineStr">
@@ -2450,38 +2192,29 @@
       <c r="B16" s="6" t="n">
         <v>0.47504</v>
       </c>
-      <c r="C16" s="31" t="n">
-        <v>0.32472</v>
-      </c>
-      <c r="D16" s="32" t="n">
+      <c r="C16" s="28" t="n">
         <v>0.31439</v>
       </c>
-      <c r="E16" s="33" t="n">
+      <c r="D16" s="29" t="n">
         <v>0.25926</v>
       </c>
-      <c r="F16" s="16" t="n">
-        <v>0.27128</v>
-      </c>
-      <c r="G16" s="34" t="n">
+      <c r="E16" s="30" t="n">
         <v>0.26895</v>
       </c>
-      <c r="H16" s="35" t="n">
-        <v>0.5278</v>
-      </c>
-      <c r="I16" s="36" t="n">
+      <c r="F16" s="31" t="n">
         <v>0.53347</v>
       </c>
-      <c r="J16" s="26" t="n">
+      <c r="G16" s="22" t="n">
         <v>0.29659</v>
       </c>
-      <c r="K16" s="35" t="n">
-        <v>0.5278</v>
-      </c>
-      <c r="L16" s="36" t="n">
+      <c r="H16" s="31" t="n">
         <v>0.53347</v>
       </c>
-      <c r="M16" s="21" t="n">
+      <c r="I16" s="19" t="n">
         <v>0.29458</v>
+      </c>
+      <c r="J16" s="19" t="n">
+        <v>0.295</v>
       </c>
     </row>
     <row r="17">
@@ -2493,38 +2226,29 @@
       <c r="B17" s="6" t="n">
         <v>0.36265</v>
       </c>
-      <c r="C17" s="37" t="n">
-        <v>0.27423</v>
-      </c>
-      <c r="D17" s="38" t="n">
+      <c r="C17" s="32" t="n">
         <v>0.2617</v>
       </c>
-      <c r="E17" s="39" t="n">
+      <c r="D17" s="33" t="n">
         <v>0.25352</v>
       </c>
-      <c r="F17" s="40" t="n">
-        <v>0.25598</v>
-      </c>
-      <c r="G17" s="41" t="n">
+      <c r="E17" s="34" t="n">
         <v>0.25769</v>
       </c>
-      <c r="H17" s="42" t="n">
-        <v>0.31139</v>
-      </c>
-      <c r="I17" s="43" t="n">
+      <c r="F17" s="35" t="n">
         <v>0.30985</v>
       </c>
-      <c r="J17" s="38" t="n">
+      <c r="G17" s="32" t="n">
         <v>0.26282</v>
       </c>
-      <c r="K17" s="42" t="n">
-        <v>0.31139</v>
-      </c>
-      <c r="L17" s="43" t="n">
+      <c r="H17" s="35" t="n">
         <v>0.30985</v>
       </c>
-      <c r="M17" s="44" t="n">
+      <c r="I17" s="36" t="n">
         <v>0.26699</v>
+      </c>
+      <c r="J17" s="13" t="n">
+        <v>0.27155</v>
       </c>
     </row>
     <row r="18">
@@ -2536,38 +2260,29 @@
       <c r="B18" s="6" t="n">
         <v>0.31218</v>
       </c>
-      <c r="C18" s="45" t="n">
-        <v>0.25747</v>
-      </c>
-      <c r="D18" s="46" t="n">
+      <c r="C18" s="37" t="n">
         <v>0.25715</v>
       </c>
-      <c r="E18" s="47" t="n">
+      <c r="D18" s="38" t="n">
         <v>0.24924</v>
       </c>
-      <c r="F18" s="48" t="n">
-        <v>0.25453</v>
-      </c>
-      <c r="G18" s="49" t="n">
+      <c r="E18" s="39" t="n">
         <v>0.2526</v>
       </c>
-      <c r="H18" s="50" t="n">
-        <v>0.27813</v>
-      </c>
-      <c r="I18" s="51" t="n">
+      <c r="F18" s="40" t="n">
         <v>0.27092</v>
       </c>
-      <c r="J18" s="52" t="n">
+      <c r="G18" s="41" t="n">
         <v>0.25138</v>
       </c>
-      <c r="K18" s="50" t="n">
-        <v>0.27813</v>
-      </c>
-      <c r="L18" s="51" t="n">
+      <c r="H18" s="40" t="n">
         <v>0.27092</v>
       </c>
-      <c r="M18" s="53" t="n">
+      <c r="I18" s="42" t="n">
         <v>0.25406</v>
+      </c>
+      <c r="J18" s="43" t="n">
+        <v>0.25519</v>
       </c>
     </row>
     <row r="19">
@@ -2585,9 +2300,6 @@
       <c r="H19" s="3" t="n"/>
       <c r="I19" s="3" t="n"/>
       <c r="J19" s="3" t="n"/>
-      <c r="K19" s="3" t="n"/>
-      <c r="L19" s="3" t="n"/>
-      <c r="M19" s="3" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="5" t="inlineStr">
@@ -2598,37 +2310,28 @@
       <c r="B20" s="6" t="n">
         <v>10.0571</v>
       </c>
-      <c r="C20" s="42" t="n">
-        <v>8.65202</v>
-      </c>
-      <c r="D20" s="54" t="n">
+      <c r="C20" s="44" t="n">
         <v>8.821210000000001</v>
       </c>
-      <c r="E20" s="55" t="n">
+      <c r="D20" s="45" t="n">
         <v>7.91982</v>
       </c>
-      <c r="F20" s="56" t="n">
-        <v>8.012309999999999</v>
-      </c>
-      <c r="G20" s="57" t="n">
+      <c r="E20" s="46" t="n">
         <v>8.25061</v>
       </c>
-      <c r="H20" s="58" t="n">
+      <c r="F20" s="47" t="n">
         <v>12.62539</v>
       </c>
-      <c r="I20" s="58" t="n">
+      <c r="G20" s="48" t="n">
+        <v>7.99512</v>
+      </c>
+      <c r="H20" s="47" t="n">
         <v>12.62539</v>
       </c>
-      <c r="J20" s="56" t="n">
+      <c r="I20" s="48" t="n">
         <v>7.99512</v>
       </c>
-      <c r="K20" s="58" t="n">
-        <v>12.62539</v>
-      </c>
-      <c r="L20" s="58" t="n">
-        <v>12.62539</v>
-      </c>
-      <c r="M20" s="56" t="n">
+      <c r="J20" s="48" t="n">
         <v>7.99512</v>
       </c>
     </row>
@@ -2641,38 +2344,29 @@
       <c r="B21" s="6" t="n">
         <v>9.805490000000001</v>
       </c>
-      <c r="C21" s="49" t="n">
-        <v>7.92593</v>
-      </c>
-      <c r="D21" s="48" t="n">
+      <c r="C21" s="43" t="n">
         <v>8.019830000000001</v>
       </c>
-      <c r="E21" s="55" t="n">
+      <c r="D21" s="45" t="n">
         <v>7.71155</v>
       </c>
-      <c r="F21" s="53" t="n">
-        <v>7.95777</v>
-      </c>
-      <c r="G21" s="45" t="n">
+      <c r="E21" s="49" t="n">
         <v>8.111610000000001</v>
       </c>
-      <c r="H21" s="59" t="n">
-        <v>8.67587</v>
-      </c>
-      <c r="I21" s="60" t="n">
+      <c r="F21" s="50" t="n">
         <v>8.43774</v>
       </c>
-      <c r="J21" s="56" t="n">
+      <c r="G21" s="48" t="n">
         <v>7.81318</v>
       </c>
-      <c r="K21" s="50" t="n">
-        <v>8.71387</v>
-      </c>
-      <c r="L21" s="60" t="n">
+      <c r="H21" s="50" t="n">
         <v>8.43774</v>
       </c>
-      <c r="M21" s="52" t="n">
+      <c r="I21" s="41" t="n">
         <v>7.89753</v>
+      </c>
+      <c r="J21" s="48" t="n">
+        <v>7.80317</v>
       </c>
     </row>
     <row r="22">
@@ -2684,38 +2378,29 @@
       <c r="B22" s="6" t="n">
         <v>9.61974</v>
       </c>
-      <c r="C22" s="47" t="n">
-        <v>7.67524</v>
-      </c>
-      <c r="D22" s="53" t="n">
+      <c r="C22" s="42" t="n">
         <v>7.83533</v>
       </c>
-      <c r="E22" s="55" t="n">
+      <c r="D22" s="45" t="n">
         <v>7.54344</v>
       </c>
-      <c r="F22" s="45" t="n">
-        <v>7.94831</v>
-      </c>
-      <c r="G22" s="60" t="n">
+      <c r="E22" s="50" t="n">
         <v>8.277760000000001</v>
       </c>
-      <c r="H22" s="49" t="n">
-        <v>7.76018</v>
-      </c>
-      <c r="I22" s="47" t="n">
+      <c r="F22" s="38" t="n">
         <v>7.68619</v>
       </c>
+      <c r="G22" s="43" t="n">
+        <v>7.86289</v>
+      </c>
+      <c r="H22" s="38" t="n">
+        <v>7.68619</v>
+      </c>
+      <c r="I22" s="39" t="n">
+        <v>7.79204</v>
+      </c>
       <c r="J22" s="48" t="n">
-        <v>7.86289</v>
-      </c>
-      <c r="K22" s="49" t="n">
-        <v>7.76018</v>
-      </c>
-      <c r="L22" s="47" t="n">
-        <v>7.68619</v>
-      </c>
-      <c r="M22" s="49" t="n">
-        <v>7.79204</v>
+        <v>7.64705</v>
       </c>
     </row>
     <row r="23">
@@ -2733,9 +2418,6 @@
       <c r="H23" s="3" t="n"/>
       <c r="I23" s="3" t="n"/>
       <c r="J23" s="3" t="n"/>
-      <c r="K23" s="3" t="n"/>
-      <c r="L23" s="3" t="n"/>
-      <c r="M23" s="3" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="inlineStr">
@@ -2746,38 +2428,29 @@
       <c r="B24" s="6" t="n">
         <v>23.46359</v>
       </c>
-      <c r="C24" s="61" t="n">
-        <v>11.86276</v>
-      </c>
-      <c r="D24" s="62" t="n">
+      <c r="C24" s="51" t="n">
         <v>13.51856</v>
       </c>
+      <c r="D24" s="7" t="n">
+        <v>11.49325</v>
+      </c>
       <c r="E24" s="7" t="n">
-        <v>11.49325</v>
-      </c>
-      <c r="F24" s="7" t="n">
-        <v>10.64083</v>
-      </c>
-      <c r="G24" s="7" t="n">
         <v>10.93152</v>
       </c>
-      <c r="H24" s="36" t="n">
-        <v>26.34711</v>
-      </c>
-      <c r="I24" s="63" t="n">
+      <c r="F24" s="52" t="n">
         <v>27.06287</v>
       </c>
-      <c r="J24" s="16" t="n">
+      <c r="G24" s="15" t="n">
         <v>13.36563</v>
       </c>
-      <c r="K24" s="36" t="n">
-        <v>26.34711</v>
-      </c>
-      <c r="L24" s="63" t="n">
+      <c r="H24" s="52" t="n">
         <v>27.06287</v>
       </c>
-      <c r="M24" s="64" t="n">
+      <c r="I24" s="53" t="n">
         <v>13.1607</v>
+      </c>
+      <c r="J24" s="17" t="n">
+        <v>13.54415</v>
       </c>
     </row>
     <row r="25">
@@ -2790,37 +2463,28 @@
         <v>22.72794</v>
       </c>
       <c r="C25" s="7" t="n">
-        <v>9.441509999999999</v>
+        <v>9.36787</v>
       </c>
       <c r="D25" s="7" t="n">
-        <v>9.36787</v>
+        <v>9.295959999999999</v>
       </c>
       <c r="E25" s="7" t="n">
-        <v>9.295959999999999</v>
-      </c>
-      <c r="F25" s="7" t="n">
-        <v>9.22424</v>
+        <v>9.656549999999999</v>
+      </c>
+      <c r="F25" s="15" t="n">
+        <v>12.94892</v>
       </c>
       <c r="G25" s="7" t="n">
-        <v>9.656549999999999</v>
-      </c>
-      <c r="H25" s="65" t="n">
-        <v>13.64643</v>
-      </c>
-      <c r="I25" s="16" t="n">
+        <v>10.99017</v>
+      </c>
+      <c r="H25" s="15" t="n">
         <v>12.94892</v>
       </c>
+      <c r="I25" s="7" t="n">
+        <v>10.63908</v>
+      </c>
       <c r="J25" s="7" t="n">
-        <v>10.99017</v>
-      </c>
-      <c r="K25" s="65" t="n">
-        <v>13.71379</v>
-      </c>
-      <c r="L25" s="16" t="n">
-        <v>12.94892</v>
-      </c>
-      <c r="M25" s="7" t="n">
-        <v>10.63908</v>
+        <v>10.74308</v>
       </c>
     </row>
     <row r="26">
@@ -2833,37 +2497,28 @@
         <v>22.04623</v>
       </c>
       <c r="C26" s="7" t="n">
-        <v>8.437139999999999</v>
+        <v>8.450989999999999</v>
       </c>
       <c r="D26" s="7" t="n">
-        <v>8.450989999999999</v>
+        <v>8.88786</v>
       </c>
       <c r="E26" s="7" t="n">
-        <v>8.88786</v>
+        <v>8.981310000000001</v>
       </c>
       <c r="F26" s="7" t="n">
-        <v>8.646879999999999</v>
+        <v>9.0107</v>
       </c>
       <c r="G26" s="7" t="n">
-        <v>8.981310000000001</v>
+        <v>9.5162</v>
       </c>
       <c r="H26" s="7" t="n">
-        <v>9.093680000000001</v>
+        <v>9.0107</v>
       </c>
       <c r="I26" s="7" t="n">
-        <v>9.0107</v>
+        <v>9.00346</v>
       </c>
       <c r="J26" s="7" t="n">
-        <v>9.5162</v>
-      </c>
-      <c r="K26" s="7" t="n">
-        <v>9.093680000000001</v>
-      </c>
-      <c r="L26" s="7" t="n">
-        <v>9.0107</v>
-      </c>
-      <c r="M26" s="7" t="n">
-        <v>9.00346</v>
+        <v>9.177250000000001</v>
       </c>
     </row>
     <row r="27">
@@ -2881,9 +2536,6 @@
       <c r="H27" s="3" t="n"/>
       <c r="I27" s="3" t="n"/>
       <c r="J27" s="3" t="n"/>
-      <c r="K27" s="3" t="n"/>
-      <c r="L27" s="3" t="n"/>
-      <c r="M27" s="3" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="5" t="inlineStr">
@@ -2895,38 +2547,29 @@
         <v>158.99016</v>
       </c>
       <c r="C28" s="7" t="n">
-        <v>75.19671</v>
+        <v>75.57742</v>
       </c>
       <c r="D28" s="7" t="n">
-        <v>75.57742</v>
+        <v>60.13903</v>
       </c>
       <c r="E28" s="7" t="n">
-        <v>60.13903</v>
-      </c>
-      <c r="F28" s="7" t="n">
-        <v>60.12001</v>
+        <v>60.5777</v>
+      </c>
+      <c r="F28" s="54" t="n">
+        <v>161.91063</v>
       </c>
       <c r="G28" s="7" t="n">
-        <v>60.5777</v>
-      </c>
-      <c r="H28" s="66" t="n">
-        <v>162.22454</v>
-      </c>
-      <c r="I28" s="67" t="n">
+        <v>61.99466</v>
+      </c>
+      <c r="H28" s="54" t="n">
         <v>161.91063</v>
+      </c>
+      <c r="I28" s="7" t="n">
+        <v>61.99466</v>
       </c>
       <c r="J28" s="7" t="n">
         <v>61.99466</v>
       </c>
-      <c r="K28" s="66" t="n">
-        <v>162.22454</v>
-      </c>
-      <c r="L28" s="67" t="n">
-        <v>161.91063</v>
-      </c>
-      <c r="M28" s="7" t="n">
-        <v>61.99466</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="inlineStr">
@@ -2938,37 +2581,28 @@
         <v>157.82999</v>
       </c>
       <c r="C29" s="7" t="n">
-        <v>71.77593</v>
+        <v>72.06516000000001</v>
       </c>
       <c r="D29" s="7" t="n">
-        <v>72.06516000000001</v>
+        <v>59.03437</v>
       </c>
       <c r="E29" s="7" t="n">
-        <v>59.03437</v>
+        <v>58.57523</v>
       </c>
       <c r="F29" s="7" t="n">
-        <v>58.1895</v>
+        <v>79.13018</v>
       </c>
       <c r="G29" s="7" t="n">
-        <v>58.57523</v>
+        <v>59.58578</v>
       </c>
       <c r="H29" s="7" t="n">
-        <v>79.55192</v>
+        <v>78.82154</v>
       </c>
       <c r="I29" s="7" t="n">
-        <v>79.13018</v>
+        <v>58.99715</v>
       </c>
       <c r="J29" s="7" t="n">
-        <v>59.58578</v>
-      </c>
-      <c r="K29" s="61" t="n">
-        <v>79.93149</v>
-      </c>
-      <c r="L29" s="7" t="n">
-        <v>78.82154</v>
-      </c>
-      <c r="M29" s="7" t="n">
-        <v>58.99715</v>
+        <v>60.57719</v>
       </c>
     </row>
     <row r="30">
@@ -2981,37 +2615,28 @@
         <v>156.75501</v>
       </c>
       <c r="C30" s="7" t="n">
-        <v>70.64700999999999</v>
+        <v>70.35466</v>
       </c>
       <c r="D30" s="7" t="n">
-        <v>70.35466</v>
+        <v>58.09557</v>
       </c>
       <c r="E30" s="7" t="n">
-        <v>58.09557</v>
+        <v>58.18924</v>
       </c>
       <c r="F30" s="7" t="n">
-        <v>57.32132</v>
+        <v>72.51089</v>
       </c>
       <c r="G30" s="7" t="n">
-        <v>58.18924</v>
+        <v>58.07299</v>
       </c>
       <c r="H30" s="7" t="n">
-        <v>73.70276</v>
+        <v>72.51089</v>
       </c>
       <c r="I30" s="7" t="n">
-        <v>72.51089</v>
+        <v>57.59407</v>
       </c>
       <c r="J30" s="7" t="n">
-        <v>58.07299</v>
-      </c>
-      <c r="K30" s="7" t="n">
-        <v>73.70276</v>
-      </c>
-      <c r="L30" s="7" t="n">
-        <v>72.51089</v>
-      </c>
-      <c r="M30" s="7" t="n">
-        <v>57.59407</v>
+        <v>57.7401</v>
       </c>
     </row>
     <row r="31">
@@ -3029,9 +2654,6 @@
       <c r="H31" s="3" t="n"/>
       <c r="I31" s="3" t="n"/>
       <c r="J31" s="3" t="n"/>
-      <c r="K31" s="3" t="n"/>
-      <c r="L31" s="3" t="n"/>
-      <c r="M31" s="3" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="5" t="inlineStr">
@@ -3043,37 +2665,28 @@
         <v>8.18088</v>
       </c>
       <c r="C32" s="7" t="n">
-        <v>4.01903</v>
+        <v>4.09528</v>
       </c>
       <c r="D32" s="7" t="n">
-        <v>4.09528</v>
+        <v>3.56454</v>
       </c>
       <c r="E32" s="7" t="n">
-        <v>3.56454</v>
-      </c>
-      <c r="F32" s="7" t="n">
-        <v>3.53909</v>
+        <v>3.51099</v>
+      </c>
+      <c r="F32" s="55" t="n">
+        <v>10.20981</v>
       </c>
       <c r="G32" s="7" t="n">
-        <v>3.51099</v>
-      </c>
-      <c r="H32" s="68" t="n">
+        <v>4.05443</v>
+      </c>
+      <c r="H32" s="55" t="n">
         <v>10.20981</v>
       </c>
-      <c r="I32" s="68" t="n">
-        <v>10.20981</v>
+      <c r="I32" s="7" t="n">
+        <v>4.07393</v>
       </c>
       <c r="J32" s="7" t="n">
-        <v>4.05443</v>
-      </c>
-      <c r="K32" s="68" t="n">
-        <v>10.20981</v>
-      </c>
-      <c r="L32" s="68" t="n">
-        <v>10.20981</v>
-      </c>
-      <c r="M32" s="7" t="n">
-        <v>4.07393</v>
+        <v>4.07394</v>
       </c>
     </row>
     <row r="33">
@@ -3086,37 +2699,28 @@
         <v>7.93724</v>
       </c>
       <c r="C33" s="7" t="n">
-        <v>3.63481</v>
+        <v>3.7226</v>
       </c>
       <c r="D33" s="7" t="n">
-        <v>3.7226</v>
+        <v>3.46782</v>
       </c>
       <c r="E33" s="7" t="n">
-        <v>3.46782</v>
-      </c>
-      <c r="F33" s="7" t="n">
-        <v>3.36022</v>
+        <v>3.3403</v>
+      </c>
+      <c r="F33" s="56" t="n">
+        <v>4.41592</v>
       </c>
       <c r="G33" s="7" t="n">
-        <v>3.3403</v>
-      </c>
-      <c r="H33" s="69" t="n">
-        <v>4.43137</v>
-      </c>
-      <c r="I33" s="69" t="n">
+        <v>3.646</v>
+      </c>
+      <c r="H33" s="56" t="n">
         <v>4.41592</v>
       </c>
+      <c r="I33" s="7" t="n">
+        <v>3.61779</v>
+      </c>
       <c r="J33" s="7" t="n">
-        <v>3.646</v>
-      </c>
-      <c r="K33" s="70" t="n">
-        <v>4.37289</v>
-      </c>
-      <c r="L33" s="69" t="n">
-        <v>4.41592</v>
-      </c>
-      <c r="M33" s="7" t="n">
-        <v>3.61779</v>
+        <v>3.426</v>
       </c>
     </row>
     <row r="34">
@@ -3129,37 +2733,28 @@
         <v>7.78299</v>
       </c>
       <c r="C34" s="7" t="n">
-        <v>3.55478</v>
+        <v>3.58199</v>
       </c>
       <c r="D34" s="7" t="n">
-        <v>3.58199</v>
+        <v>3.4116</v>
       </c>
       <c r="E34" s="7" t="n">
-        <v>3.4116</v>
+        <v>3.31175</v>
       </c>
       <c r="F34" s="7" t="n">
-        <v>3.32259</v>
+        <v>3.61144</v>
       </c>
       <c r="G34" s="7" t="n">
-        <v>3.31175</v>
+        <v>3.46028</v>
       </c>
       <c r="H34" s="7" t="n">
-        <v>3.6821</v>
+        <v>3.61144</v>
       </c>
       <c r="I34" s="7" t="n">
-        <v>3.61144</v>
+        <v>3.47799</v>
       </c>
       <c r="J34" s="7" t="n">
-        <v>3.46028</v>
-      </c>
-      <c r="K34" s="7" t="n">
-        <v>3.6821</v>
-      </c>
-      <c r="L34" s="7" t="n">
-        <v>3.61144</v>
-      </c>
-      <c r="M34" s="7" t="n">
-        <v>3.47799</v>
+        <v>3.29483</v>
       </c>
     </row>
     <row r="35">
@@ -3177,9 +2772,6 @@
       <c r="H35" s="3" t="n"/>
       <c r="I35" s="3" t="n"/>
       <c r="J35" s="3" t="n"/>
-      <c r="K35" s="3" t="n"/>
-      <c r="L35" s="3" t="n"/>
-      <c r="M35" s="3" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="5" t="inlineStr">
@@ -3190,38 +2782,29 @@
       <c r="B36" s="6" t="n">
         <v>7.86799</v>
       </c>
-      <c r="C36" s="11" t="n">
-        <v>4.25407</v>
-      </c>
-      <c r="D36" s="16" t="n">
+      <c r="C36" s="15" t="n">
         <v>4.47943</v>
       </c>
+      <c r="D36" s="7" t="n">
+        <v>3.43478</v>
+      </c>
       <c r="E36" s="7" t="n">
-        <v>3.43478</v>
-      </c>
-      <c r="F36" s="7" t="n">
-        <v>3.40128</v>
-      </c>
-      <c r="G36" s="7" t="n">
         <v>3.19249</v>
       </c>
-      <c r="H36" s="71" t="n">
-        <v>10.47204</v>
-      </c>
-      <c r="I36" s="72" t="n">
+      <c r="F36" s="57" t="n">
         <v>10.72952</v>
       </c>
-      <c r="J36" s="11" t="n">
+      <c r="G36" s="10" t="n">
         <v>4.25742</v>
       </c>
-      <c r="K36" s="71" t="n">
-        <v>10.47204</v>
-      </c>
-      <c r="L36" s="72" t="n">
+      <c r="H36" s="57" t="n">
         <v>10.72952</v>
       </c>
-      <c r="M36" s="11" t="n">
+      <c r="I36" s="10" t="n">
         <v>4.27924</v>
+      </c>
+      <c r="J36" s="10" t="n">
+        <v>4.25742</v>
       </c>
     </row>
     <row r="37">
@@ -3234,37 +2817,28 @@
         <v>7.27558</v>
       </c>
       <c r="C37" s="7" t="n">
-        <v>3.35905</v>
+        <v>3.34585</v>
       </c>
       <c r="D37" s="7" t="n">
-        <v>3.34585</v>
+        <v>3.12603</v>
       </c>
       <c r="E37" s="7" t="n">
-        <v>3.12603</v>
-      </c>
-      <c r="F37" s="7" t="n">
-        <v>3.02606</v>
+        <v>2.97818</v>
+      </c>
+      <c r="F37" s="58" t="n">
+        <v>4.44569</v>
       </c>
       <c r="G37" s="7" t="n">
-        <v>2.97818</v>
-      </c>
-      <c r="H37" s="28" t="n">
-        <v>4.61988</v>
-      </c>
-      <c r="I37" s="25" t="n">
+        <v>3.58631</v>
+      </c>
+      <c r="H37" s="58" t="n">
         <v>4.44569</v>
       </c>
+      <c r="I37" s="7" t="n">
+        <v>3.6383</v>
+      </c>
       <c r="J37" s="7" t="n">
-        <v>3.58631</v>
-      </c>
-      <c r="K37" s="25" t="n">
-        <v>4.45435</v>
-      </c>
-      <c r="L37" s="25" t="n">
-        <v>4.44569</v>
-      </c>
-      <c r="M37" s="7" t="n">
-        <v>3.6383</v>
+        <v>3.44381</v>
       </c>
     </row>
     <row r="38">
@@ -3277,37 +2851,28 @@
         <v>6.9975</v>
       </c>
       <c r="C38" s="7" t="n">
-        <v>3.2283</v>
+        <v>3.15862</v>
       </c>
       <c r="D38" s="7" t="n">
-        <v>3.15862</v>
+        <v>3.06374</v>
       </c>
       <c r="E38" s="7" t="n">
-        <v>3.06374</v>
+        <v>2.89769</v>
       </c>
       <c r="F38" s="7" t="n">
-        <v>2.93715</v>
+        <v>3.34502</v>
       </c>
       <c r="G38" s="7" t="n">
-        <v>2.89769</v>
+        <v>3.32384</v>
       </c>
       <c r="H38" s="7" t="n">
-        <v>3.31489</v>
+        <v>3.34502</v>
       </c>
       <c r="I38" s="7" t="n">
-        <v>3.34502</v>
+        <v>3.33949</v>
       </c>
       <c r="J38" s="7" t="n">
-        <v>3.32384</v>
-      </c>
-      <c r="K38" s="7" t="n">
-        <v>3.31489</v>
-      </c>
-      <c r="L38" s="7" t="n">
-        <v>3.34502</v>
-      </c>
-      <c r="M38" s="7" t="n">
-        <v>3.33949</v>
+        <v>3.03761</v>
       </c>
     </row>
     <row r="39">
@@ -3325,9 +2890,6 @@
       <c r="H39" s="3" t="n"/>
       <c r="I39" s="3" t="n"/>
       <c r="J39" s="3" t="n"/>
-      <c r="K39" s="3" t="n"/>
-      <c r="L39" s="3" t="n"/>
-      <c r="M39" s="3" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="5" t="inlineStr">
@@ -3338,38 +2900,29 @@
       <c r="B40" s="6" t="n">
         <v>1.43111</v>
       </c>
-      <c r="C40" s="73" t="n">
-        <v>1.46956</v>
-      </c>
-      <c r="D40" s="74" t="n">
+      <c r="C40" s="59" t="n">
         <v>1.43127</v>
       </c>
-      <c r="E40" s="75" t="n">
+      <c r="D40" s="60" t="n">
         <v>1.42516</v>
       </c>
-      <c r="F40" s="75" t="n">
-        <v>1.4259</v>
-      </c>
-      <c r="G40" s="75" t="n">
+      <c r="E40" s="60" t="n">
         <v>1.42726</v>
       </c>
-      <c r="H40" s="76" t="n">
+      <c r="F40" s="61" t="n">
         <v>1.40774</v>
       </c>
-      <c r="I40" s="76" t="n">
+      <c r="G40" s="62" t="n">
+        <v>1.40298</v>
+      </c>
+      <c r="H40" s="61" t="n">
         <v>1.40774</v>
       </c>
-      <c r="J40" s="77" t="n">
-        <v>1.40298</v>
-      </c>
-      <c r="K40" s="76" t="n">
-        <v>1.40774</v>
-      </c>
-      <c r="L40" s="76" t="n">
-        <v>1.40774</v>
-      </c>
-      <c r="M40" s="77" t="n">
+      <c r="I40" s="62" t="n">
         <v>1.40369</v>
+      </c>
+      <c r="J40" s="63" t="n">
+        <v>1.39811</v>
       </c>
     </row>
     <row r="41">
@@ -3381,38 +2934,29 @@
       <c r="B41" s="6" t="n">
         <v>1.42535</v>
       </c>
-      <c r="C41" s="78" t="n">
-        <v>1.43837</v>
-      </c>
-      <c r="D41" s="79" t="n">
+      <c r="C41" s="64" t="n">
         <v>1.43395</v>
       </c>
-      <c r="E41" s="78" t="n">
+      <c r="D41" s="65" t="n">
         <v>1.43792</v>
       </c>
-      <c r="F41" s="74" t="n">
-        <v>1.429</v>
-      </c>
-      <c r="G41" s="78" t="n">
+      <c r="E41" s="65" t="n">
         <v>1.43797</v>
       </c>
-      <c r="H41" s="80" t="n">
-        <v>1.41597</v>
-      </c>
-      <c r="I41" s="80" t="n">
+      <c r="F41" s="66" t="n">
         <v>1.41418</v>
       </c>
-      <c r="J41" s="77" t="n">
+      <c r="G41" s="62" t="n">
         <v>1.39562</v>
       </c>
-      <c r="K41" s="80" t="n">
-        <v>1.41597</v>
-      </c>
-      <c r="L41" s="80" t="n">
+      <c r="H41" s="66" t="n">
         <v>1.41418</v>
       </c>
-      <c r="M41" s="76" t="n">
+      <c r="I41" s="61" t="n">
         <v>1.4059</v>
+      </c>
+      <c r="J41" s="61" t="n">
+        <v>1.40089</v>
       </c>
     </row>
     <row r="42">
@@ -3424,38 +2968,29 @@
       <c r="B42" s="6" t="n">
         <v>1.41985</v>
       </c>
-      <c r="C42" s="81" t="n">
-        <v>1.44162</v>
-      </c>
-      <c r="D42" s="81" t="n">
+      <c r="C42" s="67" t="n">
         <v>1.44205</v>
       </c>
-      <c r="E42" s="66" t="n">
+      <c r="D42" s="68" t="n">
         <v>1.44869</v>
       </c>
-      <c r="F42" s="79" t="n">
-        <v>1.43036</v>
-      </c>
-      <c r="G42" s="67" t="n">
+      <c r="E42" s="54" t="n">
         <v>1.4474</v>
       </c>
-      <c r="H42" s="80" t="n">
-        <v>1.40993</v>
-      </c>
-      <c r="I42" s="82" t="n">
+      <c r="F42" s="69" t="n">
         <v>1.43628</v>
       </c>
-      <c r="J42" s="75" t="n">
+      <c r="G42" s="60" t="n">
         <v>1.41541</v>
       </c>
-      <c r="K42" s="80" t="n">
-        <v>1.40993</v>
-      </c>
-      <c r="L42" s="82" t="n">
+      <c r="H42" s="69" t="n">
         <v>1.43628</v>
       </c>
-      <c r="M42" s="74" t="n">
+      <c r="I42" s="59" t="n">
         <v>1.42282</v>
+      </c>
+      <c r="J42" s="66" t="n">
+        <v>1.41316</v>
       </c>
     </row>
     <row r="43">
@@ -3473,9 +3008,6 @@
       <c r="H43" s="3" t="n"/>
       <c r="I43" s="3" t="n"/>
       <c r="J43" s="3" t="n"/>
-      <c r="K43" s="3" t="n"/>
-      <c r="L43" s="3" t="n"/>
-      <c r="M43" s="3" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="5" t="inlineStr">
@@ -3486,37 +3018,28 @@
       <c r="B44" s="6" t="n">
         <v>12.16549</v>
       </c>
-      <c r="C44" s="43" t="n">
-        <v>10.39442</v>
-      </c>
-      <c r="D44" s="42" t="n">
+      <c r="C44" s="70" t="n">
         <v>10.43682</v>
       </c>
-      <c r="E44" s="83" t="n">
+      <c r="D44" s="71" t="n">
         <v>10.11566</v>
       </c>
-      <c r="F44" s="45" t="n">
-        <v>10.07421</v>
-      </c>
-      <c r="G44" s="57" t="n">
+      <c r="E44" s="46" t="n">
         <v>10.00063</v>
       </c>
-      <c r="H44" s="84" t="n">
-        <v>14.17227</v>
-      </c>
-      <c r="I44" s="85" t="n">
+      <c r="F44" s="72" t="n">
         <v>14.245</v>
       </c>
-      <c r="J44" s="86" t="n">
+      <c r="G44" s="73" t="n">
         <v>10.1848</v>
       </c>
-      <c r="K44" s="84" t="n">
-        <v>14.17227</v>
-      </c>
-      <c r="L44" s="85" t="n">
+      <c r="H44" s="72" t="n">
         <v>14.245</v>
       </c>
-      <c r="M44" s="86" t="n">
+      <c r="I44" s="73" t="n">
+        <v>10.1848</v>
+      </c>
+      <c r="J44" s="73" t="n">
         <v>10.1848</v>
       </c>
     </row>
@@ -3529,38 +3052,29 @@
       <c r="B45" s="6" t="n">
         <v>11.86822</v>
       </c>
-      <c r="C45" s="51" t="n">
-        <v>10.29136</v>
-      </c>
-      <c r="D45" s="51" t="n">
+      <c r="C45" s="40" t="n">
         <v>10.27701</v>
       </c>
-      <c r="E45" s="87" t="n">
+      <c r="D45" s="74" t="n">
         <v>10.09344</v>
       </c>
-      <c r="F45" s="88" t="n">
-        <v>9.96059</v>
-      </c>
-      <c r="G45" s="88" t="n">
+      <c r="E45" s="75" t="n">
         <v>9.981159999999999</v>
       </c>
-      <c r="H45" s="50" t="n">
-        <v>10.53932</v>
-      </c>
-      <c r="I45" s="50" t="n">
+      <c r="F45" s="76" t="n">
         <v>10.538</v>
       </c>
-      <c r="J45" s="43" t="n">
+      <c r="G45" s="35" t="n">
         <v>10.13995</v>
       </c>
-      <c r="K45" s="50" t="n">
-        <v>10.53932</v>
-      </c>
-      <c r="L45" s="59" t="n">
+      <c r="H45" s="77" t="n">
         <v>10.50042</v>
       </c>
-      <c r="M45" s="43" t="n">
+      <c r="I45" s="35" t="n">
         <v>10.13523</v>
+      </c>
+      <c r="J45" s="78" t="n">
+        <v>10.03477</v>
       </c>
     </row>
     <row r="46">
@@ -3572,38 +3086,29 @@
       <c r="B46" s="6" t="n">
         <v>11.73253</v>
       </c>
-      <c r="C46" s="89" t="n">
-        <v>10.21133</v>
-      </c>
-      <c r="D46" s="89" t="n">
+      <c r="C46" s="79" t="n">
         <v>10.20754</v>
       </c>
-      <c r="E46" s="42" t="n">
+      <c r="D46" s="70" t="n">
         <v>10.06443</v>
       </c>
-      <c r="F46" s="87" t="n">
-        <v>9.939170000000001</v>
-      </c>
-      <c r="G46" s="87" t="n">
+      <c r="E46" s="74" t="n">
         <v>9.94933</v>
       </c>
-      <c r="H46" s="89" t="n">
-        <v>10.20878</v>
-      </c>
-      <c r="I46" s="54" t="n">
+      <c r="F46" s="44" t="n">
         <v>10.25437</v>
       </c>
-      <c r="J46" s="60" t="n">
+      <c r="G46" s="50" t="n">
         <v>10.11601</v>
       </c>
-      <c r="K46" s="89" t="n">
-        <v>10.20878</v>
-      </c>
-      <c r="L46" s="54" t="n">
+      <c r="H46" s="44" t="n">
         <v>10.25437</v>
       </c>
-      <c r="M46" s="60" t="n">
+      <c r="I46" s="50" t="n">
         <v>10.12818</v>
+      </c>
+      <c r="J46" s="74" t="n">
+        <v>9.963789999999999</v>
       </c>
     </row>
     <row r="47">
@@ -3621,9 +3126,6 @@
       <c r="H47" s="3" t="n"/>
       <c r="I47" s="3" t="n"/>
       <c r="J47" s="3" t="n"/>
-      <c r="K47" s="3" t="n"/>
-      <c r="L47" s="3" t="n"/>
-      <c r="M47" s="3" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="inlineStr">
@@ -3634,37 +3136,28 @@
       <c r="B48" s="6" t="n">
         <v>39.00013</v>
       </c>
-      <c r="C48" s="55" t="n">
-        <v>30.72467</v>
-      </c>
-      <c r="D48" s="53" t="n">
+      <c r="C48" s="42" t="n">
         <v>31.64841</v>
       </c>
-      <c r="E48" s="83" t="n">
+      <c r="D48" s="71" t="n">
         <v>32.33313</v>
       </c>
-      <c r="F48" s="90" t="n">
-        <v>30.52493</v>
-      </c>
-      <c r="G48" s="91" t="n">
+      <c r="E48" s="80" t="n">
         <v>30.31933</v>
       </c>
-      <c r="H48" s="92" t="n">
-        <v>41.72215</v>
-      </c>
-      <c r="I48" s="93" t="n">
+      <c r="F48" s="81" t="n">
         <v>42.09846</v>
       </c>
-      <c r="J48" s="49" t="n">
+      <c r="G48" s="39" t="n">
         <v>31.48903</v>
       </c>
-      <c r="K48" s="92" t="n">
-        <v>41.72215</v>
-      </c>
-      <c r="L48" s="93" t="n">
+      <c r="H48" s="81" t="n">
         <v>42.09846</v>
       </c>
-      <c r="M48" s="47" t="n">
+      <c r="I48" s="38" t="n">
+        <v>31.25672</v>
+      </c>
+      <c r="J48" s="38" t="n">
         <v>31.25672</v>
       </c>
     </row>
@@ -3677,38 +3170,29 @@
       <c r="B49" s="6" t="n">
         <v>38.62736</v>
       </c>
-      <c r="C49" s="56" t="n">
-        <v>30.76472</v>
-      </c>
-      <c r="D49" s="94" t="n">
+      <c r="C49" s="82" t="n">
         <v>29.86512</v>
       </c>
-      <c r="E49" s="95" t="n">
+      <c r="D49" s="78" t="n">
         <v>32.70334</v>
       </c>
-      <c r="F49" s="52" t="n">
-        <v>31.14424</v>
-      </c>
-      <c r="G49" s="45" t="n">
+      <c r="E49" s="49" t="n">
         <v>31.96502</v>
       </c>
-      <c r="H49" s="53" t="n">
-        <v>31.35918</v>
-      </c>
-      <c r="I49" s="57" t="n">
+      <c r="F49" s="46" t="n">
         <v>31.76226</v>
       </c>
-      <c r="J49" s="48" t="n">
+      <c r="G49" s="43" t="n">
         <v>31.53245</v>
       </c>
-      <c r="K49" s="53" t="n">
-        <v>31.35918</v>
-      </c>
-      <c r="L49" s="57" t="n">
+      <c r="H49" s="46" t="n">
         <v>31.76226</v>
       </c>
-      <c r="M49" s="49" t="n">
+      <c r="I49" s="39" t="n">
         <v>31.25313</v>
+      </c>
+      <c r="J49" s="75" t="n">
+        <v>32.38186</v>
       </c>
     </row>
     <row r="50">
@@ -3720,38 +3204,29 @@
       <c r="B50" s="6" t="n">
         <v>38.04211</v>
       </c>
-      <c r="C50" s="48" t="n">
-        <v>31.18511</v>
-      </c>
-      <c r="D50" s="47" t="n">
+      <c r="C50" s="38" t="n">
         <v>30.42635</v>
       </c>
-      <c r="E50" s="89" t="n">
+      <c r="D50" s="79" t="n">
         <v>33.15308</v>
       </c>
-      <c r="F50" s="52" t="n">
-        <v>30.52243</v>
-      </c>
-      <c r="G50" s="45" t="n">
+      <c r="E50" s="49" t="n">
         <v>31.40537</v>
       </c>
-      <c r="H50" s="45" t="n">
-        <v>31.50937</v>
-      </c>
-      <c r="I50" s="47" t="n">
+      <c r="F50" s="38" t="n">
         <v>30.46778</v>
       </c>
-      <c r="J50" s="83" t="n">
+      <c r="G50" s="71" t="n">
         <v>31.55206</v>
       </c>
-      <c r="K50" s="45" t="n">
-        <v>31.50937</v>
-      </c>
-      <c r="L50" s="47" t="n">
+      <c r="H50" s="38" t="n">
         <v>30.46778</v>
       </c>
-      <c r="M50" s="48" t="n">
+      <c r="I50" s="43" t="n">
         <v>31.18206</v>
+      </c>
+      <c r="J50" s="79" t="n">
+        <v>33.19755</v>
       </c>
     </row>
     <row r="51">
@@ -3769,9 +3244,6 @@
       <c r="H51" s="3" t="n"/>
       <c r="I51" s="3" t="n"/>
       <c r="J51" s="3" t="n"/>
-      <c r="K51" s="3" t="n"/>
-      <c r="L51" s="3" t="n"/>
-      <c r="M51" s="3" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="5" t="inlineStr">
@@ -3782,37 +3254,28 @@
       <c r="B52" s="6" t="n">
         <v>130.07759</v>
       </c>
-      <c r="C52" s="37" t="n">
-        <v>98.13951</v>
-      </c>
-      <c r="D52" s="37" t="n">
+      <c r="C52" s="83" t="n">
         <v>98.03301</v>
       </c>
-      <c r="E52" s="96" t="n">
+      <c r="D52" s="84" t="n">
         <v>99.29813</v>
       </c>
-      <c r="F52" s="27" t="n">
-        <v>81.96151</v>
-      </c>
-      <c r="G52" s="64" t="n">
+      <c r="E52" s="53" t="n">
         <v>73.02263000000001</v>
       </c>
-      <c r="H52" s="12" t="n">
+      <c r="F52" s="11" t="n">
         <v>130.7468</v>
       </c>
-      <c r="I52" s="12" t="n">
+      <c r="G52" s="85" t="n">
+        <v>99.52021000000001</v>
+      </c>
+      <c r="H52" s="11" t="n">
         <v>130.7468</v>
       </c>
-      <c r="J52" s="97" t="n">
+      <c r="I52" s="85" t="n">
         <v>99.52021000000001</v>
       </c>
-      <c r="K52" s="12" t="n">
-        <v>130.7468</v>
-      </c>
-      <c r="L52" s="12" t="n">
-        <v>130.7468</v>
-      </c>
-      <c r="M52" s="97" t="n">
+      <c r="J52" s="85" t="n">
         <v>99.52021000000001</v>
       </c>
     </row>
@@ -3825,38 +3288,29 @@
       <c r="B53" s="6" t="n">
         <v>129.44335</v>
       </c>
-      <c r="C53" s="98" t="n">
-        <v>86.99241000000001</v>
-      </c>
-      <c r="D53" s="99" t="n">
+      <c r="C53" s="86" t="n">
         <v>83.85916</v>
       </c>
-      <c r="E53" s="100" t="n">
+      <c r="D53" s="87" t="n">
         <v>99.19386</v>
       </c>
-      <c r="F53" s="18" t="n">
-        <v>75.07709</v>
-      </c>
-      <c r="G53" s="17" t="n">
+      <c r="E53" s="16" t="n">
         <v>69.66327</v>
       </c>
-      <c r="H53" s="49" t="n">
-        <v>104.50417</v>
-      </c>
-      <c r="I53" s="90" t="n">
+      <c r="F53" s="88" t="n">
         <v>101.23463</v>
       </c>
-      <c r="J53" s="96" t="n">
+      <c r="G53" s="84" t="n">
         <v>98.80894000000001</v>
       </c>
-      <c r="K53" s="56" t="n">
-        <v>103.04212</v>
-      </c>
-      <c r="L53" s="90" t="n">
+      <c r="H53" s="88" t="n">
         <v>101.23463</v>
       </c>
-      <c r="M53" s="100" t="n">
+      <c r="I53" s="87" t="n">
         <v>99.46017999999999</v>
+      </c>
+      <c r="J53" s="26" t="n">
+        <v>82.47823</v>
       </c>
     </row>
     <row r="54">
@@ -3868,44 +3322,35 @@
       <c r="B54" s="6" t="n">
         <v>128.72448</v>
       </c>
-      <c r="C54" s="20" t="n">
-        <v>83.01031999999999</v>
-      </c>
-      <c r="D54" s="28" t="n">
+      <c r="C54" s="24" t="n">
         <v>81.73676</v>
       </c>
-      <c r="E54" s="100" t="n">
+      <c r="D54" s="87" t="n">
         <v>99.09629</v>
       </c>
-      <c r="F54" s="18" t="n">
-        <v>74.79512</v>
-      </c>
-      <c r="G54" s="101" t="n">
+      <c r="E54" s="89" t="n">
         <v>68.94804999999999</v>
       </c>
-      <c r="H54" s="40" t="n">
-        <v>90.49274</v>
-      </c>
-      <c r="I54" s="98" t="n">
+      <c r="F54" s="90" t="n">
         <v>86.88974</v>
       </c>
-      <c r="J54" s="96" t="n">
+      <c r="G54" s="84" t="n">
         <v>98.32332</v>
       </c>
-      <c r="K54" s="40" t="n">
-        <v>90.49274</v>
-      </c>
-      <c r="L54" s="98" t="n">
+      <c r="H54" s="90" t="n">
         <v>86.88974</v>
       </c>
-      <c r="M54" s="94" t="n">
+      <c r="I54" s="82" t="n">
         <v>99.27643</v>
+      </c>
+      <c r="J54" s="21" t="n">
+        <v>78.1647</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>PERFORMANCE - MODEL SIZE</t>
+          <t>TEST SIZE (NODES)</t>
         </is>
       </c>
       <c r="B57" s="3" t="n"/>
@@ -3917,70 +3362,52 @@
       <c r="H57" s="3" t="n"/>
       <c r="I57" s="3" t="n"/>
       <c r="J57" s="3" t="n"/>
-      <c r="K57" s="3" t="n"/>
-      <c r="L57" s="3" t="n"/>
-      <c r="M57" s="3" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="3" t="inlineStr"/>
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>VARIANT 20</t>
+          <t>SLIM-GSGP</t>
         </is>
       </c>
       <c r="C58" s="1" t="inlineStr">
         <is>
-          <t>VARIANT 1</t>
+          <t>OMS</t>
         </is>
       </c>
       <c r="D58" s="1" t="inlineStr">
         <is>
-          <t>VARIANT 1b</t>
+          <t>LS</t>
         </is>
       </c>
       <c r="E58" s="1" t="inlineStr">
         <is>
-          <t>VARIANT 2</t>
+          <t>OMS + LS</t>
         </is>
       </c>
       <c r="F58" s="1" t="inlineStr">
         <is>
-          <t>VARIANT 3</t>
+          <t>OMS + PT</t>
         </is>
       </c>
       <c r="G58" s="1" t="inlineStr">
         <is>
-          <t>VARIANT 3b</t>
+          <t>LS + PT</t>
         </is>
       </c>
       <c r="H58" s="1" t="inlineStr">
         <is>
-          <t>VARIANT 4</t>
+          <t>OMS + PT + AS</t>
         </is>
       </c>
       <c r="I58" s="1" t="inlineStr">
         <is>
-          <t>VARIANT 4b</t>
+          <t>LS + PT + AS</t>
         </is>
       </c>
       <c r="J58" s="1" t="inlineStr">
         <is>
-          <t>VARIANT 5</t>
-        </is>
-      </c>
-      <c r="K58" s="1" t="inlineStr">
-        <is>
-          <t>VARIANT 6</t>
-        </is>
-      </c>
-      <c r="L58" s="1" t="inlineStr">
-        <is>
-          <t>VARIANT 6b</t>
-        </is>
-      </c>
-      <c r="M58" s="1" t="inlineStr">
-        <is>
-          <t>VARIANT 7</t>
+          <t>OMS + LS + PT + AS</t>
         </is>
       </c>
     </row>
@@ -3999,9 +3426,6 @@
       <c r="H59" s="3" t="n"/>
       <c r="I59" s="3" t="n"/>
       <c r="J59" s="3" t="n"/>
-      <c r="K59" s="3" t="n"/>
-      <c r="L59" s="3" t="n"/>
-      <c r="M59" s="3" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="5" t="inlineStr">
@@ -4009,41 +3433,32 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B60" s="102" t="n">
+      <c r="B60" s="91" t="n">
         <v>35</v>
       </c>
-      <c r="C60" s="103" t="n">
+      <c r="C60" s="92" t="n">
+        <v>33</v>
+      </c>
+      <c r="D60" s="93" t="n">
         <v>34</v>
       </c>
-      <c r="D60" s="104" t="n">
-        <v>33</v>
-      </c>
-      <c r="E60" s="103" t="n">
-        <v>34</v>
-      </c>
-      <c r="F60" s="105" t="n">
-        <v>27</v>
-      </c>
-      <c r="G60" s="106" t="n">
+      <c r="E60" s="94" t="n">
         <v>29</v>
       </c>
-      <c r="H60" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="I60" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="J60" s="107" t="n">
+      <c r="F60" s="95" t="n">
+        <v>3</v>
+      </c>
+      <c r="G60" s="95" t="n">
         <v>4</v>
       </c>
-      <c r="K60" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="L60" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="M60" s="107" t="n">
+      <c r="H60" s="95" t="n">
+        <v>3</v>
+      </c>
+      <c r="I60" s="95" t="n">
         <v>4</v>
+      </c>
+      <c r="J60" s="95" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="61">
@@ -4052,41 +3467,32 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B61" s="102" t="n">
+      <c r="B61" s="91" t="n">
         <v>47</v>
       </c>
-      <c r="C61" s="108" t="n">
+      <c r="C61" s="96" t="n">
         <v>45</v>
       </c>
-      <c r="D61" s="108" t="n">
-        <v>45</v>
-      </c>
-      <c r="E61" s="102" t="n">
+      <c r="D61" s="91" t="n">
         <v>47</v>
       </c>
-      <c r="F61" s="109" t="n">
-        <v>37</v>
-      </c>
-      <c r="G61" s="110" t="n">
+      <c r="E61" s="97" t="n">
         <v>39</v>
       </c>
-      <c r="H61" s="107" t="n">
-        <v>11</v>
-      </c>
-      <c r="I61" s="107" t="n">
+      <c r="F61" s="95" t="n">
         <v>13</v>
       </c>
-      <c r="J61" s="111" t="n">
+      <c r="G61" s="98" t="n">
         <v>29</v>
       </c>
-      <c r="K61" s="107" t="n">
-        <v>11</v>
-      </c>
-      <c r="L61" s="107" t="n">
+      <c r="H61" s="95" t="n">
         <v>13</v>
       </c>
-      <c r="M61" s="112" t="n">
+      <c r="I61" s="99" t="n">
         <v>25</v>
+      </c>
+      <c r="J61" s="95" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="62">
@@ -4095,40 +3501,31 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B62" s="102" t="n">
+      <c r="B62" s="91" t="n">
         <v>62</v>
       </c>
-      <c r="C62" s="113" t="n">
-        <v>67</v>
-      </c>
-      <c r="D62" s="114" t="n">
+      <c r="C62" s="100" t="n">
         <v>63</v>
       </c>
-      <c r="E62" s="115" t="n">
+      <c r="D62" s="101" t="n">
         <v>68</v>
       </c>
-      <c r="F62" s="116" t="n">
-        <v>58</v>
-      </c>
-      <c r="G62" s="114" t="n">
+      <c r="E62" s="100" t="n">
         <v>63</v>
       </c>
-      <c r="H62" s="117" t="n">
-        <v>57</v>
-      </c>
-      <c r="I62" s="118" t="n">
+      <c r="F62" s="102" t="n">
         <v>54</v>
       </c>
-      <c r="J62" s="119" t="n">
+      <c r="G62" s="103" t="n">
         <v>56</v>
       </c>
-      <c r="K62" s="119" t="n">
-        <v>56</v>
-      </c>
-      <c r="L62" s="120" t="n">
+      <c r="H62" s="104" t="n">
         <v>53</v>
       </c>
-      <c r="M62" s="118" t="n">
+      <c r="I62" s="102" t="n">
+        <v>54</v>
+      </c>
+      <c r="J62" s="102" t="n">
         <v>54</v>
       </c>
     </row>
@@ -4147,9 +3544,6 @@
       <c r="H63" s="3" t="n"/>
       <c r="I63" s="3" t="n"/>
       <c r="J63" s="3" t="n"/>
-      <c r="K63" s="3" t="n"/>
-      <c r="L63" s="3" t="n"/>
-      <c r="M63" s="3" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="5" t="inlineStr">
@@ -4157,41 +3551,32 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B64" s="102" t="n">
+      <c r="B64" s="91" t="n">
         <v>33</v>
       </c>
-      <c r="C64" s="121" t="n">
+      <c r="C64" s="105" t="n">
         <v>35</v>
       </c>
-      <c r="D64" s="121" t="n">
-        <v>35</v>
-      </c>
-      <c r="E64" s="122" t="n">
+      <c r="D64" s="106" t="n">
         <v>31</v>
       </c>
-      <c r="F64" s="122" t="n">
-        <v>31</v>
-      </c>
-      <c r="G64" s="123" t="n">
+      <c r="E64" s="107" t="n">
         <v>30</v>
       </c>
-      <c r="H64" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="I64" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="J64" s="107" t="n">
+      <c r="F64" s="95" t="n">
+        <v>3</v>
+      </c>
+      <c r="G64" s="95" t="n">
         <v>7</v>
       </c>
-      <c r="K64" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="L64" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="M64" s="107" t="n">
+      <c r="H64" s="95" t="n">
+        <v>3</v>
+      </c>
+      <c r="I64" s="95" t="n">
         <v>7</v>
+      </c>
+      <c r="J64" s="95" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="65">
@@ -4200,41 +3585,32 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B65" s="102" t="n">
+      <c r="B65" s="91" t="n">
         <v>41</v>
       </c>
-      <c r="C65" s="124" t="n">
+      <c r="C65" s="108" t="n">
         <v>42</v>
       </c>
-      <c r="D65" s="124" t="n">
-        <v>42</v>
-      </c>
-      <c r="E65" s="102" t="n">
+      <c r="D65" s="91" t="n">
         <v>41</v>
       </c>
-      <c r="F65" s="125" t="n">
-        <v>38</v>
-      </c>
-      <c r="G65" s="119" t="n">
+      <c r="E65" s="103" t="n">
         <v>37</v>
       </c>
-      <c r="H65" s="126" t="n">
+      <c r="F65" s="109" t="n">
         <v>24</v>
       </c>
-      <c r="I65" s="126" t="n">
+      <c r="G65" s="109" t="n">
         <v>24</v>
       </c>
-      <c r="J65" s="126" t="n">
+      <c r="H65" s="110" t="n">
+        <v>23</v>
+      </c>
+      <c r="I65" s="109" t="n">
         <v>24</v>
       </c>
-      <c r="K65" s="127" t="n">
-        <v>23</v>
-      </c>
-      <c r="L65" s="127" t="n">
-        <v>23</v>
-      </c>
-      <c r="M65" s="126" t="n">
-        <v>24</v>
+      <c r="J65" s="111" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="66">
@@ -4243,41 +3619,32 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B66" s="102" t="n">
+      <c r="B66" s="91" t="n">
         <v>54</v>
       </c>
-      <c r="C66" s="128" t="n">
+      <c r="C66" s="112" t="n">
         <v>53</v>
       </c>
-      <c r="D66" s="128" t="n">
-        <v>53</v>
-      </c>
-      <c r="E66" s="104" t="n">
+      <c r="D66" s="92" t="n">
         <v>51</v>
       </c>
-      <c r="F66" s="125" t="n">
+      <c r="E66" s="113" t="n">
+        <v>52</v>
+      </c>
+      <c r="F66" s="92" t="n">
+        <v>51</v>
+      </c>
+      <c r="G66" s="114" t="n">
         <v>50</v>
       </c>
-      <c r="G66" s="129" t="n">
-        <v>52</v>
-      </c>
-      <c r="H66" s="104" t="n">
+      <c r="H66" s="92" t="n">
         <v>51</v>
       </c>
-      <c r="I66" s="104" t="n">
+      <c r="I66" s="114" t="n">
+        <v>50</v>
+      </c>
+      <c r="J66" s="92" t="n">
         <v>51</v>
-      </c>
-      <c r="J66" s="125" t="n">
-        <v>50</v>
-      </c>
-      <c r="K66" s="125" t="n">
-        <v>50</v>
-      </c>
-      <c r="L66" s="104" t="n">
-        <v>51</v>
-      </c>
-      <c r="M66" s="125" t="n">
-        <v>50</v>
       </c>
     </row>
     <row r="67">
@@ -4295,9 +3662,6 @@
       <c r="H67" s="3" t="n"/>
       <c r="I67" s="3" t="n"/>
       <c r="J67" s="3" t="n"/>
-      <c r="K67" s="3" t="n"/>
-      <c r="L67" s="3" t="n"/>
-      <c r="M67" s="3" t="n"/>
     </row>
     <row r="68">
       <c r="A68" s="5" t="inlineStr">
@@ -4305,41 +3669,32 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B68" s="102" t="n">
+      <c r="B68" s="91" t="n">
         <v>27</v>
       </c>
-      <c r="C68" s="102" t="n">
+      <c r="C68" s="91" t="n">
         <v>27</v>
       </c>
-      <c r="D68" s="102" t="n">
+      <c r="D68" s="91" t="n">
         <v>27</v>
       </c>
-      <c r="E68" s="102" t="n">
+      <c r="E68" s="91" t="n">
         <v>27</v>
       </c>
-      <c r="F68" s="102" t="n">
-        <v>27</v>
-      </c>
-      <c r="G68" s="102" t="n">
-        <v>27</v>
-      </c>
-      <c r="H68" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="I68" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="J68" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="K68" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="L68" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="M68" s="107" t="n">
+      <c r="F68" s="95" t="n">
+        <v>3</v>
+      </c>
+      <c r="G68" s="95" t="n">
+        <v>3</v>
+      </c>
+      <c r="H68" s="95" t="n">
+        <v>3</v>
+      </c>
+      <c r="I68" s="95" t="n">
         <v>4</v>
+      </c>
+      <c r="J68" s="95" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -4348,41 +3703,32 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B69" s="102" t="n">
+      <c r="B69" s="91" t="n">
         <v>35</v>
       </c>
-      <c r="C69" s="130" t="n">
+      <c r="C69" s="115" t="n">
         <v>31</v>
       </c>
-      <c r="D69" s="130" t="n">
-        <v>31</v>
-      </c>
-      <c r="E69" s="102" t="n">
+      <c r="D69" s="91" t="n">
         <v>35</v>
       </c>
-      <c r="F69" s="102" t="n">
+      <c r="E69" s="91" t="n">
         <v>35</v>
       </c>
-      <c r="G69" s="102" t="n">
-        <v>35</v>
-      </c>
-      <c r="H69" s="107" t="n">
+      <c r="F69" s="95" t="n">
         <v>11</v>
       </c>
-      <c r="I69" s="107" t="n">
+      <c r="G69" s="116" t="n">
+        <v>23</v>
+      </c>
+      <c r="H69" s="95" t="n">
         <v>11</v>
       </c>
-      <c r="J69" s="131" t="n">
-        <v>23</v>
-      </c>
-      <c r="K69" s="107" t="n">
-        <v>11</v>
-      </c>
-      <c r="L69" s="107" t="n">
-        <v>11</v>
-      </c>
-      <c r="M69" s="132" t="n">
+      <c r="I69" s="117" t="n">
         <v>20</v>
+      </c>
+      <c r="J69" s="118" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="70">
@@ -4391,40 +3737,31 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B70" s="102" t="n">
+      <c r="B70" s="91" t="n">
         <v>39</v>
       </c>
-      <c r="C70" s="102" t="n">
+      <c r="C70" s="91" t="n">
         <v>39</v>
       </c>
-      <c r="D70" s="102" t="n">
+      <c r="D70" s="119" t="n">
+        <v>41</v>
+      </c>
+      <c r="E70" s="120" t="n">
+        <v>43</v>
+      </c>
+      <c r="F70" s="119" t="n">
+        <v>41</v>
+      </c>
+      <c r="G70" s="120" t="n">
+        <v>43</v>
+      </c>
+      <c r="H70" s="91" t="n">
         <v>39</v>
       </c>
-      <c r="E70" s="133" t="n">
-        <v>41</v>
-      </c>
-      <c r="F70" s="133" t="n">
-        <v>41</v>
-      </c>
-      <c r="G70" s="134" t="n">
+      <c r="I70" s="120" t="n">
         <v>43</v>
       </c>
-      <c r="H70" s="102" t="n">
-        <v>39</v>
-      </c>
-      <c r="I70" s="133" t="n">
-        <v>41</v>
-      </c>
-      <c r="J70" s="134" t="n">
-        <v>43</v>
-      </c>
-      <c r="K70" s="102" t="n">
-        <v>39</v>
-      </c>
-      <c r="L70" s="102" t="n">
-        <v>39</v>
-      </c>
-      <c r="M70" s="134" t="n">
+      <c r="J70" s="120" t="n">
         <v>43</v>
       </c>
     </row>
@@ -4443,9 +3780,6 @@
       <c r="H71" s="3" t="n"/>
       <c r="I71" s="3" t="n"/>
       <c r="J71" s="3" t="n"/>
-      <c r="K71" s="3" t="n"/>
-      <c r="L71" s="3" t="n"/>
-      <c r="M71" s="3" t="n"/>
     </row>
     <row r="72">
       <c r="A72" s="5" t="inlineStr">
@@ -4453,40 +3787,31 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B72" s="102" t="n">
+      <c r="B72" s="91" t="n">
         <v>15</v>
       </c>
-      <c r="C72" s="135" t="n">
+      <c r="C72" s="121" t="n">
         <v>27</v>
       </c>
-      <c r="D72" s="135" t="n">
-        <v>27</v>
-      </c>
-      <c r="E72" s="135" t="n">
+      <c r="D72" s="121" t="n">
         <v>25</v>
       </c>
-      <c r="F72" s="135" t="n">
+      <c r="E72" s="121" t="n">
         <v>25</v>
       </c>
-      <c r="G72" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="H72" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="I72" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="J72" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="K72" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="L72" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="M72" s="107" t="n">
+      <c r="F72" s="95" t="n">
+        <v>3</v>
+      </c>
+      <c r="G72" s="95" t="n">
+        <v>3</v>
+      </c>
+      <c r="H72" s="95" t="n">
+        <v>3</v>
+      </c>
+      <c r="I72" s="95" t="n">
+        <v>3</v>
+      </c>
+      <c r="J72" s="95" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4496,41 +3821,32 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B73" s="102" t="n">
+      <c r="B73" s="91" t="n">
         <v>24</v>
       </c>
-      <c r="C73" s="136" t="n">
+      <c r="C73" s="122" t="n">
         <v>33</v>
       </c>
-      <c r="D73" s="136" t="n">
-        <v>33</v>
-      </c>
-      <c r="E73" s="137" t="n">
+      <c r="D73" s="123" t="n">
         <v>31</v>
       </c>
-      <c r="F73" s="137" t="n">
+      <c r="E73" s="123" t="n">
         <v>31</v>
       </c>
-      <c r="G73" s="137" t="n">
-        <v>31</v>
-      </c>
-      <c r="H73" s="138" t="n">
+      <c r="F73" s="95" t="n">
+        <v>11</v>
+      </c>
+      <c r="G73" s="124" t="n">
+        <v>15</v>
+      </c>
+      <c r="H73" s="95" t="n">
+        <v>11</v>
+      </c>
+      <c r="I73" s="125" t="n">
+        <v>17</v>
+      </c>
+      <c r="J73" s="126" t="n">
         <v>13</v>
-      </c>
-      <c r="I73" s="107" t="n">
-        <v>11</v>
-      </c>
-      <c r="J73" s="139" t="n">
-        <v>15</v>
-      </c>
-      <c r="K73" s="138" t="n">
-        <v>13</v>
-      </c>
-      <c r="L73" s="107" t="n">
-        <v>11</v>
-      </c>
-      <c r="M73" s="140" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="74">
@@ -4539,41 +3855,32 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B74" s="102" t="n">
+      <c r="B74" s="91" t="n">
         <v>39</v>
       </c>
-      <c r="C74" s="141" t="n">
+      <c r="C74" s="127" t="n">
         <v>45</v>
       </c>
-      <c r="D74" s="141" t="n">
-        <v>45</v>
-      </c>
-      <c r="E74" s="134" t="n">
+      <c r="D74" s="120" t="n">
         <v>43</v>
       </c>
-      <c r="F74" s="134" t="n">
-        <v>43</v>
-      </c>
-      <c r="G74" s="133" t="n">
+      <c r="E74" s="119" t="n">
         <v>41</v>
       </c>
-      <c r="H74" s="141" t="n">
-        <v>45</v>
-      </c>
-      <c r="I74" s="133" t="n">
+      <c r="F74" s="119" t="n">
         <v>41</v>
       </c>
-      <c r="J74" s="133" t="n">
+      <c r="G74" s="119" t="n">
         <v>41</v>
       </c>
-      <c r="K74" s="142" t="n">
-        <v>44</v>
-      </c>
-      <c r="L74" s="133" t="n">
+      <c r="H74" s="119" t="n">
         <v>41</v>
       </c>
-      <c r="M74" s="133" t="n">
+      <c r="I74" s="119" t="n">
         <v>41</v>
+      </c>
+      <c r="J74" s="91" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="75">
@@ -4591,9 +3898,6 @@
       <c r="H75" s="3" t="n"/>
       <c r="I75" s="3" t="n"/>
       <c r="J75" s="3" t="n"/>
-      <c r="K75" s="3" t="n"/>
-      <c r="L75" s="3" t="n"/>
-      <c r="M75" s="3" t="n"/>
     </row>
     <row r="76">
       <c r="A76" s="5" t="inlineStr">
@@ -4601,40 +3905,31 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B76" s="102" t="n">
+      <c r="B76" s="91" t="n">
         <v>33</v>
       </c>
-      <c r="C76" s="123" t="n">
+      <c r="C76" s="107" t="n">
         <v>30</v>
       </c>
-      <c r="D76" s="123" t="n">
+      <c r="D76" s="107" t="n">
         <v>30</v>
       </c>
-      <c r="E76" s="123" t="n">
-        <v>30</v>
-      </c>
-      <c r="F76" s="143" t="n">
-        <v>28</v>
-      </c>
-      <c r="G76" s="144" t="n">
+      <c r="E76" s="128" t="n">
         <v>25</v>
       </c>
-      <c r="H76" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="I76" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="J76" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="K76" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="L76" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="M76" s="107" t="n">
+      <c r="F76" s="95" t="n">
+        <v>3</v>
+      </c>
+      <c r="G76" s="95" t="n">
+        <v>3</v>
+      </c>
+      <c r="H76" s="95" t="n">
+        <v>3</v>
+      </c>
+      <c r="I76" s="95" t="n">
+        <v>3</v>
+      </c>
+      <c r="J76" s="95" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4644,41 +3939,32 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B77" s="102" t="n">
+      <c r="B77" s="91" t="n">
         <v>39</v>
       </c>
-      <c r="C77" s="145" t="n">
+      <c r="C77" s="129" t="n">
+        <v>38</v>
+      </c>
+      <c r="D77" s="130" t="n">
         <v>37</v>
       </c>
-      <c r="D77" s="146" t="n">
-        <v>38</v>
-      </c>
-      <c r="E77" s="145" t="n">
-        <v>37</v>
-      </c>
-      <c r="F77" s="145" t="n">
-        <v>37</v>
-      </c>
-      <c r="G77" s="117" t="n">
+      <c r="E77" s="131" t="n">
         <v>36</v>
       </c>
-      <c r="H77" s="107" t="n">
-        <v>13</v>
-      </c>
-      <c r="I77" s="107" t="n">
+      <c r="F77" s="95" t="n">
         <v>11</v>
       </c>
-      <c r="J77" s="147" t="n">
+      <c r="G77" s="132" t="n">
         <v>25</v>
       </c>
-      <c r="K77" s="107" t="n">
-        <v>12</v>
-      </c>
-      <c r="L77" s="107" t="n">
+      <c r="H77" s="95" t="n">
         <v>11</v>
       </c>
-      <c r="M77" s="148" t="n">
+      <c r="I77" s="133" t="n">
         <v>23</v>
+      </c>
+      <c r="J77" s="134" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="78">
@@ -4687,41 +3973,32 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B78" s="102" t="n">
+      <c r="B78" s="91" t="n">
         <v>53</v>
       </c>
-      <c r="C78" s="128" t="n">
-        <v>52</v>
-      </c>
-      <c r="D78" s="149" t="n">
+      <c r="C78" s="135" t="n">
         <v>55</v>
       </c>
-      <c r="E78" s="149" t="n">
+      <c r="D78" s="135" t="n">
         <v>55</v>
       </c>
-      <c r="F78" s="149" t="n">
+      <c r="E78" s="136" t="n">
+        <v>54</v>
+      </c>
+      <c r="F78" s="135" t="n">
         <v>55</v>
       </c>
-      <c r="G78" s="150" t="n">
-        <v>54</v>
-      </c>
-      <c r="H78" s="102" t="n">
-        <v>53</v>
-      </c>
-      <c r="I78" s="149" t="n">
-        <v>55</v>
-      </c>
-      <c r="J78" s="123" t="n">
+      <c r="G78" s="107" t="n">
         <v>48</v>
       </c>
-      <c r="K78" s="129" t="n">
+      <c r="H78" s="113" t="n">
         <v>51</v>
       </c>
-      <c r="L78" s="129" t="n">
-        <v>51</v>
-      </c>
-      <c r="M78" s="130" t="n">
+      <c r="I78" s="115" t="n">
         <v>47</v>
+      </c>
+      <c r="J78" s="107" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="79">
@@ -4739,9 +4016,6 @@
       <c r="H79" s="3" t="n"/>
       <c r="I79" s="3" t="n"/>
       <c r="J79" s="3" t="n"/>
-      <c r="K79" s="3" t="n"/>
-      <c r="L79" s="3" t="n"/>
-      <c r="M79" s="3" t="n"/>
     </row>
     <row r="80">
       <c r="A80" s="5" t="inlineStr">
@@ -4749,41 +4023,32 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B80" s="102" t="n">
+      <c r="B80" s="91" t="n">
         <v>34</v>
       </c>
-      <c r="C80" s="151" t="n">
-        <v>30</v>
-      </c>
-      <c r="D80" s="152" t="n">
+      <c r="C80" s="137" t="n">
         <v>28</v>
       </c>
-      <c r="E80" s="153" t="n">
+      <c r="D80" s="138" t="n">
         <v>27</v>
       </c>
-      <c r="F80" s="152" t="n">
+      <c r="E80" s="137" t="n">
         <v>28</v>
       </c>
-      <c r="G80" s="152" t="n">
-        <v>28</v>
-      </c>
-      <c r="H80" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="I80" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="J80" s="107" t="n">
+      <c r="F80" s="95" t="n">
+        <v>3</v>
+      </c>
+      <c r="G80" s="95" t="n">
         <v>5</v>
       </c>
-      <c r="K80" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="L80" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="M80" s="107" t="n">
+      <c r="H80" s="95" t="n">
+        <v>3</v>
+      </c>
+      <c r="I80" s="95" t="n">
         <v>5</v>
+      </c>
+      <c r="J80" s="95" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="81">
@@ -4792,41 +4057,32 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B81" s="102" t="n">
+      <c r="B81" s="91" t="n">
         <v>43</v>
       </c>
-      <c r="C81" s="130" t="n">
-        <v>38</v>
-      </c>
-      <c r="D81" s="154" t="n">
+      <c r="C81" s="139" t="n">
         <v>36</v>
       </c>
-      <c r="E81" s="155" t="n">
+      <c r="D81" s="140" t="n">
         <v>35</v>
       </c>
-      <c r="F81" s="155" t="n">
-        <v>35</v>
-      </c>
-      <c r="G81" s="156" t="n">
+      <c r="E81" s="141" t="n">
         <v>37</v>
       </c>
-      <c r="H81" s="107" t="n">
+      <c r="F81" s="95" t="n">
         <v>13</v>
       </c>
-      <c r="I81" s="107" t="n">
-        <v>13</v>
-      </c>
-      <c r="J81" s="157" t="n">
+      <c r="G81" s="142" t="n">
         <v>24</v>
       </c>
-      <c r="K81" s="107" t="n">
+      <c r="H81" s="95" t="n">
         <v>11</v>
       </c>
-      <c r="L81" s="107" t="n">
-        <v>11</v>
-      </c>
-      <c r="M81" s="112" t="n">
+      <c r="I81" s="99" t="n">
         <v>23</v>
+      </c>
+      <c r="J81" s="95" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="82">
@@ -4835,40 +4091,31 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B82" s="102" t="n">
+      <c r="B82" s="91" t="n">
         <v>55</v>
       </c>
-      <c r="C82" s="125" t="n">
+      <c r="C82" s="107" t="n">
+        <v>50</v>
+      </c>
+      <c r="D82" s="143" t="n">
+        <v>49</v>
+      </c>
+      <c r="E82" s="113" t="n">
+        <v>53</v>
+      </c>
+      <c r="F82" s="114" t="n">
         <v>51</v>
       </c>
-      <c r="D82" s="123" t="n">
+      <c r="G82" s="113" t="n">
+        <v>53</v>
+      </c>
+      <c r="H82" s="107" t="n">
         <v>50</v>
       </c>
-      <c r="E82" s="158" t="n">
-        <v>49</v>
-      </c>
-      <c r="F82" s="158" t="n">
-        <v>49</v>
-      </c>
-      <c r="G82" s="129" t="n">
-        <v>53</v>
-      </c>
-      <c r="H82" s="123" t="n">
+      <c r="I82" s="107" t="n">
         <v>50</v>
       </c>
-      <c r="I82" s="125" t="n">
-        <v>51</v>
-      </c>
-      <c r="J82" s="129" t="n">
-        <v>53</v>
-      </c>
-      <c r="K82" s="120" t="n">
-        <v>47</v>
-      </c>
-      <c r="L82" s="123" t="n">
-        <v>50</v>
-      </c>
-      <c r="M82" s="123" t="n">
+      <c r="J82" s="107" t="n">
         <v>50</v>
       </c>
     </row>
@@ -4887,9 +4134,6 @@
       <c r="H83" s="3" t="n"/>
       <c r="I83" s="3" t="n"/>
       <c r="J83" s="3" t="n"/>
-      <c r="K83" s="3" t="n"/>
-      <c r="L83" s="3" t="n"/>
-      <c r="M83" s="3" t="n"/>
     </row>
     <row r="84">
       <c r="A84" s="5" t="inlineStr">
@@ -4897,40 +4141,31 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B84" s="102" t="n">
+      <c r="B84" s="91" t="n">
         <v>34</v>
       </c>
-      <c r="C84" s="159" t="n">
-        <v>32</v>
-      </c>
-      <c r="D84" s="103" t="n">
+      <c r="C84" s="93" t="n">
         <v>33</v>
       </c>
-      <c r="E84" s="160" t="n">
+      <c r="D84" s="144" t="n">
         <v>25</v>
       </c>
-      <c r="F84" s="127" t="n">
+      <c r="E84" s="110" t="n">
         <v>19</v>
       </c>
-      <c r="G84" s="127" t="n">
-        <v>19</v>
-      </c>
-      <c r="H84" s="107" t="n">
+      <c r="F84" s="95" t="n">
         <v>5</v>
       </c>
-      <c r="I84" s="107" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="K84" s="107" t="n">
+      <c r="G84" s="95" t="n">
+        <v>3</v>
+      </c>
+      <c r="H84" s="95" t="n">
         <v>4</v>
       </c>
-      <c r="L84" s="107" t="n">
-        <v>4</v>
-      </c>
-      <c r="M84" s="107" t="n">
+      <c r="I84" s="95" t="n">
+        <v>3</v>
+      </c>
+      <c r="J84" s="95" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4940,41 +4175,32 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B85" s="102" t="n">
+      <c r="B85" s="91" t="n">
         <v>46</v>
       </c>
-      <c r="C85" s="118" t="n">
-        <v>40</v>
-      </c>
-      <c r="D85" s="143" t="n">
+      <c r="C85" s="145" t="n">
         <v>39</v>
       </c>
-      <c r="E85" s="161" t="n">
+      <c r="D85" s="146" t="n">
         <v>34</v>
       </c>
-      <c r="F85" s="162" t="n">
-        <v>28</v>
-      </c>
-      <c r="G85" s="163" t="n">
+      <c r="E85" s="147" t="n">
         <v>27</v>
       </c>
-      <c r="H85" s="107" t="n">
+      <c r="F85" s="95" t="n">
         <v>12</v>
       </c>
-      <c r="I85" s="107" t="n">
-        <v>12</v>
-      </c>
-      <c r="J85" s="107" t="n">
+      <c r="G85" s="95" t="n">
         <v>17</v>
       </c>
-      <c r="K85" s="107" t="n">
+      <c r="H85" s="95" t="n">
         <v>11</v>
       </c>
-      <c r="L85" s="107" t="n">
-        <v>11</v>
-      </c>
-      <c r="M85" s="107" t="n">
+      <c r="I85" s="95" t="n">
         <v>17</v>
+      </c>
+      <c r="J85" s="95" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="86">
@@ -4983,41 +4209,32 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B86" s="102" t="n">
+      <c r="B86" s="91" t="n">
         <v>57</v>
       </c>
-      <c r="C86" s="164" t="n">
-        <v>55</v>
-      </c>
-      <c r="D86" s="165" t="n">
+      <c r="C86" s="148" t="n">
         <v>53</v>
       </c>
-      <c r="E86" s="166" t="n">
+      <c r="D86" s="149" t="n">
         <v>46</v>
       </c>
-      <c r="F86" s="167" t="n">
-        <v>43</v>
-      </c>
-      <c r="G86" s="168" t="n">
+      <c r="E86" s="150" t="n">
         <v>48</v>
       </c>
-      <c r="H86" s="165" t="n">
+      <c r="F86" s="148" t="n">
         <v>53</v>
       </c>
-      <c r="I86" s="165" t="n">
-        <v>53</v>
-      </c>
-      <c r="J86" s="169" t="n">
+      <c r="G86" s="151" t="n">
         <v>45</v>
       </c>
-      <c r="K86" s="165" t="n">
-        <v>53</v>
-      </c>
-      <c r="L86" s="170" t="n">
+      <c r="H86" s="152" t="n">
         <v>51</v>
       </c>
-      <c r="M86" s="171" t="n">
+      <c r="I86" s="153" t="n">
         <v>41</v>
+      </c>
+      <c r="J86" s="154" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="87">
@@ -5035,9 +4252,6 @@
       <c r="H87" s="3" t="n"/>
       <c r="I87" s="3" t="n"/>
       <c r="J87" s="3" t="n"/>
-      <c r="K87" s="3" t="n"/>
-      <c r="L87" s="3" t="n"/>
-      <c r="M87" s="3" t="n"/>
     </row>
     <row r="88">
       <c r="A88" s="5" t="inlineStr">
@@ -5045,40 +4259,31 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B88" s="102" t="n">
+      <c r="B88" s="91" t="n">
         <v>33</v>
       </c>
-      <c r="C88" s="172" t="n">
+      <c r="C88" s="155" t="n">
+        <v>27</v>
+      </c>
+      <c r="D88" s="156" t="n">
         <v>29</v>
       </c>
-      <c r="D88" s="173" t="n">
-        <v>27</v>
-      </c>
-      <c r="E88" s="172" t="n">
+      <c r="E88" s="156" t="n">
         <v>29</v>
       </c>
-      <c r="F88" s="172" t="n">
-        <v>29</v>
-      </c>
-      <c r="G88" s="172" t="n">
-        <v>29</v>
-      </c>
-      <c r="H88" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="I88" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="J88" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="K88" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="L88" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="M88" s="107" t="n">
+      <c r="F88" s="95" t="n">
+        <v>3</v>
+      </c>
+      <c r="G88" s="95" t="n">
+        <v>3</v>
+      </c>
+      <c r="H88" s="95" t="n">
+        <v>3</v>
+      </c>
+      <c r="I88" s="95" t="n">
+        <v>3</v>
+      </c>
+      <c r="J88" s="95" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5088,41 +4293,32 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B89" s="102" t="n">
+      <c r="B89" s="91" t="n">
         <v>41</v>
       </c>
-      <c r="C89" s="119" t="n">
+      <c r="C89" s="97" t="n">
+        <v>34</v>
+      </c>
+      <c r="D89" s="157" t="n">
+        <v>39</v>
+      </c>
+      <c r="E89" s="103" t="n">
         <v>37</v>
       </c>
-      <c r="D89" s="110" t="n">
-        <v>34</v>
-      </c>
-      <c r="E89" s="174" t="n">
-        <v>39</v>
-      </c>
-      <c r="F89" s="119" t="n">
-        <v>37</v>
-      </c>
-      <c r="G89" s="119" t="n">
-        <v>37</v>
-      </c>
-      <c r="H89" s="107" t="n">
-        <v>13</v>
-      </c>
-      <c r="I89" s="107" t="n">
+      <c r="F89" s="95" t="n">
         <v>11</v>
       </c>
-      <c r="J89" s="175" t="n">
+      <c r="G89" s="111" t="n">
         <v>21</v>
       </c>
-      <c r="K89" s="107" t="n">
-        <v>13</v>
-      </c>
-      <c r="L89" s="107" t="n">
+      <c r="H89" s="95" t="n">
         <v>11</v>
       </c>
-      <c r="M89" s="107" t="n">
+      <c r="I89" s="95" t="n">
         <v>19</v>
+      </c>
+      <c r="J89" s="95" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="90">
@@ -5131,41 +4327,32 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B90" s="102" t="n">
+      <c r="B90" s="91" t="n">
         <v>51</v>
       </c>
-      <c r="C90" s="176" t="n">
-        <v>52</v>
-      </c>
-      <c r="D90" s="129" t="n">
+      <c r="C90" s="113" t="n">
         <v>49</v>
       </c>
-      <c r="E90" s="177" t="n">
+      <c r="D90" s="158" t="n">
         <v>54</v>
       </c>
-      <c r="F90" s="113" t="n">
-        <v>55</v>
-      </c>
-      <c r="G90" s="177" t="n">
+      <c r="E90" s="158" t="n">
         <v>54</v>
       </c>
-      <c r="H90" s="117" t="n">
+      <c r="F90" s="131" t="n">
         <v>47</v>
       </c>
-      <c r="I90" s="117" t="n">
-        <v>47</v>
+      <c r="G90" s="159" t="n">
+        <v>48</v>
+      </c>
+      <c r="H90" s="103" t="n">
+        <v>46</v>
+      </c>
+      <c r="I90" s="113" t="n">
+        <v>49</v>
       </c>
       <c r="J90" s="159" t="n">
         <v>48</v>
-      </c>
-      <c r="K90" s="117" t="n">
-        <v>47</v>
-      </c>
-      <c r="L90" s="119" t="n">
-        <v>46</v>
-      </c>
-      <c r="M90" s="129" t="n">
-        <v>49</v>
       </c>
     </row>
     <row r="91">
@@ -5183,9 +4370,6 @@
       <c r="H91" s="3" t="n"/>
       <c r="I91" s="3" t="n"/>
       <c r="J91" s="3" t="n"/>
-      <c r="K91" s="3" t="n"/>
-      <c r="L91" s="3" t="n"/>
-      <c r="M91" s="3" t="n"/>
     </row>
     <row r="92">
       <c r="A92" s="5" t="inlineStr">
@@ -5193,40 +4377,31 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B92" s="102" t="n">
+      <c r="B92" s="91" t="n">
         <v>31</v>
       </c>
-      <c r="C92" s="102" t="n">
+      <c r="C92" s="160" t="n">
+        <v>29</v>
+      </c>
+      <c r="D92" s="91" t="n">
         <v>31</v>
       </c>
-      <c r="D92" s="116" t="n">
-        <v>29</v>
-      </c>
-      <c r="E92" s="102" t="n">
-        <v>31</v>
-      </c>
-      <c r="F92" s="116" t="n">
-        <v>29</v>
-      </c>
-      <c r="G92" s="164" t="n">
+      <c r="E92" s="161" t="n">
         <v>30</v>
       </c>
-      <c r="H92" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="I92" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="J92" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="K92" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="L92" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="M92" s="107" t="n">
+      <c r="F92" s="95" t="n">
+        <v>3</v>
+      </c>
+      <c r="G92" s="95" t="n">
+        <v>3</v>
+      </c>
+      <c r="H92" s="95" t="n">
+        <v>3</v>
+      </c>
+      <c r="I92" s="95" t="n">
+        <v>3</v>
+      </c>
+      <c r="J92" s="95" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5236,41 +4411,32 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B93" s="102" t="n">
+      <c r="B93" s="91" t="n">
         <v>39</v>
       </c>
-      <c r="C93" s="145" t="n">
+      <c r="C93" s="130" t="n">
         <v>37</v>
       </c>
-      <c r="D93" s="145" t="n">
-        <v>37</v>
-      </c>
-      <c r="E93" s="102" t="n">
+      <c r="D93" s="91" t="n">
         <v>39</v>
       </c>
-      <c r="F93" s="178" t="n">
-        <v>33</v>
-      </c>
-      <c r="G93" s="146" t="n">
+      <c r="E93" s="129" t="n">
         <v>38</v>
       </c>
-      <c r="H93" s="107" t="n">
+      <c r="F93" s="95" t="n">
         <v>11</v>
       </c>
-      <c r="I93" s="107" t="n">
+      <c r="G93" s="162" t="n">
+        <v>22</v>
+      </c>
+      <c r="H93" s="95" t="n">
         <v>11</v>
       </c>
-      <c r="J93" s="179" t="n">
-        <v>22</v>
-      </c>
-      <c r="K93" s="107" t="n">
-        <v>11</v>
-      </c>
-      <c r="L93" s="107" t="n">
-        <v>11</v>
-      </c>
-      <c r="M93" s="107" t="n">
+      <c r="I93" s="95" t="n">
         <v>19</v>
+      </c>
+      <c r="J93" s="95" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="94">
@@ -5279,41 +4445,32 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B94" s="102" t="n">
+      <c r="B94" s="91" t="n">
         <v>49</v>
       </c>
-      <c r="C94" s="180" t="n">
+      <c r="C94" s="163" t="n">
         <v>53</v>
       </c>
-      <c r="D94" s="180" t="n">
+      <c r="D94" s="163" t="n">
         <v>53</v>
       </c>
-      <c r="E94" s="180" t="n">
+      <c r="E94" s="163" t="n">
         <v>53</v>
       </c>
-      <c r="F94" s="121" t="n">
-        <v>52</v>
-      </c>
-      <c r="G94" s="180" t="n">
-        <v>53</v>
-      </c>
-      <c r="H94" s="102" t="n">
+      <c r="F94" s="112" t="n">
+        <v>48</v>
+      </c>
+      <c r="G94" s="112" t="n">
+        <v>48</v>
+      </c>
+      <c r="H94" s="96" t="n">
+        <v>47</v>
+      </c>
+      <c r="I94" s="91" t="n">
         <v>49</v>
       </c>
-      <c r="I94" s="128" t="n">
-        <v>48</v>
-      </c>
-      <c r="J94" s="128" t="n">
-        <v>48</v>
-      </c>
-      <c r="K94" s="108" t="n">
-        <v>47</v>
-      </c>
-      <c r="L94" s="108" t="n">
-        <v>47</v>
-      </c>
-      <c r="M94" s="102" t="n">
-        <v>49</v>
+      <c r="J94" s="164" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="95">
@@ -5331,9 +4488,6 @@
       <c r="H95" s="3" t="n"/>
       <c r="I95" s="3" t="n"/>
       <c r="J95" s="3" t="n"/>
-      <c r="K95" s="3" t="n"/>
-      <c r="L95" s="3" t="n"/>
-      <c r="M95" s="3" t="n"/>
     </row>
     <row r="96">
       <c r="A96" s="5" t="inlineStr">
@@ -5341,40 +4495,31 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B96" s="102" t="n">
+      <c r="B96" s="91" t="n">
         <v>18</v>
       </c>
-      <c r="C96" s="135" t="n">
-        <v>30</v>
-      </c>
-      <c r="D96" s="135" t="n">
+      <c r="C96" s="121" t="n">
         <v>27</v>
       </c>
-      <c r="E96" s="135" t="n">
+      <c r="D96" s="121" t="n">
         <v>27</v>
       </c>
-      <c r="F96" s="135" t="n">
-        <v>27</v>
-      </c>
-      <c r="G96" s="135" t="n">
+      <c r="E96" s="121" t="n">
         <v>28</v>
       </c>
-      <c r="H96" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="I96" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="J96" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="K96" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="L96" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="M96" s="107" t="n">
+      <c r="F96" s="95" t="n">
+        <v>3</v>
+      </c>
+      <c r="G96" s="95" t="n">
+        <v>3</v>
+      </c>
+      <c r="H96" s="95" t="n">
+        <v>3</v>
+      </c>
+      <c r="I96" s="95" t="n">
+        <v>3</v>
+      </c>
+      <c r="J96" s="95" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5384,41 +4529,32 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B97" s="102" t="n">
+      <c r="B97" s="91" t="n">
         <v>29</v>
       </c>
-      <c r="C97" s="181" t="n">
-        <v>35</v>
-      </c>
-      <c r="D97" s="182" t="n">
+      <c r="C97" s="165" t="n">
         <v>34</v>
       </c>
-      <c r="E97" s="183" t="n">
+      <c r="D97" s="166" t="n">
         <v>33</v>
       </c>
-      <c r="F97" s="182" t="n">
-        <v>34</v>
-      </c>
-      <c r="G97" s="183" t="n">
+      <c r="E97" s="166" t="n">
         <v>33</v>
       </c>
-      <c r="H97" s="184" t="n">
+      <c r="F97" s="116" t="n">
+        <v>19</v>
+      </c>
+      <c r="G97" s="116" t="n">
+        <v>19</v>
+      </c>
+      <c r="H97" s="147" t="n">
+        <v>17</v>
+      </c>
+      <c r="I97" s="167" t="n">
         <v>20</v>
       </c>
-      <c r="I97" s="131" t="n">
-        <v>19</v>
-      </c>
-      <c r="J97" s="131" t="n">
-        <v>19</v>
-      </c>
-      <c r="K97" s="131" t="n">
-        <v>19</v>
-      </c>
-      <c r="L97" s="163" t="n">
-        <v>17</v>
-      </c>
-      <c r="M97" s="184" t="n">
-        <v>20</v>
+      <c r="J97" s="128" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="98">
@@ -5427,40 +4563,31 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B98" s="102" t="n">
+      <c r="B98" s="91" t="n">
         <v>42</v>
       </c>
-      <c r="C98" s="185" t="n">
-        <v>45</v>
-      </c>
-      <c r="D98" s="124" t="n">
+      <c r="C98" s="108" t="n">
         <v>43</v>
       </c>
-      <c r="E98" s="124" t="n">
+      <c r="D98" s="108" t="n">
         <v>43</v>
       </c>
-      <c r="F98" s="124" t="n">
+      <c r="E98" s="108" t="n">
         <v>43</v>
       </c>
-      <c r="G98" s="124" t="n">
+      <c r="F98" s="108" t="n">
         <v>43</v>
       </c>
-      <c r="H98" s="146" t="n">
+      <c r="G98" s="129" t="n">
         <v>41</v>
       </c>
-      <c r="I98" s="124" t="n">
+      <c r="H98" s="108" t="n">
         <v>43</v>
       </c>
-      <c r="J98" s="146" t="n">
-        <v>41</v>
-      </c>
-      <c r="K98" s="146" t="n">
-        <v>41</v>
-      </c>
-      <c r="L98" s="124" t="n">
+      <c r="I98" s="108" t="n">
         <v>43</v>
       </c>
-      <c r="M98" s="124" t="n">
+      <c r="J98" s="108" t="n">
         <v>43</v>
       </c>
     </row>
@@ -5479,9 +4606,6 @@
       <c r="H99" s="3" t="n"/>
       <c r="I99" s="3" t="n"/>
       <c r="J99" s="3" t="n"/>
-      <c r="K99" s="3" t="n"/>
-      <c r="L99" s="3" t="n"/>
-      <c r="M99" s="3" t="n"/>
     </row>
     <row r="100">
       <c r="A100" s="5" t="inlineStr">
@@ -5489,40 +4613,31 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B100" s="102" t="n">
+      <c r="B100" s="91" t="n">
         <v>33</v>
       </c>
-      <c r="C100" s="173" t="n">
+      <c r="C100" s="156" t="n">
+        <v>29</v>
+      </c>
+      <c r="D100" s="106" t="n">
+        <v>31</v>
+      </c>
+      <c r="E100" s="155" t="n">
         <v>27</v>
       </c>
-      <c r="D100" s="172" t="n">
-        <v>29</v>
-      </c>
-      <c r="E100" s="122" t="n">
-        <v>31</v>
-      </c>
-      <c r="F100" s="143" t="n">
-        <v>28</v>
-      </c>
-      <c r="G100" s="173" t="n">
-        <v>27</v>
-      </c>
-      <c r="H100" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="I100" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="J100" s="107" t="n">
+      <c r="F100" s="95" t="n">
+        <v>3</v>
+      </c>
+      <c r="G100" s="95" t="n">
         <v>5</v>
       </c>
-      <c r="K100" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="L100" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="M100" s="107" t="n">
+      <c r="H100" s="95" t="n">
+        <v>3</v>
+      </c>
+      <c r="I100" s="95" t="n">
+        <v>5</v>
+      </c>
+      <c r="J100" s="95" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5532,41 +4647,32 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B101" s="102" t="n">
+      <c r="B101" s="91" t="n">
         <v>40</v>
       </c>
-      <c r="C101" s="186" t="n">
+      <c r="C101" s="168" t="n">
         <v>35</v>
       </c>
-      <c r="D101" s="186" t="n">
-        <v>35</v>
-      </c>
-      <c r="E101" s="146" t="n">
+      <c r="D101" s="129" t="n">
         <v>39</v>
       </c>
-      <c r="F101" s="186" t="n">
-        <v>35</v>
-      </c>
-      <c r="G101" s="143" t="n">
+      <c r="E101" s="145" t="n">
         <v>34</v>
       </c>
-      <c r="H101" s="107" t="n">
-        <v>9</v>
-      </c>
-      <c r="I101" s="107" t="n">
+      <c r="F101" s="95" t="n">
         <v>11</v>
       </c>
-      <c r="J101" s="187" t="n">
+      <c r="G101" s="154" t="n">
         <v>21</v>
       </c>
-      <c r="K101" s="107" t="n">
-        <v>9</v>
-      </c>
-      <c r="L101" s="107" t="n">
+      <c r="H101" s="95" t="n">
         <v>11</v>
       </c>
-      <c r="M101" s="188" t="n">
+      <c r="I101" s="169" t="n">
         <v>23</v>
+      </c>
+      <c r="J101" s="95" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="102">
@@ -5575,41 +4681,32 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B102" s="102" t="n">
+      <c r="B102" s="91" t="n">
         <v>51</v>
       </c>
-      <c r="C102" s="151" t="n">
+      <c r="C102" s="131" t="n">
+        <v>47</v>
+      </c>
+      <c r="D102" s="91" t="n">
+        <v>51</v>
+      </c>
+      <c r="E102" s="159" t="n">
+        <v>48</v>
+      </c>
+      <c r="F102" s="170" t="n">
         <v>45</v>
       </c>
-      <c r="D102" s="117" t="n">
-        <v>47</v>
-      </c>
-      <c r="E102" s="102" t="n">
-        <v>51</v>
-      </c>
-      <c r="F102" s="117" t="n">
-        <v>47</v>
-      </c>
-      <c r="G102" s="159" t="n">
-        <v>48</v>
-      </c>
-      <c r="H102" s="151" t="n">
+      <c r="G102" s="170" t="n">
         <v>45</v>
       </c>
-      <c r="I102" s="151" t="n">
+      <c r="H102" s="170" t="n">
         <v>45</v>
       </c>
-      <c r="J102" s="151" t="n">
+      <c r="I102" s="170" t="n">
         <v>45</v>
       </c>
-      <c r="K102" s="156" t="n">
-        <v>44</v>
-      </c>
-      <c r="L102" s="151" t="n">
-        <v>45</v>
-      </c>
-      <c r="M102" s="151" t="n">
-        <v>45</v>
+      <c r="J102" s="171" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="103">
@@ -5627,9 +4724,6 @@
       <c r="H103" s="3" t="n"/>
       <c r="I103" s="3" t="n"/>
       <c r="J103" s="3" t="n"/>
-      <c r="K103" s="3" t="n"/>
-      <c r="L103" s="3" t="n"/>
-      <c r="M103" s="3" t="n"/>
     </row>
     <row r="104">
       <c r="A104" s="5" t="inlineStr">
@@ -5637,40 +4731,31 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B104" s="102" t="n">
+      <c r="B104" s="91" t="n">
         <v>27</v>
       </c>
-      <c r="C104" s="102" t="n">
+      <c r="C104" s="91" t="n">
         <v>27</v>
       </c>
-      <c r="D104" s="102" t="n">
+      <c r="D104" s="91" t="n">
         <v>27</v>
       </c>
-      <c r="E104" s="102" t="n">
+      <c r="E104" s="91" t="n">
         <v>27</v>
       </c>
-      <c r="F104" s="102" t="n">
-        <v>27</v>
-      </c>
-      <c r="G104" s="102" t="n">
-        <v>27</v>
-      </c>
-      <c r="H104" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="I104" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="J104" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="K104" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="L104" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="M104" s="107" t="n">
+      <c r="F104" s="95" t="n">
+        <v>3</v>
+      </c>
+      <c r="G104" s="95" t="n">
+        <v>3</v>
+      </c>
+      <c r="H104" s="95" t="n">
+        <v>3</v>
+      </c>
+      <c r="I104" s="95" t="n">
+        <v>3</v>
+      </c>
+      <c r="J104" s="95" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5680,41 +4765,32 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B105" s="102" t="n">
+      <c r="B105" s="91" t="n">
         <v>31</v>
       </c>
-      <c r="C105" s="189" t="n">
-        <v>33</v>
-      </c>
-      <c r="D105" s="115" t="n">
+      <c r="C105" s="101" t="n">
         <v>34</v>
       </c>
-      <c r="E105" s="102" t="n">
+      <c r="D105" s="91" t="n">
         <v>31</v>
       </c>
-      <c r="F105" s="102" t="n">
+      <c r="E105" s="91" t="n">
         <v>31</v>
       </c>
-      <c r="G105" s="102" t="n">
-        <v>31</v>
-      </c>
-      <c r="H105" s="107" t="n">
-        <v>13</v>
-      </c>
-      <c r="I105" s="107" t="n">
+      <c r="F105" s="95" t="n">
         <v>11</v>
       </c>
-      <c r="J105" s="111" t="n">
+      <c r="G105" s="98" t="n">
         <v>19</v>
       </c>
-      <c r="K105" s="107" t="n">
-        <v>13</v>
-      </c>
-      <c r="L105" s="107" t="n">
+      <c r="H105" s="95" t="n">
         <v>11</v>
       </c>
-      <c r="M105" s="190" t="n">
+      <c r="I105" s="172" t="n">
         <v>21</v>
+      </c>
+      <c r="J105" s="98" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="106">
@@ -5723,40 +4799,31 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B106" s="102" t="n">
+      <c r="B106" s="91" t="n">
         <v>39</v>
       </c>
-      <c r="C106" s="102" t="n">
+      <c r="C106" s="91" t="n">
         <v>39</v>
       </c>
-      <c r="D106" s="102" t="n">
+      <c r="D106" s="91" t="n">
         <v>39</v>
       </c>
-      <c r="E106" s="102" t="n">
+      <c r="E106" s="91" t="n">
         <v>39</v>
       </c>
-      <c r="F106" s="102" t="n">
+      <c r="F106" s="91" t="n">
         <v>39</v>
       </c>
-      <c r="G106" s="102" t="n">
+      <c r="G106" s="91" t="n">
         <v>39</v>
       </c>
-      <c r="H106" s="102" t="n">
+      <c r="H106" s="91" t="n">
         <v>39</v>
       </c>
-      <c r="I106" s="102" t="n">
+      <c r="I106" s="91" t="n">
         <v>39</v>
       </c>
-      <c r="J106" s="102" t="n">
-        <v>39</v>
-      </c>
-      <c r="K106" s="102" t="n">
-        <v>39</v>
-      </c>
-      <c r="L106" s="102" t="n">
-        <v>39</v>
-      </c>
-      <c r="M106" s="102" t="n">
+      <c r="J106" s="91" t="n">
         <v>39</v>
       </c>
     </row>
@@ -5775,9 +4842,6 @@
       <c r="H107" s="3" t="n"/>
       <c r="I107" s="3" t="n"/>
       <c r="J107" s="3" t="n"/>
-      <c r="K107" s="3" t="n"/>
-      <c r="L107" s="3" t="n"/>
-      <c r="M107" s="3" t="n"/>
     </row>
     <row r="108">
       <c r="A108" s="5" t="inlineStr">
@@ -5785,40 +4849,31 @@
           <t>Smallest</t>
         </is>
       </c>
-      <c r="B108" s="102" t="n">
+      <c r="B108" s="91" t="n">
         <v>27</v>
       </c>
-      <c r="C108" s="102" t="n">
+      <c r="C108" s="91" t="n">
         <v>27</v>
       </c>
-      <c r="D108" s="102" t="n">
+      <c r="D108" s="91" t="n">
         <v>27</v>
       </c>
-      <c r="E108" s="102" t="n">
-        <v>27</v>
-      </c>
-      <c r="F108" s="102" t="n">
-        <v>27</v>
-      </c>
-      <c r="G108" s="129" t="n">
+      <c r="E108" s="113" t="n">
         <v>26</v>
       </c>
-      <c r="H108" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="I108" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="J108" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="K108" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="L108" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="M108" s="107" t="n">
+      <c r="F108" s="95" t="n">
+        <v>3</v>
+      </c>
+      <c r="G108" s="95" t="n">
+        <v>3</v>
+      </c>
+      <c r="H108" s="95" t="n">
+        <v>3</v>
+      </c>
+      <c r="I108" s="95" t="n">
+        <v>3</v>
+      </c>
+      <c r="J108" s="95" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5828,41 +4883,32 @@
           <t>Best normalized</t>
         </is>
       </c>
-      <c r="B109" s="102" t="n">
+      <c r="B109" s="91" t="n">
         <v>35</v>
       </c>
-      <c r="C109" s="130" t="n">
+      <c r="C109" s="115" t="n">
         <v>31</v>
       </c>
-      <c r="D109" s="130" t="n">
+      <c r="D109" s="115" t="n">
         <v>31</v>
       </c>
-      <c r="E109" s="130" t="n">
+      <c r="E109" s="115" t="n">
         <v>31</v>
       </c>
-      <c r="F109" s="130" t="n">
-        <v>31</v>
-      </c>
-      <c r="G109" s="130" t="n">
-        <v>31</v>
-      </c>
-      <c r="H109" s="107" t="n">
+      <c r="F109" s="173" t="n">
+        <v>18</v>
+      </c>
+      <c r="G109" s="95" t="n">
         <v>15</v>
       </c>
-      <c r="I109" s="191" t="n">
+      <c r="H109" s="173" t="n">
         <v>18</v>
       </c>
-      <c r="J109" s="107" t="n">
-        <v>15</v>
-      </c>
-      <c r="K109" s="107" t="n">
-        <v>15</v>
-      </c>
-      <c r="L109" s="191" t="n">
-        <v>18</v>
-      </c>
-      <c r="M109" s="138" t="n">
+      <c r="I109" s="126" t="n">
         <v>19</v>
+      </c>
+      <c r="J109" s="95" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="110">
@@ -5871,41 +4917,32 @@
           <t>Best fitness</t>
         </is>
       </c>
-      <c r="B110" s="102" t="n">
+      <c r="B110" s="91" t="n">
         <v>41</v>
       </c>
-      <c r="C110" s="102" t="n">
+      <c r="C110" s="91" t="n">
         <v>41</v>
       </c>
-      <c r="D110" s="102" t="n">
+      <c r="D110" s="91" t="n">
         <v>41</v>
       </c>
-      <c r="E110" s="102" t="n">
+      <c r="E110" s="157" t="n">
+        <v>39</v>
+      </c>
+      <c r="F110" s="157" t="n">
+        <v>39</v>
+      </c>
+      <c r="G110" s="91" t="n">
         <v>41</v>
       </c>
-      <c r="F110" s="146" t="n">
-        <v>40</v>
-      </c>
-      <c r="G110" s="174" t="n">
+      <c r="H110" s="157" t="n">
         <v>39</v>
       </c>
-      <c r="H110" s="174" t="n">
-        <v>39</v>
-      </c>
-      <c r="I110" s="174" t="n">
-        <v>39</v>
-      </c>
-      <c r="J110" s="102" t="n">
+      <c r="I110" s="91" t="n">
         <v>41</v>
       </c>
-      <c r="K110" s="174" t="n">
-        <v>39</v>
-      </c>
-      <c r="L110" s="174" t="n">
-        <v>39</v>
-      </c>
-      <c r="M110" s="102" t="n">
-        <v>41</v>
+      <c r="J110" s="114" t="n">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
